--- a/Documents/UsbProtocol_EgsDeviceSettingsHidReport_HostAppSettings_PropertyList.xlsx
+++ b/Documents/UsbProtocol_EgsDeviceSettingsHidReport_HostAppSettings_PropertyList.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17329"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kishimoto\Documents\exvision\PiemonteOnMyriad\HostApplications\Windows\PublishedInGitHub\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kishimoto\Documents\Exvision\PiemonteOnMyriad\HostApplications\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -15,14 +15,14 @@
     <sheet name="UsbProtocol_EgsDeviceSettingsHi" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">UsbProtocol_EgsDeviceSettingsHi!$W$1:$W$36</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">UsbProtocol_EgsDeviceSettingsHi!$W$1:$W$59</definedName>
   </definedNames>
   <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="962" uniqueCount="443">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1508" uniqueCount="606">
   <si>
     <t>MessageId</t>
   </si>
@@ -60,6 +60,33 @@
     <t>IsToSendTouchScreenHidReport</t>
   </si>
   <si>
+    <t>FaceDetectionAreaOnFixed</t>
+  </si>
+  <si>
+    <t>FaceDetectionScaleOnFixed</t>
+  </si>
+  <si>
+    <t>IsToFixHandDetectionRegions</t>
+  </si>
+  <si>
+    <t>RightHandDetectionAreaOnFixed</t>
+  </si>
+  <si>
+    <t>RightHandDetectionScaleOnFixed</t>
+  </si>
+  <si>
+    <t>LeftHandDetectionAreaOnFixed</t>
+  </si>
+  <si>
+    <t>LeftHandDetectionScaleOnFixed</t>
+  </si>
+  <si>
+    <t>RightHandScreenMappedAreaOnFixed</t>
+  </si>
+  <si>
+    <t>LeftHandScreenMappedAreaOnFixed</t>
+  </si>
+  <si>
     <t>ReportId</t>
     <phoneticPr fontId="18"/>
   </si>
@@ -131,6 +158,10 @@
     <phoneticPr fontId="18"/>
   </si>
   <si>
+    <t>0x10</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
     <t>get by VideoInput</t>
     <phoneticPr fontId="18"/>
   </si>
@@ -179,11 +210,47 @@
     <phoneticPr fontId="18"/>
   </si>
   <si>
+    <t>0x21</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
     <t>0x40</t>
     <phoneticPr fontId="18"/>
   </si>
   <si>
     <t>0x50</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>0x50</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>0x50</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>0x20</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>0x21</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>0x30</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>0x31</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>0x80</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>0x80</t>
     <phoneticPr fontId="18"/>
   </si>
   <si>
@@ -240,6 +307,10 @@
     <phoneticPr fontId="18"/>
   </si>
   <si>
+    <t>int</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
     <t>ValueTypeOnHost</t>
     <phoneticPr fontId="18"/>
   </si>
@@ -272,6 +343,10 @@
     <phoneticPr fontId="18"/>
   </si>
   <si>
+    <t>ModelSetId</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
     <t>DataLength</t>
     <phoneticPr fontId="18"/>
   </si>
@@ -296,10 +371,38 @@
     <phoneticPr fontId="18"/>
   </si>
   <si>
+    <t>4</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>4</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
     <t>1</t>
     <phoneticPr fontId="18"/>
   </si>
   <si>
+    <t>4</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>float</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>float</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>float</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
     <t>string</t>
     <phoneticPr fontId="18"/>
   </si>
@@ -360,6 +463,10 @@
     <phoneticPr fontId="18"/>
   </si>
   <si>
+    <t>Value = false</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
     <t>0</t>
     <phoneticPr fontId="18"/>
   </si>
@@ -463,6 +570,10 @@
     <phoneticPr fontId="18"/>
   </si>
   <si>
+    <t>Model Set ID</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
     <t>Binning Mode</t>
     <phoneticPr fontId="18"/>
   </si>
@@ -475,6 +586,18 @@
     <phoneticPr fontId="18"/>
   </si>
   <si>
+    <t>Fix Face Detection Region</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>Face Detection Area (when fixed)</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>Face Detection Scale (when fixed)</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
     <t>Focal Length [mm]</t>
     <phoneticPr fontId="18"/>
   </si>
@@ -484,6 +607,38 @@
   </si>
   <si>
     <t>Exposure [ms]</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>Fix Hand Detection Regions</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>Right Hand Detection Area (when fixed)</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>Right Hand Detection Scale (when fixed)</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>Left Hand Detection Area (when fixed)</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>Left Hand Detection Scale (when fixed)</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>Fix Screen Mapped Areas</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>Right Hand Screen Mapped Area (when fixed)</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>Left Hand Screen Mapped Area (when fixed)</t>
     <phoneticPr fontId="18"/>
   </si>
   <si>
@@ -607,6 +762,10 @@
     <phoneticPr fontId="18"/>
   </si>
   <si>
+    <t>0x50</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
     <t>byte</t>
     <phoneticPr fontId="18"/>
   </si>
@@ -643,6 +802,19 @@
     <phoneticPr fontId="18"/>
   </si>
   <si>
+    <t>DeviceUsage</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>0:Gesture Camera
+1:Web Camera</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>Use ZKOO for</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
     <t>Basic</t>
     <phoneticPr fontId="18"/>
   </si>
@@ -667,6 +839,16 @@
     <phoneticPr fontId="18"/>
   </si>
   <si>
+    <t>Exvision
+(Advanced?)</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>Exvision
+(Advanced)</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
     <t>false</t>
     <phoneticPr fontId="18"/>
   </si>
@@ -687,6 +869,10 @@
   </si>
   <si>
     <t>0x10</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>0x90</t>
     <phoneticPr fontId="18"/>
   </si>
   <si>
@@ -840,6 +1026,10 @@
     <phoneticPr fontId="18"/>
   </si>
   <si>
+    <t>-/2</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
     <t>2/2</t>
     <phoneticPr fontId="18"/>
   </si>
@@ -872,6 +1062,10 @@
     <phoneticPr fontId="18"/>
   </si>
   <si>
+    <t>-/2</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
     <t>1/3</t>
     <phoneticPr fontId="18"/>
   </si>
@@ -880,6 +1074,18 @@
     <phoneticPr fontId="18"/>
   </si>
   <si>
+    <t>-/2</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>-/2</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>-/2</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
     <t>2/-</t>
     <phoneticPr fontId="18"/>
   </si>
@@ -1013,6 +1219,77 @@
   </si>
   <si>
     <t>HidAccessPropertyRect</t>
+  </si>
+  <si>
+    <t>HidAccessPropertyRatioRect</t>
+  </si>
+  <si>
+    <t>0xD1</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>0x00</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>6</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>0x01</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>0x10</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>0x11</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>0x12</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>false</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>2/2</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>RightHandOuterRotation</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>RightHandInnerRotation</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>RightHandCloseHand</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>LeftHandOuterRotation</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>LeftHandInnerRotation</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>LeftHandCloseHand</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>Completed</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>No need</t>
+    <phoneticPr fontId="18"/>
   </si>
   <si>
     <t>HidDeviceDevicePath</t>
@@ -1021,6 +1298,10 @@
   <si>
     <t>Users can set
 THROUGH VideoInput</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>true</t>
     <phoneticPr fontId="18"/>
   </si>
   <si>
@@ -1106,6 +1387,30 @@
     <phoneticPr fontId="18"/>
   </si>
   <si>
+    <t>Right Hand Outer Rotation</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>Right Hand Inner Rotation</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>Left Hand Outer Rotation</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>Left Hand Inner Rotation</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>Right Hand Close Hand</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>Left Hand Close Hand</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
     <t>1.0</t>
     <phoneticPr fontId="18"/>
   </si>
@@ -1241,6 +1546,10 @@
     <phoneticPr fontId="18"/>
   </si>
   <si>
+    <t>Completed</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
     <t>Description_</t>
     <phoneticPr fontId="18"/>
   </si>
@@ -1293,6 +1602,10 @@
     <phoneticPr fontId="18"/>
   </si>
   <si>
+    <t>ZKOOデバイスのモード</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
     <t>顔を検出する</t>
     <rPh sb="0" eb="1">
       <t>カオ</t>
@@ -1480,6 +1793,51 @@
     <phoneticPr fontId="18"/>
   </si>
   <si>
+    <t>顔検出対象領域を固定する</t>
+    <rPh sb="0" eb="3">
+      <t>カオケンシュツ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>タイショウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>リョウイキ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>コテイ</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>顔検出対象領域 (固定時)</t>
+    <rPh sb="0" eb="3">
+      <t>カオケンシュツ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>タイショウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>リョウイキ</t>
+    </rPh>
+    <rPh sb="9" eb="12">
+      <t>コテイジ</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>顔検出対象スケール (固定時)</t>
+    <rPh sb="0" eb="3">
+      <t>カオケンシュツ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>タイショウ</t>
+    </rPh>
+    <rPh sb="11" eb="14">
+      <t>コテイジ</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
     <t>プレイヤーの選択方法</t>
     <rPh sb="6" eb="8">
       <t>センタク</t>
@@ -1490,6 +1848,57 @@
     <phoneticPr fontId="18"/>
   </si>
   <si>
+    <t>手検出対象領域を固定する</t>
+    <rPh sb="0" eb="1">
+      <t>テ</t>
+    </rPh>
+    <rPh sb="1" eb="3">
+      <t>ケンシュツ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>タイショウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>リョウイキ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>コテイ</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>右手検出対象スケール (固定時)</t>
+    <rPh sb="0" eb="2">
+      <t>ミギテ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ケンシュツ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>タイショウ</t>
+    </rPh>
+    <rPh sb="12" eb="15">
+      <t>コテイジ</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>左手検出対象スケール (固定時)</t>
+    <rPh sb="0" eb="2">
+      <t>ヒダリテ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ケンシュツ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>タイショウ</t>
+    </rPh>
+    <rPh sb="12" eb="15">
+      <t>コテイジ</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
     <t>ジェスチャーの使用目的</t>
     <rPh sb="7" eb="9">
       <t>シヨウ</t>
@@ -1500,6 +1909,96 @@
     <phoneticPr fontId="18"/>
   </si>
   <si>
+    <t>右手の外側への回転動作</t>
+    <rPh sb="0" eb="2">
+      <t>ミギテ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ソトガワ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>カイテン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ドウサ</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>右手の内側への回転動作</t>
+    <rPh sb="0" eb="2">
+      <t>ミギテ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ウチガワ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>カイテン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ドウサ</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>右手を握る動作</t>
+    <rPh sb="0" eb="2">
+      <t>ミギテ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ニギ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ドウサ</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>左手の外側への回転動作</t>
+    <rPh sb="0" eb="2">
+      <t>ヒダリテ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ソトガワ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>カイテン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ドウサ</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>左手の内側への回転動作</t>
+    <rPh sb="0" eb="2">
+      <t>ヒダリテ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ウチガワ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>カイテン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ドウサ</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>左手を握る動作</t>
+    <rPh sb="0" eb="2">
+      <t>ヒダリテ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ニギ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ドウサ</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
     <t>スクリーン対応領域のデバイス上での解像度</t>
     <rPh sb="5" eb="7">
       <t>タイオウ</t>
@@ -1543,11 +2042,20 @@
     <phoneticPr fontId="18"/>
   </si>
   <si>
+    <t>モデルセットのID</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
     <t>ビニングモード</t>
     <phoneticPr fontId="18"/>
   </si>
   <si>
     <t>固件版本</t>
+  </si>
+  <si>
+    <t>0:ジェスチャーカメラ
+1:ウェブカメラ</t>
+    <phoneticPr fontId="18"/>
   </si>
   <si>
     <t>0:MultiTouch
@@ -1560,6 +2068,25 @@
 1:90: Portrait (flipped)
 2:180: Landscape (flipped)
 3:270: Portrait</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>0:Five Fingers for TV
+1:Wands?</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>0:TV用5本指ジェスチャ
+1:ワンド</t>
+    <rPh sb="4" eb="5">
+      <t>ヨウ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ホン</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ユビ</t>
+    </rPh>
     <phoneticPr fontId="18"/>
   </si>
   <si>
@@ -1649,6 +2176,10 @@
   <si>
     <t>0:Windows
 1:安卓</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>ZKOO用途选项</t>
     <phoneticPr fontId="18"/>
   </si>
   <si>
@@ -1884,6 +2415,22 @@
   </si>
   <si>
     <r>
+      <t>0:手</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+      </rPr>
+      <t>势摄像机
+1:网络摄像机</t>
+    </r>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <r>
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
@@ -1948,6 +2495,21 @@
         <family val="2"/>
       </rPr>
       <t>应用程序发送触摸信息</t>
+    </r>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <r>
+      <t>模式</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+      </rPr>
+      <t>设置码</t>
     </r>
     <phoneticPr fontId="18"/>
   </si>
@@ -2110,6 +2672,51 @@
   </si>
   <si>
     <r>
+      <t>固定人</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">脸识别区域 </t>
+    </r>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <r>
+      <t>人</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+      </rPr>
+      <t>脸识别区域 (固定时)</t>
+    </r>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <r>
+      <t>人</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+      </rPr>
+      <t>脸识别对象尺寸 (固定时)</t>
+    </r>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <r>
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
@@ -2137,9 +2744,219 @@
     <phoneticPr fontId="18"/>
   </si>
   <si>
+    <r>
+      <t>固定手</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+      </rPr>
+      <t>识别对象区域</t>
+    </r>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <r>
+      <t>右手</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+      </rPr>
+      <t>识别对象区域 (固定时)</t>
+    </r>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <r>
+      <t>右手</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+      </rPr>
+      <t>识别对象尺寸 (固定时)</t>
+    </r>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <r>
+      <t>左手</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+      </rPr>
+      <t>识别对象区域 (固定时)</t>
+    </r>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <r>
+      <t>左手</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+      </rPr>
+      <t>识别对象尺寸 (固定时)</t>
+    </r>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <r>
+      <t>固定</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">屏幕映射区域 </t>
+    </r>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <r>
+      <t>右手</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+      </rPr>
+      <t>屏幕映射区域 (固定时)</t>
+    </r>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <r>
+      <t>左手</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+      </rPr>
+      <t>屏幕映射区域 (固定时)</t>
+    </r>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
     <t>0:初学者: 适合较慢速度的手移动，点击也更容易。 左右手的两个光标不能交叉。
 1:标准: 适合标准速度的手移动。左右手的两个光标可以交叉。
 2:水果忍者: 适合水果忍者游戏。通过快速移动张开的手来切水果。</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <r>
+      <t>右手</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+      </rPr>
+      <t>顺时针旋转</t>
+    </r>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <r>
+      <t>右手逆</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+      </rPr>
+      <t>时针旋转</t>
+    </r>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <r>
+      <t>右手</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+      </rPr>
+      <t>弯曲四指</t>
+    </r>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <r>
+      <t>左手逆</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+      </rPr>
+      <t>时针旋转</t>
+    </r>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <r>
+      <t>左手</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+      </rPr>
+      <t>顺时针旋转</t>
+    </r>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <r>
+      <t>左手</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+      </rPr>
+      <t>弯曲四指</t>
+    </r>
     <phoneticPr fontId="18"/>
   </si>
   <si>
@@ -2203,6 +3020,22 @@
   </si>
   <si>
     <r>
+      <t>0:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+      </rPr>
+      <t>电视用五指模式
+1:魔棍</t>
+    </r>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <r>
       <t>曝光</t>
     </r>
     <r>
@@ -2367,6 +3200,14 @@
     <phoneticPr fontId="18"/>
   </si>
   <si>
+    <t>1.3</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>1.3</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
     <t>1.1.8005</t>
     <phoneticPr fontId="18"/>
   </si>
@@ -2376,6 +3217,14 @@
   </si>
   <si>
     <t>1.1.7916</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>Completed</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>Completed</t>
     <phoneticPr fontId="18"/>
   </si>
   <si>
@@ -2409,10 +3258,276 @@
     <phoneticPr fontId="18"/>
   </si>
   <si>
+    <t>HidAccessPropertyRangedInt</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>HidAccessPropertyRangedIntRange</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>Hand Detection Parameters</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>手検出パラメータ</t>
+    <rPh sb="0" eb="1">
+      <t>テ</t>
+    </rPh>
+    <rPh sb="1" eb="3">
+      <t>ケンシュツ</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <r>
+      <t>手</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+      </rPr>
+      <t>动识别参数</t>
+    </r>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>12</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>HidAccessPropertySingleArray</t>
+  </si>
+  <si>
+    <t>HandDetectionParameters</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>RangedRange.Minimum = 24; RangedRange.Maximum = 240; RangedRange.From = 24; RangedRange.To = 150</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
     <t>调节状态显示用LED灯的亮度</t>
     <phoneticPr fontId="18"/>
   </si>
   <si>
+    <t>IsToFixFaceDetectionRegion</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>IsToFixScreenMappedAreas</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>1.1.8109</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>RightHandTrackingAreaOnFixed</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>LeftHandTrackingAreaOnFixed</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>0x70</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>0x70</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>1.1.8120</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>1.1.8120</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>Right Hand Tracking Area (when fixed)</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>Left Hand Tracking Area (when fixed)</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>Fix Hand Tracking Areas</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>IsToFixHandTrackingAreas</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>右手検出対象エリア (固定時)</t>
+    <rPh sb="0" eb="2">
+      <t>ミギテ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ケンシュツ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>タイショウ</t>
+    </rPh>
+    <rPh sb="11" eb="14">
+      <t>コテイジ</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>左手検出対象エリア (固定時)</t>
+    <rPh sb="0" eb="2">
+      <t>ヒダリテ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ケンシュツ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>タイショウ</t>
+    </rPh>
+    <rPh sb="11" eb="14">
+      <t>コテイジ</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>手トラッキング対象エリアを固定する</t>
+    <rPh sb="0" eb="1">
+      <t>テ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>タイショウ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>コテイ</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>右手トラッキング対象エリア (固定時)</t>
+    <rPh sb="0" eb="2">
+      <t>ミギテ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>タイショウ</t>
+    </rPh>
+    <rPh sb="15" eb="18">
+      <t>コテイジ</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>左手トラッキング対象エリア (固定時)</t>
+    <rPh sb="0" eb="2">
+      <t>ヒダリテ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>タイショウ</t>
+    </rPh>
+    <rPh sb="15" eb="18">
+      <t>コテイジ</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>スクリーン対応エリアを固定する</t>
+    <rPh sb="5" eb="7">
+      <t>タイオウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>コテイ</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>右手スクリーン対応エリア (固定時)</t>
+    <rPh sb="0" eb="2">
+      <t>ミギテ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>タイオウ</t>
+    </rPh>
+    <rPh sb="14" eb="17">
+      <t>コテイジ</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>左手スクリーン対応エリア (固定時)</t>
+    <rPh sb="0" eb="2">
+      <t>ヒダリテ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>タイオウ</t>
+    </rPh>
+    <rPh sb="14" eb="17">
+      <t>コテイジ</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <r>
+      <t>固定手追踪对象</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">区域 </t>
+    </r>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <r>
+      <t>右手追踪对象</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+      </rPr>
+      <t>区域 (固定时)</t>
+    </r>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <r>
+      <t>左手追踪对象</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+      </rPr>
+      <t>区域 (固定时)</t>
+    </r>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>RangedValue.Minimum = 4; RangedValue.Maximum = 25;
+RangedValue.Value = 15</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>RangedValue.Minimum = 4; RangedValue.Maximum = 25;
+RangedValue.Value = 15</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
     <t>1.0</t>
     <phoneticPr fontId="18"/>
   </si>
@@ -2423,6 +3538,28 @@
   <si>
     <t>1.0</t>
     <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>ValueAsString = "0.3, 0.2, 0.7, 0.6"</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>ValueAsString = "0.6, 0.3, 0.9, 0.9"</t>
+  </si>
+  <si>
+    <t>ValueAsString = "0.1, 0.3, 0.4, 0.9"</t>
+  </si>
+  <si>
+    <t>ValueAsString = "0.55, 0.3, 0.95, 0.85"</t>
+  </si>
+  <si>
+    <t>ValueAsString = "0.05, 0.3, 0.45, 0.85"</t>
+  </si>
+  <si>
+    <t>ValueAsString = "0.65, 0.5, 0.85, 0.8"</t>
+  </si>
+  <si>
+    <t>ValueAsString = "0.15, 0.5, 0.35, 0.8"</t>
   </si>
 </sst>
 </file>
@@ -2633,7 +3770,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2811,6 +3948,12 @@
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -3058,7 +4201,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3081,6 +4224,9 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="22" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3404,11 +4550,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AD37"/>
+  <dimension ref="A1:AD60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" topLeftCell="Q1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="Q12" sqref="Q12"/>
+      <pane xSplit="3" topLeftCell="T1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="X37" sqref="X37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -3442,16 +4588,16 @@
   <sheetData>
     <row r="1" spans="1:30" ht="57" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>240</v>
+        <v>293</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>57</v>
+        <v>77</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>58</v>
+        <v>78</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>0</v>
@@ -3463,2945 +4609,4629 @@
         <v>2</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>61</v>
+        <v>81</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>65</v>
+        <v>86</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>284</v>
+        <v>362</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>89</v>
+        <v>118</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>255</v>
+        <v>327</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>211</v>
+        <v>260</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>50</v>
+        <v>69</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>128</v>
+        <v>169</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>129</v>
+        <v>170</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>191</v>
+        <v>239</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>277</v>
+        <v>355</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>287</v>
+        <v>365</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>292</v>
+        <v>370</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>134</v>
+        <v>175</v>
       </c>
       <c r="Y1" s="2" t="s">
-        <v>306</v>
+        <v>385</v>
       </c>
       <c r="Z1" s="2" t="s">
-        <v>307</v>
+        <v>386</v>
       </c>
       <c r="AA1" s="2" t="s">
-        <v>336</v>
+        <v>428</v>
       </c>
       <c r="AB1" s="2" t="s">
-        <v>337</v>
+        <v>429</v>
       </c>
       <c r="AC1" s="3" t="s">
-        <v>359</v>
+        <v>456</v>
       </c>
       <c r="AD1" s="3" t="s">
-        <v>338</v>
+        <v>430</v>
       </c>
     </row>
     <row r="2" spans="1:30" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>239</v>
+        <v>292</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>243</v>
+        <v>296</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>103</v>
+        <v>132</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>101</v>
+        <v>130</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>102</v>
+        <v>131</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>66</v>
+        <v>87</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>104</v>
+        <v>133</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>208</v>
+        <v>257</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>130</v>
+        <v>171</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>131</v>
+        <v>172</v>
       </c>
       <c r="T2" s="1" t="s">
-        <v>204</v>
+        <v>252</v>
       </c>
       <c r="U2" s="1" t="s">
-        <v>273</v>
+        <v>351</v>
       </c>
       <c r="V2" s="1" t="s">
-        <v>280</v>
+        <v>358</v>
       </c>
       <c r="W2" s="1" t="s">
-        <v>162</v>
+        <v>207</v>
       </c>
       <c r="X2" s="1" t="s">
-        <v>105</v>
+        <v>134</v>
       </c>
       <c r="Y2" s="2" t="s">
-        <v>111</v>
+        <v>140</v>
       </c>
       <c r="AA2" s="2" t="s">
-        <v>308</v>
+        <v>387</v>
       </c>
       <c r="AC2" s="3" t="s">
-        <v>374</v>
+        <v>471</v>
       </c>
     </row>
     <row r="3" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
-        <v>238</v>
+        <v>291</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>186</v>
+        <v>234</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>252</v>
+        <v>323</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>285</v>
+        <v>363</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>286</v>
+        <v>364</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>180</v>
+        <v>228</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>181</v>
+        <v>229</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>73</v>
+        <v>101</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>87</v>
+        <v>116</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>52</v>
+        <v>71</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>179</v>
+        <v>227</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>217</v>
+        <v>270</v>
       </c>
       <c r="Q3" s="1" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="S3" s="1" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="T3" s="1" t="s">
-        <v>192</v>
+        <v>240</v>
       </c>
       <c r="U3" s="1" t="s">
-        <v>273</v>
+        <v>351</v>
       </c>
       <c r="W3" s="1" t="s">
-        <v>162</v>
+        <v>207</v>
       </c>
       <c r="Y3" s="2" t="s">
-        <v>106</v>
+        <v>135</v>
       </c>
       <c r="AA3" s="2" t="s">
-        <v>309</v>
+        <v>388</v>
       </c>
       <c r="AC3" s="3" t="s">
-        <v>375</v>
+        <v>472</v>
       </c>
     </row>
     <row r="4" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
-        <v>238</v>
+        <v>291</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>187</v>
+        <v>235</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>74</v>
+        <v>102</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>285</v>
+        <v>363</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>286</v>
+        <v>364</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>180</v>
+        <v>228</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>182</v>
+        <v>230</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>72</v>
+        <v>100</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>88</v>
+        <v>117</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>52</v>
+        <v>71</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>179</v>
+        <v>227</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="P4" s="1" t="s">
-        <v>217</v>
+        <v>270</v>
       </c>
       <c r="Q4" s="1" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="S4" s="1" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="T4" s="1" t="s">
-        <v>193</v>
+        <v>241</v>
       </c>
       <c r="U4" s="1" t="s">
-        <v>274</v>
+        <v>352</v>
       </c>
       <c r="W4" s="1" t="s">
-        <v>162</v>
+        <v>207</v>
       </c>
       <c r="Y4" s="2" t="s">
-        <v>107</v>
+        <v>136</v>
       </c>
       <c r="AA4" s="2" t="s">
-        <v>339</v>
+        <v>431</v>
       </c>
       <c r="AC4" s="3" t="s">
-        <v>376</v>
+        <v>473</v>
       </c>
     </row>
     <row r="5" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
-        <v>238</v>
+        <v>291</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>244</v>
+        <v>297</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>232</v>
+        <v>285</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>133</v>
+        <v>174</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>59</v>
+        <v>79</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>262</v>
+        <v>334</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>52</v>
+        <v>71</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>131</v>
+        <v>172</v>
       </c>
       <c r="O5" s="1" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="P5" s="1" t="s">
-        <v>170</v>
+        <v>218</v>
       </c>
       <c r="Q5" s="1" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="S5" s="1" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="T5" s="1" t="s">
-        <v>192</v>
+        <v>240</v>
       </c>
       <c r="U5" s="1" t="s">
-        <v>273</v>
+        <v>351</v>
       </c>
       <c r="V5" s="1" t="s">
-        <v>282</v>
+        <v>360</v>
       </c>
       <c r="W5" s="1" t="s">
-        <v>412</v>
+        <v>529</v>
       </c>
       <c r="Y5" s="2" t="s">
-        <v>233</v>
+        <v>286</v>
       </c>
       <c r="AA5" s="2" t="s">
-        <v>310</v>
+        <v>389</v>
       </c>
       <c r="AC5" s="3" t="s">
-        <v>377</v>
+        <v>474</v>
       </c>
     </row>
     <row r="6" spans="1:30" ht="85.5" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
-        <v>238</v>
+        <v>291</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>247</v>
+        <v>300</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>411</v>
+        <v>528</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>260</v>
+        <v>332</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>271</v>
+        <v>343</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>66</v>
+        <v>87</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>52</v>
+        <v>71</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>261</v>
+        <v>333</v>
       </c>
       <c r="O6" s="1" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="P6" s="1" t="s">
-        <v>131</v>
+        <v>172</v>
       </c>
       <c r="Q6" s="1" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="S6" s="1" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="T6" s="1" t="s">
-        <v>195</v>
+        <v>243</v>
       </c>
       <c r="U6" s="1" t="s">
-        <v>273</v>
+        <v>351</v>
       </c>
       <c r="V6" s="1" t="s">
-        <v>281</v>
+        <v>359</v>
       </c>
       <c r="W6" s="1" t="s">
-        <v>412</v>
+        <v>529</v>
       </c>
       <c r="Y6" s="2" t="s">
-        <v>410</v>
+        <v>527</v>
       </c>
       <c r="Z6" s="2" t="s">
-        <v>431</v>
+        <v>548</v>
       </c>
       <c r="AA6" s="2" t="s">
-        <v>311</v>
+        <v>390</v>
       </c>
       <c r="AB6" s="2" t="s">
-        <v>430</v>
+        <v>547</v>
       </c>
       <c r="AC6" s="3" t="s">
-        <v>378</v>
+        <v>475</v>
       </c>
       <c r="AD6" s="3" t="s">
-        <v>432</v>
+        <v>549</v>
       </c>
     </row>
     <row r="7" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
-        <v>238</v>
+        <v>291</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>245</v>
+        <v>298</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>81</v>
+        <v>109</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>189</v>
+        <v>237</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>190</v>
+        <v>238</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>52</v>
+        <v>71</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>91</v>
+        <v>120</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>131</v>
+        <v>172</v>
       </c>
       <c r="O7" s="1" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="P7" s="1" t="s">
-        <v>131</v>
+        <v>172</v>
       </c>
       <c r="Q7" s="1" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="S7" s="1" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="T7" s="1" t="s">
-        <v>195</v>
+        <v>243</v>
       </c>
       <c r="U7" s="1" t="s">
-        <v>273</v>
+        <v>351</v>
       </c>
       <c r="V7" s="1" t="s">
-        <v>282</v>
+        <v>360</v>
       </c>
       <c r="W7" s="1" t="s">
-        <v>412</v>
+        <v>529</v>
       </c>
       <c r="Y7" s="2" t="s">
-        <v>108</v>
+        <v>137</v>
       </c>
       <c r="AA7" s="2" t="s">
-        <v>312</v>
+        <v>391</v>
       </c>
       <c r="AC7" s="3" t="s">
-        <v>342</v>
+        <v>435</v>
       </c>
     </row>
     <row r="8" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
-        <v>238</v>
+        <v>291</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>246</v>
+        <v>299</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>175</v>
+        <v>223</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>184</v>
+        <v>232</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>125</v>
+        <v>166</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>66</v>
+        <v>87</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>52</v>
+        <v>71</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>126</v>
+        <v>167</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>131</v>
+        <v>172</v>
       </c>
       <c r="O8" s="1" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="P8" s="1" t="s">
-        <v>131</v>
+        <v>172</v>
       </c>
       <c r="Q8" s="1" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="S8" s="1" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="T8" s="1" t="s">
-        <v>196</v>
+        <v>244</v>
       </c>
       <c r="U8" s="1" t="s">
-        <v>275</v>
+        <v>353</v>
       </c>
       <c r="V8" s="1" t="s">
-        <v>280</v>
+        <v>358</v>
       </c>
       <c r="W8" s="1" t="s">
-        <v>269</v>
+        <v>341</v>
       </c>
       <c r="Y8" s="2" t="s">
-        <v>174</v>
+        <v>222</v>
       </c>
       <c r="AA8" s="2" t="s">
-        <v>313</v>
+        <v>392</v>
       </c>
       <c r="AC8" s="6" t="s">
-        <v>406</v>
+        <v>523</v>
       </c>
     </row>
     <row r="9" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
-        <v>238</v>
+        <v>291</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>246</v>
+        <v>299</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>176</v>
+        <v>224</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>185</v>
+        <v>233</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>125</v>
+        <v>166</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>66</v>
+        <v>87</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>52</v>
+        <v>71</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>126</v>
+        <v>167</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>131</v>
+        <v>172</v>
       </c>
       <c r="O9" s="1" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="P9" s="1" t="s">
-        <v>131</v>
+        <v>172</v>
       </c>
       <c r="Q9" s="1" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="S9" s="1" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="T9" s="1" t="s">
-        <v>197</v>
+        <v>245</v>
       </c>
       <c r="U9" s="1" t="s">
-        <v>276</v>
+        <v>354</v>
       </c>
       <c r="V9" s="1" t="s">
-        <v>280</v>
+        <v>358</v>
       </c>
       <c r="W9" s="1" t="s">
-        <v>269</v>
+        <v>341</v>
       </c>
       <c r="Y9" s="2" t="s">
-        <v>127</v>
+        <v>168</v>
       </c>
       <c r="AA9" s="2" t="s">
-        <v>314</v>
+        <v>393</v>
       </c>
       <c r="AC9" s="3" t="s">
-        <v>379</v>
+        <v>476</v>
       </c>
     </row>
     <row r="10" spans="1:30" ht="57" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
-        <v>239</v>
+        <v>292</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>247</v>
+        <v>300</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>366</v>
+        <v>463</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>365</v>
+        <v>462</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>59</v>
+        <v>79</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>66</v>
+        <v>87</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>52</v>
+        <v>71</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>407</v>
+        <v>524</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="O10" s="1" t="s">
-        <v>130</v>
+        <v>171</v>
       </c>
       <c r="P10" s="1" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="Q10" s="1" t="s">
-        <v>131</v>
+        <v>172</v>
       </c>
       <c r="T10" s="1" t="s">
-        <v>367</v>
+        <v>464</v>
       </c>
       <c r="U10" s="1" t="s">
-        <v>434</v>
+        <v>553</v>
       </c>
       <c r="V10" s="1" t="s">
-        <v>282</v>
+        <v>360</v>
       </c>
       <c r="W10" s="1" t="s">
-        <v>272</v>
+        <v>344</v>
       </c>
       <c r="X10" s="1" t="s">
-        <v>94</v>
+        <v>123</v>
       </c>
       <c r="Y10" s="2" t="s">
-        <v>368</v>
+        <v>465</v>
       </c>
       <c r="Z10" s="2" t="s">
-        <v>369</v>
+        <v>466</v>
       </c>
       <c r="AA10" s="2" t="s">
-        <v>370</v>
+        <v>467</v>
       </c>
       <c r="AB10" s="2" t="s">
-        <v>371</v>
+        <v>468</v>
       </c>
       <c r="AC10" s="4" t="s">
-        <v>373</v>
+        <v>470</v>
       </c>
       <c r="AD10" s="4" t="s">
-        <v>372</v>
+        <v>469</v>
       </c>
     </row>
     <row r="11" spans="1:30" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
-        <v>239</v>
+        <v>292</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>247</v>
+        <v>300</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>63</v>
+        <v>83</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>44</v>
+        <v>63</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>59</v>
+        <v>79</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>66</v>
+        <v>87</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>52</v>
+        <v>71</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>92</v>
+        <v>121</v>
       </c>
       <c r="M11" s="1" t="s">
         <v>9</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="O11" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="P11" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q11" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="R11" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="T11" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="U11" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="V11" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="W11" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="P11" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q11" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="R11" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="T11" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="U11" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="V11" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="W11" s="1" t="s">
-        <v>162</v>
-      </c>
       <c r="X11" s="1" t="s">
-        <v>94</v>
+        <v>123</v>
       </c>
       <c r="Y11" s="2" t="s">
-        <v>110</v>
+        <v>139</v>
       </c>
       <c r="Z11" s="2" t="s">
-        <v>45</v>
+        <v>64</v>
       </c>
       <c r="AA11" s="2" t="s">
-        <v>340</v>
+        <v>432</v>
       </c>
       <c r="AB11" s="2" t="s">
-        <v>45</v>
+        <v>64</v>
       </c>
       <c r="AC11" s="3" t="s">
-        <v>380</v>
+        <v>477</v>
       </c>
       <c r="AD11" s="3" t="s">
-        <v>354</v>
+        <v>450</v>
       </c>
     </row>
     <row r="12" spans="1:30" ht="57" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
-        <v>239</v>
+        <v>292</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>247</v>
+        <v>300</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>59</v>
+        <v>79</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>67</v>
+        <v>88</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>51</v>
+        <v>70</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>90</v>
+        <v>119</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>257</v>
+        <v>329</v>
       </c>
       <c r="N12" s="1" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="O12" s="1" t="s">
-        <v>130</v>
+        <v>171</v>
       </c>
       <c r="P12" s="1" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="Q12" s="1" t="s">
-        <v>131</v>
+        <v>172</v>
       </c>
       <c r="R12" s="1" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="T12" s="1" t="s">
-        <v>199</v>
+        <v>247</v>
       </c>
       <c r="U12" s="1" t="s">
-        <v>274</v>
+        <v>352</v>
       </c>
       <c r="V12" s="1" t="s">
-        <v>282</v>
+        <v>360</v>
       </c>
       <c r="W12" s="1" t="s">
-        <v>171</v>
+        <v>219</v>
       </c>
       <c r="X12" s="1" t="s">
-        <v>95</v>
+        <v>124</v>
       </c>
       <c r="Y12" s="2" t="s">
-        <v>172</v>
+        <v>220</v>
       </c>
       <c r="Z12" s="2" t="s">
-        <v>343</v>
+        <v>437</v>
       </c>
       <c r="AA12" s="2" t="s">
-        <v>315</v>
+        <v>394</v>
       </c>
       <c r="AB12" s="2" t="s">
-        <v>355</v>
+        <v>452</v>
       </c>
       <c r="AC12" s="3" t="s">
-        <v>381</v>
+        <v>478</v>
       </c>
       <c r="AD12" s="3" t="s">
-        <v>403</v>
+        <v>519</v>
       </c>
     </row>
     <row r="13" spans="1:30" ht="57" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
-        <v>239</v>
+        <v>292</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>247</v>
+        <v>300</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>64</v>
+        <v>84</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>59</v>
+        <v>79</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>66</v>
+        <v>87</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>132</v>
+        <v>173</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>256</v>
+        <v>328</v>
       </c>
       <c r="N13" s="1" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="O13" s="1" t="s">
-        <v>220</v>
+        <v>273</v>
       </c>
       <c r="P13" s="1" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="Q13" s="1" t="s">
-        <v>131</v>
+        <v>172</v>
       </c>
       <c r="R13" s="1" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="T13" s="1" t="s">
-        <v>200</v>
+        <v>248</v>
       </c>
       <c r="U13" s="1" t="s">
-        <v>274</v>
+        <v>352</v>
       </c>
       <c r="V13" s="1" t="s">
-        <v>282</v>
+        <v>360</v>
       </c>
       <c r="W13" s="1" t="s">
-        <v>159</v>
+        <v>204</v>
       </c>
       <c r="X13" s="1" t="s">
-        <v>96</v>
+        <v>125</v>
       </c>
       <c r="Y13" s="2" t="s">
-        <v>173</v>
+        <v>221</v>
       </c>
       <c r="Z13" s="2" t="s">
-        <v>344</v>
+        <v>438</v>
       </c>
       <c r="AA13" s="2" t="s">
-        <v>353</v>
+        <v>449</v>
       </c>
       <c r="AB13" s="2" t="s">
-        <v>356</v>
+        <v>453</v>
       </c>
       <c r="AC13" s="3" t="s">
-        <v>382</v>
+        <v>479</v>
       </c>
       <c r="AD13" s="3" t="s">
-        <v>404</v>
+        <v>520</v>
       </c>
     </row>
     <row r="14" spans="1:30" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
-        <v>239</v>
+        <v>292</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>248</v>
+        <v>300</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>221</v>
+        <v>199</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>38</v>
+        <v>216</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>155</v>
+        <v>79</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>66</v>
+        <v>87</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>52</v>
+        <v>71</v>
       </c>
       <c r="M14" s="1" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="N14" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="O14" s="1" t="s">
-        <v>170</v>
+        <v>36</v>
       </c>
       <c r="P14" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q14" s="1" t="s">
-        <v>170</v>
+        <v>36</v>
       </c>
       <c r="R14" s="1" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="T14" s="1" t="s">
-        <v>202</v>
+        <v>254</v>
       </c>
       <c r="U14" s="1" t="s">
+        <v>550</v>
+      </c>
+      <c r="W14" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="X14" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="Y14" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="Z14" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="AA14" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="AB14" s="2" t="s">
+        <v>436</v>
+      </c>
+      <c r="AC14" s="5" t="s">
+        <v>451</v>
+      </c>
+      <c r="AD14" s="3" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30" ht="28.5" x14ac:dyDescent="0.15">
+      <c r="A15" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="V14" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="W14" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="X14" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="Y14" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="AA14" s="2" t="s">
-        <v>316</v>
-      </c>
-      <c r="AC14" s="3" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="15" spans="1:30" ht="42.75" x14ac:dyDescent="0.15">
-      <c r="A15" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>222</v>
-      </c>
       <c r="D15" s="1" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>223</v>
+        <v>48</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>141</v>
+        <v>197</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>66</v>
+        <v>87</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>52</v>
+        <v>71</v>
       </c>
       <c r="M15" s="1" t="s">
-        <v>264</v>
+        <v>335</v>
       </c>
       <c r="N15" s="1" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="O15" s="1" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="P15" s="1" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="Q15" s="1" t="s">
-        <v>170</v>
+        <v>218</v>
       </c>
       <c r="R15" s="1" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="T15" s="1" t="s">
-        <v>199</v>
+        <v>250</v>
       </c>
       <c r="U15" s="1" t="s">
-        <v>276</v>
+        <v>352</v>
       </c>
       <c r="V15" s="1" t="s">
-        <v>23</v>
+        <v>360</v>
       </c>
       <c r="W15" s="1" t="s">
-        <v>160</v>
+        <v>205</v>
       </c>
       <c r="X15" s="1" t="s">
-        <v>85</v>
+        <v>113</v>
       </c>
       <c r="Y15" s="2" t="s">
-        <v>225</v>
+        <v>277</v>
       </c>
       <c r="AA15" s="2" t="s">
-        <v>317</v>
+        <v>396</v>
       </c>
       <c r="AC15" s="3" t="s">
-        <v>384</v>
+        <v>481</v>
       </c>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:30" ht="42.75" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
-        <v>239</v>
+        <v>292</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>248</v>
+        <v>301</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>11</v>
+        <v>275</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>122</v>
+        <v>276</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>10</v>
+        <v>182</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>66</v>
+        <v>87</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>52</v>
+        <v>71</v>
       </c>
       <c r="M16" s="1" t="s">
-        <v>265</v>
+        <v>336</v>
       </c>
       <c r="N16" s="1" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="O16" s="1" t="s">
-        <v>130</v>
+        <v>279</v>
       </c>
       <c r="P16" s="1" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="Q16" s="1" t="s">
-        <v>131</v>
+        <v>218</v>
       </c>
       <c r="R16" s="1" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="T16" s="1" t="s">
-        <v>203</v>
+        <v>247</v>
       </c>
       <c r="U16" s="1" t="s">
-        <v>274</v>
+        <v>354</v>
       </c>
       <c r="V16" s="1" t="s">
-        <v>282</v>
+        <v>32</v>
       </c>
       <c r="W16" s="1" t="s">
-        <v>160</v>
+        <v>205</v>
       </c>
       <c r="X16" s="1" t="s">
-        <v>85</v>
+        <v>113</v>
       </c>
       <c r="Y16" s="2" t="s">
-        <v>112</v>
+        <v>278</v>
       </c>
       <c r="AA16" s="2" t="s">
-        <v>318</v>
+        <v>397</v>
       </c>
       <c r="AC16" s="3" t="s">
-        <v>385</v>
+        <v>482</v>
       </c>
     </row>
-    <row r="17" spans="1:30" ht="42.75" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
-        <v>239</v>
+        <v>292</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>248</v>
+        <v>301</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>121</v>
+        <v>11</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>123</v>
+        <v>163</v>
       </c>
       <c r="H17" s="1" t="s">
         <v>10</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>69</v>
+        <v>87</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>90</v>
+        <v>71</v>
       </c>
       <c r="M17" s="1" t="s">
-        <v>265</v>
+        <v>337</v>
       </c>
       <c r="N17" s="1" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="O17" s="1" t="s">
-        <v>220</v>
+        <v>171</v>
       </c>
       <c r="P17" s="1" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="Q17" s="1" t="s">
-        <v>131</v>
+        <v>172</v>
       </c>
       <c r="R17" s="1" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="T17" s="1" t="s">
-        <v>204</v>
+        <v>251</v>
       </c>
       <c r="U17" s="1" t="s">
-        <v>273</v>
+        <v>352</v>
       </c>
       <c r="V17" s="1" t="s">
-        <v>282</v>
+        <v>360</v>
       </c>
       <c r="W17" s="1" t="s">
-        <v>160</v>
+        <v>205</v>
       </c>
       <c r="X17" s="1" t="s">
-        <v>188</v>
+        <v>113</v>
       </c>
       <c r="Y17" s="2" t="s">
-        <v>358</v>
+        <v>141</v>
       </c>
       <c r="AA17" s="2" t="s">
-        <v>319</v>
+        <v>398</v>
       </c>
       <c r="AC17" s="3" t="s">
-        <v>386</v>
+        <v>483</v>
       </c>
     </row>
-    <row r="18" spans="1:30" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:30" ht="42.75" x14ac:dyDescent="0.15">
       <c r="A18" s="1" t="s">
-        <v>239</v>
+        <v>292</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>248</v>
+        <v>301</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>228</v>
+        <v>162</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>124</v>
+        <v>164</v>
       </c>
       <c r="H18" s="1" t="s">
         <v>10</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>67</v>
+        <v>90</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>51</v>
+        <v>70</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>90</v>
+        <v>119</v>
       </c>
       <c r="M18" s="1" t="s">
-        <v>265</v>
+        <v>337</v>
       </c>
       <c r="N18" s="1" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="O18" s="1" t="s">
-        <v>227</v>
+        <v>273</v>
       </c>
       <c r="P18" s="1" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="Q18" s="1" t="s">
-        <v>131</v>
+        <v>172</v>
       </c>
       <c r="R18" s="1" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="T18" s="1" t="s">
-        <v>201</v>
+        <v>252</v>
       </c>
       <c r="U18" s="1" t="s">
-        <v>274</v>
+        <v>351</v>
       </c>
       <c r="V18" s="1" t="s">
-        <v>282</v>
+        <v>360</v>
       </c>
       <c r="W18" s="1" t="s">
-        <v>160</v>
+        <v>205</v>
       </c>
       <c r="X18" s="1" t="s">
-        <v>85</v>
+        <v>236</v>
       </c>
       <c r="Y18" s="2" t="s">
-        <v>120</v>
+        <v>455</v>
       </c>
       <c r="AA18" s="2" t="s">
-        <v>320</v>
+        <v>399</v>
       </c>
       <c r="AC18" s="3" t="s">
-        <v>387</v>
+        <v>484</v>
       </c>
     </row>
-    <row r="19" spans="1:30" ht="42.75" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A19" s="1" t="s">
-        <v>239</v>
+        <v>292</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>249</v>
+        <v>301</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>47</v>
+        <v>281</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>168</v>
+        <v>38</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>46</v>
+        <v>165</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>67</v>
+        <v>88</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>52</v>
+        <v>70</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="L19" s="1" t="s">
-        <v>93</v>
+        <v>119</v>
       </c>
       <c r="M19" s="1" t="s">
-        <v>210</v>
+        <v>337</v>
       </c>
       <c r="N19" s="1" t="s">
-        <v>131</v>
+        <v>36</v>
       </c>
       <c r="O19" s="1" t="s">
-        <v>27</v>
+        <v>280</v>
       </c>
       <c r="P19" s="1" t="s">
-        <v>213</v>
+        <v>36</v>
       </c>
       <c r="Q19" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="S19" s="1" t="s">
-        <v>27</v>
+        <v>172</v>
+      </c>
+      <c r="R19" s="1" t="s">
+        <v>36</v>
       </c>
       <c r="T19" s="1" t="s">
-        <v>214</v>
+        <v>249</v>
       </c>
       <c r="U19" s="1" t="s">
-        <v>441</v>
+        <v>352</v>
       </c>
       <c r="V19" s="1" t="s">
-        <v>23</v>
+        <v>360</v>
       </c>
       <c r="W19" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="X19" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="Y19" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="X19" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="Y19" s="2" t="s">
-        <v>169</v>
-      </c>
       <c r="AA19" s="2" t="s">
-        <v>321</v>
+        <v>400</v>
       </c>
       <c r="AC19" s="3" t="s">
-        <v>388</v>
+        <v>485</v>
       </c>
     </row>
-    <row r="20" spans="1:30" ht="57" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:30" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A20" s="1" t="s">
-        <v>239</v>
+        <v>292</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>247</v>
+        <v>300</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>6</v>
+        <v>85</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>20</v>
+        <v>51</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>62</v>
+        <v>190</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>68</v>
+        <v>88</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>51</v>
+        <v>70</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="L20" s="1" t="s">
-        <v>90</v>
+        <v>326</v>
       </c>
       <c r="M20" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="N20" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="O20" s="1" t="s">
-        <v>130</v>
+        <v>330</v>
       </c>
       <c r="P20" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q20" s="1" t="s">
-        <v>131</v>
+        <v>36</v>
       </c>
       <c r="T20" s="1" t="s">
-        <v>201</v>
+        <v>254</v>
       </c>
       <c r="U20" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="V20" s="1" t="s">
-        <v>283</v>
+        <v>551</v>
       </c>
       <c r="W20" s="1" t="s">
-        <v>270</v>
+        <v>208</v>
       </c>
       <c r="X20" s="1" t="s">
-        <v>98</v>
+        <v>126</v>
       </c>
       <c r="Y20" s="2" t="s">
-        <v>113</v>
+        <v>142</v>
       </c>
       <c r="Z20" s="2" t="s">
-        <v>348</v>
+        <v>439</v>
       </c>
       <c r="AA20" s="2" t="s">
-        <v>341</v>
+        <v>433</v>
       </c>
       <c r="AB20" s="2" t="s">
-        <v>345</v>
+        <v>440</v>
       </c>
       <c r="AC20" s="3" t="s">
-        <v>360</v>
+        <v>486</v>
       </c>
       <c r="AD20" s="3" t="s">
-        <v>389</v>
+        <v>521</v>
       </c>
     </row>
-    <row r="21" spans="1:30" ht="28.5" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:30" ht="42.75" x14ac:dyDescent="0.15">
       <c r="A21" s="1" t="s">
-        <v>239</v>
+        <v>292</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>250</v>
+        <v>302</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>20</v>
+        <v>215</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>39</v>
+        <v>65</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="L21" s="1" t="s">
-        <v>254</v>
+        <v>122</v>
       </c>
       <c r="M21" s="1" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="N21" s="1" t="s">
-        <v>170</v>
+        <v>172</v>
+      </c>
+      <c r="O21" s="1" t="s">
+        <v>36</v>
       </c>
       <c r="P21" s="1" t="s">
-        <v>213</v>
+        <v>262</v>
       </c>
       <c r="Q21" s="1" t="s">
-        <v>207</v>
+        <v>256</v>
+      </c>
+      <c r="S21" s="1" t="s">
+        <v>36</v>
       </c>
       <c r="T21" s="1" t="s">
-        <v>205</v>
+        <v>264</v>
       </c>
       <c r="U21" s="1" t="s">
-        <v>273</v>
+        <v>597</v>
       </c>
       <c r="V21" s="1" t="s">
-        <v>282</v>
+        <v>32</v>
       </c>
       <c r="W21" s="1" t="s">
-        <v>160</v>
+        <v>206</v>
+      </c>
+      <c r="X21" s="1" t="s">
+        <v>112</v>
       </c>
       <c r="Y21" s="2" t="s">
-        <v>114</v>
+        <v>217</v>
       </c>
       <c r="AA21" s="2" t="s">
-        <v>322</v>
+        <v>401</v>
       </c>
       <c r="AC21" s="3" t="s">
-        <v>390</v>
+        <v>487</v>
       </c>
     </row>
-    <row r="22" spans="1:30" ht="42.75" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:30" ht="57" x14ac:dyDescent="0.15">
       <c r="A22" s="1" t="s">
-        <v>239</v>
+        <v>292</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>247</v>
+        <v>300</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="E22" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>148</v>
+        <v>82</v>
       </c>
       <c r="I22" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="J22" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="J22" s="1" t="s">
-        <v>51</v>
-      </c>
       <c r="K22" s="1" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="L22" s="1" t="s">
-        <v>152</v>
+        <v>119</v>
       </c>
       <c r="M22" s="1" t="s">
-        <v>209</v>
+        <v>258</v>
       </c>
       <c r="N22" s="1" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="O22" s="1" t="s">
-        <v>130</v>
+        <v>171</v>
       </c>
       <c r="P22" s="1" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="Q22" s="1" t="s">
-        <v>131</v>
+        <v>172</v>
       </c>
       <c r="T22" s="1" t="s">
-        <v>204</v>
+        <v>249</v>
       </c>
       <c r="U22" s="1" t="s">
-        <v>278</v>
+        <v>351</v>
       </c>
       <c r="V22" s="1" t="s">
-        <v>282</v>
+        <v>361</v>
       </c>
       <c r="W22" s="1" t="s">
-        <v>267</v>
+        <v>342</v>
       </c>
       <c r="X22" s="1" t="s">
-        <v>94</v>
+        <v>127</v>
       </c>
       <c r="Y22" s="2" t="s">
-        <v>268</v>
+        <v>143</v>
       </c>
       <c r="Z22" s="2" t="s">
-        <v>346</v>
+        <v>444</v>
       </c>
       <c r="AA22" s="2" t="s">
-        <v>323</v>
+        <v>434</v>
       </c>
       <c r="AB22" s="2" t="s">
-        <v>347</v>
-      </c>
-      <c r="AC22" s="6" t="s">
-        <v>413</v>
+        <v>441</v>
+      </c>
+      <c r="AC22" s="3" t="s">
+        <v>457</v>
       </c>
       <c r="AD22" s="3" t="s">
-        <v>391</v>
+        <v>488</v>
       </c>
     </row>
-    <row r="23" spans="1:30" ht="57" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:30" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A23" s="1" t="s">
-        <v>239</v>
+        <v>292</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>247</v>
+        <v>303</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>301</v>
+        <v>105</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>295</v>
+        <v>49</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>59</v>
+        <v>111</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>66</v>
+        <v>104</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>51</v>
+        <v>70</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="L23" s="1" t="s">
-        <v>90</v>
+        <v>325</v>
       </c>
       <c r="M23" s="1" t="s">
-        <v>209</v>
+        <v>330</v>
       </c>
       <c r="N23" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="O23" s="1" t="s">
-        <v>305</v>
+        <v>218</v>
       </c>
       <c r="P23" s="1" t="s">
-        <v>27</v>
+        <v>262</v>
+      </c>
+      <c r="Q23" s="1" t="s">
+        <v>256</v>
       </c>
       <c r="T23" s="1" t="s">
-        <v>199</v>
+        <v>253</v>
       </c>
       <c r="U23" s="1" t="s">
-        <v>299</v>
+        <v>351</v>
       </c>
       <c r="V23" s="1" t="s">
-        <v>23</v>
+        <v>360</v>
       </c>
       <c r="W23" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="X23" s="1" t="s">
-        <v>303</v>
+        <v>205</v>
       </c>
       <c r="Y23" s="2" t="s">
-        <v>304</v>
-      </c>
-      <c r="Z23" s="2" t="s">
-        <v>351</v>
+        <v>144</v>
       </c>
       <c r="AA23" s="2" t="s">
-        <v>409</v>
-      </c>
-      <c r="AB23" s="2" t="s">
-        <v>352</v>
+        <v>402</v>
       </c>
       <c r="AC23" s="3" t="s">
-        <v>361</v>
-      </c>
-      <c r="AD23" s="3" t="s">
-        <v>392</v>
+        <v>489</v>
       </c>
     </row>
-    <row r="24" spans="1:30" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:30" ht="42.75" x14ac:dyDescent="0.15">
       <c r="A24" s="1" t="s">
-        <v>239</v>
+        <v>292</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>300</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>302</v>
+        <v>5</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>296</v>
+        <v>50</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>297</v>
+        <v>190</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>66</v>
+        <v>91</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>51</v>
+        <v>70</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="L24" s="1" t="s">
-        <v>90</v>
+        <v>194</v>
       </c>
       <c r="M24" s="1" t="s">
-        <v>209</v>
+        <v>258</v>
+      </c>
+      <c r="N24" s="1" t="s">
+        <v>36</v>
       </c>
       <c r="O24" s="1" t="s">
-        <v>305</v>
+        <v>171</v>
+      </c>
+      <c r="P24" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q24" s="1" t="s">
+        <v>172</v>
       </c>
       <c r="T24" s="1" t="s">
-        <v>199</v>
+        <v>252</v>
       </c>
       <c r="U24" s="1" t="s">
-        <v>275</v>
+        <v>356</v>
       </c>
       <c r="V24" s="1" t="s">
-        <v>23</v>
+        <v>360</v>
       </c>
       <c r="W24" s="1" t="s">
-        <v>158</v>
+        <v>339</v>
+      </c>
+      <c r="X24" s="1" t="s">
+        <v>123</v>
       </c>
       <c r="Y24" s="2" t="s">
-        <v>298</v>
+        <v>340</v>
+      </c>
+      <c r="Z24" s="2" t="s">
+        <v>442</v>
       </c>
       <c r="AA24" s="2" t="s">
-        <v>324</v>
-      </c>
-      <c r="AC24" s="3" t="s">
-        <v>405</v>
+        <v>403</v>
+      </c>
+      <c r="AB24" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="AC24" s="6" t="s">
+        <v>530</v>
+      </c>
+      <c r="AD24" s="3" t="s">
+        <v>490</v>
       </c>
     </row>
-    <row r="25" spans="1:30" ht="28.5" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:30" ht="57" x14ac:dyDescent="0.15">
       <c r="A25" s="1" t="s">
-        <v>239</v>
+        <v>292</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>246</v>
+        <v>300</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>235</v>
+        <v>379</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>48</v>
+        <v>373</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>55</v>
+        <v>79</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>68</v>
+        <v>87</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>51</v>
+        <v>70</v>
       </c>
       <c r="K25" s="1" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="L25" s="1" t="s">
-        <v>93</v>
+        <v>119</v>
       </c>
       <c r="M25" s="1" t="s">
         <v>258</v>
       </c>
+      <c r="N25" s="1" t="s">
+        <v>36</v>
+      </c>
       <c r="O25" s="1" t="s">
-        <v>27</v>
+        <v>383</v>
       </c>
       <c r="P25" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="S25" s="1" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="T25" s="1" t="s">
-        <v>195</v>
+        <v>247</v>
       </c>
       <c r="U25" s="1" t="s">
-        <v>440</v>
+        <v>377</v>
       </c>
       <c r="V25" s="1" t="s">
-        <v>282</v>
+        <v>32</v>
       </c>
       <c r="W25" s="1" t="s">
-        <v>160</v>
+        <v>203</v>
       </c>
       <c r="X25" s="1" t="s">
-        <v>230</v>
+        <v>381</v>
       </c>
       <c r="Y25" s="2" t="s">
-        <v>116</v>
+        <v>382</v>
+      </c>
+      <c r="Z25" s="2" t="s">
+        <v>447</v>
       </c>
       <c r="AA25" s="2" t="s">
-        <v>325</v>
+        <v>526</v>
+      </c>
+      <c r="AB25" s="2" t="s">
+        <v>448</v>
       </c>
       <c r="AC25" s="3" t="s">
-        <v>362</v>
+        <v>458</v>
+      </c>
+      <c r="AD25" s="3" t="s">
+        <v>491</v>
       </c>
     </row>
-    <row r="26" spans="1:30" ht="28.5" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A26" s="1" t="s">
-        <v>239</v>
+        <v>292</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>246</v>
+        <v>378</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>234</v>
+        <v>380</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="E26" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>49</v>
+        <v>374</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>55</v>
+        <v>375</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>66</v>
+        <v>87</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>51</v>
+        <v>70</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="L26" s="1" t="s">
-        <v>93</v>
+        <v>119</v>
       </c>
       <c r="M26" s="1" t="s">
-        <v>219</v>
+        <v>258</v>
       </c>
       <c r="O26" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="P26" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="Q26" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="S26" s="1" t="s">
-        <v>27</v>
+        <v>383</v>
       </c>
       <c r="T26" s="1" t="s">
-        <v>215</v>
+        <v>247</v>
       </c>
       <c r="U26" s="1" t="s">
-        <v>440</v>
+        <v>353</v>
       </c>
       <c r="V26" s="1" t="s">
-        <v>282</v>
+        <v>32</v>
       </c>
       <c r="W26" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="X26" s="1" t="s">
-        <v>231</v>
+        <v>203</v>
       </c>
       <c r="Y26" s="2" t="s">
-        <v>117</v>
+        <v>376</v>
       </c>
       <c r="AA26" s="2" t="s">
-        <v>326</v>
+        <v>404</v>
       </c>
       <c r="AC26" s="3" t="s">
-        <v>393</v>
+        <v>522</v>
       </c>
     </row>
     <row r="27" spans="1:30" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A27" s="1" t="s">
-        <v>239</v>
+        <v>292</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>246</v>
+        <v>299</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>236</v>
+        <v>288</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="E27" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>53</v>
+        <v>67</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>55</v>
+        <v>74</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>68</v>
+        <v>89</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>51</v>
+        <v>70</v>
       </c>
       <c r="K27" s="1" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="L27" s="1" t="s">
-        <v>93</v>
+        <v>122</v>
       </c>
       <c r="M27" s="1" t="s">
-        <v>258</v>
+        <v>330</v>
       </c>
       <c r="O27" s="1" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="P27" s="1" t="s">
-        <v>213</v>
+        <v>262</v>
       </c>
       <c r="S27" s="1" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="T27" s="1" t="s">
-        <v>195</v>
+        <v>243</v>
       </c>
       <c r="U27" s="1" t="s">
-        <v>440</v>
+        <v>596</v>
       </c>
       <c r="V27" s="1" t="s">
-        <v>282</v>
+        <v>360</v>
       </c>
       <c r="W27" s="1" t="s">
-        <v>160</v>
+        <v>205</v>
       </c>
       <c r="X27" s="1" t="s">
-        <v>229</v>
+        <v>283</v>
       </c>
       <c r="Y27" s="2" t="s">
-        <v>115</v>
+        <v>149</v>
       </c>
       <c r="AA27" s="2" t="s">
-        <v>327</v>
+        <v>405</v>
       </c>
       <c r="AC27" s="3" t="s">
-        <v>363</v>
+        <v>459</v>
       </c>
     </row>
     <row r="28" spans="1:30" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A28" s="1" t="s">
-        <v>239</v>
+        <v>292</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>246</v>
+        <v>299</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>237</v>
+        <v>287</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="E28" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>54</v>
+        <v>68</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>55</v>
+        <v>74</v>
       </c>
       <c r="I28" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="J28" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="J28" s="1" t="s">
-        <v>51</v>
-      </c>
       <c r="K28" s="1" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="L28" s="1" t="s">
-        <v>34</v>
+        <v>122</v>
       </c>
       <c r="M28" s="1" t="s">
-        <v>258</v>
+        <v>272</v>
       </c>
       <c r="O28" s="1" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="P28" s="1" t="s">
-        <v>212</v>
+        <v>262</v>
+      </c>
+      <c r="Q28" s="1" t="s">
+        <v>36</v>
       </c>
       <c r="S28" s="1" t="s">
-        <v>207</v>
+        <v>36</v>
       </c>
       <c r="T28" s="1" t="s">
-        <v>206</v>
+        <v>265</v>
       </c>
       <c r="U28" s="1" t="s">
-        <v>440</v>
+        <v>596</v>
       </c>
       <c r="V28" s="1" t="s">
-        <v>282</v>
+        <v>360</v>
       </c>
       <c r="W28" s="1" t="s">
-        <v>160</v>
+        <v>205</v>
       </c>
       <c r="X28" s="1" t="s">
-        <v>86</v>
+        <v>284</v>
       </c>
       <c r="Y28" s="2" t="s">
-        <v>118</v>
+        <v>150</v>
       </c>
       <c r="AA28" s="2" t="s">
-        <v>328</v>
+        <v>406</v>
       </c>
       <c r="AC28" s="3" t="s">
-        <v>394</v>
+        <v>492</v>
       </c>
     </row>
-    <row r="29" spans="1:30" ht="42.75" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:30" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A29" s="1" t="s">
-        <v>241</v>
+        <v>292</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>247</v>
+        <v>299</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>167</v>
+        <v>289</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="E29" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>242</v>
+        <v>72</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>177</v>
+        <v>74</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>178</v>
+        <v>89</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>165</v>
+        <v>70</v>
       </c>
       <c r="K29" s="1" t="s">
-        <v>164</v>
+        <v>32</v>
       </c>
       <c r="L29" s="1" t="s">
-        <v>163</v>
+        <v>122</v>
       </c>
       <c r="M29" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="N29" s="1" t="s">
-        <v>166</v>
+        <v>330</v>
       </c>
       <c r="O29" s="1" t="s">
-        <v>166</v>
+        <v>36</v>
       </c>
       <c r="P29" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="Q29" s="1" t="s">
-        <v>130</v>
+        <v>262</v>
+      </c>
+      <c r="S29" s="1" t="s">
+        <v>36</v>
       </c>
       <c r="T29" s="1" t="s">
-        <v>218</v>
+        <v>243</v>
       </c>
       <c r="U29" s="1" t="s">
-        <v>273</v>
+        <v>596</v>
       </c>
       <c r="V29" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="W29" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="X29" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="W29" s="1" t="s">
-        <v>290</v>
-      </c>
-      <c r="X29" s="1" t="s">
-        <v>289</v>
-      </c>
       <c r="Y29" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="Z29" s="2" t="s">
-        <v>288</v>
+        <v>145</v>
       </c>
       <c r="AA29" s="2" t="s">
-        <v>329</v>
-      </c>
-      <c r="AB29" s="2" t="s">
-        <v>288</v>
+        <v>407</v>
       </c>
       <c r="AC29" s="3" t="s">
-        <v>395</v>
-      </c>
-      <c r="AD29" s="3" t="s">
-        <v>364</v>
+        <v>460</v>
       </c>
     </row>
     <row r="30" spans="1:30" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A30" s="1" t="s">
-        <v>239</v>
+        <v>292</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>251</v>
+        <v>299</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>145</v>
+        <v>290</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="E30" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>136</v>
+        <v>73</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>56</v>
+        <v>74</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>137</v>
+        <v>91</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>138</v>
+        <v>70</v>
       </c>
       <c r="K30" s="1" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="L30" s="1" t="s">
-        <v>139</v>
+        <v>44</v>
       </c>
       <c r="M30" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="N30" s="1" t="s">
-        <v>170</v>
+        <v>330</v>
       </c>
       <c r="O30" s="1" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="P30" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="Q30" s="1" t="s">
-        <v>143</v>
+        <v>261</v>
       </c>
       <c r="S30" s="1" t="s">
-        <v>27</v>
+        <v>256</v>
       </c>
       <c r="T30" s="1" t="s">
-        <v>194</v>
+        <v>255</v>
       </c>
       <c r="U30" s="1" t="s">
-        <v>273</v>
+        <v>596</v>
       </c>
       <c r="V30" s="1" t="s">
-        <v>282</v>
+        <v>360</v>
       </c>
       <c r="W30" s="1" t="s">
-        <v>162</v>
+        <v>205</v>
+      </c>
+      <c r="X30" s="1" t="s">
+        <v>114</v>
       </c>
       <c r="Y30" s="2" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="AA30" s="2" t="s">
-        <v>330</v>
+        <v>408</v>
       </c>
       <c r="AC30" s="3" t="s">
-        <v>396</v>
+        <v>493</v>
       </c>
     </row>
-    <row r="31" spans="1:30" ht="28.5" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:30" ht="42.75" x14ac:dyDescent="0.15">
       <c r="A31" s="1" t="s">
-        <v>239</v>
+        <v>294</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>248</v>
+        <v>300</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>144</v>
+        <v>214</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="E31" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>140</v>
+        <v>295</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>141</v>
+        <v>225</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>66</v>
+        <v>226</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>51</v>
+        <v>212</v>
       </c>
       <c r="K31" s="1" t="s">
-        <v>24</v>
+        <v>211</v>
       </c>
       <c r="L31" s="1" t="s">
-        <v>90</v>
+        <v>210</v>
       </c>
       <c r="M31" s="1" t="s">
-        <v>209</v>
+        <v>324</v>
       </c>
       <c r="N31" s="1" t="s">
-        <v>27</v>
+        <v>213</v>
       </c>
       <c r="O31" s="1" t="s">
-        <v>130</v>
+        <v>213</v>
       </c>
       <c r="P31" s="1" t="s">
-        <v>27</v>
+        <v>171</v>
       </c>
       <c r="Q31" s="1" t="s">
-        <v>131</v>
+        <v>171</v>
       </c>
       <c r="T31" s="1" t="s">
-        <v>201</v>
+        <v>271</v>
       </c>
       <c r="U31" s="1" t="s">
-        <v>273</v>
+        <v>351</v>
       </c>
       <c r="V31" s="1" t="s">
-        <v>282</v>
+        <v>360</v>
       </c>
       <c r="W31" s="1" t="s">
-        <v>291</v>
+        <v>368</v>
       </c>
       <c r="X31" s="1" t="s">
-        <v>142</v>
+        <v>367</v>
       </c>
       <c r="Y31" s="2" t="s">
-        <v>147</v>
+        <v>231</v>
+      </c>
+      <c r="Z31" s="2" t="s">
+        <v>366</v>
       </c>
       <c r="AA31" s="2" t="s">
-        <v>331</v>
+        <v>409</v>
+      </c>
+      <c r="AB31" s="2" t="s">
+        <v>366</v>
       </c>
       <c r="AC31" s="3" t="s">
-        <v>397</v>
+        <v>494</v>
+      </c>
+      <c r="AD31" s="3" t="s">
+        <v>461</v>
       </c>
     </row>
-    <row r="32" spans="1:30" ht="114" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:30" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A32" s="1" t="s">
-        <v>239</v>
+        <v>292</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>247</v>
+        <v>304</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>154</v>
+        <v>186</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="E32" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>150</v>
+        <v>177</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>59</v>
+        <v>75</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>66</v>
+        <v>178</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>51</v>
+        <v>179</v>
       </c>
       <c r="K32" s="1" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="L32" s="1" t="s">
-        <v>151</v>
+        <v>180</v>
       </c>
       <c r="M32" s="1" t="s">
-        <v>209</v>
+        <v>331</v>
       </c>
       <c r="N32" s="1" t="s">
-        <v>130</v>
+        <v>218</v>
       </c>
       <c r="O32" s="1" t="s">
-        <v>130</v>
+        <v>36</v>
       </c>
       <c r="P32" s="1" t="s">
-        <v>27</v>
+        <v>171</v>
       </c>
       <c r="Q32" s="1" t="s">
-        <v>131</v>
+        <v>184</v>
+      </c>
+      <c r="S32" s="1" t="s">
+        <v>36</v>
       </c>
       <c r="T32" s="1" t="s">
-        <v>204</v>
+        <v>242</v>
       </c>
       <c r="U32" s="1" t="s">
-        <v>274</v>
+        <v>351</v>
       </c>
       <c r="V32" s="1" t="s">
-        <v>282</v>
+        <v>360</v>
       </c>
       <c r="W32" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="X32" s="1" t="s">
-        <v>94</v>
+        <v>207</v>
       </c>
       <c r="Y32" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="Z32" s="2" t="s">
-        <v>349</v>
+        <v>187</v>
       </c>
       <c r="AA32" s="2" t="s">
-        <v>332</v>
-      </c>
-      <c r="AB32" s="2" t="s">
-        <v>357</v>
+        <v>410</v>
       </c>
       <c r="AC32" s="3" t="s">
-        <v>398</v>
-      </c>
-      <c r="AD32" s="3" t="s">
-        <v>399</v>
+        <v>495</v>
       </c>
     </row>
-    <row r="33" spans="1:30" ht="171" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:30" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A33" s="1" t="s">
-        <v>241</v>
+        <v>292</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>247</v>
+        <v>301</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>100</v>
+        <v>185</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="E33" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>17</v>
+        <v>181</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>149</v>
+        <v>182</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>71</v>
+        <v>87</v>
       </c>
       <c r="J33" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="K33" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="L33" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="M33" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="N33" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="O33" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="P33" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q33" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="T33" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="U33" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="V33" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="W33" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="X33" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="Y33" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="AA33" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="AC33" s="3" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="34" spans="1:30" ht="28.5" x14ac:dyDescent="0.15">
+      <c r="A34" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>570</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G34" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="K33" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="L33" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="M33" s="1" t="s">
+      <c r="H34" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I34" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="J34" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="K34" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="L34" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="M34" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="N34" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="O34" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="P34" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="T34" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="U34" s="1" t="s">
+        <v>578</v>
+      </c>
+      <c r="V34" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="W34" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="N33" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="O33" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="P33" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q33" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="T33" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="U33" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="V33" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="W33" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="X33" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="Y33" s="2" t="s">
-        <v>266</v>
-      </c>
-      <c r="Z33" s="2" t="s">
-        <v>350</v>
-      </c>
-      <c r="AA33" s="2" t="s">
-        <v>333</v>
-      </c>
-      <c r="AB33" s="2" t="s">
-        <v>408</v>
-      </c>
-      <c r="AC33" s="3" t="s">
-        <v>427</v>
-      </c>
-      <c r="AD33" s="5" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="34" spans="1:30" s="7" customFormat="1" ht="28.5" x14ac:dyDescent="0.15">
-      <c r="A34" s="7" t="s">
-        <v>239</v>
-      </c>
-      <c r="B34" s="7" t="s">
-        <v>247</v>
-      </c>
-      <c r="C34" s="7" t="s">
-        <v>423</v>
-      </c>
-      <c r="D34" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E34" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="F34" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="G34" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="H34" s="7" t="s">
-        <v>424</v>
-      </c>
-      <c r="I34" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="J34" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="K34" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="L34" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="M34" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="N34" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="O34" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="P34" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q34" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="T34" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="U34" s="7" t="s">
-        <v>433</v>
-      </c>
-      <c r="V34" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="W34" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="X34" s="7" t="s">
-        <v>425</v>
+      <c r="X34" s="1" t="s">
+        <v>115</v>
       </c>
       <c r="Y34" s="2" t="s">
-        <v>426</v>
-      </c>
-      <c r="Z34" s="2" t="s">
-        <v>429</v>
+        <v>146</v>
       </c>
       <c r="AA34" s="2" t="s">
-        <v>436</v>
-      </c>
-      <c r="AB34" s="2" t="s">
-        <v>428</v>
+        <v>412</v>
       </c>
       <c r="AC34" s="3" t="s">
-        <v>437</v>
-      </c>
-      <c r="AD34" s="3" t="s">
-        <v>438</v>
+        <v>497</v>
       </c>
     </row>
     <row r="35" spans="1:30" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A35" s="1" t="s">
-        <v>239</v>
+        <v>292</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>250</v>
+        <v>305</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>294</v>
+        <v>12</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="E35" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F35" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="I35" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="J35" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="K35" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="L35" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="M35" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="N35" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="O35" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="P35" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="T35" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="U35" s="1" t="s">
+        <v>578</v>
+      </c>
+      <c r="V35" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="W35" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="X35" s="1" t="s">
+        <v>599</v>
+      </c>
+      <c r="Y35" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="AA35" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="AC35" s="3" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="36" spans="1:30" ht="57" x14ac:dyDescent="0.15">
+      <c r="A36" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>561</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D36" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="G35" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="H35" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="I35" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="J35" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="K35" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="L35" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="M35" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="P35" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="Q35" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="S35" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="T35" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="U35" s="1" t="s">
-        <v>442</v>
-      </c>
-      <c r="V35" s="1" t="s">
-        <v>293</v>
-      </c>
-      <c r="W35" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="X35" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="Y35" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="AA35" s="2" t="s">
-        <v>334</v>
-      </c>
-      <c r="AC35" s="3" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="36" spans="1:30" ht="99.75" x14ac:dyDescent="0.15">
-      <c r="A36" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>13</v>
       </c>
       <c r="E36" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F36" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="I36" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="J36" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="K36" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="L36" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="M36" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="P36" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="T36" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="U36" s="1" t="s">
+        <v>578</v>
+      </c>
+      <c r="V36" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="W36" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="X36" s="1" t="s">
+        <v>568</v>
+      </c>
+      <c r="Y36" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="AA36" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="AC36" s="3" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="37" spans="1:30" ht="114" x14ac:dyDescent="0.15">
+      <c r="A37" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="I37" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="J37" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="K37" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="L37" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="M37" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="N37" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="O37" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="P37" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q37" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="T37" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="U37" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="V37" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="W37" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="X37" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="Y37" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="Z37" s="2" t="s">
+        <v>445</v>
+      </c>
+      <c r="AA37" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="AB37" s="2" t="s">
+        <v>454</v>
+      </c>
+      <c r="AC37" s="3" t="s">
+        <v>500</v>
+      </c>
+      <c r="AD37" s="3" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="38" spans="1:30" ht="28.5" x14ac:dyDescent="0.15">
+      <c r="A38" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H38" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I38" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="J38" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="K38" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="L38" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="M38" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="O38" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="P38" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q38" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="T38" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="U38" s="1" t="s">
+        <v>572</v>
+      </c>
+      <c r="V38" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="W38" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="X38" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="Y38" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="AA38" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="AC38" s="3" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="39" spans="1:30" ht="28.5" x14ac:dyDescent="0.15">
+      <c r="A39" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H39" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="I39" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="J39" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="K39" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="L39" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="M39" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="O39" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="P39" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q39" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="T39" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="U39" s="1" t="s">
+        <v>572</v>
+      </c>
+      <c r="V39" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="W39" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="X39" s="1" t="s">
+        <v>600</v>
+      </c>
+      <c r="Y39" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="AA39" s="2" t="s">
+        <v>583</v>
+      </c>
+      <c r="AC39" s="3" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="40" spans="1:30" ht="42.75" x14ac:dyDescent="0.15">
+      <c r="A40" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>560</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="H40" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="I40" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="J40" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="K40" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="L40" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="M40" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="O40" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="P40" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q40" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="T40" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="U40" s="1" t="s">
+        <v>572</v>
+      </c>
+      <c r="V40" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="W40" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="X40" s="1" t="s">
+        <v>595</v>
+      </c>
+      <c r="Y40" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="AA40" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="AC40" s="3" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="41" spans="1:30" ht="28.5" x14ac:dyDescent="0.15">
+      <c r="A41" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="H41" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="I41" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="J41" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="K41" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="L41" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="M41" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="O41" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="P41" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q41" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="T41" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="U41" s="1" t="s">
+        <v>572</v>
+      </c>
+      <c r="V41" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="W41" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="X41" s="1" t="s">
+        <v>601</v>
+      </c>
+      <c r="Y41" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="AA41" s="2" t="s">
+        <v>584</v>
+      </c>
+      <c r="AC41" s="3" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="42" spans="1:30" ht="42.75" x14ac:dyDescent="0.15">
+      <c r="A42" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>560</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="H42" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="I42" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="J42" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="K42" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="L42" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="M42" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="O42" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="P42" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q42" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="T42" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="U42" s="1" t="s">
+        <v>572</v>
+      </c>
+      <c r="V42" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="W42" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="X42" s="1" t="s">
+        <v>594</v>
+      </c>
+      <c r="Y42" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="G36" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="H36" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="I36" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="J36" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="K36" s="1" t="s">
+      <c r="AA42" s="2" t="s">
+        <v>418</v>
+      </c>
+      <c r="AC42" s="3" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="43" spans="1:30" ht="28.5" x14ac:dyDescent="0.15">
+      <c r="A43" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>566</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>567</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="H43" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="I43" s="1" t="s">
+        <v>565</v>
+      </c>
+      <c r="J43" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="K43" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="L43" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="M43" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="P43" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="T43" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="U43" s="1" t="s">
+        <v>550</v>
+      </c>
+      <c r="V43" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="W43" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="Y43" s="2" t="s">
+        <v>562</v>
+      </c>
+      <c r="AA43" s="2" t="s">
+        <v>563</v>
+      </c>
+      <c r="AC43" s="3" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="44" spans="1:30" ht="28.5" x14ac:dyDescent="0.15">
+      <c r="A44" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>582</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>575</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H44" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I44" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="J44" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="K44" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="L44" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="M44" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="P44" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="T44" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="U44" s="1" t="s">
+        <v>577</v>
+      </c>
+      <c r="V44" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="W44" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="X44" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="Y44" s="2" t="s">
+        <v>581</v>
+      </c>
+      <c r="AA44" s="2" t="s">
+        <v>585</v>
+      </c>
+      <c r="AC44" s="8" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="45" spans="1:30" ht="28.5" x14ac:dyDescent="0.15">
+      <c r="A45" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>573</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>575</v>
+      </c>
+      <c r="G45" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="L36" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="M36" s="1" t="s">
+      <c r="H45" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="I45" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="J45" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="K45" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="L45" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="M45" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="P45" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="T45" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="U45" s="1" t="s">
+        <v>577</v>
+      </c>
+      <c r="V45" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="W45" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="X45" s="1" t="s">
+        <v>602</v>
+      </c>
+      <c r="Y45" s="2" t="s">
+        <v>579</v>
+      </c>
+      <c r="AA45" s="2" t="s">
+        <v>586</v>
+      </c>
+      <c r="AC45" s="8" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="46" spans="1:30" ht="28.5" x14ac:dyDescent="0.15">
+      <c r="A46" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>574</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>576</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H46" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="I46" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="J46" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="K46" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="L46" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="M46" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="P46" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="T46" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="U46" s="1" t="s">
+        <v>577</v>
+      </c>
+      <c r="V46" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="W46" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="X46" s="1" t="s">
+        <v>603</v>
+      </c>
+      <c r="Y46" s="2" t="s">
+        <v>580</v>
+      </c>
+      <c r="AA46" s="2" t="s">
+        <v>587</v>
+      </c>
+      <c r="AC46" s="8" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="47" spans="1:30" ht="28.5" x14ac:dyDescent="0.15">
+      <c r="A47" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>571</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="H47" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I47" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="J47" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="K47" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="L47" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="M47" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="N47" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="O47" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="P47" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q47" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="T47" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="U47" s="1" t="s">
+        <v>572</v>
+      </c>
+      <c r="V47" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="W47" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="X47" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="Y47" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="AA47" s="2" t="s">
+        <v>588</v>
+      </c>
+      <c r="AC47" s="3" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="48" spans="1:30" ht="28.5" x14ac:dyDescent="0.15">
+      <c r="A48" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H48" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="I48" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="J48" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="K48" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="L48" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="M48" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="N48" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="O48" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="P48" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q48" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="T48" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="U48" s="1" t="s">
+        <v>572</v>
+      </c>
+      <c r="V48" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="W48" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="X48" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="Y48" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="AA48" s="2" t="s">
+        <v>589</v>
+      </c>
+      <c r="AC48" s="3" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="49" spans="1:30" ht="28.5" x14ac:dyDescent="0.15">
+      <c r="A49" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="G49" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="H49" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="I49" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="J49" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="K49" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="L49" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="M49" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="N49" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="O49" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="P49" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q49" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="T49" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="U49" s="1" t="s">
+        <v>572</v>
+      </c>
+      <c r="V49" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="W49" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="X49" s="1" t="s">
+        <v>605</v>
+      </c>
+      <c r="Y49" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="AA49" s="2" t="s">
+        <v>590</v>
+      </c>
+      <c r="AC49" s="3" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="50" spans="1:30" ht="171" x14ac:dyDescent="0.15">
+      <c r="A50" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G50" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H50" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="I50" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="J50" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="K50" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="L50" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="M50" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="N50" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="O50" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="P50" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q50" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="T50" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="U50" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="V50" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="W50" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="X50" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="Y50" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="Z50" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="AA50" s="2" t="s">
+        <v>419</v>
+      </c>
+      <c r="AB50" s="2" t="s">
+        <v>525</v>
+      </c>
+      <c r="AC50" s="3" t="s">
+        <v>544</v>
+      </c>
+      <c r="AD50" s="5" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="51" spans="1:30" s="7" customFormat="1" ht="28.5" x14ac:dyDescent="0.15">
+      <c r="A51" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="B51" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="C51" s="7" t="s">
+        <v>540</v>
+      </c>
+      <c r="D51" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E51" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="F51" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="G51" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="H51" s="7" t="s">
+        <v>541</v>
+      </c>
+      <c r="I51" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="J51" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="K51" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="L51" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="M51" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="N51" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="O51" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="P51" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q51" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="T51" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="U51" s="7" t="s">
+        <v>552</v>
+      </c>
+      <c r="V51" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="W51" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="X51" s="7" t="s">
+        <v>542</v>
+      </c>
+      <c r="Y51" s="2" t="s">
+        <v>543</v>
+      </c>
+      <c r="Z51" s="2" t="s">
+        <v>546</v>
+      </c>
+      <c r="AA51" s="2" t="s">
+        <v>557</v>
+      </c>
+      <c r="AB51" s="2" t="s">
+        <v>545</v>
+      </c>
+      <c r="AC51" s="3" t="s">
+        <v>558</v>
+      </c>
+      <c r="AD51" s="3" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="52" spans="1:30" x14ac:dyDescent="0.15">
+      <c r="A52" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="G52" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="H52" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="I52" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="J52" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="K52" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="L52" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="M52" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="N52" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="O52" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="P52" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q52" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="R52" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="T52" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="U52" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="W52" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="Y52" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="AA52" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="AC52" s="3" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="53" spans="1:30" x14ac:dyDescent="0.15">
+      <c r="A53" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="G53" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="H53" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="I53" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="J53" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="K53" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="L53" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="M53" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="N53" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="O53" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="P53" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q53" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="R53" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="T53" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="U53" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="W53" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="Y53" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="AA53" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="AC53" s="3" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="54" spans="1:30" x14ac:dyDescent="0.15">
+      <c r="A54" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="G54" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="H54" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="I54" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="J54" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="K54" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="L54" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="M54" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="N54" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="O54" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="P54" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q54" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="R54" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="T54" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="U54" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="W54" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="Y54" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="AA54" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="AC54" s="3" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="55" spans="1:30" x14ac:dyDescent="0.15">
+      <c r="A55" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="G55" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="H55" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="I55" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="J55" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="K55" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="L55" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="M55" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="N55" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="O55" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="P55" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q55" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="R55" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="T55" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="U55" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="W55" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="Y55" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="AA55" s="2" t="s">
+        <v>423</v>
+      </c>
+      <c r="AC55" s="3" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="56" spans="1:30" x14ac:dyDescent="0.15">
+      <c r="A56" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="G56" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="H56" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="I56" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="J56" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="K56" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="L56" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="M56" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="N56" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="O56" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="P56" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q56" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="R56" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="T56" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="U56" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="W56" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="Y56" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="AA56" s="2" t="s">
+        <v>424</v>
+      </c>
+      <c r="AC56" s="3" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="57" spans="1:30" x14ac:dyDescent="0.15">
+      <c r="A57" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="G57" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="H57" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="I57" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="J57" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="K57" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="L57" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="M57" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="N57" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="O57" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="P57" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q57" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="R57" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="T57" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="U57" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="W57" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="Y57" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="AA57" s="2" t="s">
+        <v>425</v>
+      </c>
+      <c r="AC57" s="3" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="58" spans="1:30" ht="28.5" x14ac:dyDescent="0.15">
+      <c r="A58" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G58" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="H58" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I58" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="J58" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="K58" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="L58" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="M58" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="P58" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="Q58" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="S58" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="T58" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="U58" s="1" t="s">
+        <v>598</v>
+      </c>
+      <c r="V58" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="W58" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="X58" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="Y58" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="AA58" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="AC58" s="3" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="59" spans="1:30" ht="99.75" x14ac:dyDescent="0.15">
+      <c r="A59" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="G59" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="H59" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="I59" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="J59" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="K59" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="L59" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="M59" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="O36" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="P36" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="Q36" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="S36" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="T36" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="U36" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="V36" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="W36" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="X36" s="1" t="s">
-        <v>422</v>
-      </c>
-      <c r="Y36" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="AA36" s="2" t="s">
-        <v>335</v>
-      </c>
-      <c r="AC36" s="3" t="s">
-        <v>402</v>
+      <c r="O59" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="P59" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="Q59" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="S59" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="T59" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="U59" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="V59" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="W59" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="X59" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="Y59" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="AA59" s="2" t="s">
+        <v>427</v>
+      </c>
+      <c r="AC59" s="3" t="s">
+        <v>518</v>
       </c>
     </row>
-    <row r="37" spans="1:30" s="7" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="7" t="s">
-        <v>239</v>
-      </c>
-      <c r="B37" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="C37" s="7" t="s">
-        <v>419</v>
-      </c>
-      <c r="D37" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E37" s="7" t="s">
+    <row r="60" spans="1:30" s="7" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A60" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="B60" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="C60" s="7" t="s">
+        <v>536</v>
+      </c>
+      <c r="D60" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E60" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="F37" s="7" t="s">
-        <v>414</v>
-      </c>
-      <c r="G37" s="7" t="s">
-        <v>415</v>
-      </c>
-      <c r="H37" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="I37" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="J37" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="K37" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="L37" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="M37" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="N37" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="O37" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="P37" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q37" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="T37" s="7" t="s">
-        <v>416</v>
-      </c>
-      <c r="U37" s="7" t="s">
-        <v>435</v>
-      </c>
-      <c r="V37" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="W37" s="7" t="s">
-        <v>417</v>
-      </c>
-      <c r="X37" s="7" t="s">
-        <v>418</v>
-      </c>
-      <c r="Y37" s="2" t="s">
-        <v>421</v>
-      </c>
-      <c r="Z37" s="2"/>
-      <c r="AA37" s="2" t="s">
-        <v>420</v>
-      </c>
-      <c r="AB37" s="2"/>
-      <c r="AC37" s="3" t="s">
-        <v>439</v>
-      </c>
-      <c r="AD37" s="3"/>
+      <c r="F60" s="7" t="s">
+        <v>531</v>
+      </c>
+      <c r="G60" s="7" t="s">
+        <v>532</v>
+      </c>
+      <c r="H60" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="I60" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="J60" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="K60" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="L60" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="M60" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="N60" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="O60" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="P60" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q60" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="T60" s="7" t="s">
+        <v>533</v>
+      </c>
+      <c r="U60" s="7" t="s">
+        <v>554</v>
+      </c>
+      <c r="V60" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="W60" s="7" t="s">
+        <v>534</v>
+      </c>
+      <c r="X60" s="7" t="s">
+        <v>535</v>
+      </c>
+      <c r="Y60" s="2" t="s">
+        <v>538</v>
+      </c>
+      <c r="Z60" s="2"/>
+      <c r="AA60" s="2" t="s">
+        <v>537</v>
+      </c>
+      <c r="AB60" s="2"/>
+      <c r="AC60" s="3" t="s">
+        <v>569</v>
+      </c>
+      <c r="AD60" s="3"/>
     </row>
   </sheetData>
   <sortState ref="A2:W55">

--- a/Documents/UsbProtocol_EgsDeviceSettingsHidReport_HostAppSettings_PropertyList.xlsx
+++ b/Documents/UsbProtocol_EgsDeviceSettingsHidReport_HostAppSettings_PropertyList.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17571"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1508" uniqueCount="606">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1508" uniqueCount="609">
   <si>
     <t>MessageId</t>
   </si>
@@ -159,14 +159,6 @@
   </si>
   <si>
     <t>0x10</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>get by VideoInput</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>get by SetupDi</t>
     <phoneticPr fontId="18"/>
   </si>
   <si>
@@ -515,10 +507,6 @@
     <phoneticPr fontId="18"/>
   </si>
   <si>
-    <t>true</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
     <t>CursorSpeedAndPrecisionMode</t>
     <phoneticPr fontId="18"/>
   </si>
@@ -667,10 +655,6 @@
   </si>
   <si>
     <t>float</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>defined in device</t>
     <phoneticPr fontId="18"/>
   </si>
   <si>
@@ -722,10 +706,6 @@
     <phoneticPr fontId="18"/>
   </si>
   <si>
-    <t>false</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
     <t>true</t>
     <phoneticPr fontId="18"/>
   </si>
@@ -832,20 +812,6 @@
   </si>
   <si>
     <t>Developer</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>Developer</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>Exvision
-(Advanced?)</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>Exvision
-(Advanced)</t>
     <phoneticPr fontId="18"/>
   </si>
   <si>
@@ -1035,10 +1001,6 @@
   </si>
   <si>
     <t>No need?</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>developers set</t>
     <phoneticPr fontId="18"/>
   </si>
   <si>
@@ -1346,10 +1308,6 @@
     <phoneticPr fontId="18"/>
   </si>
   <si>
-    <t>While Host App is running, it is set to true.</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
     <t>ZkooTutorial changes the value.  Developer can change it, too.</t>
     <phoneticPr fontId="18"/>
   </si>
@@ -1486,11 +1444,6 @@
   </si>
   <si>
     <t>Developer</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>Description Category on Windows
-(in future)</t>
     <phoneticPr fontId="18"/>
   </si>
   <si>
@@ -3560,6 +3513,70 @@
   </si>
   <si>
     <t>ValueAsString = "0.15, 0.5, 0.35, 0.8"</t>
+  </si>
+  <si>
+    <t>Get from device</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>Get by SetupDi</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>Get by AForge.NET</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>Exvision sets</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>public</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>internal</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>Exvision sets
+D</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Exvision]</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>Description Category 
+(in future)
+[Setter]</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>Developer
+[Exvision]</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>Exvision
+(Advanced?)</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>Developer
+[Exvision]</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Exvision]
+(Developer)</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>Developer
+[Exvision]</t>
+    <phoneticPr fontId="18"/>
   </si>
 </sst>
 </file>
@@ -4553,8 +4570,8 @@
   <dimension ref="A1:AD60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" topLeftCell="T1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="X37" sqref="X37"/>
+      <pane xSplit="3" topLeftCell="N1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="W35" sqref="W35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -4588,13 +4605,13 @@
   <sheetData>
     <row r="1" spans="1:30" ht="57" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>293</v>
+        <v>284</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>21</v>
@@ -4609,84 +4626,84 @@
         <v>2</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>34</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>362</v>
+        <v>352</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>327</v>
+        <v>318</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>260</v>
+        <v>251</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="U1" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="V1" s="1" t="s">
         <v>355</v>
       </c>
-      <c r="V1" s="1" t="s">
-        <v>365</v>
-      </c>
       <c r="W1" s="1" t="s">
-        <v>370</v>
+        <v>603</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="Y1" s="2" t="s">
-        <v>385</v>
+        <v>374</v>
       </c>
       <c r="Z1" s="2" t="s">
-        <v>386</v>
+        <v>375</v>
       </c>
       <c r="AA1" s="2" t="s">
-        <v>428</v>
+        <v>417</v>
       </c>
       <c r="AB1" s="2" t="s">
-        <v>429</v>
+        <v>418</v>
       </c>
       <c r="AC1" s="3" t="s">
-        <v>456</v>
+        <v>445</v>
       </c>
       <c r="AD1" s="3" t="s">
-        <v>430</v>
+        <v>419</v>
       </c>
     </row>
     <row r="2" spans="1:30" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>292</v>
+        <v>283</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>296</v>
+        <v>287</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>22</v>
@@ -4698,111 +4715,111 @@
         <v>23</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K2" s="1" t="s">
         <v>27</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>257</v>
+        <v>598</v>
       </c>
       <c r="N2" s="1" t="s">
         <v>36</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="P2" s="1" t="s">
         <v>36</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="T2" s="1" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="U2" s="1" t="s">
-        <v>351</v>
+        <v>341</v>
       </c>
       <c r="V2" s="1" t="s">
-        <v>358</v>
+        <v>348</v>
       </c>
       <c r="W2" s="1" t="s">
-        <v>207</v>
+        <v>602</v>
       </c>
       <c r="X2" s="1" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="Y2" s="2" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="AA2" s="2" t="s">
-        <v>387</v>
+        <v>376</v>
       </c>
       <c r="AC2" s="3" t="s">
-        <v>471</v>
+        <v>460</v>
       </c>
     </row>
     <row r="3" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
-        <v>291</v>
+        <v>282</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>323</v>
+        <v>314</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>363</v>
+        <v>353</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>364</v>
+        <v>354</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="K3" s="1" t="s">
         <v>27</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>41</v>
+        <v>596</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="O3" s="1" t="s">
         <v>36</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>270</v>
+        <v>261</v>
       </c>
       <c r="Q3" s="1" t="s">
         <v>36</v>
@@ -4811,72 +4828,72 @@
         <v>36</v>
       </c>
       <c r="T3" s="1" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="U3" s="1" t="s">
-        <v>351</v>
+        <v>341</v>
       </c>
       <c r="W3" s="1" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="Y3" s="2" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="AA3" s="2" t="s">
-        <v>388</v>
+        <v>377</v>
       </c>
       <c r="AC3" s="3" t="s">
-        <v>472</v>
+        <v>461</v>
       </c>
     </row>
     <row r="4" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
-        <v>291</v>
+        <v>282</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>363</v>
+        <v>353</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>364</v>
+        <v>354</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="K4" s="1" t="s">
         <v>28</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>40</v>
+        <v>597</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="O4" s="1" t="s">
         <v>36</v>
       </c>
       <c r="P4" s="1" t="s">
-        <v>270</v>
+        <v>261</v>
       </c>
       <c r="Q4" s="1" t="s">
         <v>36</v>
@@ -4885,33 +4902,33 @@
         <v>36</v>
       </c>
       <c r="T4" s="1" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="U4" s="1" t="s">
-        <v>352</v>
+        <v>342</v>
       </c>
       <c r="W4" s="1" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="Y4" s="2" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="AA4" s="2" t="s">
-        <v>431</v>
+        <v>420</v>
       </c>
       <c r="AC4" s="3" t="s">
-        <v>473</v>
+        <v>462</v>
       </c>
     </row>
     <row r="5" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
-        <v>291</v>
+        <v>282</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>297</v>
+        <v>288</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>285</v>
+        <v>276</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>22</v>
@@ -4923,34 +4940,34 @@
         <v>23</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>334</v>
+        <v>325</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="K5" s="1" t="s">
         <v>32</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>37</v>
+        <v>263</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="O5" s="1" t="s">
         <v>36</v>
       </c>
       <c r="P5" s="1" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="Q5" s="1" t="s">
         <v>36</v>
@@ -4959,36 +4976,36 @@
         <v>36</v>
       </c>
       <c r="T5" s="1" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="U5" s="1" t="s">
-        <v>351</v>
+        <v>341</v>
       </c>
       <c r="V5" s="1" t="s">
-        <v>360</v>
+        <v>350</v>
       </c>
       <c r="W5" s="1" t="s">
-        <v>529</v>
+        <v>518</v>
       </c>
       <c r="Y5" s="2" t="s">
-        <v>286</v>
+        <v>277</v>
       </c>
       <c r="AA5" s="2" t="s">
-        <v>389</v>
+        <v>378</v>
       </c>
       <c r="AC5" s="3" t="s">
-        <v>474</v>
+        <v>463</v>
       </c>
     </row>
     <row r="6" spans="1:30" ht="85.5" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>300</v>
-      </c>
       <c r="C6" s="1" t="s">
-        <v>528</v>
+        <v>517</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>22</v>
@@ -5000,34 +5017,34 @@
         <v>23</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>332</v>
+        <v>323</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>343</v>
+        <v>333</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="K6" s="1" t="s">
         <v>32</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>37</v>
+        <v>263</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>333</v>
+        <v>324</v>
       </c>
       <c r="O6" s="1" t="s">
         <v>36</v>
       </c>
       <c r="P6" s="1" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="Q6" s="1" t="s">
         <v>36</v>
@@ -5036,42 +5053,42 @@
         <v>36</v>
       </c>
       <c r="T6" s="1" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="U6" s="1" t="s">
-        <v>351</v>
+        <v>341</v>
       </c>
       <c r="V6" s="1" t="s">
-        <v>359</v>
+        <v>349</v>
       </c>
       <c r="W6" s="1" t="s">
-        <v>529</v>
+        <v>518</v>
       </c>
       <c r="Y6" s="2" t="s">
-        <v>527</v>
+        <v>516</v>
       </c>
       <c r="Z6" s="2" t="s">
-        <v>548</v>
+        <v>537</v>
       </c>
       <c r="AA6" s="2" t="s">
-        <v>390</v>
+        <v>379</v>
       </c>
       <c r="AB6" s="2" t="s">
-        <v>547</v>
+        <v>536</v>
       </c>
       <c r="AC6" s="3" t="s">
-        <v>475</v>
+        <v>464</v>
       </c>
       <c r="AD6" s="3" t="s">
-        <v>549</v>
+        <v>538</v>
       </c>
     </row>
     <row r="7" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
-        <v>291</v>
+        <v>282</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>298</v>
+        <v>289</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>7</v>
@@ -5086,34 +5103,34 @@
         <v>23</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="K7" s="1" t="s">
         <v>32</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>37</v>
+        <v>263</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="O7" s="1" t="s">
         <v>36</v>
       </c>
       <c r="P7" s="1" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="Q7" s="1" t="s">
         <v>36</v>
@@ -5122,36 +5139,36 @@
         <v>36</v>
       </c>
       <c r="T7" s="1" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="U7" s="1" t="s">
-        <v>351</v>
+        <v>341</v>
       </c>
       <c r="V7" s="1" t="s">
-        <v>360</v>
+        <v>350</v>
       </c>
       <c r="W7" s="1" t="s">
-        <v>529</v>
+        <v>518</v>
       </c>
       <c r="Y7" s="2" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="AA7" s="2" t="s">
-        <v>391</v>
+        <v>380</v>
       </c>
       <c r="AC7" s="3" t="s">
-        <v>435</v>
+        <v>424</v>
       </c>
     </row>
     <row r="8" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
-        <v>291</v>
+        <v>282</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>299</v>
+        <v>290</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>22</v>
@@ -5163,34 +5180,34 @@
         <v>26</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="K8" s="1" t="s">
         <v>32</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>167</v>
+        <v>595</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="O8" s="1" t="s">
         <v>36</v>
       </c>
       <c r="P8" s="1" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="Q8" s="1" t="s">
         <v>36</v>
@@ -5199,36 +5216,36 @@
         <v>36</v>
       </c>
       <c r="T8" s="1" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="U8" s="1" t="s">
-        <v>353</v>
+        <v>343</v>
       </c>
       <c r="V8" s="1" t="s">
-        <v>358</v>
+        <v>348</v>
       </c>
       <c r="W8" s="1" t="s">
-        <v>341</v>
+        <v>331</v>
       </c>
       <c r="Y8" s="2" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="AA8" s="2" t="s">
-        <v>392</v>
+        <v>381</v>
       </c>
       <c r="AC8" s="6" t="s">
-        <v>523</v>
+        <v>512</v>
       </c>
     </row>
     <row r="9" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
-        <v>291</v>
+        <v>282</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>299</v>
+        <v>290</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>22</v>
@@ -5240,34 +5257,34 @@
         <v>26</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="K9" s="1" t="s">
         <v>32</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>167</v>
+        <v>595</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="O9" s="1" t="s">
         <v>36</v>
       </c>
       <c r="P9" s="1" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="Q9" s="1" t="s">
         <v>36</v>
@@ -5276,36 +5293,36 @@
         <v>36</v>
       </c>
       <c r="T9" s="1" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="U9" s="1" t="s">
-        <v>354</v>
+        <v>344</v>
       </c>
       <c r="V9" s="1" t="s">
-        <v>358</v>
+        <v>348</v>
       </c>
       <c r="W9" s="1" t="s">
-        <v>341</v>
+        <v>331</v>
       </c>
       <c r="Y9" s="2" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="AA9" s="2" t="s">
-        <v>393</v>
+        <v>382</v>
       </c>
       <c r="AC9" s="3" t="s">
-        <v>476</v>
+        <v>465</v>
       </c>
     </row>
     <row r="10" spans="1:30" ht="57" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
-        <v>292</v>
+        <v>283</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>300</v>
+        <v>291</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>463</v>
+        <v>452</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>22</v>
@@ -5317,81 +5334,81 @@
         <v>23</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>462</v>
+        <v>451</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K10" s="1" t="s">
         <v>32</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>524</v>
+        <v>513</v>
       </c>
       <c r="N10" s="1" t="s">
         <v>36</v>
       </c>
       <c r="O10" s="1" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="P10" s="1" t="s">
         <v>36</v>
       </c>
       <c r="Q10" s="1" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="T10" s="1" t="s">
-        <v>464</v>
+        <v>453</v>
       </c>
       <c r="U10" s="1" t="s">
-        <v>553</v>
+        <v>542</v>
       </c>
       <c r="V10" s="1" t="s">
-        <v>360</v>
+        <v>350</v>
       </c>
       <c r="W10" s="1" t="s">
-        <v>344</v>
+        <v>334</v>
       </c>
       <c r="X10" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="Y10" s="2" t="s">
-        <v>465</v>
+        <v>454</v>
       </c>
       <c r="Z10" s="2" t="s">
-        <v>466</v>
+        <v>455</v>
       </c>
       <c r="AA10" s="2" t="s">
-        <v>467</v>
+        <v>456</v>
       </c>
       <c r="AB10" s="2" t="s">
-        <v>468</v>
+        <v>457</v>
       </c>
       <c r="AC10" s="4" t="s">
-        <v>470</v>
+        <v>459</v>
       </c>
       <c r="AD10" s="4" t="s">
-        <v>469</v>
+        <v>458</v>
       </c>
     </row>
     <row r="11" spans="1:30" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
-        <v>292</v>
+        <v>283</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>300</v>
+        <v>291</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>22</v>
@@ -5403,22 +5420,22 @@
         <v>23</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="K11" s="1" t="s">
         <v>33</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="M11" s="1" t="s">
         <v>9</v>
@@ -5427,57 +5444,57 @@
         <v>36</v>
       </c>
       <c r="O11" s="1" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="P11" s="1" t="s">
         <v>36</v>
       </c>
       <c r="Q11" s="1" t="s">
-        <v>357</v>
+        <v>347</v>
       </c>
       <c r="R11" s="1" t="s">
         <v>36</v>
       </c>
       <c r="T11" s="1" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="U11" s="1" t="s">
-        <v>352</v>
+        <v>342</v>
       </c>
       <c r="V11" s="1" t="s">
-        <v>360</v>
+        <v>350</v>
       </c>
       <c r="W11" s="1" t="s">
-        <v>207</v>
+        <v>602</v>
       </c>
       <c r="X11" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="Y11" s="2" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="Z11" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="AA11" s="2" t="s">
-        <v>432</v>
+        <v>421</v>
       </c>
       <c r="AB11" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="AC11" s="3" t="s">
-        <v>477</v>
+        <v>466</v>
       </c>
       <c r="AD11" s="3" t="s">
-        <v>450</v>
+        <v>439</v>
       </c>
     </row>
     <row r="12" spans="1:30" ht="57" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
-        <v>292</v>
+        <v>283</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>300</v>
+        <v>291</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>4</v>
@@ -5492,84 +5509,84 @@
         <v>23</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="K12" s="1" t="s">
         <v>33</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>329</v>
+        <v>320</v>
       </c>
       <c r="N12" s="1" t="s">
         <v>36</v>
       </c>
       <c r="O12" s="1" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="P12" s="1" t="s">
         <v>36</v>
       </c>
       <c r="Q12" s="1" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="R12" s="1" t="s">
         <v>36</v>
       </c>
       <c r="T12" s="1" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="U12" s="1" t="s">
-        <v>352</v>
+        <v>342</v>
       </c>
       <c r="V12" s="1" t="s">
-        <v>360</v>
+        <v>350</v>
       </c>
       <c r="W12" s="1" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="X12" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="Y12" s="2" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="Z12" s="2" t="s">
-        <v>437</v>
+        <v>426</v>
       </c>
       <c r="AA12" s="2" t="s">
-        <v>394</v>
+        <v>383</v>
       </c>
       <c r="AB12" s="2" t="s">
-        <v>452</v>
+        <v>441</v>
       </c>
       <c r="AC12" s="3" t="s">
-        <v>478</v>
+        <v>467</v>
       </c>
       <c r="AD12" s="3" t="s">
-        <v>519</v>
+        <v>508</v>
       </c>
     </row>
     <row r="13" spans="1:30" ht="57" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
-        <v>292</v>
+        <v>283</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>300</v>
+        <v>291</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>22</v>
@@ -5581,84 +5598,84 @@
         <v>23</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K13" s="1" t="s">
         <v>33</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>328</v>
+        <v>319</v>
       </c>
       <c r="N13" s="1" t="s">
         <v>36</v>
       </c>
       <c r="O13" s="1" t="s">
-        <v>273</v>
+        <v>264</v>
       </c>
       <c r="P13" s="1" t="s">
         <v>36</v>
       </c>
       <c r="Q13" s="1" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="R13" s="1" t="s">
         <v>36</v>
       </c>
       <c r="T13" s="1" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="U13" s="1" t="s">
-        <v>352</v>
+        <v>342</v>
       </c>
       <c r="V13" s="1" t="s">
-        <v>360</v>
+        <v>350</v>
       </c>
       <c r="W13" s="1" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="X13" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="Y13" s="2" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="Z13" s="2" t="s">
+        <v>427</v>
+      </c>
+      <c r="AA13" s="2" t="s">
         <v>438</v>
       </c>
-      <c r="AA13" s="2" t="s">
-        <v>449</v>
-      </c>
       <c r="AB13" s="2" t="s">
-        <v>453</v>
+        <v>442</v>
       </c>
       <c r="AC13" s="3" t="s">
-        <v>479</v>
+        <v>468</v>
       </c>
       <c r="AD13" s="3" t="s">
-        <v>520</v>
+        <v>509</v>
       </c>
     </row>
     <row r="14" spans="1:30" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
-        <v>292</v>
+        <v>283</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>300</v>
+        <v>291</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>22</v>
@@ -5670,25 +5687,25 @@
         <v>23</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K14" s="1" t="s">
         <v>32</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="M14" s="1" t="s">
-        <v>258</v>
+        <v>249</v>
       </c>
       <c r="N14" s="1" t="s">
         <v>36</v>
@@ -5700,45 +5717,45 @@
         <v>36</v>
       </c>
       <c r="T14" s="1" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="U14" s="1" t="s">
-        <v>550</v>
+        <v>539</v>
       </c>
       <c r="W14" s="1" t="s">
-        <v>344</v>
+        <v>334</v>
       </c>
       <c r="X14" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="Y14" s="2" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="Z14" s="2" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="AA14" s="2" t="s">
-        <v>395</v>
+        <v>384</v>
       </c>
       <c r="AB14" s="2" t="s">
-        <v>436</v>
+        <v>425</v>
       </c>
       <c r="AC14" s="5" t="s">
-        <v>451</v>
+        <v>440</v>
       </c>
       <c r="AD14" s="3" t="s">
-        <v>480</v>
+        <v>469</v>
       </c>
     </row>
     <row r="15" spans="1:30" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>301</v>
-      </c>
       <c r="C15" s="1" t="s">
-        <v>274</v>
+        <v>265</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>22</v>
@@ -5750,75 +5767,75 @@
         <v>26</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="M15" s="1" t="s">
-        <v>335</v>
+        <v>598</v>
       </c>
       <c r="N15" s="1" t="s">
         <v>36</v>
       </c>
       <c r="O15" s="1" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="P15" s="1" t="s">
         <v>36</v>
       </c>
       <c r="Q15" s="1" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="R15" s="1" t="s">
         <v>36</v>
       </c>
       <c r="T15" s="1" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
       <c r="U15" s="1" t="s">
-        <v>352</v>
+        <v>342</v>
       </c>
       <c r="V15" s="1" t="s">
-        <v>360</v>
+        <v>350</v>
       </c>
       <c r="W15" s="1" t="s">
-        <v>205</v>
+        <v>604</v>
       </c>
       <c r="X15" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="Y15" s="2" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
       <c r="AA15" s="2" t="s">
-        <v>396</v>
+        <v>385</v>
       </c>
       <c r="AC15" s="3" t="s">
-        <v>481</v>
+        <v>470</v>
       </c>
     </row>
     <row r="16" spans="1:30" ht="42.75" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="B16" s="1" t="s">
-        <v>301</v>
-      </c>
       <c r="C16" s="1" t="s">
-        <v>275</v>
+        <v>266</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>22</v>
@@ -5830,72 +5847,72 @@
         <v>23</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>276</v>
+        <v>267</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K16" s="1" t="s">
         <v>32</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="M16" s="1" t="s">
-        <v>336</v>
+        <v>326</v>
       </c>
       <c r="N16" s="1" t="s">
         <v>36</v>
       </c>
       <c r="O16" s="1" t="s">
-        <v>279</v>
+        <v>270</v>
       </c>
       <c r="P16" s="1" t="s">
         <v>36</v>
       </c>
       <c r="Q16" s="1" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="R16" s="1" t="s">
         <v>36</v>
       </c>
       <c r="T16" s="1" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="U16" s="1" t="s">
-        <v>354</v>
+        <v>344</v>
       </c>
       <c r="V16" s="1" t="s">
         <v>32</v>
       </c>
       <c r="W16" s="1" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="X16" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="Y16" s="2" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
       <c r="AA16" s="2" t="s">
-        <v>397</v>
+        <v>386</v>
       </c>
       <c r="AC16" s="3" t="s">
-        <v>482</v>
+        <v>471</v>
       </c>
     </row>
     <row r="17" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>292</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>301</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>11</v>
@@ -5910,75 +5927,75 @@
         <v>26</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="H17" s="1" t="s">
         <v>10</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K17" s="1" t="s">
         <v>32</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="M17" s="1" t="s">
-        <v>337</v>
+        <v>327</v>
       </c>
       <c r="N17" s="1" t="s">
         <v>36</v>
       </c>
       <c r="O17" s="1" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="P17" s="1" t="s">
         <v>36</v>
       </c>
       <c r="Q17" s="1" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="R17" s="1" t="s">
         <v>36</v>
       </c>
       <c r="T17" s="1" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="U17" s="1" t="s">
-        <v>352</v>
+        <v>342</v>
       </c>
       <c r="V17" s="1" t="s">
-        <v>360</v>
+        <v>350</v>
       </c>
       <c r="W17" s="1" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="X17" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="Y17" s="2" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="AA17" s="2" t="s">
-        <v>398</v>
+        <v>387</v>
       </c>
       <c r="AC17" s="3" t="s">
-        <v>483</v>
+        <v>472</v>
       </c>
     </row>
     <row r="18" spans="1:30" ht="42.75" x14ac:dyDescent="0.15">
       <c r="A18" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="B18" s="1" t="s">
-        <v>301</v>
-      </c>
       <c r="C18" s="1" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>22</v>
@@ -5987,78 +6004,78 @@
         <v>3</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="H18" s="1" t="s">
         <v>10</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="K18" s="1" t="s">
         <v>33</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="M18" s="1" t="s">
-        <v>337</v>
+        <v>327</v>
       </c>
       <c r="N18" s="1" t="s">
         <v>36</v>
       </c>
       <c r="O18" s="1" t="s">
-        <v>273</v>
+        <v>264</v>
       </c>
       <c r="P18" s="1" t="s">
         <v>36</v>
       </c>
       <c r="Q18" s="1" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="R18" s="1" t="s">
         <v>36</v>
       </c>
       <c r="T18" s="1" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="U18" s="1" t="s">
-        <v>351</v>
+        <v>341</v>
       </c>
       <c r="V18" s="1" t="s">
-        <v>360</v>
+        <v>350</v>
       </c>
       <c r="W18" s="1" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="X18" s="1" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="Y18" s="2" t="s">
-        <v>455</v>
+        <v>444</v>
       </c>
       <c r="AA18" s="2" t="s">
-        <v>399</v>
+        <v>388</v>
       </c>
       <c r="AC18" s="3" t="s">
-        <v>484</v>
+        <v>473</v>
       </c>
     </row>
     <row r="19" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A19" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="B19" s="1" t="s">
-        <v>301</v>
-      </c>
       <c r="C19" s="1" t="s">
-        <v>281</v>
+        <v>272</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>22</v>
@@ -6070,75 +6087,75 @@
         <v>38</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="H19" s="1" t="s">
         <v>10</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="K19" s="1" t="s">
         <v>33</v>
       </c>
       <c r="L19" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="M19" s="1" t="s">
-        <v>337</v>
+        <v>327</v>
       </c>
       <c r="N19" s="1" t="s">
         <v>36</v>
       </c>
       <c r="O19" s="1" t="s">
-        <v>280</v>
+        <v>271</v>
       </c>
       <c r="P19" s="1" t="s">
         <v>36</v>
       </c>
       <c r="Q19" s="1" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="R19" s="1" t="s">
         <v>36</v>
       </c>
       <c r="T19" s="1" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="U19" s="1" t="s">
-        <v>352</v>
+        <v>342</v>
       </c>
       <c r="V19" s="1" t="s">
-        <v>360</v>
+        <v>350</v>
       </c>
       <c r="W19" s="1" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="X19" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="Y19" s="2" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="AA19" s="2" t="s">
-        <v>400</v>
+        <v>389</v>
       </c>
       <c r="AC19" s="3" t="s">
-        <v>485</v>
+        <v>474</v>
       </c>
     </row>
     <row r="20" spans="1:30" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A20" s="1" t="s">
-        <v>292</v>
+        <v>283</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>300</v>
+        <v>291</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>22</v>
@@ -6147,72 +6164,72 @@
         <v>3</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G20" s="1" t="s">
         <v>38</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="K20" s="1" t="s">
         <v>32</v>
       </c>
       <c r="L20" s="1" t="s">
-        <v>326</v>
+        <v>317</v>
       </c>
       <c r="M20" s="1" t="s">
-        <v>330</v>
+        <v>321</v>
       </c>
       <c r="P20" s="1" t="s">
         <v>36</v>
       </c>
       <c r="T20" s="1" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="U20" s="1" t="s">
-        <v>551</v>
+        <v>540</v>
       </c>
       <c r="W20" s="1" t="s">
-        <v>208</v>
+        <v>605</v>
       </c>
       <c r="X20" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="Y20" s="2" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="Z20" s="2" t="s">
-        <v>439</v>
+        <v>428</v>
       </c>
       <c r="AA20" s="2" t="s">
-        <v>433</v>
+        <v>422</v>
       </c>
       <c r="AB20" s="2" t="s">
-        <v>440</v>
+        <v>429</v>
       </c>
       <c r="AC20" s="3" t="s">
-        <v>486</v>
+        <v>475</v>
       </c>
       <c r="AD20" s="3" t="s">
-        <v>521</v>
+        <v>510</v>
       </c>
     </row>
     <row r="21" spans="1:30" ht="42.75" x14ac:dyDescent="0.15">
       <c r="A21" s="1" t="s">
-        <v>292</v>
+        <v>283</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>302</v>
+        <v>293</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>22</v>
@@ -6221,75 +6238,75 @@
         <v>3</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="K21" s="1" t="s">
         <v>32</v>
       </c>
       <c r="L21" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="M21" s="1" t="s">
-        <v>259</v>
+        <v>250</v>
       </c>
       <c r="N21" s="1" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="O21" s="1" t="s">
         <v>36</v>
       </c>
       <c r="P21" s="1" t="s">
-        <v>262</v>
+        <v>253</v>
       </c>
       <c r="Q21" s="1" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="S21" s="1" t="s">
         <v>36</v>
       </c>
       <c r="T21" s="1" t="s">
-        <v>264</v>
+        <v>255</v>
       </c>
       <c r="U21" s="1" t="s">
-        <v>597</v>
+        <v>586</v>
       </c>
       <c r="V21" s="1" t="s">
         <v>32</v>
       </c>
       <c r="W21" s="1" t="s">
-        <v>206</v>
+        <v>605</v>
       </c>
       <c r="X21" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="Y21" s="2" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="AA21" s="2" t="s">
-        <v>401</v>
+        <v>390</v>
       </c>
       <c r="AC21" s="3" t="s">
-        <v>487</v>
+        <v>476</v>
       </c>
     </row>
     <row r="22" spans="1:30" ht="57" x14ac:dyDescent="0.15">
       <c r="A22" s="1" t="s">
-        <v>292</v>
+        <v>283</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>300</v>
+        <v>291</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>6</v>
@@ -6304,81 +6321,81 @@
         <v>29</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="K22" s="1" t="s">
         <v>33</v>
       </c>
       <c r="L22" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="M22" s="1" t="s">
-        <v>258</v>
+        <v>249</v>
       </c>
       <c r="N22" s="1" t="s">
         <v>36</v>
       </c>
       <c r="O22" s="1" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="P22" s="1" t="s">
         <v>36</v>
       </c>
       <c r="Q22" s="1" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="T22" s="1" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="U22" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="V22" s="1" t="s">
         <v>351</v>
       </c>
-      <c r="V22" s="1" t="s">
-        <v>361</v>
-      </c>
       <c r="W22" s="1" t="s">
-        <v>342</v>
+        <v>332</v>
       </c>
       <c r="X22" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="Y22" s="2" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="Z22" s="2" t="s">
-        <v>444</v>
+        <v>433</v>
       </c>
       <c r="AA22" s="2" t="s">
-        <v>434</v>
+        <v>423</v>
       </c>
       <c r="AB22" s="2" t="s">
-        <v>441</v>
+        <v>430</v>
       </c>
       <c r="AC22" s="3" t="s">
-        <v>457</v>
+        <v>446</v>
       </c>
       <c r="AD22" s="3" t="s">
-        <v>488</v>
+        <v>477</v>
       </c>
     </row>
     <row r="23" spans="1:30" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A23" s="1" t="s">
-        <v>292</v>
+        <v>283</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>303</v>
+        <v>294</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>22</v>
@@ -6390,63 +6407,63 @@
         <v>29</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="K23" s="1" t="s">
         <v>33</v>
       </c>
       <c r="L23" s="1" t="s">
-        <v>325</v>
+        <v>316</v>
       </c>
       <c r="M23" s="1" t="s">
-        <v>330</v>
+        <v>321</v>
       </c>
       <c r="N23" s="1" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="P23" s="1" t="s">
-        <v>262</v>
+        <v>253</v>
       </c>
       <c r="Q23" s="1" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="T23" s="1" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="U23" s="1" t="s">
-        <v>351</v>
+        <v>341</v>
       </c>
       <c r="V23" s="1" t="s">
-        <v>360</v>
+        <v>350</v>
       </c>
       <c r="W23" s="1" t="s">
-        <v>205</v>
+        <v>606</v>
       </c>
       <c r="Y23" s="2" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="AA23" s="2" t="s">
-        <v>402</v>
+        <v>391</v>
       </c>
       <c r="AC23" s="3" t="s">
-        <v>489</v>
+        <v>478</v>
       </c>
     </row>
     <row r="24" spans="1:30" ht="42.75" x14ac:dyDescent="0.15">
       <c r="A24" s="1" t="s">
-        <v>292</v>
+        <v>283</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>300</v>
+        <v>291</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>5</v>
@@ -6461,81 +6478,81 @@
         <v>24</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="K24" s="1" t="s">
         <v>33</v>
       </c>
       <c r="L24" s="1" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="M24" s="1" t="s">
-        <v>258</v>
+        <v>249</v>
       </c>
       <c r="N24" s="1" t="s">
         <v>36</v>
       </c>
       <c r="O24" s="1" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="P24" s="1" t="s">
         <v>36</v>
       </c>
       <c r="Q24" s="1" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="T24" s="1" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="U24" s="1" t="s">
-        <v>356</v>
+        <v>346</v>
       </c>
       <c r="V24" s="1" t="s">
-        <v>360</v>
+        <v>350</v>
       </c>
       <c r="W24" s="1" t="s">
-        <v>339</v>
+        <v>329</v>
       </c>
       <c r="X24" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="Y24" s="2" t="s">
-        <v>340</v>
+        <v>330</v>
       </c>
       <c r="Z24" s="2" t="s">
-        <v>442</v>
+        <v>431</v>
       </c>
       <c r="AA24" s="2" t="s">
-        <v>403</v>
+        <v>392</v>
       </c>
       <c r="AB24" s="2" t="s">
-        <v>443</v>
+        <v>432</v>
       </c>
       <c r="AC24" s="6" t="s">
-        <v>530</v>
+        <v>519</v>
       </c>
       <c r="AD24" s="3" t="s">
-        <v>490</v>
+        <v>479</v>
       </c>
     </row>
     <row r="25" spans="1:30" ht="57" x14ac:dyDescent="0.15">
       <c r="A25" s="1" t="s">
-        <v>292</v>
+        <v>283</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>300</v>
+        <v>291</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>379</v>
+        <v>368</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>22</v>
@@ -6547,78 +6564,78 @@
         <v>24</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>373</v>
+        <v>362</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="K25" s="1" t="s">
         <v>33</v>
       </c>
       <c r="L25" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="M25" s="1" t="s">
-        <v>258</v>
+        <v>249</v>
       </c>
       <c r="N25" s="1" t="s">
         <v>36</v>
       </c>
       <c r="O25" s="1" t="s">
-        <v>383</v>
+        <v>372</v>
       </c>
       <c r="P25" s="1" t="s">
         <v>36</v>
       </c>
       <c r="T25" s="1" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="U25" s="1" t="s">
-        <v>377</v>
+        <v>366</v>
       </c>
       <c r="V25" s="1" t="s">
         <v>32</v>
       </c>
       <c r="W25" s="1" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="X25" s="1" t="s">
-        <v>381</v>
+        <v>370</v>
       </c>
       <c r="Y25" s="2" t="s">
-        <v>382</v>
+        <v>371</v>
       </c>
       <c r="Z25" s="2" t="s">
+        <v>436</v>
+      </c>
+      <c r="AA25" s="2" t="s">
+        <v>515</v>
+      </c>
+      <c r="AB25" s="2" t="s">
+        <v>437</v>
+      </c>
+      <c r="AC25" s="3" t="s">
         <v>447</v>
       </c>
-      <c r="AA25" s="2" t="s">
-        <v>526</v>
-      </c>
-      <c r="AB25" s="2" t="s">
-        <v>448</v>
-      </c>
-      <c r="AC25" s="3" t="s">
-        <v>458</v>
-      </c>
       <c r="AD25" s="3" t="s">
-        <v>491</v>
+        <v>480</v>
       </c>
     </row>
     <row r="26" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A26" s="1" t="s">
-        <v>292</v>
+        <v>283</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>378</v>
+        <v>367</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>380</v>
+        <v>369</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>22</v>
@@ -6630,60 +6647,60 @@
         <v>24</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>374</v>
+        <v>363</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>375</v>
+        <v>364</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="K26" s="1" t="s">
         <v>33</v>
       </c>
       <c r="L26" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="M26" s="1" t="s">
-        <v>258</v>
+        <v>249</v>
       </c>
       <c r="O26" s="1" t="s">
-        <v>383</v>
+        <v>372</v>
       </c>
       <c r="T26" s="1" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="U26" s="1" t="s">
-        <v>353</v>
+        <v>343</v>
       </c>
       <c r="V26" s="1" t="s">
         <v>32</v>
       </c>
       <c r="W26" s="1" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="Y26" s="2" t="s">
-        <v>376</v>
+        <v>365</v>
       </c>
       <c r="AA26" s="2" t="s">
-        <v>404</v>
+        <v>393</v>
       </c>
       <c r="AC26" s="3" t="s">
-        <v>522</v>
+        <v>511</v>
       </c>
     </row>
     <row r="27" spans="1:30" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A27" s="1" t="s">
-        <v>292</v>
+        <v>283</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>299</v>
+        <v>290</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>288</v>
+        <v>279</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>22</v>
@@ -6695,69 +6712,69 @@
         <v>24</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="K27" s="1" t="s">
         <v>33</v>
       </c>
       <c r="L27" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="M27" s="1" t="s">
-        <v>330</v>
+        <v>321</v>
       </c>
       <c r="O27" s="1" t="s">
         <v>36</v>
       </c>
       <c r="P27" s="1" t="s">
-        <v>262</v>
+        <v>253</v>
       </c>
       <c r="S27" s="1" t="s">
         <v>36</v>
       </c>
       <c r="T27" s="1" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="U27" s="1" t="s">
-        <v>596</v>
+        <v>585</v>
       </c>
       <c r="V27" s="1" t="s">
-        <v>360</v>
+        <v>350</v>
       </c>
       <c r="W27" s="1" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="X27" s="1" t="s">
-        <v>283</v>
+        <v>274</v>
       </c>
       <c r="Y27" s="2" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="AA27" s="2" t="s">
-        <v>405</v>
+        <v>394</v>
       </c>
       <c r="AC27" s="3" t="s">
-        <v>459</v>
+        <v>448</v>
       </c>
     </row>
     <row r="28" spans="1:30" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A28" s="1" t="s">
-        <v>292</v>
+        <v>283</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>299</v>
+        <v>290</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>287</v>
+        <v>278</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>22</v>
@@ -6769,31 +6786,31 @@
         <v>35</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="K28" s="1" t="s">
         <v>33</v>
       </c>
       <c r="L28" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="M28" s="1" t="s">
-        <v>272</v>
+        <v>263</v>
       </c>
       <c r="O28" s="1" t="s">
         <v>36</v>
       </c>
       <c r="P28" s="1" t="s">
-        <v>262</v>
+        <v>253</v>
       </c>
       <c r="Q28" s="1" t="s">
         <v>36</v>
@@ -6802,39 +6819,39 @@
         <v>36</v>
       </c>
       <c r="T28" s="1" t="s">
-        <v>265</v>
+        <v>256</v>
       </c>
       <c r="U28" s="1" t="s">
-        <v>596</v>
+        <v>585</v>
       </c>
       <c r="V28" s="1" t="s">
-        <v>360</v>
+        <v>350</v>
       </c>
       <c r="W28" s="1" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="X28" s="1" t="s">
-        <v>284</v>
+        <v>275</v>
       </c>
       <c r="Y28" s="2" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="AA28" s="2" t="s">
-        <v>406</v>
+        <v>395</v>
       </c>
       <c r="AC28" s="3" t="s">
-        <v>492</v>
+        <v>481</v>
       </c>
     </row>
     <row r="29" spans="1:30" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A29" s="1" t="s">
-        <v>292</v>
+        <v>283</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>299</v>
+        <v>290</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>289</v>
+        <v>280</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>22</v>
@@ -6846,69 +6863,69 @@
         <v>24</v>
       </c>
       <c r="G29" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="H29" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="H29" s="1" t="s">
-        <v>74</v>
-      </c>
       <c r="I29" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="K29" s="1" t="s">
         <v>32</v>
       </c>
       <c r="L29" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="M29" s="1" t="s">
-        <v>330</v>
+        <v>321</v>
       </c>
       <c r="O29" s="1" t="s">
         <v>36</v>
       </c>
       <c r="P29" s="1" t="s">
-        <v>262</v>
+        <v>253</v>
       </c>
       <c r="S29" s="1" t="s">
         <v>36</v>
       </c>
       <c r="T29" s="1" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="U29" s="1" t="s">
-        <v>596</v>
+        <v>585</v>
       </c>
       <c r="V29" s="1" t="s">
-        <v>360</v>
+        <v>350</v>
       </c>
       <c r="W29" s="1" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="X29" s="1" t="s">
-        <v>282</v>
+        <v>273</v>
       </c>
       <c r="Y29" s="2" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="AA29" s="2" t="s">
-        <v>407</v>
+        <v>396</v>
       </c>
       <c r="AC29" s="3" t="s">
-        <v>460</v>
+        <v>449</v>
       </c>
     </row>
     <row r="30" spans="1:30" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A30" s="1" t="s">
-        <v>292</v>
+        <v>283</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>299</v>
+        <v>290</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>290</v>
+        <v>281</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>22</v>
@@ -6920,69 +6937,69 @@
         <v>24</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="K30" s="1" t="s">
         <v>32</v>
       </c>
       <c r="L30" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="M30" s="1" t="s">
-        <v>330</v>
+        <v>321</v>
       </c>
       <c r="O30" s="1" t="s">
         <v>36</v>
       </c>
       <c r="P30" s="1" t="s">
-        <v>261</v>
+        <v>252</v>
       </c>
       <c r="S30" s="1" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="T30" s="1" t="s">
-        <v>255</v>
+        <v>247</v>
       </c>
       <c r="U30" s="1" t="s">
-        <v>596</v>
+        <v>585</v>
       </c>
       <c r="V30" s="1" t="s">
-        <v>360</v>
+        <v>350</v>
       </c>
       <c r="W30" s="1" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="X30" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="Y30" s="2" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="AA30" s="2" t="s">
-        <v>408</v>
+        <v>397</v>
       </c>
       <c r="AC30" s="3" t="s">
-        <v>493</v>
+        <v>482</v>
       </c>
     </row>
     <row r="31" spans="1:30" ht="42.75" x14ac:dyDescent="0.15">
       <c r="A31" s="1" t="s">
-        <v>294</v>
+        <v>285</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>300</v>
+        <v>291</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>22</v>
@@ -6994,81 +7011,81 @@
         <v>30</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="K31" s="1" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="L31" s="1" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="M31" s="1" t="s">
-        <v>324</v>
+        <v>315</v>
       </c>
       <c r="N31" s="1" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="O31" s="1" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="P31" s="1" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="Q31" s="1" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="T31" s="1" t="s">
-        <v>271</v>
+        <v>262</v>
       </c>
       <c r="U31" s="1" t="s">
-        <v>351</v>
+        <v>341</v>
       </c>
       <c r="V31" s="1" t="s">
-        <v>360</v>
+        <v>350</v>
       </c>
       <c r="W31" s="1" t="s">
-        <v>368</v>
+        <v>358</v>
       </c>
       <c r="X31" s="1" t="s">
-        <v>367</v>
+        <v>357</v>
       </c>
       <c r="Y31" s="2" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="Z31" s="2" t="s">
-        <v>366</v>
+        <v>356</v>
       </c>
       <c r="AA31" s="2" t="s">
-        <v>409</v>
+        <v>398</v>
       </c>
       <c r="AB31" s="2" t="s">
-        <v>366</v>
+        <v>356</v>
       </c>
       <c r="AC31" s="3" t="s">
-        <v>494</v>
+        <v>483</v>
       </c>
       <c r="AD31" s="3" t="s">
-        <v>461</v>
+        <v>450</v>
       </c>
     </row>
     <row r="32" spans="1:30" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A32" s="1" t="s">
-        <v>292</v>
+        <v>283</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>304</v>
+        <v>295</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>22</v>
@@ -7080,72 +7097,72 @@
         <v>30</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>179</v>
+        <v>69</v>
       </c>
       <c r="K32" s="1" t="s">
         <v>33</v>
       </c>
       <c r="L32" s="1" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="M32" s="1" t="s">
-        <v>331</v>
+        <v>322</v>
       </c>
       <c r="N32" s="1" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="O32" s="1" t="s">
         <v>36</v>
       </c>
       <c r="P32" s="1" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="Q32" s="1" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="S32" s="1" t="s">
         <v>36</v>
       </c>
       <c r="T32" s="1" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="U32" s="1" t="s">
-        <v>351</v>
+        <v>341</v>
       </c>
       <c r="V32" s="1" t="s">
-        <v>360</v>
+        <v>350</v>
       </c>
       <c r="W32" s="1" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="Y32" s="2" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="AA32" s="2" t="s">
-        <v>410</v>
+        <v>399</v>
       </c>
       <c r="AC32" s="3" t="s">
-        <v>495</v>
+        <v>484</v>
       </c>
     </row>
     <row r="33" spans="1:30" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A33" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="B33" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="B33" s="1" t="s">
-        <v>301</v>
-      </c>
       <c r="C33" s="1" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>22</v>
@@ -7157,72 +7174,72 @@
         <v>30</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="K33" s="1" t="s">
         <v>33</v>
       </c>
       <c r="L33" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="M33" s="1" t="s">
-        <v>258</v>
+        <v>249</v>
       </c>
       <c r="N33" s="1" t="s">
         <v>36</v>
       </c>
       <c r="O33" s="1" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="P33" s="1" t="s">
         <v>36</v>
       </c>
       <c r="Q33" s="1" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="T33" s="1" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="U33" s="1" t="s">
-        <v>351</v>
+        <v>341</v>
       </c>
       <c r="V33" s="1" t="s">
-        <v>360</v>
+        <v>350</v>
       </c>
       <c r="W33" s="1" t="s">
-        <v>369</v>
+        <v>359</v>
       </c>
       <c r="X33" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="Y33" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="Y33" s="2" t="s">
-        <v>188</v>
-      </c>
       <c r="AA33" s="2" t="s">
-        <v>411</v>
+        <v>400</v>
       </c>
       <c r="AC33" s="3" t="s">
-        <v>496</v>
+        <v>485</v>
       </c>
     </row>
     <row r="34" spans="1:30" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A34" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="B34" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="B34" s="1" t="s">
-        <v>301</v>
-      </c>
       <c r="C34" s="1" t="s">
-        <v>570</v>
+        <v>559</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>22</v>
@@ -7231,69 +7248,69 @@
         <v>3</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="H34" s="1" t="s">
         <v>10</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="K34" s="1" t="s">
-        <v>33</v>
+        <v>599</v>
       </c>
       <c r="L34" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="M34" s="1" t="s">
-        <v>258</v>
+        <v>249</v>
       </c>
       <c r="N34" s="1" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="O34" s="1" t="s">
-        <v>383</v>
+        <v>372</v>
       </c>
       <c r="P34" s="1" t="s">
         <v>36</v>
       </c>
       <c r="T34" s="1" t="s">
-        <v>263</v>
+        <v>254</v>
       </c>
       <c r="U34" s="1" t="s">
-        <v>578</v>
+        <v>567</v>
       </c>
       <c r="V34" s="1" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="W34" s="1" t="s">
-        <v>209</v>
+        <v>607</v>
       </c>
       <c r="X34" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="Y34" s="2" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="AA34" s="2" t="s">
-        <v>412</v>
+        <v>401</v>
       </c>
       <c r="AC34" s="3" t="s">
-        <v>497</v>
+        <v>486</v>
       </c>
     </row>
     <row r="35" spans="1:30" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A35" s="1" t="s">
-        <v>292</v>
+        <v>283</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>305</v>
+        <v>296</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>12</v>
@@ -7305,69 +7322,69 @@
         <v>3</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G35" s="1" t="s">
         <v>24</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="K35" s="1" t="s">
         <v>33</v>
       </c>
       <c r="L35" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="M35" s="1" t="s">
-        <v>258</v>
+        <v>249</v>
       </c>
       <c r="N35" s="1" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="O35" s="1" t="s">
-        <v>383</v>
+        <v>372</v>
       </c>
       <c r="P35" s="1" t="s">
         <v>36</v>
       </c>
       <c r="T35" s="1" t="s">
-        <v>263</v>
+        <v>254</v>
       </c>
       <c r="U35" s="1" t="s">
-        <v>578</v>
+        <v>567</v>
       </c>
       <c r="V35" s="1" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="W35" s="1" t="s">
-        <v>209</v>
+        <v>607</v>
       </c>
       <c r="X35" s="1" t="s">
-        <v>599</v>
+        <v>588</v>
       </c>
       <c r="Y35" s="2" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="AA35" s="2" t="s">
-        <v>413</v>
+        <v>402</v>
       </c>
       <c r="AC35" s="3" t="s">
-        <v>498</v>
+        <v>487</v>
       </c>
     </row>
     <row r="36" spans="1:30" ht="57" x14ac:dyDescent="0.15">
       <c r="A36" s="1" t="s">
-        <v>292</v>
+        <v>283</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>561</v>
+        <v>550</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>13</v>
@@ -7379,66 +7396,66 @@
         <v>3</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="K36" s="1" t="s">
         <v>33</v>
       </c>
       <c r="L36" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="M36" s="1" t="s">
-        <v>258</v>
+        <v>249</v>
       </c>
       <c r="P36" s="1" t="s">
         <v>36</v>
       </c>
       <c r="T36" s="1" t="s">
-        <v>263</v>
+        <v>254</v>
       </c>
       <c r="U36" s="1" t="s">
-        <v>578</v>
+        <v>567</v>
       </c>
       <c r="V36" s="1" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="W36" s="1" t="s">
-        <v>209</v>
+        <v>607</v>
       </c>
       <c r="X36" s="1" t="s">
-        <v>568</v>
+        <v>557</v>
       </c>
       <c r="Y36" s="2" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="AA36" s="2" t="s">
-        <v>414</v>
+        <v>403</v>
       </c>
       <c r="AC36" s="3" t="s">
-        <v>499</v>
+        <v>488</v>
       </c>
     </row>
     <row r="37" spans="1:30" ht="114" x14ac:dyDescent="0.15">
       <c r="A37" s="1" t="s">
-        <v>292</v>
+        <v>283</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>300</v>
+        <v>291</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>22</v>
@@ -7447,81 +7464,81 @@
         <v>3</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="K37" s="1" t="s">
         <v>33</v>
       </c>
       <c r="L37" s="1" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="M37" s="1" t="s">
-        <v>258</v>
+        <v>249</v>
       </c>
       <c r="N37" s="1" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="O37" s="1" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="P37" s="1" t="s">
         <v>36</v>
       </c>
       <c r="Q37" s="1" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="T37" s="1" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="U37" s="1" t="s">
-        <v>352</v>
+        <v>342</v>
       </c>
       <c r="V37" s="1" t="s">
-        <v>360</v>
+        <v>350</v>
       </c>
       <c r="W37" s="1" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="X37" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="Y37" s="2" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="Z37" s="2" t="s">
-        <v>445</v>
+        <v>434</v>
       </c>
       <c r="AA37" s="2" t="s">
-        <v>415</v>
+        <v>404</v>
       </c>
       <c r="AB37" s="2" t="s">
-        <v>454</v>
+        <v>443</v>
       </c>
       <c r="AC37" s="3" t="s">
-        <v>500</v>
+        <v>489</v>
       </c>
       <c r="AD37" s="3" t="s">
-        <v>501</v>
+        <v>490</v>
       </c>
     </row>
     <row r="38" spans="1:30" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A38" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="B38" s="1" t="s">
         <v>292</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>301</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>14</v>
@@ -7533,7 +7550,7 @@
         <v>3</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G38" s="1" t="s">
         <v>39</v>
@@ -7542,60 +7559,60 @@
         <v>10</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="K38" s="1" t="s">
-        <v>33</v>
+        <v>600</v>
       </c>
       <c r="L38" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="M38" s="1" t="s">
-        <v>258</v>
+        <v>601</v>
       </c>
       <c r="O38" s="1" t="s">
-        <v>555</v>
+        <v>544</v>
       </c>
       <c r="P38" s="1" t="s">
         <v>36</v>
       </c>
       <c r="Q38" s="1" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="T38" s="1" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="U38" s="1" t="s">
-        <v>572</v>
+        <v>561</v>
       </c>
       <c r="V38" s="1" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="W38" s="1" t="s">
-        <v>209</v>
+        <v>607</v>
       </c>
       <c r="X38" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="Y38" s="2" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="AA38" s="2" t="s">
-        <v>416</v>
+        <v>405</v>
       </c>
       <c r="AC38" s="3" t="s">
-        <v>502</v>
+        <v>491</v>
       </c>
     </row>
     <row r="39" spans="1:30" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A39" s="1" t="s">
-        <v>292</v>
+        <v>283</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>305</v>
+        <v>296</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>15</v>
@@ -7607,69 +7624,69 @@
         <v>3</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="K39" s="1" t="s">
         <v>33</v>
       </c>
       <c r="L39" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="M39" s="1" t="s">
-        <v>258</v>
+        <v>249</v>
       </c>
       <c r="O39" s="1" t="s">
-        <v>556</v>
+        <v>545</v>
       </c>
       <c r="P39" s="1" t="s">
         <v>36</v>
       </c>
       <c r="Q39" s="1" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="T39" s="1" t="s">
-        <v>266</v>
+        <v>257</v>
       </c>
       <c r="U39" s="1" t="s">
+        <v>561</v>
+      </c>
+      <c r="V39" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="W39" s="1" t="s">
+        <v>607</v>
+      </c>
+      <c r="X39" s="1" t="s">
+        <v>589</v>
+      </c>
+      <c r="Y39" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="AA39" s="2" t="s">
         <v>572</v>
       </c>
-      <c r="V39" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="W39" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="X39" s="1" t="s">
-        <v>600</v>
-      </c>
-      <c r="Y39" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="AA39" s="2" t="s">
-        <v>583</v>
-      </c>
       <c r="AC39" s="3" t="s">
-        <v>503</v>
+        <v>492</v>
       </c>
     </row>
     <row r="40" spans="1:30" ht="42.75" x14ac:dyDescent="0.15">
       <c r="A40" s="1" t="s">
-        <v>292</v>
+        <v>283</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>560</v>
+        <v>549</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>16</v>
@@ -7681,69 +7698,69 @@
         <v>3</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="K40" s="1" t="s">
         <v>33</v>
       </c>
       <c r="L40" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="M40" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="O40" s="1" t="s">
+        <v>545</v>
+      </c>
+      <c r="P40" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q40" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="T40" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="O40" s="1" t="s">
-        <v>556</v>
-      </c>
-      <c r="P40" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q40" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="T40" s="1" t="s">
-        <v>267</v>
-      </c>
       <c r="U40" s="1" t="s">
-        <v>572</v>
+        <v>561</v>
       </c>
       <c r="V40" s="1" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="W40" s="1" t="s">
-        <v>209</v>
+        <v>607</v>
       </c>
       <c r="X40" s="1" t="s">
-        <v>595</v>
+        <v>584</v>
       </c>
       <c r="Y40" s="2" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="AA40" s="2" t="s">
-        <v>417</v>
+        <v>406</v>
       </c>
       <c r="AC40" s="3" t="s">
-        <v>504</v>
+        <v>493</v>
       </c>
     </row>
     <row r="41" spans="1:30" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A41" s="1" t="s">
-        <v>292</v>
+        <v>283</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>305</v>
+        <v>296</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>17</v>
@@ -7755,69 +7772,69 @@
         <v>3</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="K41" s="1" t="s">
         <v>33</v>
       </c>
       <c r="L41" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="M41" s="1" t="s">
-        <v>258</v>
+        <v>249</v>
       </c>
       <c r="O41" s="1" t="s">
-        <v>556</v>
+        <v>545</v>
       </c>
       <c r="P41" s="1" t="s">
         <v>36</v>
       </c>
       <c r="Q41" s="1" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="T41" s="1" t="s">
-        <v>268</v>
+        <v>259</v>
       </c>
       <c r="U41" s="1" t="s">
-        <v>572</v>
+        <v>561</v>
       </c>
       <c r="V41" s="1" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="W41" s="1" t="s">
-        <v>209</v>
+        <v>607</v>
       </c>
       <c r="X41" s="1" t="s">
-        <v>601</v>
+        <v>590</v>
       </c>
       <c r="Y41" s="2" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="AA41" s="2" t="s">
-        <v>584</v>
+        <v>573</v>
       </c>
       <c r="AC41" s="3" t="s">
-        <v>505</v>
+        <v>494</v>
       </c>
     </row>
     <row r="42" spans="1:30" ht="42.75" x14ac:dyDescent="0.15">
       <c r="A42" s="1" t="s">
-        <v>292</v>
+        <v>283</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>560</v>
+        <v>549</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>18</v>
@@ -7829,72 +7846,72 @@
         <v>3</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="K42" s="1" t="s">
         <v>33</v>
       </c>
       <c r="L42" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="M42" s="1" t="s">
-        <v>258</v>
+        <v>249</v>
       </c>
       <c r="O42" s="1" t="s">
-        <v>555</v>
+        <v>544</v>
       </c>
       <c r="P42" s="1" t="s">
         <v>36</v>
       </c>
       <c r="Q42" s="1" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="T42" s="1" t="s">
-        <v>266</v>
+        <v>257</v>
       </c>
       <c r="U42" s="1" t="s">
-        <v>572</v>
+        <v>561</v>
       </c>
       <c r="V42" s="1" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="W42" s="1" t="s">
-        <v>209</v>
+        <v>607</v>
       </c>
       <c r="X42" s="1" t="s">
-        <v>594</v>
+        <v>583</v>
       </c>
       <c r="Y42" s="2" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="AA42" s="2" t="s">
-        <v>418</v>
+        <v>407</v>
       </c>
       <c r="AC42" s="3" t="s">
-        <v>506</v>
+        <v>495</v>
       </c>
     </row>
     <row r="43" spans="1:30" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A43" s="1" t="s">
-        <v>292</v>
+        <v>283</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>566</v>
+        <v>555</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>567</v>
+        <v>556</v>
       </c>
       <c r="D43" s="1" t="s">
         <v>22</v>
@@ -7903,63 +7920,63 @@
         <v>3</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="I43" s="1" t="s">
-        <v>565</v>
+        <v>554</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="K43" s="1" t="s">
         <v>32</v>
       </c>
       <c r="L43" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="M43" s="1" t="s">
-        <v>258</v>
+        <v>249</v>
       </c>
       <c r="P43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="T43" s="1" t="s">
-        <v>263</v>
+        <v>254</v>
       </c>
       <c r="U43" s="1" t="s">
-        <v>550</v>
+        <v>539</v>
       </c>
       <c r="V43" s="1" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="W43" s="1" t="s">
-        <v>209</v>
+        <v>607</v>
       </c>
       <c r="Y43" s="2" t="s">
-        <v>562</v>
+        <v>551</v>
       </c>
       <c r="AA43" s="2" t="s">
-        <v>563</v>
+        <v>552</v>
       </c>
       <c r="AC43" s="3" t="s">
-        <v>564</v>
+        <v>553</v>
       </c>
     </row>
     <row r="44" spans="1:30" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A44" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="B44" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="B44" s="1" t="s">
-        <v>301</v>
-      </c>
       <c r="C44" s="1" t="s">
-        <v>582</v>
+        <v>571</v>
       </c>
       <c r="D44" s="1" t="s">
         <v>22</v>
@@ -7968,7 +7985,7 @@
         <v>3</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>575</v>
+        <v>564</v>
       </c>
       <c r="G44" s="1" t="s">
         <v>39</v>
@@ -7977,57 +7994,57 @@
         <v>10</v>
       </c>
       <c r="I44" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="J44" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K44" s="1" t="s">
         <v>32</v>
       </c>
       <c r="L44" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="M44" s="1" t="s">
-        <v>258</v>
+        <v>249</v>
       </c>
       <c r="P44" s="1" t="s">
         <v>36</v>
       </c>
       <c r="T44" s="1" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="U44" s="1" t="s">
-        <v>577</v>
+        <v>566</v>
       </c>
       <c r="V44" s="1" t="s">
         <v>32</v>
       </c>
       <c r="W44" s="1" t="s">
-        <v>209</v>
+        <v>607</v>
       </c>
       <c r="X44" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="Y44" s="2" t="s">
-        <v>581</v>
+        <v>570</v>
       </c>
       <c r="AA44" s="2" t="s">
-        <v>585</v>
+        <v>574</v>
       </c>
       <c r="AC44" s="8" t="s">
-        <v>591</v>
+        <v>580</v>
       </c>
     </row>
     <row r="45" spans="1:30" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A45" s="1" t="s">
-        <v>292</v>
+        <v>283</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>305</v>
+        <v>296</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>573</v>
+        <v>562</v>
       </c>
       <c r="D45" s="1" t="s">
         <v>22</v>
@@ -8036,66 +8053,66 @@
         <v>3</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>575</v>
+        <v>564</v>
       </c>
       <c r="G45" s="1" t="s">
         <v>24</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="I45" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="J45" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K45" s="1" t="s">
         <v>32</v>
       </c>
       <c r="L45" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="M45" s="1" t="s">
-        <v>258</v>
+        <v>249</v>
       </c>
       <c r="P45" s="1" t="s">
         <v>36</v>
       </c>
       <c r="T45" s="1" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="U45" s="1" t="s">
-        <v>577</v>
+        <v>566</v>
       </c>
       <c r="V45" s="1" t="s">
         <v>32</v>
       </c>
       <c r="W45" s="1" t="s">
-        <v>209</v>
+        <v>607</v>
       </c>
       <c r="X45" s="1" t="s">
-        <v>602</v>
+        <v>591</v>
       </c>
       <c r="Y45" s="2" t="s">
-        <v>579</v>
+        <v>568</v>
       </c>
       <c r="AA45" s="2" t="s">
-        <v>586</v>
+        <v>575</v>
       </c>
       <c r="AC45" s="8" t="s">
-        <v>592</v>
+        <v>581</v>
       </c>
     </row>
     <row r="46" spans="1:30" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A46" s="1" t="s">
-        <v>292</v>
+        <v>283</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>305</v>
+        <v>296</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>574</v>
+        <v>563</v>
       </c>
       <c r="D46" s="1" t="s">
         <v>22</v>
@@ -8104,66 +8121,66 @@
         <v>3</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>576</v>
+        <v>565</v>
       </c>
       <c r="G46" s="1" t="s">
         <v>30</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="I46" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K46" s="1" t="s">
         <v>32</v>
       </c>
       <c r="L46" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="M46" s="1" t="s">
-        <v>258</v>
+        <v>249</v>
       </c>
       <c r="P46" s="1" t="s">
         <v>36</v>
       </c>
       <c r="T46" s="1" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="U46" s="1" t="s">
-        <v>577</v>
+        <v>566</v>
       </c>
       <c r="V46" s="1" t="s">
         <v>32</v>
       </c>
       <c r="W46" s="1" t="s">
-        <v>209</v>
+        <v>607</v>
       </c>
       <c r="X46" s="1" t="s">
-        <v>603</v>
+        <v>592</v>
       </c>
       <c r="Y46" s="2" t="s">
-        <v>580</v>
+        <v>569</v>
       </c>
       <c r="AA46" s="2" t="s">
-        <v>587</v>
+        <v>576</v>
       </c>
       <c r="AC46" s="8" t="s">
-        <v>593</v>
+        <v>582</v>
       </c>
     </row>
     <row r="47" spans="1:30" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A47" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="B47" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="B47" s="1" t="s">
-        <v>301</v>
-      </c>
       <c r="C47" s="1" t="s">
-        <v>571</v>
+        <v>560</v>
       </c>
       <c r="D47" s="1" t="s">
         <v>22</v>
@@ -8172,72 +8189,72 @@
         <v>3</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="H47" s="1" t="s">
         <v>10</v>
       </c>
       <c r="I47" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="J47" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="K47" s="1" t="s">
         <v>33</v>
       </c>
       <c r="L47" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="M47" s="1" t="s">
-        <v>258</v>
+        <v>249</v>
       </c>
       <c r="N47" s="1" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="O47" s="1" t="s">
-        <v>384</v>
+        <v>373</v>
       </c>
       <c r="P47" s="1" t="s">
         <v>36</v>
       </c>
       <c r="Q47" s="1" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="T47" s="1" t="s">
-        <v>268</v>
+        <v>259</v>
       </c>
       <c r="U47" s="1" t="s">
-        <v>572</v>
+        <v>561</v>
       </c>
       <c r="V47" s="1" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="W47" s="1" t="s">
-        <v>209</v>
+        <v>607</v>
       </c>
       <c r="X47" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="Y47" s="2" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="AA47" s="2" t="s">
-        <v>588</v>
+        <v>577</v>
       </c>
       <c r="AC47" s="3" t="s">
-        <v>507</v>
+        <v>496</v>
       </c>
     </row>
     <row r="48" spans="1:30" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A48" s="1" t="s">
-        <v>292</v>
+        <v>283</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>305</v>
+        <v>296</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>19</v>
@@ -8249,72 +8266,72 @@
         <v>3</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G48" s="1" t="s">
         <v>24</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="I48" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="J48" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="K48" s="1" t="s">
         <v>33</v>
       </c>
       <c r="L48" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="M48" s="1" t="s">
-        <v>258</v>
+        <v>249</v>
       </c>
       <c r="N48" s="1" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="O48" s="1" t="s">
-        <v>384</v>
+        <v>373</v>
       </c>
       <c r="P48" s="1" t="s">
         <v>36</v>
       </c>
       <c r="Q48" s="1" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="T48" s="1" t="s">
-        <v>268</v>
+        <v>259</v>
       </c>
       <c r="U48" s="1" t="s">
-        <v>572</v>
+        <v>561</v>
       </c>
       <c r="V48" s="1" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="W48" s="1" t="s">
-        <v>209</v>
+        <v>607</v>
       </c>
       <c r="X48" s="1" t="s">
-        <v>604</v>
+        <v>593</v>
       </c>
       <c r="Y48" s="2" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="AA48" s="2" t="s">
-        <v>589</v>
+        <v>578</v>
       </c>
       <c r="AC48" s="3" t="s">
-        <v>508</v>
+        <v>497</v>
       </c>
     </row>
     <row r="49" spans="1:30" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A49" s="1" t="s">
-        <v>292</v>
+        <v>283</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>305</v>
+        <v>296</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>20</v>
@@ -8326,75 +8343,75 @@
         <v>3</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="I49" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="J49" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="K49" s="1" t="s">
         <v>33</v>
       </c>
       <c r="L49" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="M49" s="1" t="s">
-        <v>258</v>
+        <v>249</v>
       </c>
       <c r="N49" s="1" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="O49" s="1" t="s">
-        <v>384</v>
+        <v>373</v>
       </c>
       <c r="P49" s="1" t="s">
         <v>36</v>
       </c>
       <c r="Q49" s="1" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="T49" s="1" t="s">
-        <v>268</v>
+        <v>259</v>
       </c>
       <c r="U49" s="1" t="s">
-        <v>572</v>
+        <v>561</v>
       </c>
       <c r="V49" s="1" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="W49" s="1" t="s">
-        <v>209</v>
+        <v>607</v>
       </c>
       <c r="X49" s="1" t="s">
-        <v>605</v>
+        <v>594</v>
       </c>
       <c r="Y49" s="2" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="AA49" s="2" t="s">
-        <v>590</v>
+        <v>579</v>
       </c>
       <c r="AC49" s="3" t="s">
-        <v>509</v>
+        <v>498</v>
       </c>
     </row>
     <row r="50" spans="1:30" ht="171" x14ac:dyDescent="0.15">
       <c r="A50" s="1" t="s">
-        <v>294</v>
+        <v>285</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>300</v>
+        <v>291</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="D50" s="1" t="s">
         <v>22</v>
@@ -8409,78 +8426,78 @@
         <v>26</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="I50" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="J50" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="K50" s="1" t="s">
         <v>33</v>
       </c>
       <c r="L50" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="M50" s="1" t="s">
-        <v>258</v>
+        <v>249</v>
       </c>
       <c r="N50" s="1" t="s">
         <v>36</v>
       </c>
       <c r="O50" s="1" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="P50" s="1" t="s">
         <v>36</v>
       </c>
       <c r="Q50" s="1" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="T50" s="1" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="U50" s="1" t="s">
-        <v>352</v>
+        <v>342</v>
       </c>
       <c r="V50" s="1" t="s">
-        <v>360</v>
+        <v>350</v>
       </c>
       <c r="W50" s="1" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="X50" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="Y50" s="2" t="s">
-        <v>338</v>
+        <v>328</v>
       </c>
       <c r="Z50" s="2" t="s">
-        <v>446</v>
+        <v>435</v>
       </c>
       <c r="AA50" s="2" t="s">
-        <v>419</v>
+        <v>408</v>
       </c>
       <c r="AB50" s="2" t="s">
-        <v>525</v>
+        <v>514</v>
       </c>
       <c r="AC50" s="3" t="s">
-        <v>544</v>
+        <v>533</v>
       </c>
       <c r="AD50" s="5" t="s">
-        <v>510</v>
+        <v>499</v>
       </c>
     </row>
     <row r="51" spans="1:30" s="7" customFormat="1" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A51" s="7" t="s">
-        <v>292</v>
+        <v>283</v>
       </c>
       <c r="B51" s="7" t="s">
-        <v>300</v>
+        <v>291</v>
       </c>
       <c r="C51" s="7" t="s">
-        <v>540</v>
+        <v>529</v>
       </c>
       <c r="D51" s="7" t="s">
         <v>22</v>
@@ -8489,84 +8506,84 @@
         <v>3</v>
       </c>
       <c r="F51" s="7" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G51" s="7" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H51" s="7" t="s">
-        <v>541</v>
+        <v>530</v>
       </c>
       <c r="I51" s="7" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="J51" s="7" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="K51" s="7" t="s">
         <v>33</v>
       </c>
       <c r="L51" s="7" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="M51" s="7" t="s">
-        <v>258</v>
+        <v>249</v>
       </c>
       <c r="N51" s="1" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="O51" s="1" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="P51" s="7" t="s">
         <v>36</v>
       </c>
       <c r="Q51" s="7" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="T51" s="7" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="U51" s="7" t="s">
-        <v>552</v>
+        <v>541</v>
       </c>
       <c r="V51" s="7" t="s">
         <v>32</v>
       </c>
       <c r="W51" s="7" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="X51" s="7" t="s">
-        <v>542</v>
+        <v>531</v>
       </c>
       <c r="Y51" s="2" t="s">
-        <v>543</v>
+        <v>532</v>
       </c>
       <c r="Z51" s="2" t="s">
+        <v>535</v>
+      </c>
+      <c r="AA51" s="2" t="s">
         <v>546</v>
       </c>
-      <c r="AA51" s="2" t="s">
-        <v>557</v>
-      </c>
       <c r="AB51" s="2" t="s">
-        <v>545</v>
+        <v>534</v>
       </c>
       <c r="AC51" s="3" t="s">
-        <v>558</v>
+        <v>547</v>
       </c>
       <c r="AD51" s="3" t="s">
-        <v>559</v>
+        <v>548</v>
       </c>
     </row>
     <row r="52" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A52" s="1" t="s">
-        <v>292</v>
+        <v>283</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>298</v>
+        <v>289</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>315</v>
+        <v>306</v>
       </c>
       <c r="D52" s="1" t="s">
         <v>22</v>
@@ -8575,34 +8592,34 @@
         <v>3</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>306</v>
+        <v>297</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>307</v>
+        <v>298</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="I52" s="1" t="s">
-        <v>308</v>
+        <v>299</v>
       </c>
       <c r="J52" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K52" s="1" t="s">
         <v>32</v>
       </c>
       <c r="L52" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="M52" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="N52" s="1" t="s">
         <v>313</v>
       </c>
-      <c r="M52" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="N52" s="1" t="s">
-        <v>322</v>
-      </c>
       <c r="O52" s="1" t="s">
-        <v>321</v>
+        <v>312</v>
       </c>
       <c r="P52" s="1" t="s">
         <v>36</v>
@@ -8614,33 +8631,33 @@
         <v>36</v>
       </c>
       <c r="T52" s="1" t="s">
-        <v>314</v>
+        <v>305</v>
       </c>
       <c r="U52" s="7" t="s">
-        <v>353</v>
+        <v>343</v>
       </c>
       <c r="W52" s="1" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="Y52" s="2" t="s">
-        <v>345</v>
+        <v>335</v>
       </c>
       <c r="AA52" s="2" t="s">
-        <v>420</v>
+        <v>409</v>
       </c>
       <c r="AC52" s="3" t="s">
-        <v>511</v>
+        <v>500</v>
       </c>
     </row>
     <row r="53" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A53" s="1" t="s">
-        <v>292</v>
+        <v>283</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>298</v>
+        <v>289</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>316</v>
+        <v>307</v>
       </c>
       <c r="D53" s="1" t="s">
         <v>22</v>
@@ -8649,34 +8666,34 @@
         <v>3</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>306</v>
+        <v>297</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>309</v>
+        <v>300</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="I53" s="1" t="s">
-        <v>308</v>
+        <v>299</v>
       </c>
       <c r="J53" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K53" s="1" t="s">
         <v>32</v>
       </c>
       <c r="L53" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="M53" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="N53" s="1" t="s">
         <v>313</v>
       </c>
-      <c r="M53" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="N53" s="1" t="s">
-        <v>322</v>
-      </c>
       <c r="O53" s="1" t="s">
-        <v>321</v>
+        <v>312</v>
       </c>
       <c r="P53" s="1" t="s">
         <v>36</v>
@@ -8688,33 +8705,33 @@
         <v>36</v>
       </c>
       <c r="T53" s="1" t="s">
-        <v>314</v>
+        <v>305</v>
       </c>
       <c r="U53" s="7" t="s">
-        <v>353</v>
+        <v>343</v>
       </c>
       <c r="W53" s="1" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="Y53" s="2" t="s">
-        <v>346</v>
+        <v>336</v>
       </c>
       <c r="AA53" s="2" t="s">
-        <v>421</v>
+        <v>410</v>
       </c>
       <c r="AC53" s="3" t="s">
-        <v>512</v>
+        <v>501</v>
       </c>
     </row>
     <row r="54" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A54" s="1" t="s">
-        <v>292</v>
+        <v>283</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>298</v>
+        <v>289</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>317</v>
+        <v>308</v>
       </c>
       <c r="D54" s="1" t="s">
         <v>22</v>
@@ -8723,34 +8740,34 @@
         <v>3</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>306</v>
+        <v>297</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="I54" s="1" t="s">
-        <v>308</v>
+        <v>299</v>
       </c>
       <c r="J54" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K54" s="1" t="s">
         <v>32</v>
       </c>
       <c r="L54" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="M54" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="N54" s="1" t="s">
         <v>313</v>
       </c>
-      <c r="M54" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="N54" s="1" t="s">
-        <v>322</v>
-      </c>
       <c r="O54" s="1" t="s">
-        <v>321</v>
+        <v>312</v>
       </c>
       <c r="P54" s="1" t="s">
         <v>36</v>
@@ -8762,33 +8779,33 @@
         <v>36</v>
       </c>
       <c r="T54" s="1" t="s">
-        <v>314</v>
+        <v>305</v>
       </c>
       <c r="U54" s="7" t="s">
-        <v>353</v>
+        <v>343</v>
       </c>
       <c r="W54" s="1" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="Y54" s="2" t="s">
-        <v>349</v>
+        <v>339</v>
       </c>
       <c r="AA54" s="2" t="s">
-        <v>422</v>
+        <v>411</v>
       </c>
       <c r="AC54" s="3" t="s">
-        <v>513</v>
+        <v>502</v>
       </c>
     </row>
     <row r="55" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A55" s="1" t="s">
-        <v>292</v>
+        <v>283</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>298</v>
+        <v>289</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>318</v>
+        <v>309</v>
       </c>
       <c r="D55" s="1" t="s">
         <v>22</v>
@@ -8797,34 +8814,34 @@
         <v>3</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>306</v>
+        <v>297</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>310</v>
+        <v>301</v>
       </c>
       <c r="H55" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="I55" s="1" t="s">
-        <v>308</v>
+        <v>299</v>
       </c>
       <c r="J55" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K55" s="1" t="s">
         <v>32</v>
       </c>
       <c r="L55" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="M55" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="N55" s="1" t="s">
         <v>313</v>
       </c>
-      <c r="M55" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="N55" s="1" t="s">
-        <v>322</v>
-      </c>
       <c r="O55" s="1" t="s">
-        <v>321</v>
+        <v>312</v>
       </c>
       <c r="P55" s="1" t="s">
         <v>36</v>
@@ -8836,33 +8853,33 @@
         <v>36</v>
       </c>
       <c r="T55" s="1" t="s">
-        <v>314</v>
+        <v>305</v>
       </c>
       <c r="U55" s="7" t="s">
-        <v>353</v>
+        <v>343</v>
       </c>
       <c r="W55" s="1" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="Y55" s="2" t="s">
-        <v>347</v>
+        <v>337</v>
       </c>
       <c r="AA55" s="2" t="s">
-        <v>423</v>
+        <v>412</v>
       </c>
       <c r="AC55" s="3" t="s">
-        <v>514</v>
+        <v>503</v>
       </c>
     </row>
     <row r="56" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A56" s="1" t="s">
-        <v>292</v>
+        <v>283</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>298</v>
+        <v>289</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>319</v>
+        <v>310</v>
       </c>
       <c r="D56" s="1" t="s">
         <v>22</v>
@@ -8871,34 +8888,34 @@
         <v>3</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>306</v>
+        <v>297</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>311</v>
+        <v>302</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="I56" s="1" t="s">
-        <v>308</v>
+        <v>299</v>
       </c>
       <c r="J56" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K56" s="1" t="s">
         <v>32</v>
       </c>
       <c r="L56" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="M56" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="N56" s="1" t="s">
         <v>313</v>
       </c>
-      <c r="M56" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="N56" s="1" t="s">
-        <v>322</v>
-      </c>
       <c r="O56" s="1" t="s">
-        <v>321</v>
+        <v>312</v>
       </c>
       <c r="P56" s="1" t="s">
         <v>36</v>
@@ -8910,33 +8927,33 @@
         <v>36</v>
       </c>
       <c r="T56" s="1" t="s">
-        <v>314</v>
+        <v>305</v>
       </c>
       <c r="U56" s="7" t="s">
-        <v>353</v>
+        <v>343</v>
       </c>
       <c r="W56" s="1" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="Y56" s="2" t="s">
-        <v>348</v>
+        <v>338</v>
       </c>
       <c r="AA56" s="2" t="s">
-        <v>424</v>
+        <v>413</v>
       </c>
       <c r="AC56" s="3" t="s">
-        <v>515</v>
+        <v>504</v>
       </c>
     </row>
     <row r="57" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A57" s="1" t="s">
-        <v>292</v>
+        <v>283</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>298</v>
+        <v>289</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>320</v>
+        <v>311</v>
       </c>
       <c r="D57" s="1" t="s">
         <v>22</v>
@@ -8945,34 +8962,34 @@
         <v>3</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>306</v>
+        <v>297</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>312</v>
+        <v>303</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="I57" s="1" t="s">
-        <v>308</v>
+        <v>299</v>
       </c>
       <c r="J57" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K57" s="1" t="s">
         <v>32</v>
       </c>
       <c r="L57" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="M57" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="N57" s="1" t="s">
         <v>313</v>
       </c>
-      <c r="M57" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="N57" s="1" t="s">
-        <v>322</v>
-      </c>
       <c r="O57" s="1" t="s">
-        <v>321</v>
+        <v>312</v>
       </c>
       <c r="P57" s="1" t="s">
         <v>36</v>
@@ -8984,33 +9001,33 @@
         <v>36</v>
       </c>
       <c r="T57" s="1" t="s">
-        <v>314</v>
+        <v>305</v>
       </c>
       <c r="U57" s="7" t="s">
-        <v>353</v>
+        <v>343</v>
       </c>
       <c r="W57" s="1" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="Y57" s="2" t="s">
-        <v>350</v>
+        <v>340</v>
       </c>
       <c r="AA57" s="2" t="s">
-        <v>425</v>
+        <v>414</v>
       </c>
       <c r="AC57" s="3" t="s">
-        <v>516</v>
+        <v>505</v>
       </c>
     </row>
     <row r="58" spans="1:30" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A58" s="1" t="s">
-        <v>292</v>
+        <v>283</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>303</v>
+        <v>294</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>372</v>
+        <v>361</v>
       </c>
       <c r="D58" s="1" t="s">
         <v>22</v>
@@ -9022,28 +9039,28 @@
         <v>31</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="H58" s="1" t="s">
         <v>8</v>
       </c>
       <c r="I58" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="J58" s="1" t="s">
-        <v>128</v>
+        <v>69</v>
       </c>
       <c r="K58" s="1" t="s">
         <v>33</v>
       </c>
       <c r="L58" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="M58" s="1" t="s">
         <v>37</v>
       </c>
       <c r="P58" s="1" t="s">
-        <v>262</v>
+        <v>253</v>
       </c>
       <c r="Q58" s="1" t="s">
         <v>36</v>
@@ -9052,39 +9069,39 @@
         <v>36</v>
       </c>
       <c r="T58" s="1" t="s">
-        <v>269</v>
+        <v>260</v>
       </c>
       <c r="U58" s="1" t="s">
-        <v>598</v>
+        <v>587</v>
       </c>
       <c r="V58" s="1" t="s">
-        <v>371</v>
+        <v>360</v>
       </c>
       <c r="W58" s="1" t="s">
-        <v>205</v>
+        <v>608</v>
       </c>
       <c r="X58" s="1" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="Y58" s="2" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="AA58" s="2" t="s">
-        <v>426</v>
+        <v>415</v>
       </c>
       <c r="AC58" s="3" t="s">
-        <v>517</v>
+        <v>506</v>
       </c>
     </row>
     <row r="59" spans="1:30" ht="99.75" x14ac:dyDescent="0.15">
       <c r="A59" s="1" t="s">
-        <v>292</v>
+        <v>283</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>303</v>
+        <v>294</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D59" s="1" t="s">
         <v>22</v>
@@ -9093,25 +9110,25 @@
         <v>3</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="G59" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="H59" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="H59" s="1" t="s">
-        <v>110</v>
-      </c>
       <c r="I59" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="J59" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="K59" s="1" t="s">
         <v>33</v>
       </c>
       <c r="L59" s="1" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="M59" s="1" t="s">
         <v>9</v>
@@ -9120,7 +9137,7 @@
         <v>36</v>
       </c>
       <c r="P59" s="1" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="Q59" s="1" t="s">
         <v>36</v>
@@ -9129,39 +9146,39 @@
         <v>36</v>
       </c>
       <c r="T59" s="1" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="U59" s="1" t="s">
-        <v>351</v>
+        <v>341</v>
       </c>
       <c r="V59" s="1" t="s">
-        <v>360</v>
+        <v>350</v>
       </c>
       <c r="W59" s="1" t="s">
-        <v>206</v>
+        <v>608</v>
       </c>
       <c r="X59" s="1" t="s">
-        <v>539</v>
+        <v>528</v>
       </c>
       <c r="Y59" s="2" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="AA59" s="2" t="s">
-        <v>427</v>
+        <v>416</v>
       </c>
       <c r="AC59" s="3" t="s">
-        <v>518</v>
+        <v>507</v>
       </c>
     </row>
     <row r="60" spans="1:30" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A60" s="7" t="s">
-        <v>292</v>
+        <v>283</v>
       </c>
       <c r="B60" s="7" t="s">
-        <v>302</v>
+        <v>293</v>
       </c>
       <c r="C60" s="7" t="s">
-        <v>536</v>
+        <v>525</v>
       </c>
       <c r="D60" s="7" t="s">
         <v>22</v>
@@ -9170,66 +9187,66 @@
         <v>3</v>
       </c>
       <c r="F60" s="7" t="s">
-        <v>531</v>
+        <v>520</v>
       </c>
       <c r="G60" s="7" t="s">
-        <v>532</v>
+        <v>521</v>
       </c>
       <c r="H60" s="7" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="I60" s="7" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="J60" s="7" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K60" s="7" t="s">
         <v>32</v>
       </c>
       <c r="L60" s="7" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="M60" s="7" t="s">
-        <v>258</v>
+        <v>249</v>
       </c>
       <c r="N60" s="7" t="s">
         <v>36</v>
       </c>
       <c r="O60" s="7" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="P60" s="7" t="s">
         <v>36</v>
       </c>
       <c r="Q60" s="7" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="T60" s="7" t="s">
-        <v>533</v>
+        <v>522</v>
       </c>
       <c r="U60" s="7" t="s">
-        <v>554</v>
+        <v>543</v>
       </c>
       <c r="V60" s="7" t="s">
         <v>32</v>
       </c>
       <c r="W60" s="7" t="s">
-        <v>534</v>
+        <v>523</v>
       </c>
       <c r="X60" s="7" t="s">
-        <v>535</v>
+        <v>524</v>
       </c>
       <c r="Y60" s="2" t="s">
-        <v>538</v>
+        <v>527</v>
       </c>
       <c r="Z60" s="2"/>
       <c r="AA60" s="2" t="s">
-        <v>537</v>
+        <v>526</v>
       </c>
       <c r="AB60" s="2"/>
       <c r="AC60" s="3" t="s">
-        <v>569</v>
+        <v>558</v>
       </c>
       <c r="AD60" s="3"/>
     </row>

--- a/Documents/UsbProtocol_EgsDeviceSettingsHidReport_HostAppSettings_PropertyList.xlsx
+++ b/Documents/UsbProtocol_EgsDeviceSettingsHidReport_HostAppSettings_PropertyList.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kishimoto\Documents\Exvision\PiemonteOnMyriad\HostApplications\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kishimoto\Documents\Exvision\PiemonteOnMyriad\HostApplications\Windows\PublishedInGitHub\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -15,14 +15,14 @@
     <sheet name="UsbProtocol_EgsDeviceSettingsHi" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">UsbProtocol_EgsDeviceSettingsHi!$W$1:$W$59</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">UsbProtocol_EgsDeviceSettingsHi!$W$1:$W$62</definedName>
   </definedNames>
   <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1508" uniqueCount="609">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1562" uniqueCount="627">
   <si>
     <t>MessageId</t>
   </si>
@@ -774,10 +774,6 @@
     <phoneticPr fontId="18"/>
   </si>
   <si>
-    <t>bool</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
     <t>0xE0</t>
     <phoneticPr fontId="18"/>
   </si>
@@ -1065,10 +1061,6 @@
   </si>
   <si>
     <t>Completed</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>IsToDetectFaces</t>
     <phoneticPr fontId="18"/>
   </si>
   <si>
@@ -3084,10 +3076,6 @@
     <phoneticPr fontId="18"/>
   </si>
   <si>
-    <t>Width = (int)System.Windows.Forms.Screen.PrimaryScreen.Bounds.Width; Height = (int)System.Windows.Forms.Screen.PrimaryScreen.Bounds.Height</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
     <t>FastMovingHandsGestureMode</t>
     <phoneticPr fontId="18"/>
   </si>
@@ -3576,6 +3564,114 @@
   <si>
     <t>Developer
 [Exvision]</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>IsToDetectFacesOnDevice</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>HidAccessPropertyBoolean</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>IsToDetectFaces</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>Detect Faces on Device</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>ZKOOデバイスで顔を検出する</t>
+    <rPh sb="9" eb="10">
+      <t>カオ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ケンシュツ</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>HidAccessPropertyBoolean</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>ValueWithDescription&lt;bool&gt;</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>false</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>Value = false</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>IsToMonitorTemperature</t>
+  </si>
+  <si>
+    <t>1.1</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>Measure Temperature</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>温度を測定する</t>
+    <rPh sb="0" eb="2">
+      <t>オンド</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ソクテイ</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>FaceDetectionMethod</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>Face Detection Method</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>顔検出の方法</t>
+    <rPh sb="0" eb="1">
+      <t>カオ</t>
+    </rPh>
+    <rPh sb="1" eb="3">
+      <t>ケンシュツ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ホウホウ</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>0:ZKOOデバイス
+1:ホストアプリケーション (高精度)
+2:SDKユーザーによるカスタムソリューション</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>0:ZKOO Device
+1:Host Application (Higher Accuracy)
+2:Custom Solution by SDK Users</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>EnumValueWithDescription&lt;FaceDetectionMethodKind&gt;</t>
     <phoneticPr fontId="18"/>
   </si>
 </sst>
@@ -4218,7 +4314,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4244,6 +4340,9 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="22" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="21" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -4567,11 +4666,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AD60"/>
+  <dimension ref="A1:AD63"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" topLeftCell="N1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="W35" sqref="W35"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="R2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="D1" sqref="D1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -4605,7 +4706,7 @@
   <sheetData>
     <row r="1" spans="1:30" ht="57" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>75</v>
@@ -4635,16 +4736,16 @@
         <v>34</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>116</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>67</v>
@@ -4662,45 +4763,45 @@
         <v>166</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="X1" s="1" t="s">
         <v>171</v>
       </c>
       <c r="Y1" s="2" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="Z1" s="2" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="AA1" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="AB1" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="AC1" s="3" t="s">
+        <v>443</v>
+      </c>
+      <c r="AD1" s="3" t="s">
         <v>417</v>
-      </c>
-      <c r="AB1" s="2" t="s">
-        <v>418</v>
-      </c>
-      <c r="AC1" s="3" t="s">
-        <v>445</v>
-      </c>
-      <c r="AD1" s="3" t="s">
-        <v>419</v>
       </c>
     </row>
     <row r="2" spans="1:30" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>129</v>
@@ -4733,7 +4834,7 @@
         <v>130</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="N2" s="1" t="s">
         <v>36</v>
@@ -4748,16 +4849,16 @@
         <v>168</v>
       </c>
       <c r="T2" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="U2" s="1" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="V2" s="1" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="W2" s="1" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="X2" s="1" t="s">
         <v>131</v>
@@ -4766,33 +4867,33 @@
         <v>137</v>
       </c>
       <c r="AA2" s="2" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="AC2" s="3" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
     </row>
     <row r="3" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="F3" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>220</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>221</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>99</v>
@@ -4810,16 +4911,16 @@
         <v>42</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="O3" s="1" t="s">
         <v>36</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="Q3" s="1" t="s">
         <v>36</v>
@@ -4828,45 +4929,45 @@
         <v>36</v>
       </c>
       <c r="T3" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="U3" s="1" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="W3" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="Y3" s="2" t="s">
         <v>132</v>
       </c>
       <c r="AA3" s="2" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="AC3" s="3" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
     </row>
     <row r="4" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>100</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>98</v>
@@ -4884,16 +4985,16 @@
         <v>42</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="O4" s="1" t="s">
         <v>36</v>
       </c>
       <c r="P4" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="Q4" s="1" t="s">
         <v>36</v>
@@ -4902,33 +5003,33 @@
         <v>36</v>
       </c>
       <c r="T4" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="U4" s="1" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="W4" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="Y4" s="2" t="s">
         <v>133</v>
       </c>
       <c r="AA4" s="2" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="AC4" s="3" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
     </row>
     <row r="5" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>22</v>
@@ -4946,7 +5047,7 @@
         <v>77</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>69</v>
@@ -4958,7 +5059,7 @@
         <v>42</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="N5" s="1" t="s">
         <v>168</v>
@@ -4967,7 +5068,7 @@
         <v>36</v>
       </c>
       <c r="P5" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="Q5" s="1" t="s">
         <v>36</v>
@@ -4976,36 +5077,36 @@
         <v>36</v>
       </c>
       <c r="T5" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="U5" s="1" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="V5" s="1" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="W5" s="1" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="Y5" s="2" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="AA5" s="2" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="AC5" s="3" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
     </row>
     <row r="6" spans="1:30" ht="85.5" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>22</v>
@@ -5017,10 +5118,10 @@
         <v>23</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="I6" s="1" t="s">
         <v>85</v>
@@ -5035,10 +5136,10 @@
         <v>42</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="O6" s="1" t="s">
         <v>36</v>
@@ -5053,42 +5154,42 @@
         <v>36</v>
       </c>
       <c r="T6" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="U6" s="1" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="V6" s="1" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="W6" s="1" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="Y6" s="2" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="Z6" s="2" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="AA6" s="2" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="AB6" s="2" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="AC6" s="3" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="AD6" s="3" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
     </row>
     <row r="7" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>7</v>
@@ -5106,10 +5207,10 @@
         <v>107</v>
       </c>
       <c r="H7" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="I7" s="1" t="s">
         <v>229</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>230</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>69</v>
@@ -5121,7 +5222,7 @@
         <v>118</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="N7" s="1" t="s">
         <v>168</v>
@@ -5139,113 +5240,98 @@
         <v>36</v>
       </c>
       <c r="T7" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="U7" s="1" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="V7" s="1" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="W7" s="1" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="Y7" s="2" t="s">
         <v>134</v>
       </c>
       <c r="AA7" s="2" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="AC7" s="3" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="8" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>290</v>
+        <v>612</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>224</v>
+        <v>615</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>163</v>
+        <v>177</v>
       </c>
       <c r="I8" s="1" t="s">
         <v>85</v>
       </c>
       <c r="J8" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="L8" s="1" t="s">
         <v>69</v>
-      </c>
-      <c r="K8" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="L8" s="1" t="s">
-        <v>42</v>
       </c>
       <c r="M8" s="1" t="s">
         <v>595</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>168</v>
+        <v>36</v>
       </c>
       <c r="O8" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="P8" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="Q8" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="S8" s="1" t="s">
-        <v>36</v>
-      </c>
       <c r="T8" s="1" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="U8" s="1" t="s">
-        <v>343</v>
+        <v>616</v>
       </c>
       <c r="V8" s="1" t="s">
-        <v>348</v>
+        <v>27</v>
       </c>
       <c r="W8" s="1" t="s">
-        <v>331</v>
-      </c>
-      <c r="Y8" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="AA8" s="2" t="s">
-        <v>381</v>
-      </c>
-      <c r="AC8" s="6" t="s">
-        <v>512</v>
-      </c>
+        <v>329</v>
+      </c>
+      <c r="X8" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="Y8" s="9" t="s">
+        <v>617</v>
+      </c>
+      <c r="Z8" s="9"/>
+      <c r="AA8" s="9" t="s">
+        <v>618</v>
+      </c>
+      <c r="AB8" s="9"/>
+      <c r="AC8" s="9" t="s">
+        <v>617</v>
+      </c>
+      <c r="AD8" s="8"/>
     </row>
     <row r="9" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>22</v>
@@ -5257,7 +5343,7 @@
         <v>26</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="H9" s="1" t="s">
         <v>163</v>
@@ -5275,7 +5361,7 @@
         <v>42</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="N9" s="1" t="s">
         <v>168</v>
@@ -5293,36 +5379,36 @@
         <v>36</v>
       </c>
       <c r="T9" s="1" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="U9" s="1" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="V9" s="1" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="W9" s="1" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="Y9" s="2" t="s">
-        <v>164</v>
+        <v>213</v>
       </c>
       <c r="AA9" s="2" t="s">
-        <v>382</v>
-      </c>
-      <c r="AC9" s="3" t="s">
-        <v>465</v>
+        <v>379</v>
+      </c>
+      <c r="AC9" s="6" t="s">
+        <v>510</v>
       </c>
     </row>
-    <row r="10" spans="1:30" ht="57" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>452</v>
+        <v>215</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>22</v>
@@ -5331,84 +5417,75 @@
         <v>3</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>451</v>
+        <v>224</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>77</v>
+        <v>163</v>
       </c>
       <c r="I10" s="1" t="s">
         <v>85</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>42</v>
+        <v>69</v>
       </c>
       <c r="K10" s="1" t="s">
         <v>32</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>69</v>
+        <v>42</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>513</v>
+        <v>592</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>36</v>
+        <v>168</v>
       </c>
       <c r="O10" s="1" t="s">
-        <v>167</v>
+        <v>36</v>
       </c>
       <c r="P10" s="1" t="s">
-        <v>36</v>
+        <v>168</v>
       </c>
       <c r="Q10" s="1" t="s">
-        <v>168</v>
+        <v>36</v>
+      </c>
+      <c r="S10" s="1" t="s">
+        <v>36</v>
       </c>
       <c r="T10" s="1" t="s">
-        <v>453</v>
+        <v>236</v>
       </c>
       <c r="U10" s="1" t="s">
-        <v>542</v>
+        <v>342</v>
       </c>
       <c r="V10" s="1" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="W10" s="1" t="s">
-        <v>334</v>
-      </c>
-      <c r="X10" s="1" t="s">
-        <v>121</v>
+        <v>329</v>
       </c>
       <c r="Y10" s="2" t="s">
-        <v>454</v>
-      </c>
-      <c r="Z10" s="2" t="s">
-        <v>455</v>
+        <v>164</v>
       </c>
       <c r="AA10" s="2" t="s">
-        <v>456</v>
-      </c>
-      <c r="AB10" s="2" t="s">
-        <v>457</v>
-      </c>
-      <c r="AC10" s="4" t="s">
-        <v>459</v>
-      </c>
-      <c r="AD10" s="4" t="s">
-        <v>458</v>
+        <v>380</v>
+      </c>
+      <c r="AC10" s="3" t="s">
+        <v>463</v>
       </c>
     </row>
-    <row r="11" spans="1:30" ht="28.5" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:30" ht="57" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>81</v>
+        <v>450</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>22</v>
@@ -5420,7 +5497,7 @@
         <v>23</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>61</v>
+        <v>449</v>
       </c>
       <c r="H11" s="1" t="s">
         <v>77</v>
@@ -5429,75 +5506,72 @@
         <v>85</v>
       </c>
       <c r="J11" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="L11" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="K11" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="L11" s="1" t="s">
-        <v>119</v>
-      </c>
       <c r="M11" s="1" t="s">
-        <v>9</v>
+        <v>511</v>
       </c>
       <c r="N11" s="1" t="s">
         <v>36</v>
       </c>
       <c r="O11" s="1" t="s">
-        <v>248</v>
+        <v>167</v>
       </c>
       <c r="P11" s="1" t="s">
         <v>36</v>
       </c>
       <c r="Q11" s="1" t="s">
-        <v>347</v>
-      </c>
-      <c r="R11" s="1" t="s">
-        <v>36</v>
+        <v>168</v>
       </c>
       <c r="T11" s="1" t="s">
-        <v>238</v>
+        <v>451</v>
       </c>
       <c r="U11" s="1" t="s">
-        <v>342</v>
+        <v>539</v>
       </c>
       <c r="V11" s="1" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="W11" s="1" t="s">
-        <v>602</v>
+        <v>332</v>
       </c>
       <c r="X11" s="1" t="s">
         <v>121</v>
       </c>
       <c r="Y11" s="2" t="s">
-        <v>136</v>
+        <v>452</v>
       </c>
       <c r="Z11" s="2" t="s">
-        <v>62</v>
+        <v>453</v>
       </c>
       <c r="AA11" s="2" t="s">
-        <v>421</v>
+        <v>454</v>
       </c>
       <c r="AB11" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="AC11" s="3" t="s">
-        <v>466</v>
-      </c>
-      <c r="AD11" s="3" t="s">
-        <v>439</v>
+        <v>455</v>
+      </c>
+      <c r="AC11" s="4" t="s">
+        <v>457</v>
+      </c>
+      <c r="AD11" s="4" t="s">
+        <v>456</v>
       </c>
     </row>
-    <row r="12" spans="1:30" ht="57" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:30" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>4</v>
+        <v>81</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>22</v>
@@ -5509,84 +5583,84 @@
         <v>23</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="H12" s="1" t="s">
         <v>77</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K12" s="1" t="s">
         <v>33</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>320</v>
+        <v>9</v>
       </c>
       <c r="N12" s="1" t="s">
         <v>36</v>
       </c>
       <c r="O12" s="1" t="s">
-        <v>167</v>
+        <v>247</v>
       </c>
       <c r="P12" s="1" t="s">
         <v>36</v>
       </c>
       <c r="Q12" s="1" t="s">
-        <v>168</v>
+        <v>345</v>
       </c>
       <c r="R12" s="1" t="s">
         <v>36</v>
       </c>
       <c r="T12" s="1" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="U12" s="1" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="V12" s="1" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="W12" s="1" t="s">
-        <v>211</v>
+        <v>599</v>
       </c>
       <c r="X12" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="Y12" s="2" t="s">
-        <v>212</v>
+        <v>136</v>
       </c>
       <c r="Z12" s="2" t="s">
-        <v>426</v>
+        <v>62</v>
       </c>
       <c r="AA12" s="2" t="s">
-        <v>383</v>
+        <v>419</v>
       </c>
       <c r="AB12" s="2" t="s">
-        <v>441</v>
+        <v>62</v>
       </c>
       <c r="AC12" s="3" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="AD12" s="3" t="s">
-        <v>508</v>
+        <v>437</v>
       </c>
     </row>
     <row r="13" spans="1:30" ht="57" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>82</v>
+        <v>4</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>22</v>
@@ -5598,31 +5672,31 @@
         <v>23</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="H13" s="1" t="s">
         <v>77</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>42</v>
+        <v>68</v>
       </c>
       <c r="K13" s="1" t="s">
         <v>33</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>169</v>
+        <v>117</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="N13" s="1" t="s">
         <v>36</v>
       </c>
       <c r="O13" s="1" t="s">
-        <v>264</v>
+        <v>167</v>
       </c>
       <c r="P13" s="1" t="s">
         <v>36</v>
@@ -5634,48 +5708,48 @@
         <v>36</v>
       </c>
       <c r="T13" s="1" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="U13" s="1" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="V13" s="1" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="W13" s="1" t="s">
-        <v>199</v>
+        <v>210</v>
       </c>
       <c r="X13" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="Y13" s="2" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="Z13" s="2" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="AA13" s="2" t="s">
-        <v>438</v>
+        <v>381</v>
       </c>
       <c r="AB13" s="2" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="AC13" s="3" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="AD13" s="3" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
     </row>
-    <row r="14" spans="1:30" ht="28.5" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:30" ht="57" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>194</v>
+        <v>82</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>22</v>
@@ -5687,7 +5761,7 @@
         <v>23</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>208</v>
+        <v>53</v>
       </c>
       <c r="H14" s="1" t="s">
         <v>77</v>
@@ -5699,63 +5773,72 @@
         <v>42</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>69</v>
+        <v>169</v>
       </c>
       <c r="M14" s="1" t="s">
-        <v>249</v>
+        <v>317</v>
       </c>
       <c r="N14" s="1" t="s">
         <v>36</v>
       </c>
+      <c r="O14" s="1" t="s">
+        <v>263</v>
+      </c>
       <c r="P14" s="1" t="s">
         <v>36</v>
       </c>
+      <c r="Q14" s="1" t="s">
+        <v>168</v>
+      </c>
       <c r="R14" s="1" t="s">
         <v>36</v>
       </c>
       <c r="T14" s="1" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="U14" s="1" t="s">
-        <v>539</v>
+        <v>340</v>
+      </c>
+      <c r="V14" s="1" t="s">
+        <v>348</v>
       </c>
       <c r="W14" s="1" t="s">
-        <v>334</v>
+        <v>198</v>
       </c>
       <c r="X14" s="1" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="Y14" s="2" t="s">
-        <v>196</v>
+        <v>212</v>
       </c>
       <c r="Z14" s="2" t="s">
-        <v>195</v>
+        <v>425</v>
       </c>
       <c r="AA14" s="2" t="s">
-        <v>384</v>
+        <v>436</v>
       </c>
       <c r="AB14" s="2" t="s">
-        <v>425</v>
-      </c>
-      <c r="AC14" s="5" t="s">
         <v>440</v>
       </c>
+      <c r="AC14" s="3" t="s">
+        <v>466</v>
+      </c>
       <c r="AD14" s="3" t="s">
-        <v>469</v>
+        <v>507</v>
       </c>
     </row>
     <row r="15" spans="1:30" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>265</v>
+        <v>193</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>22</v>
@@ -5764,13 +5847,13 @@
         <v>3</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>46</v>
+        <v>207</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>192</v>
+        <v>77</v>
       </c>
       <c r="I15" s="1" t="s">
         <v>85</v>
@@ -5779,223 +5862,175 @@
         <v>42</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="L15" s="1" t="s">
         <v>69</v>
       </c>
       <c r="M15" s="1" t="s">
-        <v>598</v>
+        <v>248</v>
       </c>
       <c r="N15" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="O15" s="1" t="s">
-        <v>210</v>
-      </c>
       <c r="P15" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="Q15" s="1" t="s">
-        <v>210</v>
-      </c>
       <c r="R15" s="1" t="s">
         <v>36</v>
       </c>
       <c r="T15" s="1" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="U15" s="1" t="s">
-        <v>342</v>
-      </c>
-      <c r="V15" s="1" t="s">
-        <v>350</v>
+        <v>536</v>
       </c>
       <c r="W15" s="1" t="s">
-        <v>604</v>
+        <v>332</v>
       </c>
       <c r="X15" s="1" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="Y15" s="2" t="s">
-        <v>268</v>
+        <v>195</v>
+      </c>
+      <c r="Z15" s="2" t="s">
+        <v>194</v>
       </c>
       <c r="AA15" s="2" t="s">
-        <v>385</v>
-      </c>
-      <c r="AC15" s="3" t="s">
-        <v>470</v>
+        <v>382</v>
+      </c>
+      <c r="AB15" s="2" t="s">
+        <v>423</v>
+      </c>
+      <c r="AC15" s="5" t="s">
+        <v>438</v>
+      </c>
+      <c r="AD15" s="3" t="s">
+        <v>467</v>
       </c>
     </row>
-    <row r="16" spans="1:30" ht="42.75" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>292</v>
+        <v>612</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="H16" s="1" t="s">
-        <v>177</v>
+        <v>608</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>85</v>
+        <v>625</v>
       </c>
       <c r="J16" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="K16" s="1" t="s">
-        <v>32</v>
-      </c>
       <c r="L16" s="1" t="s">
         <v>69</v>
       </c>
       <c r="M16" s="1" t="s">
-        <v>326</v>
+        <v>248</v>
       </c>
       <c r="N16" s="1" t="s">
         <v>36</v>
       </c>
       <c r="O16" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="P16" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q16" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="R16" s="1" t="s">
         <v>36</v>
       </c>
       <c r="T16" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="U16" s="1" t="s">
-        <v>344</v>
+        <v>558</v>
       </c>
       <c r="V16" s="1" t="s">
         <v>32</v>
       </c>
       <c r="W16" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="X16" s="1" t="s">
         <v>111</v>
       </c>
       <c r="Y16" s="2" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="AA16" s="2" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="AC16" s="3" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
     </row>
-    <row r="17" spans="1:30" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:30" ht="71.25" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>292</v>
+        <v>626</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="H17" s="1" t="s">
-        <v>10</v>
+        <v>619</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>85</v>
+        <v>624</v>
       </c>
       <c r="J17" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="K17" s="1" t="s">
-        <v>32</v>
-      </c>
       <c r="L17" s="1" t="s">
         <v>69</v>
       </c>
       <c r="M17" s="1" t="s">
-        <v>327</v>
+        <v>248</v>
       </c>
       <c r="N17" s="1" t="s">
         <v>36</v>
       </c>
       <c r="O17" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="P17" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q17" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="R17" s="1" t="s">
         <v>36</v>
       </c>
       <c r="T17" s="1" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="U17" s="1" t="s">
-        <v>342</v>
+        <v>558</v>
       </c>
       <c r="V17" s="1" t="s">
-        <v>350</v>
+        <v>32</v>
       </c>
       <c r="W17" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="X17" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="Y17" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="AA17" s="2" t="s">
-        <v>387</v>
-      </c>
-      <c r="AC17" s="3" t="s">
-        <v>472</v>
+        <v>199</v>
+      </c>
+      <c r="Y17" s="9" t="s">
+        <v>620</v>
+      </c>
+      <c r="Z17" s="9" t="s">
+        <v>623</v>
+      </c>
+      <c r="AA17" s="9" t="s">
+        <v>621</v>
+      </c>
+      <c r="AB17" s="9" t="s">
+        <v>622</v>
+      </c>
+      <c r="AC17" s="9" t="s">
+        <v>620</v>
+      </c>
+      <c r="AD17" s="9" t="s">
+        <v>623</v>
       </c>
     </row>
-    <row r="18" spans="1:30" ht="42.75" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:30" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A18" s="1" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>292</v>
+        <v>607</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>159</v>
+        <v>606</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>22</v>
@@ -6004,34 +6039,34 @@
         <v>3</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>161</v>
+        <v>46</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>10</v>
+        <v>177</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>68</v>
+        <v>613</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>117</v>
+        <v>69</v>
       </c>
       <c r="M18" s="1" t="s">
-        <v>327</v>
+        <v>595</v>
       </c>
       <c r="N18" s="1" t="s">
         <v>36</v>
       </c>
       <c r="O18" s="1" t="s">
-        <v>264</v>
+        <v>168</v>
       </c>
       <c r="P18" s="1" t="s">
         <v>36</v>
@@ -6043,39 +6078,42 @@
         <v>36</v>
       </c>
       <c r="T18" s="1" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="U18" s="1" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="V18" s="1" t="s">
-        <v>350</v>
+        <v>27</v>
       </c>
       <c r="W18" s="1" t="s">
-        <v>200</v>
+        <v>601</v>
       </c>
       <c r="X18" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="Y18" s="2" t="s">
-        <v>444</v>
-      </c>
-      <c r="AA18" s="2" t="s">
-        <v>388</v>
-      </c>
-      <c r="AC18" s="3" t="s">
-        <v>473</v>
-      </c>
+        <v>614</v>
+      </c>
+      <c r="Y18" s="9" t="s">
+        <v>609</v>
+      </c>
+      <c r="Z18" s="9"/>
+      <c r="AA18" s="9" t="s">
+        <v>610</v>
+      </c>
+      <c r="AB18" s="9"/>
+      <c r="AC18" s="9" t="s">
+        <v>609</v>
+      </c>
+      <c r="AD18" s="8"/>
     </row>
-    <row r="19" spans="1:30" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:30" ht="42.75" x14ac:dyDescent="0.15">
       <c r="A19" s="1" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>292</v>
+        <v>611</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>272</v>
+        <v>264</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>22</v>
@@ -6084,78 +6122,78 @@
         <v>3</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>162</v>
+        <v>265</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>10</v>
+        <v>177</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>68</v>
+        <v>42</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L19" s="1" t="s">
-        <v>117</v>
+        <v>69</v>
       </c>
       <c r="M19" s="1" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="N19" s="1" t="s">
         <v>36</v>
       </c>
       <c r="O19" s="1" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="P19" s="1" t="s">
         <v>36</v>
       </c>
       <c r="Q19" s="1" t="s">
-        <v>168</v>
+        <v>209</v>
       </c>
       <c r="R19" s="1" t="s">
         <v>36</v>
       </c>
       <c r="T19" s="1" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="U19" s="1" t="s">
         <v>342</v>
       </c>
       <c r="V19" s="1" t="s">
-        <v>350</v>
+        <v>32</v>
       </c>
       <c r="W19" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="X19" s="1" t="s">
         <v>111</v>
       </c>
       <c r="Y19" s="2" t="s">
-        <v>158</v>
+        <v>267</v>
       </c>
       <c r="AA19" s="2" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="AC19" s="3" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
     </row>
-    <row r="20" spans="1:30" ht="28.5" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A20" s="1" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>83</v>
+        <v>11</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>22</v>
@@ -6164,72 +6202,78 @@
         <v>3</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>49</v>
+        <v>26</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>38</v>
+        <v>160</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>185</v>
+        <v>10</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>69</v>
+        <v>42</v>
       </c>
       <c r="K20" s="1" t="s">
         <v>32</v>
       </c>
       <c r="L20" s="1" t="s">
-        <v>317</v>
+        <v>69</v>
       </c>
       <c r="M20" s="1" t="s">
-        <v>321</v>
+        <v>325</v>
+      </c>
+      <c r="N20" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="O20" s="1" t="s">
+        <v>167</v>
       </c>
       <c r="P20" s="1" t="s">
         <v>36</v>
       </c>
+      <c r="Q20" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="R20" s="1" t="s">
+        <v>36</v>
+      </c>
       <c r="T20" s="1" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="U20" s="1" t="s">
-        <v>540</v>
+        <v>340</v>
+      </c>
+      <c r="V20" s="1" t="s">
+        <v>348</v>
       </c>
       <c r="W20" s="1" t="s">
-        <v>605</v>
+        <v>199</v>
       </c>
       <c r="X20" s="1" t="s">
-        <v>124</v>
+        <v>111</v>
       </c>
       <c r="Y20" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="Z20" s="2" t="s">
-        <v>428</v>
+        <v>138</v>
       </c>
       <c r="AA20" s="2" t="s">
-        <v>422</v>
-      </c>
-      <c r="AB20" s="2" t="s">
-        <v>429</v>
+        <v>385</v>
       </c>
       <c r="AC20" s="3" t="s">
-        <v>475</v>
-      </c>
-      <c r="AD20" s="3" t="s">
-        <v>510</v>
+        <v>470</v>
       </c>
     </row>
     <row r="21" spans="1:30" ht="42.75" x14ac:dyDescent="0.15">
       <c r="A21" s="1" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>64</v>
+        <v>159</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>22</v>
@@ -6238,78 +6282,78 @@
         <v>3</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>207</v>
+        <v>43</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>63</v>
+        <v>161</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>78</v>
+        <v>10</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="L21" s="1" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="M21" s="1" t="s">
-        <v>250</v>
+        <v>325</v>
       </c>
       <c r="N21" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="O21" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="P21" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q21" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="O21" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="P21" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="Q21" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="S21" s="1" t="s">
+      <c r="R21" s="1" t="s">
         <v>36</v>
       </c>
       <c r="T21" s="1" t="s">
-        <v>255</v>
+        <v>243</v>
       </c>
       <c r="U21" s="1" t="s">
-        <v>586</v>
+        <v>339</v>
       </c>
       <c r="V21" s="1" t="s">
-        <v>32</v>
+        <v>348</v>
       </c>
       <c r="W21" s="1" t="s">
-        <v>605</v>
+        <v>199</v>
       </c>
       <c r="X21" s="1" t="s">
-        <v>110</v>
+        <v>227</v>
       </c>
       <c r="Y21" s="2" t="s">
-        <v>209</v>
+        <v>442</v>
       </c>
       <c r="AA21" s="2" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="AC21" s="3" t="s">
-        <v>476</v>
+        <v>471</v>
       </c>
     </row>
-    <row r="22" spans="1:30" ht="57" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A22" s="1" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>6</v>
+        <v>270</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>22</v>
@@ -6318,16 +6362,16 @@
         <v>3</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>49</v>
+        <v>162</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>80</v>
+        <v>10</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J22" s="1" t="s">
         <v>68</v>
@@ -6339,13 +6383,13 @@
         <v>117</v>
       </c>
       <c r="M22" s="1" t="s">
-        <v>249</v>
+        <v>325</v>
       </c>
       <c r="N22" s="1" t="s">
         <v>36</v>
       </c>
       <c r="O22" s="1" t="s">
-        <v>167</v>
+        <v>269</v>
       </c>
       <c r="P22" s="1" t="s">
         <v>36</v>
@@ -6353,49 +6397,43 @@
       <c r="Q22" s="1" t="s">
         <v>168</v>
       </c>
+      <c r="R22" s="1" t="s">
+        <v>36</v>
+      </c>
       <c r="T22" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="U22" s="1" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="V22" s="1" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="W22" s="1" t="s">
-        <v>332</v>
+        <v>199</v>
       </c>
       <c r="X22" s="1" t="s">
-        <v>125</v>
+        <v>111</v>
       </c>
       <c r="Y22" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="Z22" s="2" t="s">
-        <v>433</v>
+        <v>158</v>
       </c>
       <c r="AA22" s="2" t="s">
-        <v>423</v>
-      </c>
-      <c r="AB22" s="2" t="s">
-        <v>430</v>
+        <v>387</v>
       </c>
       <c r="AC22" s="3" t="s">
-        <v>446</v>
-      </c>
-      <c r="AD22" s="3" t="s">
-        <v>477</v>
+        <v>472</v>
       </c>
     </row>
     <row r="23" spans="1:30" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A23" s="1" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>103</v>
+        <v>83</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>22</v>
@@ -6404,69 +6442,72 @@
         <v>3</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>109</v>
+        <v>185</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="J23" s="1" t="s">
         <v>69</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L23" s="1" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="M23" s="1" t="s">
-        <v>321</v>
-      </c>
-      <c r="N23" s="1" t="s">
-        <v>210</v>
+        <v>319</v>
       </c>
       <c r="P23" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="Q23" s="1" t="s">
-        <v>248</v>
+        <v>36</v>
       </c>
       <c r="T23" s="1" t="s">
         <v>245</v>
       </c>
       <c r="U23" s="1" t="s">
-        <v>341</v>
-      </c>
-      <c r="V23" s="1" t="s">
-        <v>350</v>
+        <v>537</v>
       </c>
       <c r="W23" s="1" t="s">
-        <v>606</v>
+        <v>602</v>
+      </c>
+      <c r="X23" s="1" t="s">
+        <v>124</v>
       </c>
       <c r="Y23" s="2" t="s">
-        <v>141</v>
+        <v>139</v>
+      </c>
+      <c r="Z23" s="2" t="s">
+        <v>426</v>
       </c>
       <c r="AA23" s="2" t="s">
-        <v>391</v>
+        <v>420</v>
+      </c>
+      <c r="AB23" s="2" t="s">
+        <v>427</v>
       </c>
       <c r="AC23" s="3" t="s">
-        <v>478</v>
+        <v>473</v>
+      </c>
+      <c r="AD23" s="3" t="s">
+        <v>508</v>
       </c>
     </row>
     <row r="24" spans="1:30" ht="42.75" x14ac:dyDescent="0.15">
       <c r="A24" s="1" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>291</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>22</v>
@@ -6475,84 +6516,78 @@
         <v>3</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>24</v>
+        <v>206</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>185</v>
+        <v>78</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L24" s="1" t="s">
-        <v>189</v>
+        <v>120</v>
       </c>
       <c r="M24" s="1" t="s">
         <v>249</v>
       </c>
       <c r="N24" s="1" t="s">
-        <v>36</v>
+        <v>168</v>
       </c>
       <c r="O24" s="1" t="s">
-        <v>167</v>
+        <v>36</v>
       </c>
       <c r="P24" s="1" t="s">
-        <v>36</v>
+        <v>252</v>
       </c>
       <c r="Q24" s="1" t="s">
-        <v>168</v>
+        <v>247</v>
+      </c>
+      <c r="S24" s="1" t="s">
+        <v>36</v>
       </c>
       <c r="T24" s="1" t="s">
-        <v>244</v>
+        <v>254</v>
       </c>
       <c r="U24" s="1" t="s">
-        <v>346</v>
+        <v>583</v>
       </c>
       <c r="V24" s="1" t="s">
-        <v>350</v>
+        <v>32</v>
       </c>
       <c r="W24" s="1" t="s">
-        <v>329</v>
+        <v>602</v>
       </c>
       <c r="X24" s="1" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="Y24" s="2" t="s">
-        <v>330</v>
-      </c>
-      <c r="Z24" s="2" t="s">
-        <v>431</v>
+        <v>208</v>
       </c>
       <c r="AA24" s="2" t="s">
-        <v>392</v>
-      </c>
-      <c r="AB24" s="2" t="s">
-        <v>432</v>
-      </c>
-      <c r="AC24" s="6" t="s">
-        <v>519</v>
-      </c>
-      <c r="AD24" s="3" t="s">
-        <v>479</v>
+        <v>388</v>
+      </c>
+      <c r="AC24" s="3" t="s">
+        <v>474</v>
       </c>
     </row>
     <row r="25" spans="1:30" ht="57" x14ac:dyDescent="0.15">
       <c r="A25" s="1" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>368</v>
+        <v>6</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>22</v>
@@ -6561,16 +6596,16 @@
         <v>3</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>362</v>
+        <v>49</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="J25" s="1" t="s">
         <v>68</v>
@@ -6582,60 +6617,63 @@
         <v>117</v>
       </c>
       <c r="M25" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="N25" s="1" t="s">
         <v>36</v>
       </c>
       <c r="O25" s="1" t="s">
-        <v>372</v>
+        <v>167</v>
       </c>
       <c r="P25" s="1" t="s">
         <v>36</v>
       </c>
+      <c r="Q25" s="1" t="s">
+        <v>168</v>
+      </c>
       <c r="T25" s="1" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="U25" s="1" t="s">
-        <v>366</v>
+        <v>339</v>
       </c>
       <c r="V25" s="1" t="s">
-        <v>32</v>
+        <v>349</v>
       </c>
       <c r="W25" s="1" t="s">
-        <v>198</v>
+        <v>330</v>
       </c>
       <c r="X25" s="1" t="s">
-        <v>370</v>
+        <v>125</v>
       </c>
       <c r="Y25" s="2" t="s">
-        <v>371</v>
+        <v>140</v>
       </c>
       <c r="Z25" s="2" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="AA25" s="2" t="s">
-        <v>515</v>
+        <v>421</v>
       </c>
       <c r="AB25" s="2" t="s">
-        <v>437</v>
+        <v>428</v>
       </c>
       <c r="AC25" s="3" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="AD25" s="3" t="s">
-        <v>480</v>
+        <v>475</v>
       </c>
     </row>
-    <row r="26" spans="1:30" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:30" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A26" s="1" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>367</v>
+        <v>292</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>369</v>
+        <v>103</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>22</v>
@@ -6644,63 +6682,69 @@
         <v>3</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>363</v>
+        <v>47</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>364</v>
+        <v>109</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>85</v>
+        <v>102</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K26" s="1" t="s">
         <v>33</v>
       </c>
       <c r="L26" s="1" t="s">
-        <v>117</v>
+        <v>314</v>
       </c>
       <c r="M26" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="O26" s="1" t="s">
-        <v>372</v>
+        <v>319</v>
+      </c>
+      <c r="N26" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="P26" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="Q26" s="1" t="s">
+        <v>247</v>
       </c>
       <c r="T26" s="1" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="U26" s="1" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="V26" s="1" t="s">
-        <v>32</v>
+        <v>348</v>
       </c>
       <c r="W26" s="1" t="s">
-        <v>198</v>
+        <v>603</v>
       </c>
       <c r="Y26" s="2" t="s">
-        <v>365</v>
+        <v>141</v>
       </c>
       <c r="AA26" s="2" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="AC26" s="3" t="s">
-        <v>511</v>
+        <v>476</v>
       </c>
     </row>
-    <row r="27" spans="1:30" ht="28.5" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:30" ht="42.75" x14ac:dyDescent="0.15">
       <c r="A27" s="1" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>279</v>
+        <v>5</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>22</v>
@@ -6712,69 +6756,81 @@
         <v>24</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>65</v>
+        <v>48</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>72</v>
+        <v>185</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K27" s="1" t="s">
         <v>33</v>
       </c>
       <c r="L27" s="1" t="s">
-        <v>120</v>
+        <v>189</v>
       </c>
       <c r="M27" s="1" t="s">
-        <v>321</v>
+        <v>248</v>
+      </c>
+      <c r="N27" s="1" t="s">
+        <v>36</v>
       </c>
       <c r="O27" s="1" t="s">
-        <v>36</v>
+        <v>167</v>
       </c>
       <c r="P27" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="S27" s="1" t="s">
-        <v>36</v>
+        <v>36</v>
+      </c>
+      <c r="Q27" s="1" t="s">
+        <v>168</v>
       </c>
       <c r="T27" s="1" t="s">
-        <v>235</v>
+        <v>243</v>
       </c>
       <c r="U27" s="1" t="s">
-        <v>585</v>
+        <v>344</v>
       </c>
       <c r="V27" s="1" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="W27" s="1" t="s">
-        <v>200</v>
+        <v>327</v>
       </c>
       <c r="X27" s="1" t="s">
-        <v>274</v>
+        <v>121</v>
       </c>
       <c r="Y27" s="2" t="s">
-        <v>146</v>
+        <v>328</v>
+      </c>
+      <c r="Z27" s="2" t="s">
+        <v>429</v>
       </c>
       <c r="AA27" s="2" t="s">
-        <v>394</v>
-      </c>
-      <c r="AC27" s="3" t="s">
-        <v>448</v>
+        <v>390</v>
+      </c>
+      <c r="AB27" s="2" t="s">
+        <v>430</v>
+      </c>
+      <c r="AC27" s="6" t="s">
+        <v>517</v>
+      </c>
+      <c r="AD27" s="3" t="s">
+        <v>477</v>
       </c>
     </row>
-    <row r="28" spans="1:30" ht="28.5" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:30" ht="57" x14ac:dyDescent="0.15">
       <c r="A28" s="1" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>278</v>
+        <v>366</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>22</v>
@@ -6783,75 +6839,81 @@
         <v>3</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>66</v>
+        <v>360</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="I28" s="1" t="s">
         <v>85</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K28" s="1" t="s">
         <v>33</v>
       </c>
       <c r="L28" s="1" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="M28" s="1" t="s">
-        <v>263</v>
+        <v>248</v>
+      </c>
+      <c r="N28" s="1" t="s">
+        <v>36</v>
       </c>
       <c r="O28" s="1" t="s">
-        <v>36</v>
+        <v>370</v>
       </c>
       <c r="P28" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="Q28" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="S28" s="1" t="s">
         <v>36</v>
       </c>
       <c r="T28" s="1" t="s">
-        <v>256</v>
+        <v>238</v>
       </c>
       <c r="U28" s="1" t="s">
-        <v>585</v>
+        <v>364</v>
       </c>
       <c r="V28" s="1" t="s">
-        <v>350</v>
+        <v>32</v>
       </c>
       <c r="W28" s="1" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="X28" s="1" t="s">
-        <v>275</v>
+        <v>368</v>
       </c>
       <c r="Y28" s="2" t="s">
-        <v>147</v>
+        <v>369</v>
+      </c>
+      <c r="Z28" s="2" t="s">
+        <v>434</v>
       </c>
       <c r="AA28" s="2" t="s">
-        <v>395</v>
+        <v>513</v>
+      </c>
+      <c r="AB28" s="2" t="s">
+        <v>435</v>
       </c>
       <c r="AC28" s="3" t="s">
-        <v>481</v>
+        <v>445</v>
+      </c>
+      <c r="AD28" s="3" t="s">
+        <v>478</v>
       </c>
     </row>
-    <row r="29" spans="1:30" ht="28.5" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A29" s="1" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>290</v>
+        <v>365</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>280</v>
+        <v>367</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>22</v>
@@ -6863,69 +6925,60 @@
         <v>24</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>70</v>
+        <v>361</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>72</v>
+        <v>362</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K29" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="L29" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="M29" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="O29" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="T29" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="U29" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="V29" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="L29" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="M29" s="1" t="s">
-        <v>321</v>
-      </c>
-      <c r="O29" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="P29" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="S29" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="T29" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="U29" s="1" t="s">
-        <v>585</v>
-      </c>
-      <c r="V29" s="1" t="s">
-        <v>350</v>
-      </c>
       <c r="W29" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="X29" s="1" t="s">
-        <v>273</v>
+        <v>197</v>
       </c>
       <c r="Y29" s="2" t="s">
-        <v>142</v>
+        <v>363</v>
       </c>
       <c r="AA29" s="2" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="AC29" s="3" t="s">
-        <v>449</v>
+        <v>509</v>
       </c>
     </row>
     <row r="30" spans="1:30" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A30" s="1" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>22</v>
@@ -6937,25 +6990,25 @@
         <v>24</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="H30" s="1" t="s">
         <v>72</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="J30" s="1" t="s">
         <v>69</v>
       </c>
       <c r="K30" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="L30" s="1" t="s">
-        <v>42</v>
+        <v>120</v>
       </c>
       <c r="M30" s="1" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="O30" s="1" t="s">
         <v>36</v>
@@ -6964,42 +7017,42 @@
         <v>252</v>
       </c>
       <c r="S30" s="1" t="s">
-        <v>248</v>
+        <v>36</v>
       </c>
       <c r="T30" s="1" t="s">
-        <v>247</v>
+        <v>234</v>
       </c>
       <c r="U30" s="1" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="V30" s="1" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="W30" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="X30" s="1" t="s">
-        <v>112</v>
+        <v>272</v>
       </c>
       <c r="Y30" s="2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="AA30" s="2" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="AC30" s="3" t="s">
-        <v>482</v>
+        <v>446</v>
       </c>
     </row>
-    <row r="31" spans="1:30" ht="42.75" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:30" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A31" s="1" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>206</v>
+        <v>276</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>22</v>
@@ -7008,84 +7061,75 @@
         <v>3</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>286</v>
+        <v>66</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>217</v>
+        <v>72</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>218</v>
+        <v>85</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>204</v>
+        <v>69</v>
       </c>
       <c r="K31" s="1" t="s">
-        <v>203</v>
+        <v>33</v>
       </c>
       <c r="L31" s="1" t="s">
-        <v>202</v>
+        <v>120</v>
       </c>
       <c r="M31" s="1" t="s">
-        <v>315</v>
-      </c>
-      <c r="N31" s="1" t="s">
-        <v>205</v>
+        <v>262</v>
       </c>
       <c r="O31" s="1" t="s">
-        <v>205</v>
+        <v>36</v>
       </c>
       <c r="P31" s="1" t="s">
-        <v>167</v>
+        <v>252</v>
       </c>
       <c r="Q31" s="1" t="s">
-        <v>167</v>
+        <v>36</v>
+      </c>
+      <c r="S31" s="1" t="s">
+        <v>36</v>
       </c>
       <c r="T31" s="1" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="U31" s="1" t="s">
-        <v>341</v>
+        <v>582</v>
       </c>
       <c r="V31" s="1" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="W31" s="1" t="s">
-        <v>358</v>
+        <v>199</v>
       </c>
       <c r="X31" s="1" t="s">
-        <v>357</v>
+        <v>273</v>
       </c>
       <c r="Y31" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="Z31" s="2" t="s">
-        <v>356</v>
+        <v>147</v>
       </c>
       <c r="AA31" s="2" t="s">
-        <v>398</v>
-      </c>
-      <c r="AB31" s="2" t="s">
-        <v>356</v>
+        <v>393</v>
       </c>
       <c r="AC31" s="3" t="s">
-        <v>483</v>
-      </c>
-      <c r="AD31" s="3" t="s">
-        <v>450</v>
+        <v>479</v>
       </c>
     </row>
     <row r="32" spans="1:30" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A32" s="1" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>181</v>
+        <v>278</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>22</v>
@@ -7094,40 +7138,34 @@
         <v>3</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>173</v>
+        <v>70</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>174</v>
+        <v>87</v>
       </c>
       <c r="J32" s="1" t="s">
         <v>69</v>
       </c>
       <c r="K32" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L32" s="1" t="s">
-        <v>175</v>
+        <v>120</v>
       </c>
       <c r="M32" s="1" t="s">
-        <v>322</v>
-      </c>
-      <c r="N32" s="1" t="s">
-        <v>210</v>
+        <v>319</v>
       </c>
       <c r="O32" s="1" t="s">
         <v>36</v>
       </c>
       <c r="P32" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="Q32" s="1" t="s">
-        <v>179</v>
+        <v>252</v>
       </c>
       <c r="S32" s="1" t="s">
         <v>36</v>
@@ -7136,33 +7174,36 @@
         <v>234</v>
       </c>
       <c r="U32" s="1" t="s">
-        <v>341</v>
+        <v>582</v>
       </c>
       <c r="V32" s="1" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="W32" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
+      </c>
+      <c r="X32" s="1" t="s">
+        <v>271</v>
       </c>
       <c r="Y32" s="2" t="s">
-        <v>182</v>
+        <v>142</v>
       </c>
       <c r="AA32" s="2" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="AC32" s="3" t="s">
-        <v>484</v>
+        <v>447</v>
       </c>
     </row>
     <row r="33" spans="1:30" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A33" s="1" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>180</v>
+        <v>279</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>22</v>
@@ -7171,75 +7212,72 @@
         <v>3</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>176</v>
+        <v>71</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>177</v>
+        <v>72</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K33" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L33" s="1" t="s">
-        <v>117</v>
+        <v>42</v>
       </c>
       <c r="M33" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="N33" s="1" t="s">
-        <v>36</v>
+        <v>319</v>
       </c>
       <c r="O33" s="1" t="s">
-        <v>167</v>
+        <v>36</v>
       </c>
       <c r="P33" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q33" s="1" t="s">
-        <v>168</v>
+        <v>251</v>
+      </c>
+      <c r="S33" s="1" t="s">
+        <v>247</v>
       </c>
       <c r="T33" s="1" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="U33" s="1" t="s">
-        <v>341</v>
+        <v>582</v>
       </c>
       <c r="V33" s="1" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="W33" s="1" t="s">
-        <v>359</v>
+        <v>199</v>
       </c>
       <c r="X33" s="1" t="s">
-        <v>178</v>
+        <v>112</v>
       </c>
       <c r="Y33" s="2" t="s">
-        <v>183</v>
+        <v>148</v>
       </c>
       <c r="AA33" s="2" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="AC33" s="3" t="s">
-        <v>485</v>
+        <v>480</v>
       </c>
     </row>
-    <row r="34" spans="1:30" ht="28.5" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:30" ht="42.75" x14ac:dyDescent="0.15">
       <c r="A34" s="1" t="s">
         <v>283</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>559</v>
+        <v>205</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>22</v>
@@ -7248,72 +7286,84 @@
         <v>3</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>49</v>
+        <v>284</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>10</v>
+        <v>216</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>87</v>
+        <v>217</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>68</v>
+        <v>203</v>
       </c>
       <c r="K34" s="1" t="s">
-        <v>599</v>
+        <v>202</v>
       </c>
       <c r="L34" s="1" t="s">
-        <v>117</v>
+        <v>201</v>
       </c>
       <c r="M34" s="1" t="s">
-        <v>249</v>
+        <v>313</v>
       </c>
       <c r="N34" s="1" t="s">
-        <v>168</v>
+        <v>204</v>
       </c>
       <c r="O34" s="1" t="s">
-        <v>372</v>
+        <v>204</v>
       </c>
       <c r="P34" s="1" t="s">
-        <v>36</v>
+        <v>167</v>
+      </c>
+      <c r="Q34" s="1" t="s">
+        <v>167</v>
       </c>
       <c r="T34" s="1" t="s">
-        <v>254</v>
+        <v>261</v>
       </c>
       <c r="U34" s="1" t="s">
-        <v>567</v>
+        <v>339</v>
       </c>
       <c r="V34" s="1" t="s">
-        <v>203</v>
+        <v>348</v>
       </c>
       <c r="W34" s="1" t="s">
-        <v>607</v>
+        <v>356</v>
       </c>
       <c r="X34" s="1" t="s">
-        <v>113</v>
+        <v>355</v>
       </c>
       <c r="Y34" s="2" t="s">
-        <v>143</v>
+        <v>222</v>
+      </c>
+      <c r="Z34" s="2" t="s">
+        <v>354</v>
       </c>
       <c r="AA34" s="2" t="s">
-        <v>401</v>
+        <v>396</v>
+      </c>
+      <c r="AB34" s="2" t="s">
+        <v>354</v>
       </c>
       <c r="AC34" s="3" t="s">
-        <v>486</v>
+        <v>481</v>
+      </c>
+      <c r="AD34" s="3" t="s">
+        <v>448</v>
       </c>
     </row>
     <row r="35" spans="1:30" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A35" s="1" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>12</v>
+        <v>181</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>22</v>
@@ -7322,72 +7372,75 @@
         <v>3</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>24</v>
+        <v>173</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>96</v>
+        <v>73</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>90</v>
+        <v>174</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K35" s="1" t="s">
         <v>33</v>
       </c>
       <c r="L35" s="1" t="s">
-        <v>117</v>
+        <v>175</v>
       </c>
       <c r="M35" s="1" t="s">
-        <v>249</v>
+        <v>320</v>
       </c>
       <c r="N35" s="1" t="s">
-        <v>168</v>
+        <v>209</v>
       </c>
       <c r="O35" s="1" t="s">
-        <v>372</v>
+        <v>36</v>
       </c>
       <c r="P35" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="Q35" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="S35" s="1" t="s">
         <v>36</v>
       </c>
       <c r="T35" s="1" t="s">
-        <v>254</v>
+        <v>233</v>
       </c>
       <c r="U35" s="1" t="s">
-        <v>567</v>
+        <v>339</v>
       </c>
       <c r="V35" s="1" t="s">
-        <v>203</v>
+        <v>348</v>
       </c>
       <c r="W35" s="1" t="s">
-        <v>607</v>
-      </c>
-      <c r="X35" s="1" t="s">
-        <v>588</v>
+        <v>200</v>
       </c>
       <c r="Y35" s="2" t="s">
-        <v>144</v>
+        <v>182</v>
       </c>
       <c r="AA35" s="2" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="AC35" s="3" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
     </row>
-    <row r="36" spans="1:30" ht="57" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:30" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A36" s="1" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>550</v>
+        <v>290</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>13</v>
+        <v>180</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>22</v>
@@ -7396,16 +7449,16 @@
         <v>3</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>50</v>
+        <v>176</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>73</v>
+        <v>177</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>101</v>
+        <v>85</v>
       </c>
       <c r="J36" s="1" t="s">
         <v>68</v>
@@ -7417,45 +7470,54 @@
         <v>117</v>
       </c>
       <c r="M36" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
+      </c>
+      <c r="N36" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="O36" s="1" t="s">
+        <v>167</v>
       </c>
       <c r="P36" s="1" t="s">
         <v>36</v>
       </c>
+      <c r="Q36" s="1" t="s">
+        <v>168</v>
+      </c>
       <c r="T36" s="1" t="s">
-        <v>254</v>
+        <v>240</v>
       </c>
       <c r="U36" s="1" t="s">
-        <v>567</v>
+        <v>339</v>
       </c>
       <c r="V36" s="1" t="s">
-        <v>203</v>
+        <v>348</v>
       </c>
       <c r="W36" s="1" t="s">
-        <v>607</v>
+        <v>357</v>
       </c>
       <c r="X36" s="1" t="s">
-        <v>557</v>
+        <v>178</v>
       </c>
       <c r="Y36" s="2" t="s">
-        <v>145</v>
+        <v>183</v>
       </c>
       <c r="AA36" s="2" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="AC36" s="3" t="s">
-        <v>488</v>
+        <v>483</v>
       </c>
     </row>
-    <row r="37" spans="1:30" ht="114" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:30" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A37" s="1" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>191</v>
+        <v>556</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>22</v>
@@ -7467,81 +7529,69 @@
         <v>51</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>187</v>
+        <v>49</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>77</v>
+        <v>10</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="J37" s="1" t="s">
         <v>68</v>
       </c>
       <c r="K37" s="1" t="s">
-        <v>33</v>
+        <v>596</v>
       </c>
       <c r="L37" s="1" t="s">
-        <v>188</v>
+        <v>117</v>
       </c>
       <c r="M37" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="N37" s="1" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="O37" s="1" t="s">
-        <v>167</v>
+        <v>370</v>
       </c>
       <c r="P37" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="Q37" s="1" t="s">
-        <v>168</v>
-      </c>
       <c r="T37" s="1" t="s">
-        <v>244</v>
+        <v>253</v>
       </c>
       <c r="U37" s="1" t="s">
-        <v>342</v>
+        <v>564</v>
       </c>
       <c r="V37" s="1" t="s">
-        <v>350</v>
+        <v>202</v>
       </c>
       <c r="W37" s="1" t="s">
-        <v>199</v>
+        <v>604</v>
       </c>
       <c r="X37" s="1" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="Y37" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="Z37" s="2" t="s">
-        <v>434</v>
+        <v>143</v>
       </c>
       <c r="AA37" s="2" t="s">
-        <v>404</v>
-      </c>
-      <c r="AB37" s="2" t="s">
-        <v>443</v>
+        <v>399</v>
       </c>
       <c r="AC37" s="3" t="s">
-        <v>489</v>
-      </c>
-      <c r="AD37" s="3" t="s">
-        <v>490</v>
+        <v>484</v>
       </c>
     </row>
     <row r="38" spans="1:30" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A38" s="1" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>22</v>
@@ -7550,72 +7600,72 @@
         <v>3</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>10</v>
+        <v>96</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="J38" s="1" t="s">
         <v>68</v>
       </c>
       <c r="K38" s="1" t="s">
-        <v>600</v>
+        <v>33</v>
       </c>
       <c r="L38" s="1" t="s">
         <v>117</v>
       </c>
       <c r="M38" s="1" t="s">
-        <v>601</v>
+        <v>248</v>
+      </c>
+      <c r="N38" s="1" t="s">
+        <v>168</v>
       </c>
       <c r="O38" s="1" t="s">
-        <v>544</v>
+        <v>370</v>
       </c>
       <c r="P38" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="Q38" s="1" t="s">
-        <v>168</v>
-      </c>
       <c r="T38" s="1" t="s">
-        <v>246</v>
+        <v>253</v>
       </c>
       <c r="U38" s="1" t="s">
-        <v>561</v>
+        <v>564</v>
       </c>
       <c r="V38" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="W38" s="1" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="X38" s="1" t="s">
-        <v>113</v>
+        <v>585</v>
       </c>
       <c r="Y38" s="2" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="AA38" s="2" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="AC38" s="3" t="s">
-        <v>491</v>
+        <v>485</v>
       </c>
     </row>
-    <row r="39" spans="1:30" ht="28.5" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:30" ht="57" x14ac:dyDescent="0.15">
       <c r="A39" s="1" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>296</v>
+        <v>547</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D39" s="1" t="s">
         <v>22</v>
@@ -7624,16 +7674,16 @@
         <v>3</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>97</v>
+        <v>73</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="J39" s="1" t="s">
         <v>68</v>
@@ -7645,51 +7695,45 @@
         <v>117</v>
       </c>
       <c r="M39" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="O39" s="1" t="s">
-        <v>545</v>
+        <v>248</v>
       </c>
       <c r="P39" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="Q39" s="1" t="s">
-        <v>168</v>
-      </c>
       <c r="T39" s="1" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="U39" s="1" t="s">
-        <v>561</v>
+        <v>564</v>
       </c>
       <c r="V39" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="W39" s="1" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="X39" s="1" t="s">
-        <v>589</v>
+        <v>554</v>
       </c>
       <c r="Y39" s="2" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="AA39" s="2" t="s">
-        <v>572</v>
+        <v>401</v>
       </c>
       <c r="AC39" s="3" t="s">
-        <v>492</v>
+        <v>486</v>
       </c>
     </row>
-    <row r="40" spans="1:30" ht="42.75" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:30" ht="114" x14ac:dyDescent="0.15">
       <c r="A40" s="1" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>549</v>
+        <v>289</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>16</v>
+        <v>191</v>
       </c>
       <c r="D40" s="1" t="s">
         <v>22</v>
@@ -7698,13 +7742,13 @@
         <v>3</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>56</v>
+        <v>187</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="I40" s="1" t="s">
         <v>85</v>
@@ -7716,13 +7760,16 @@
         <v>33</v>
       </c>
       <c r="L40" s="1" t="s">
-        <v>117</v>
+        <v>188</v>
       </c>
       <c r="M40" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
+      </c>
+      <c r="N40" s="1" t="s">
+        <v>167</v>
       </c>
       <c r="O40" s="1" t="s">
-        <v>545</v>
+        <v>167</v>
       </c>
       <c r="P40" s="1" t="s">
         <v>36</v>
@@ -7731,39 +7778,48 @@
         <v>168</v>
       </c>
       <c r="T40" s="1" t="s">
-        <v>258</v>
+        <v>243</v>
       </c>
       <c r="U40" s="1" t="s">
-        <v>561</v>
+        <v>340</v>
       </c>
       <c r="V40" s="1" t="s">
-        <v>203</v>
+        <v>348</v>
       </c>
       <c r="W40" s="1" t="s">
-        <v>607</v>
+        <v>198</v>
       </c>
       <c r="X40" s="1" t="s">
-        <v>584</v>
+        <v>121</v>
       </c>
       <c r="Y40" s="2" t="s">
-        <v>151</v>
+        <v>190</v>
+      </c>
+      <c r="Z40" s="2" t="s">
+        <v>432</v>
       </c>
       <c r="AA40" s="2" t="s">
-        <v>406</v>
+        <v>402</v>
+      </c>
+      <c r="AB40" s="2" t="s">
+        <v>441</v>
       </c>
       <c r="AC40" s="3" t="s">
-        <v>493</v>
+        <v>487</v>
+      </c>
+      <c r="AD40" s="3" t="s">
+        <v>488</v>
       </c>
     </row>
     <row r="41" spans="1:30" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A41" s="1" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>22</v>
@@ -7772,31 +7828,31 @@
         <v>3</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>57</v>
+        <v>39</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>96</v>
+        <v>10</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="J41" s="1" t="s">
         <v>68</v>
       </c>
       <c r="K41" s="1" t="s">
-        <v>33</v>
+        <v>597</v>
       </c>
       <c r="L41" s="1" t="s">
         <v>117</v>
       </c>
       <c r="M41" s="1" t="s">
-        <v>249</v>
+        <v>598</v>
       </c>
       <c r="O41" s="1" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="P41" s="1" t="s">
         <v>36</v>
@@ -7805,39 +7861,39 @@
         <v>168</v>
       </c>
       <c r="T41" s="1" t="s">
-        <v>259</v>
+        <v>245</v>
       </c>
       <c r="U41" s="1" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="V41" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="W41" s="1" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="X41" s="1" t="s">
-        <v>590</v>
+        <v>113</v>
       </c>
       <c r="Y41" s="2" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="AA41" s="2" t="s">
-        <v>573</v>
+        <v>403</v>
       </c>
       <c r="AC41" s="3" t="s">
-        <v>494</v>
+        <v>489</v>
       </c>
     </row>
-    <row r="42" spans="1:30" ht="42.75" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:30" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A42" s="1" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>549</v>
+        <v>294</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D42" s="1" t="s">
         <v>22</v>
@@ -7846,16 +7902,16 @@
         <v>3</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>74</v>
+        <v>97</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="J42" s="1" t="s">
         <v>68</v>
@@ -7867,10 +7923,10 @@
         <v>117</v>
       </c>
       <c r="M42" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="O42" s="1" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="P42" s="1" t="s">
         <v>36</v>
@@ -7879,39 +7935,39 @@
         <v>168</v>
       </c>
       <c r="T42" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="U42" s="1" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="V42" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="W42" s="1" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="X42" s="1" t="s">
-        <v>583</v>
+        <v>586</v>
       </c>
       <c r="Y42" s="2" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="AA42" s="2" t="s">
-        <v>407</v>
+        <v>569</v>
       </c>
       <c r="AC42" s="3" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
     </row>
-    <row r="43" spans="1:30" ht="28.5" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:30" ht="42.75" x14ac:dyDescent="0.15">
       <c r="A43" s="1" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>555</v>
+        <v>546</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>556</v>
+        <v>16</v>
       </c>
       <c r="D43" s="1" t="s">
         <v>22</v>
@@ -7923,60 +7979,69 @@
         <v>52</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>184</v>
+        <v>56</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="I43" s="1" t="s">
-        <v>554</v>
+        <v>85</v>
       </c>
       <c r="J43" s="1" t="s">
         <v>68</v>
       </c>
       <c r="K43" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="L43" s="1" t="s">
         <v>117</v>
       </c>
       <c r="M43" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
+      </c>
+      <c r="O43" s="1" t="s">
+        <v>542</v>
       </c>
       <c r="P43" s="1" t="s">
         <v>36</v>
       </c>
+      <c r="Q43" s="1" t="s">
+        <v>168</v>
+      </c>
       <c r="T43" s="1" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="U43" s="1" t="s">
-        <v>539</v>
+        <v>558</v>
       </c>
       <c r="V43" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="W43" s="1" t="s">
-        <v>607</v>
+        <v>604</v>
+      </c>
+      <c r="X43" s="1" t="s">
+        <v>581</v>
       </c>
       <c r="Y43" s="2" t="s">
-        <v>551</v>
+        <v>151</v>
       </c>
       <c r="AA43" s="2" t="s">
-        <v>552</v>
+        <v>404</v>
       </c>
       <c r="AC43" s="3" t="s">
-        <v>553</v>
+        <v>491</v>
       </c>
     </row>
     <row r="44" spans="1:30" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A44" s="1" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>571</v>
+        <v>17</v>
       </c>
       <c r="D44" s="1" t="s">
         <v>22</v>
@@ -7985,66 +8050,72 @@
         <v>3</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>564</v>
+        <v>54</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>39</v>
+        <v>57</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>10</v>
+        <v>96</v>
       </c>
       <c r="I44" s="1" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="J44" s="1" t="s">
-        <v>42</v>
+        <v>68</v>
       </c>
       <c r="K44" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="L44" s="1" t="s">
-        <v>69</v>
+        <v>117</v>
       </c>
       <c r="M44" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
+      </c>
+      <c r="O44" s="1" t="s">
+        <v>542</v>
       </c>
       <c r="P44" s="1" t="s">
         <v>36</v>
       </c>
+      <c r="Q44" s="1" t="s">
+        <v>168</v>
+      </c>
       <c r="T44" s="1" t="s">
-        <v>246</v>
+        <v>258</v>
       </c>
       <c r="U44" s="1" t="s">
-        <v>566</v>
+        <v>558</v>
       </c>
       <c r="V44" s="1" t="s">
-        <v>32</v>
+        <v>202</v>
       </c>
       <c r="W44" s="1" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="X44" s="1" t="s">
-        <v>113</v>
+        <v>587</v>
       </c>
       <c r="Y44" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="AA44" s="2" t="s">
         <v>570</v>
       </c>
-      <c r="AA44" s="2" t="s">
-        <v>574</v>
-      </c>
-      <c r="AC44" s="8" t="s">
-        <v>580</v>
+      <c r="AC44" s="3" t="s">
+        <v>492</v>
       </c>
     </row>
-    <row r="45" spans="1:30" ht="28.5" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:30" ht="42.75" x14ac:dyDescent="0.15">
       <c r="A45" s="1" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>296</v>
+        <v>546</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>562</v>
+        <v>18</v>
       </c>
       <c r="D45" s="1" t="s">
         <v>22</v>
@@ -8053,66 +8124,72 @@
         <v>3</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>564</v>
+        <v>54</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>24</v>
+        <v>58</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="I45" s="1" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="J45" s="1" t="s">
-        <v>42</v>
+        <v>68</v>
       </c>
       <c r="K45" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="L45" s="1" t="s">
-        <v>69</v>
+        <v>117</v>
       </c>
       <c r="M45" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
+      </c>
+      <c r="O45" s="1" t="s">
+        <v>541</v>
       </c>
       <c r="P45" s="1" t="s">
         <v>36</v>
       </c>
+      <c r="Q45" s="1" t="s">
+        <v>168</v>
+      </c>
       <c r="T45" s="1" t="s">
-        <v>246</v>
+        <v>256</v>
       </c>
       <c r="U45" s="1" t="s">
-        <v>566</v>
+        <v>558</v>
       </c>
       <c r="V45" s="1" t="s">
-        <v>32</v>
+        <v>202</v>
       </c>
       <c r="W45" s="1" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="X45" s="1" t="s">
-        <v>591</v>
+        <v>580</v>
       </c>
       <c r="Y45" s="2" t="s">
-        <v>568</v>
+        <v>153</v>
       </c>
       <c r="AA45" s="2" t="s">
-        <v>575</v>
-      </c>
-      <c r="AC45" s="8" t="s">
-        <v>581</v>
+        <v>405</v>
+      </c>
+      <c r="AC45" s="3" t="s">
+        <v>493</v>
       </c>
     </row>
     <row r="46" spans="1:30" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A46" s="1" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>296</v>
+        <v>552</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>563</v>
+        <v>553</v>
       </c>
       <c r="D46" s="1" t="s">
         <v>22</v>
@@ -8121,66 +8198,63 @@
         <v>3</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>565</v>
+        <v>52</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>30</v>
+        <v>184</v>
       </c>
       <c r="H46" s="1" t="s">
         <v>72</v>
       </c>
       <c r="I46" s="1" t="s">
-        <v>90</v>
+        <v>551</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>42</v>
+        <v>68</v>
       </c>
       <c r="K46" s="1" t="s">
         <v>32</v>
       </c>
       <c r="L46" s="1" t="s">
-        <v>69</v>
+        <v>117</v>
       </c>
       <c r="M46" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="P46" s="1" t="s">
         <v>36</v>
       </c>
       <c r="T46" s="1" t="s">
-        <v>246</v>
+        <v>253</v>
       </c>
       <c r="U46" s="1" t="s">
-        <v>566</v>
+        <v>536</v>
       </c>
       <c r="V46" s="1" t="s">
-        <v>32</v>
+        <v>202</v>
       </c>
       <c r="W46" s="1" t="s">
-        <v>607</v>
-      </c>
-      <c r="X46" s="1" t="s">
-        <v>592</v>
+        <v>604</v>
       </c>
       <c r="Y46" s="2" t="s">
-        <v>569</v>
+        <v>548</v>
       </c>
       <c r="AA46" s="2" t="s">
-        <v>576</v>
-      </c>
-      <c r="AC46" s="8" t="s">
-        <v>582</v>
+        <v>549</v>
+      </c>
+      <c r="AC46" s="3" t="s">
+        <v>550</v>
       </c>
     </row>
     <row r="47" spans="1:30" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A47" s="1" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>560</v>
+        <v>568</v>
       </c>
       <c r="D47" s="1" t="s">
         <v>22</v>
@@ -8189,75 +8263,66 @@
         <v>3</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>59</v>
+        <v>561</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="H47" s="1" t="s">
         <v>10</v>
       </c>
       <c r="I47" s="1" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="J47" s="1" t="s">
-        <v>68</v>
+        <v>42</v>
       </c>
       <c r="K47" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L47" s="1" t="s">
-        <v>117</v>
+        <v>69</v>
       </c>
       <c r="M47" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="N47" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="O47" s="1" t="s">
-        <v>373</v>
+        <v>248</v>
       </c>
       <c r="P47" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="Q47" s="1" t="s">
-        <v>168</v>
-      </c>
       <c r="T47" s="1" t="s">
-        <v>259</v>
+        <v>245</v>
       </c>
       <c r="U47" s="1" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="V47" s="1" t="s">
-        <v>203</v>
+        <v>32</v>
       </c>
       <c r="W47" s="1" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="X47" s="1" t="s">
         <v>113</v>
       </c>
       <c r="Y47" s="2" t="s">
-        <v>154</v>
+        <v>567</v>
       </c>
       <c r="AA47" s="2" t="s">
+        <v>571</v>
+      </c>
+      <c r="AC47" s="8" t="s">
         <v>577</v>
-      </c>
-      <c r="AC47" s="3" t="s">
-        <v>496</v>
       </c>
     </row>
     <row r="48" spans="1:30" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A48" s="1" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>19</v>
+        <v>559</v>
       </c>
       <c r="D48" s="1" t="s">
         <v>22</v>
@@ -8266,7 +8331,7 @@
         <v>3</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>60</v>
+        <v>561</v>
       </c>
       <c r="G48" s="1" t="s">
         <v>24</v>
@@ -8275,66 +8340,57 @@
         <v>72</v>
       </c>
       <c r="I48" s="1" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="J48" s="1" t="s">
-        <v>68</v>
+        <v>42</v>
       </c>
       <c r="K48" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L48" s="1" t="s">
-        <v>117</v>
+        <v>69</v>
       </c>
       <c r="M48" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="N48" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="O48" s="1" t="s">
-        <v>373</v>
+        <v>248</v>
       </c>
       <c r="P48" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="Q48" s="1" t="s">
-        <v>168</v>
-      </c>
       <c r="T48" s="1" t="s">
-        <v>259</v>
+        <v>245</v>
       </c>
       <c r="U48" s="1" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="V48" s="1" t="s">
-        <v>203</v>
+        <v>32</v>
       </c>
       <c r="W48" s="1" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="X48" s="1" t="s">
-        <v>593</v>
+        <v>588</v>
       </c>
       <c r="Y48" s="2" t="s">
-        <v>155</v>
+        <v>565</v>
       </c>
       <c r="AA48" s="2" t="s">
+        <v>572</v>
+      </c>
+      <c r="AC48" s="8" t="s">
         <v>578</v>
-      </c>
-      <c r="AC48" s="3" t="s">
-        <v>497</v>
       </c>
     </row>
     <row r="49" spans="1:30" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A49" s="1" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>20</v>
+        <v>560</v>
       </c>
       <c r="D49" s="1" t="s">
         <v>22</v>
@@ -8343,75 +8399,66 @@
         <v>3</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>60</v>
+        <v>562</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>61</v>
+        <v>30</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>95</v>
+        <v>72</v>
       </c>
       <c r="I49" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J49" s="1" t="s">
-        <v>68</v>
+        <v>42</v>
       </c>
       <c r="K49" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L49" s="1" t="s">
-        <v>117</v>
+        <v>69</v>
       </c>
       <c r="M49" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="N49" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="O49" s="1" t="s">
-        <v>373</v>
+        <v>248</v>
       </c>
       <c r="P49" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="Q49" s="1" t="s">
-        <v>168</v>
-      </c>
       <c r="T49" s="1" t="s">
-        <v>259</v>
+        <v>245</v>
       </c>
       <c r="U49" s="1" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="V49" s="1" t="s">
-        <v>203</v>
+        <v>32</v>
       </c>
       <c r="W49" s="1" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="X49" s="1" t="s">
-        <v>594</v>
+        <v>589</v>
       </c>
       <c r="Y49" s="2" t="s">
-        <v>156</v>
+        <v>566</v>
       </c>
       <c r="AA49" s="2" t="s">
+        <v>573</v>
+      </c>
+      <c r="AC49" s="8" t="s">
         <v>579</v>
       </c>
-      <c r="AC49" s="3" t="s">
-        <v>498</v>
-      </c>
     </row>
-    <row r="50" spans="1:30" ht="171" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:30" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A50" s="1" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>126</v>
+        <v>557</v>
       </c>
       <c r="D50" s="1" t="s">
         <v>22</v>
@@ -8420,16 +8467,16 @@
         <v>3</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>25</v>
+        <v>59</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>26</v>
+        <v>49</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>186</v>
+        <v>10</v>
       </c>
       <c r="I50" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="J50" s="1" t="s">
         <v>68</v>
@@ -8441,149 +8488,131 @@
         <v>117</v>
       </c>
       <c r="M50" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="N50" s="1" t="s">
-        <v>36</v>
+        <v>168</v>
       </c>
       <c r="O50" s="1" t="s">
-        <v>167</v>
+        <v>371</v>
       </c>
       <c r="P50" s="1" t="s">
         <v>36</v>
       </c>
       <c r="Q50" s="1" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="T50" s="1" t="s">
-        <v>243</v>
+        <v>258</v>
       </c>
       <c r="U50" s="1" t="s">
-        <v>342</v>
+        <v>558</v>
       </c>
       <c r="V50" s="1" t="s">
-        <v>350</v>
+        <v>202</v>
       </c>
       <c r="W50" s="1" t="s">
-        <v>197</v>
+        <v>604</v>
       </c>
       <c r="X50" s="1" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="Y50" s="2" t="s">
-        <v>328</v>
-      </c>
-      <c r="Z50" s="2" t="s">
-        <v>435</v>
+        <v>154</v>
       </c>
       <c r="AA50" s="2" t="s">
-        <v>408</v>
-      </c>
-      <c r="AB50" s="2" t="s">
-        <v>514</v>
+        <v>574</v>
       </c>
       <c r="AC50" s="3" t="s">
-        <v>533</v>
-      </c>
-      <c r="AD50" s="5" t="s">
-        <v>499</v>
+        <v>494</v>
       </c>
     </row>
-    <row r="51" spans="1:30" s="7" customFormat="1" ht="28.5" x14ac:dyDescent="0.15">
-      <c r="A51" s="7" t="s">
-        <v>283</v>
-      </c>
-      <c r="B51" s="7" t="s">
-        <v>291</v>
-      </c>
-      <c r="C51" s="7" t="s">
-        <v>529</v>
-      </c>
-      <c r="D51" s="7" t="s">
+    <row r="51" spans="1:30" ht="28.5" x14ac:dyDescent="0.15">
+      <c r="A51" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D51" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E51" s="7" t="s">
+      <c r="E51" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F51" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="G51" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="H51" s="7" t="s">
-        <v>530</v>
-      </c>
-      <c r="I51" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="J51" s="7" t="s">
+      <c r="F51" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="G51" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H51" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="I51" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="J51" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="K51" s="7" t="s">
+      <c r="K51" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="L51" s="7" t="s">
+      <c r="L51" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="M51" s="7" t="s">
-        <v>249</v>
+      <c r="M51" s="1" t="s">
+        <v>248</v>
       </c>
       <c r="N51" s="1" t="s">
-        <v>210</v>
+        <v>168</v>
       </c>
       <c r="O51" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="P51" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q51" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="T51" s="7" t="s">
-        <v>241</v>
-      </c>
-      <c r="U51" s="7" t="s">
-        <v>541</v>
-      </c>
-      <c r="V51" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="W51" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="X51" s="7" t="s">
-        <v>531</v>
+        <v>371</v>
+      </c>
+      <c r="P51" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q51" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="T51" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="U51" s="1" t="s">
+        <v>558</v>
+      </c>
+      <c r="V51" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="W51" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="X51" s="1" t="s">
+        <v>590</v>
       </c>
       <c r="Y51" s="2" t="s">
-        <v>532</v>
-      </c>
-      <c r="Z51" s="2" t="s">
-        <v>535</v>
+        <v>155</v>
       </c>
       <c r="AA51" s="2" t="s">
-        <v>546</v>
-      </c>
-      <c r="AB51" s="2" t="s">
-        <v>534</v>
+        <v>575</v>
       </c>
       <c r="AC51" s="3" t="s">
-        <v>547</v>
-      </c>
-      <c r="AD51" s="3" t="s">
-        <v>548</v>
+        <v>495</v>
       </c>
     </row>
-    <row r="52" spans="1:30" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:30" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A52" s="1" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>289</v>
+        <v>294</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>306</v>
+        <v>20</v>
       </c>
       <c r="D52" s="1" t="s">
         <v>22</v>
@@ -8592,64 +8621,67 @@
         <v>3</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>297</v>
+        <v>60</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>298</v>
+        <v>61</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>73</v>
+        <v>95</v>
       </c>
       <c r="I52" s="1" t="s">
-        <v>299</v>
+        <v>91</v>
       </c>
       <c r="J52" s="1" t="s">
-        <v>42</v>
+        <v>68</v>
       </c>
       <c r="K52" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="L52" s="1" t="s">
-        <v>304</v>
+        <v>117</v>
       </c>
       <c r="M52" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="N52" s="1" t="s">
-        <v>313</v>
+        <v>168</v>
       </c>
       <c r="O52" s="1" t="s">
-        <v>312</v>
+        <v>371</v>
       </c>
       <c r="P52" s="1" t="s">
         <v>36</v>
       </c>
       <c r="Q52" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="R52" s="1" t="s">
-        <v>36</v>
+        <v>168</v>
       </c>
       <c r="T52" s="1" t="s">
-        <v>305</v>
-      </c>
-      <c r="U52" s="7" t="s">
-        <v>343</v>
+        <v>258</v>
+      </c>
+      <c r="U52" s="1" t="s">
+        <v>558</v>
+      </c>
+      <c r="V52" s="1" t="s">
+        <v>202</v>
       </c>
       <c r="W52" s="1" t="s">
-        <v>200</v>
+        <v>604</v>
+      </c>
+      <c r="X52" s="1" t="s">
+        <v>591</v>
       </c>
       <c r="Y52" s="2" t="s">
-        <v>335</v>
+        <v>156</v>
       </c>
       <c r="AA52" s="2" t="s">
-        <v>409</v>
+        <v>576</v>
       </c>
       <c r="AC52" s="3" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
     </row>
-    <row r="53" spans="1:30" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:30" ht="171" x14ac:dyDescent="0.15">
       <c r="A53" s="1" t="s">
         <v>283</v>
       </c>
@@ -8657,7 +8689,7 @@
         <v>289</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>307</v>
+        <v>126</v>
       </c>
       <c r="D53" s="1" t="s">
         <v>22</v>
@@ -8666,146 +8698,170 @@
         <v>3</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>297</v>
+        <v>25</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>300</v>
+        <v>26</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>73</v>
+        <v>186</v>
       </c>
       <c r="I53" s="1" t="s">
-        <v>299</v>
+        <v>94</v>
       </c>
       <c r="J53" s="1" t="s">
-        <v>42</v>
+        <v>68</v>
       </c>
       <c r="K53" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="L53" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="M53" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="N53" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="O53" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="P53" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q53" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="T53" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="U53" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="V53" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="W53" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="X53" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="Y53" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="Z53" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="AA53" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="AB53" s="2" t="s">
+        <v>512</v>
+      </c>
+      <c r="AC53" s="3" t="s">
+        <v>530</v>
+      </c>
+      <c r="AD53" s="5" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="54" spans="1:30" s="7" customFormat="1" ht="28.5" x14ac:dyDescent="0.15">
+      <c r="A54" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="B54" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="C54" s="7" t="s">
+        <v>526</v>
+      </c>
+      <c r="D54" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E54" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="F54" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="G54" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H54" s="7" t="s">
+        <v>527</v>
+      </c>
+      <c r="I54" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="J54" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="K54" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="L54" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="M54" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="N54" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="O54" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="P54" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q54" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="T54" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="U54" s="7" t="s">
+        <v>538</v>
+      </c>
+      <c r="V54" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="L53" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="M53" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="N53" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="O53" s="1" t="s">
-        <v>312</v>
-      </c>
-      <c r="P53" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q53" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="R53" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="T53" s="1" t="s">
-        <v>305</v>
-      </c>
-      <c r="U53" s="7" t="s">
-        <v>343</v>
-      </c>
-      <c r="W53" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="Y53" s="2" t="s">
-        <v>336</v>
-      </c>
-      <c r="AA53" s="2" t="s">
-        <v>410</v>
-      </c>
-      <c r="AC53" s="3" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="54" spans="1:30" x14ac:dyDescent="0.15">
-      <c r="A54" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="B54" s="1" t="s">
-        <v>289</v>
-      </c>
-      <c r="C54" s="1" t="s">
-        <v>308</v>
-      </c>
-      <c r="D54" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E54" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F54" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="G54" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="H54" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="I54" s="1" t="s">
-        <v>299</v>
-      </c>
-      <c r="J54" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="K54" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="L54" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="M54" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="N54" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="O54" s="1" t="s">
-        <v>312</v>
-      </c>
-      <c r="P54" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q54" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="R54" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="T54" s="1" t="s">
-        <v>305</v>
-      </c>
-      <c r="U54" s="7" t="s">
-        <v>343</v>
-      </c>
-      <c r="W54" s="1" t="s">
-        <v>200</v>
+      <c r="W54" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="X54" s="7" t="s">
+        <v>528</v>
       </c>
       <c r="Y54" s="2" t="s">
-        <v>339</v>
+        <v>529</v>
+      </c>
+      <c r="Z54" s="2" t="s">
+        <v>532</v>
       </c>
       <c r="AA54" s="2" t="s">
-        <v>411</v>
+        <v>543</v>
+      </c>
+      <c r="AB54" s="2" t="s">
+        <v>531</v>
       </c>
       <c r="AC54" s="3" t="s">
-        <v>502</v>
+        <v>544</v>
+      </c>
+      <c r="AD54" s="3" t="s">
+        <v>545</v>
       </c>
     </row>
     <row r="55" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A55" s="1" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="D55" s="1" t="s">
         <v>22</v>
@@ -8814,16 +8870,16 @@
         <v>3</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="H55" s="1" t="s">
         <v>73</v>
       </c>
       <c r="I55" s="1" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="J55" s="1" t="s">
         <v>42</v>
@@ -8832,16 +8888,16 @@
         <v>32</v>
       </c>
       <c r="L55" s="1" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="M55" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="N55" s="1" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="O55" s="1" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="P55" s="1" t="s">
         <v>36</v>
@@ -8853,33 +8909,33 @@
         <v>36</v>
       </c>
       <c r="T55" s="1" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="U55" s="7" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="W55" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="Y55" s="2" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="AA55" s="2" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="AC55" s="3" t="s">
-        <v>503</v>
+        <v>498</v>
       </c>
     </row>
     <row r="56" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A56" s="1" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="D56" s="1" t="s">
         <v>22</v>
@@ -8888,16 +8944,16 @@
         <v>3</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="H56" s="1" t="s">
         <v>73</v>
       </c>
       <c r="I56" s="1" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="J56" s="1" t="s">
         <v>42</v>
@@ -8906,16 +8962,16 @@
         <v>32</v>
       </c>
       <c r="L56" s="1" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="M56" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="N56" s="1" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="O56" s="1" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="P56" s="1" t="s">
         <v>36</v>
@@ -8927,33 +8983,33 @@
         <v>36</v>
       </c>
       <c r="T56" s="1" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="U56" s="7" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="W56" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="Y56" s="2" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="AA56" s="2" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="AC56" s="3" t="s">
-        <v>504</v>
+        <v>499</v>
       </c>
     </row>
     <row r="57" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A57" s="1" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="D57" s="1" t="s">
         <v>22</v>
@@ -8962,16 +9018,16 @@
         <v>3</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>303</v>
+        <v>176</v>
       </c>
       <c r="H57" s="1" t="s">
         <v>73</v>
       </c>
       <c r="I57" s="1" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="J57" s="1" t="s">
         <v>42</v>
@@ -8980,16 +9036,16 @@
         <v>32</v>
       </c>
       <c r="L57" s="1" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="M57" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="N57" s="1" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="O57" s="1" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="P57" s="1" t="s">
         <v>36</v>
@@ -9001,33 +9057,33 @@
         <v>36</v>
       </c>
       <c r="T57" s="1" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="U57" s="7" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="W57" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="Y57" s="2" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="AA57" s="2" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="AC57" s="3" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
     </row>
-    <row r="58" spans="1:30" ht="28.5" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A58" s="1" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>361</v>
+        <v>307</v>
       </c>
       <c r="D58" s="1" t="s">
         <v>22</v>
@@ -9036,72 +9092,72 @@
         <v>3</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>31</v>
+        <v>295</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>49</v>
+        <v>299</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>8</v>
+        <v>73</v>
       </c>
       <c r="I58" s="1" t="s">
-        <v>101</v>
+        <v>297</v>
       </c>
       <c r="J58" s="1" t="s">
-        <v>69</v>
+        <v>42</v>
       </c>
       <c r="K58" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L58" s="1" t="s">
-        <v>120</v>
+        <v>302</v>
       </c>
       <c r="M58" s="1" t="s">
-        <v>37</v>
+        <v>248</v>
+      </c>
+      <c r="N58" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="O58" s="1" t="s">
+        <v>310</v>
       </c>
       <c r="P58" s="1" t="s">
-        <v>253</v>
+        <v>36</v>
       </c>
       <c r="Q58" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="S58" s="1" t="s">
+      <c r="R58" s="1" t="s">
         <v>36</v>
       </c>
       <c r="T58" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="U58" s="1" t="s">
-        <v>587</v>
-      </c>
-      <c r="V58" s="1" t="s">
-        <v>360</v>
+        <v>303</v>
+      </c>
+      <c r="U58" s="7" t="s">
+        <v>341</v>
       </c>
       <c r="W58" s="1" t="s">
-        <v>608</v>
-      </c>
-      <c r="X58" s="1" t="s">
-        <v>172</v>
+        <v>199</v>
       </c>
       <c r="Y58" s="2" t="s">
-        <v>157</v>
+        <v>335</v>
       </c>
       <c r="AA58" s="2" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="AC58" s="3" t="s">
-        <v>506</v>
+        <v>501</v>
       </c>
     </row>
-    <row r="59" spans="1:30" ht="99.75" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A59" s="1" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>105</v>
+        <v>308</v>
       </c>
       <c r="D59" s="1" t="s">
         <v>22</v>
@@ -9110,151 +9166,370 @@
         <v>3</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>193</v>
+        <v>295</v>
       </c>
       <c r="G59" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="H59" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="I59" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="J59" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K59" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="L59" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="M59" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="N59" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="O59" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="P59" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q59" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="R59" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="T59" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="U59" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="W59" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="Y59" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="AA59" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="AC59" s="3" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="60" spans="1:30" x14ac:dyDescent="0.15">
+      <c r="A60" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="G60" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="H60" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="I60" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="J60" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K60" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="L60" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="M60" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="N60" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="O60" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="P60" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q60" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="R60" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="T60" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="U60" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="W60" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="Y60" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="AA60" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="AC60" s="3" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="61" spans="1:30" ht="28.5" x14ac:dyDescent="0.15">
+      <c r="A61" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G61" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="H61" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I61" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="J61" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="K61" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="L61" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="M61" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="P61" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="Q61" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="S61" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="T61" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="U61" s="1" t="s">
+        <v>584</v>
+      </c>
+      <c r="V61" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="W61" s="1" t="s">
+        <v>605</v>
+      </c>
+      <c r="X61" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="Y61" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="AA61" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="AC61" s="3" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="62" spans="1:30" ht="28.5" x14ac:dyDescent="0.15">
+      <c r="A62" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F62" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="G62" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="H59" s="1" t="s">
+      <c r="H62" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="I59" s="1" t="s">
+      <c r="I62" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="J59" s="1" t="s">
+      <c r="J62" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="K59" s="1" t="s">
+      <c r="K62" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="L59" s="1" t="s">
+      <c r="L62" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="M59" s="1" t="s">
+      <c r="M62" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="O59" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="P59" s="1" t="s">
+      <c r="O62" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="P62" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="Q59" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="S59" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="T59" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="U59" s="1" t="s">
-        <v>341</v>
-      </c>
-      <c r="V59" s="1" t="s">
-        <v>350</v>
-      </c>
-      <c r="W59" s="1" t="s">
-        <v>608</v>
-      </c>
-      <c r="X59" s="1" t="s">
-        <v>528</v>
-      </c>
-      <c r="Y59" s="2" t="s">
+      <c r="Q62" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="S62" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="T62" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="U62" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="V62" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="W62" s="1" t="s">
+        <v>605</v>
+      </c>
+      <c r="Y62" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="AA59" s="2" t="s">
-        <v>416</v>
-      </c>
-      <c r="AC59" s="3" t="s">
-        <v>507</v>
+      <c r="AA62" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="AC62" s="3" t="s">
+        <v>505</v>
       </c>
     </row>
-    <row r="60" spans="1:30" s="7" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A60" s="7" t="s">
-        <v>283</v>
-      </c>
-      <c r="B60" s="7" t="s">
-        <v>293</v>
-      </c>
-      <c r="C60" s="7" t="s">
+    <row r="63" spans="1:30" s="7" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A63" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="B63" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="C63" s="7" t="s">
+        <v>523</v>
+      </c>
+      <c r="D63" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E63" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="F63" s="7" t="s">
+        <v>518</v>
+      </c>
+      <c r="G63" s="7" t="s">
+        <v>519</v>
+      </c>
+      <c r="H63" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="I63" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="J63" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="K63" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="L63" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="M63" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="N63" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="O63" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="P63" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q63" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="T63" s="7" t="s">
+        <v>520</v>
+      </c>
+      <c r="U63" s="7" t="s">
+        <v>540</v>
+      </c>
+      <c r="V63" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="W63" s="7" t="s">
+        <v>521</v>
+      </c>
+      <c r="X63" s="7" t="s">
+        <v>522</v>
+      </c>
+      <c r="Y63" s="2" t="s">
         <v>525</v>
       </c>
-      <c r="D60" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="E60" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="F60" s="7" t="s">
-        <v>520</v>
-      </c>
-      <c r="G60" s="7" t="s">
-        <v>521</v>
-      </c>
-      <c r="H60" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="I60" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="J60" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="K60" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="L60" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="M60" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="N60" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="O60" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="P60" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q60" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="T60" s="7" t="s">
-        <v>522</v>
-      </c>
-      <c r="U60" s="7" t="s">
-        <v>543</v>
-      </c>
-      <c r="V60" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="W60" s="7" t="s">
-        <v>523</v>
-      </c>
-      <c r="X60" s="7" t="s">
+      <c r="Z63" s="2"/>
+      <c r="AA63" s="2" t="s">
         <v>524</v>
       </c>
-      <c r="Y60" s="2" t="s">
-        <v>527</v>
-      </c>
-      <c r="Z60" s="2"/>
-      <c r="AA60" s="2" t="s">
-        <v>526</v>
-      </c>
-      <c r="AB60" s="2"/>
-      <c r="AC60" s="3" t="s">
-        <v>558</v>
-      </c>
-      <c r="AD60" s="3"/>
+      <c r="AB63" s="2"/>
+      <c r="AC63" s="3" t="s">
+        <v>555</v>
+      </c>
+      <c r="AD63" s="3"/>
     </row>
   </sheetData>
-  <sortState ref="A2:W55">
-    <sortCondition ref="A2:A55"/>
-    <sortCondition ref="F2:F55"/>
-    <sortCondition ref="G2:G55"/>
+  <sortState ref="A2:W58">
+    <sortCondition ref="A2:A58"/>
+    <sortCondition ref="F2:F58"/>
+    <sortCondition ref="G2:G58"/>
   </sortState>
   <phoneticPr fontId="18"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Documents/UsbProtocol_EgsDeviceSettingsHidReport_HostAppSettings_PropertyList.xlsx
+++ b/Documents/UsbProtocol_EgsDeviceSettingsHidReport_HostAppSettings_PropertyList.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1579" uniqueCount="637">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1582" uniqueCount="636">
   <si>
     <t>MessageId</t>
   </si>
@@ -2624,10 +2624,6 @@
   </si>
   <si>
     <t>public</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>internal</t>
     <phoneticPr fontId="18"/>
   </si>
   <si>
@@ -6333,10 +6329,10 @@
   <dimension ref="A1:AD64"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D7" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B20" sqref="B20"/>
+      <selection pane="bottomRight" activeCell="L1" sqref="L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -6352,10 +6348,10 @@
     <col min="9" max="9" width="3.75" style="2" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="5.5" style="2" customWidth="1"/>
     <col min="11" max="11" width="6.625" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="6" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="19.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6" style="2" customWidth="1"/>
+    <col min="13" max="13" width="19.125" style="2" customWidth="1"/>
     <col min="14" max="19" width="10.625" style="2" customWidth="1"/>
-    <col min="20" max="21" width="7.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="7.375" style="2" customWidth="1"/>
     <col min="22" max="22" width="8.25" style="2" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="10" style="2" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="21.875" style="2" bestFit="1" customWidth="1"/>
@@ -6436,7 +6432,7 @@
         <v>349</v>
       </c>
       <c r="W1" s="2" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="X1" s="2" t="s">
         <v>171</v>
@@ -6522,7 +6518,7 @@
         <v>342</v>
       </c>
       <c r="W2" s="2" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="X2" s="2" t="s">
         <v>131</v>
@@ -6534,7 +6530,7 @@
         <v>370</v>
       </c>
       <c r="AC2" s="4" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
     </row>
     <row r="3" spans="1:30">
@@ -6608,7 +6604,7 @@
         <v>371</v>
       </c>
       <c r="AC3" s="4" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="4" spans="1:30">
@@ -6682,7 +6678,7 @@
         <v>414</v>
       </c>
       <c r="AC4" s="4" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="5" spans="1:30">
@@ -6759,7 +6755,7 @@
         <v>372</v>
       </c>
       <c r="AC5" s="4" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="6" spans="1:30" ht="85.5">
@@ -6842,10 +6838,10 @@
         <v>471</v>
       </c>
       <c r="AC6" s="4" t="s">
+        <v>576</v>
+      </c>
+      <c r="AD6" s="4" t="s">
         <v>577</v>
-      </c>
-      <c r="AD6" s="4" t="s">
-        <v>578</v>
       </c>
     </row>
     <row r="7" spans="1:30">
@@ -6930,10 +6926,10 @@
         <v>277</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="H8" s="2" t="s">
         <v>177</v>
@@ -6945,7 +6941,7 @@
         <v>42</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="L8" s="2" t="s">
         <v>69</v>
@@ -6963,10 +6959,10 @@
         <v>236</v>
       </c>
       <c r="U8" s="2" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="V8" s="2" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="W8" s="2" t="s">
         <v>325</v>
@@ -6975,13 +6971,13 @@
         <v>113</v>
       </c>
       <c r="Y8" s="1" t="s">
+        <v>545</v>
+      </c>
+      <c r="AA8" s="1" t="s">
         <v>546</v>
       </c>
-      <c r="AA8" s="1" t="s">
-        <v>547</v>
-      </c>
       <c r="AC8" s="3" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="9" spans="1:30">
@@ -7046,7 +7042,7 @@
         <v>337</v>
       </c>
       <c r="V9" s="2" t="s">
-        <v>342</v>
+        <v>32</v>
       </c>
       <c r="W9" s="2" t="s">
         <v>325</v>
@@ -7058,7 +7054,7 @@
         <v>375</v>
       </c>
       <c r="AC9" s="4" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="10" spans="1:30">
@@ -7123,7 +7119,7 @@
         <v>338</v>
       </c>
       <c r="V10" s="2" t="s">
-        <v>342</v>
+        <v>32</v>
       </c>
       <c r="W10" s="2" t="s">
         <v>325</v>
@@ -7135,7 +7131,7 @@
         <v>376</v>
       </c>
       <c r="AC10" s="4" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="11" spans="1:30" ht="57">
@@ -7218,10 +7214,10 @@
         <v>450</v>
       </c>
       <c r="AC11" s="1" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="AD11" s="1" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
     <row r="12" spans="1:30" ht="28.5">
@@ -7289,7 +7285,7 @@
         <v>344</v>
       </c>
       <c r="W12" s="2" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="X12" s="2" t="s">
         <v>121</v>
@@ -7307,7 +7303,7 @@
         <v>62</v>
       </c>
       <c r="AC12" s="4" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="AD12" s="4" t="s">
         <v>433</v>
@@ -7396,10 +7392,10 @@
         <v>434</v>
       </c>
       <c r="AC13" s="4" t="s">
+        <v>579</v>
+      </c>
+      <c r="AD13" s="4" t="s">
         <v>580</v>
-      </c>
-      <c r="AD13" s="4" t="s">
-        <v>581</v>
       </c>
     </row>
     <row r="14" spans="1:30" ht="57">
@@ -7485,10 +7481,10 @@
         <v>435</v>
       </c>
       <c r="AC14" s="4" t="s">
+        <v>620</v>
+      </c>
+      <c r="AD14" s="4" t="s">
         <v>621</v>
-      </c>
-      <c r="AD14" s="4" t="s">
-        <v>622</v>
       </c>
     </row>
     <row r="15" spans="1:30" ht="28.5">
@@ -7565,10 +7561,10 @@
         <v>419</v>
       </c>
       <c r="AC15" s="5" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="AD15" s="4" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="16" spans="1:30">
@@ -7576,17 +7572,20 @@
         <v>277</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="J16" s="2" t="s">
         <v>42</v>
       </c>
+      <c r="K16" s="2" t="s">
+        <v>32</v>
+      </c>
       <c r="L16" s="2" t="s">
         <v>69</v>
       </c>
@@ -7621,7 +7620,7 @@
         <v>379</v>
       </c>
       <c r="AC16" s="4" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
     </row>
     <row r="17" spans="1:30" ht="71.25">
@@ -7629,17 +7628,20 @@
         <v>277</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="J17" s="2" t="s">
         <v>42</v>
       </c>
+      <c r="K17" s="2" t="s">
+        <v>32</v>
+      </c>
       <c r="L17" s="2" t="s">
         <v>69</v>
       </c>
@@ -7665,22 +7667,22 @@
         <v>197</v>
       </c>
       <c r="Y17" s="1" t="s">
+        <v>548</v>
+      </c>
+      <c r="Z17" s="1" t="s">
+        <v>551</v>
+      </c>
+      <c r="AA17" s="1" t="s">
         <v>549</v>
       </c>
-      <c r="Z17" s="1" t="s">
-        <v>552</v>
-      </c>
-      <c r="AA17" s="1" t="s">
+      <c r="AB17" s="1" t="s">
         <v>550</v>
       </c>
-      <c r="AB17" s="1" t="s">
-        <v>551</v>
-      </c>
       <c r="AC17" s="1" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="AD17" s="1" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="18" spans="1:30" ht="28.5">
@@ -7688,10 +7690,10 @@
         <v>277</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>22</v>
@@ -7712,10 +7714,10 @@
         <v>85</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="L18" s="2" t="s">
         <v>69</v>
@@ -7745,22 +7747,22 @@
         <v>336</v>
       </c>
       <c r="V18" s="2" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="W18" s="2" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="X18" s="2" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="Y18" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="AA18" s="1" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="AC18" s="1" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
     </row>
     <row r="19" spans="1:30" ht="42.75">
@@ -7768,10 +7770,10 @@
         <v>277</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="I19" s="2" t="s">
         <v>85</v>
@@ -7779,6 +7781,9 @@
       <c r="J19" s="2" t="s">
         <v>42</v>
       </c>
+      <c r="K19" s="2" t="s">
+        <v>32</v>
+      </c>
       <c r="L19" s="2" t="s">
         <v>69</v>
       </c>
@@ -7807,13 +7812,13 @@
         <v>111</v>
       </c>
       <c r="Y19" s="1" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="AA19" s="1" t="s">
         <v>380</v>
       </c>
       <c r="AC19" s="6" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
     </row>
     <row r="20" spans="1:30" ht="28.5">
@@ -7821,10 +7826,10 @@
         <v>277</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>22</v>
@@ -7845,10 +7850,10 @@
         <v>85</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="K20" s="2" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="L20" s="2" t="s">
         <v>69</v>
@@ -7878,22 +7883,22 @@
         <v>338</v>
       </c>
       <c r="V20" s="2" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="W20" s="2" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="X20" s="2" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="Y20" s="1" t="s">
+        <v>563</v>
+      </c>
+      <c r="AA20" s="1" t="s">
         <v>564</v>
       </c>
-      <c r="AA20" s="1" t="s">
-        <v>565</v>
-      </c>
       <c r="AC20" s="1" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="21" spans="1:30">
@@ -7973,7 +7978,7 @@
         <v>381</v>
       </c>
       <c r="AC21" s="4" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
     </row>
     <row r="22" spans="1:30" ht="42.75">
@@ -8053,7 +8058,7 @@
         <v>382</v>
       </c>
       <c r="AC22" s="4" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
     </row>
     <row r="23" spans="1:30">
@@ -8133,7 +8138,7 @@
         <v>383</v>
       </c>
       <c r="AC23" s="4" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="24" spans="1:30" ht="28.5">
@@ -8186,7 +8191,7 @@
         <v>474</v>
       </c>
       <c r="W24" s="2" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="X24" s="2" t="s">
         <v>124</v>
@@ -8204,10 +8209,10 @@
         <v>423</v>
       </c>
       <c r="AC24" s="4" t="s">
+        <v>587</v>
+      </c>
+      <c r="AD24" s="4" t="s">
         <v>588</v>
-      </c>
-      <c r="AD24" s="4" t="s">
-        <v>589</v>
       </c>
     </row>
     <row r="25" spans="1:30" ht="42.75">
@@ -8275,7 +8280,7 @@
         <v>32</v>
       </c>
       <c r="W25" s="2" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="X25" s="2" t="s">
         <v>110</v>
@@ -8287,7 +8292,7 @@
         <v>384</v>
       </c>
       <c r="AC25" s="4" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="26" spans="1:30" ht="57">
@@ -8373,7 +8378,7 @@
         <v>439</v>
       </c>
       <c r="AD26" s="4" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="27" spans="1:30" ht="28.5">
@@ -8435,7 +8440,7 @@
         <v>344</v>
       </c>
       <c r="W27" s="2" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="Y27" s="1" t="s">
         <v>141</v>
@@ -8444,7 +8449,7 @@
         <v>385</v>
       </c>
       <c r="AC27" s="4" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
     </row>
     <row r="28" spans="1:30" ht="42.75">
@@ -8527,10 +8532,10 @@
         <v>426</v>
       </c>
       <c r="AC28" s="4" t="s">
+        <v>591</v>
+      </c>
+      <c r="AD28" s="4" t="s">
         <v>592</v>
-      </c>
-      <c r="AD28" s="4" t="s">
-        <v>593</v>
       </c>
     </row>
     <row r="29" spans="1:30" ht="57">
@@ -8613,7 +8618,7 @@
         <v>440</v>
       </c>
       <c r="AD29" s="4" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="30" spans="1:30">
@@ -8678,7 +8683,7 @@
         <v>387</v>
       </c>
       <c r="AC30" s="4" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="31" spans="1:30" ht="28.5">
@@ -8829,7 +8834,7 @@
         <v>389</v>
       </c>
       <c r="AC32" s="4" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="33" spans="1:30" ht="28.5">
@@ -8977,7 +8982,7 @@
         <v>391</v>
       </c>
       <c r="AC34" s="4" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="35" spans="1:30" ht="42.75">
@@ -9060,7 +9065,7 @@
         <v>350</v>
       </c>
       <c r="AC35" s="4" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="AD35" s="4" t="s">
         <v>443</v>
@@ -9074,7 +9079,7 @@
         <v>289</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="D36" s="2" t="s">
         <v>22</v>
@@ -9134,13 +9139,13 @@
         <v>198</v>
       </c>
       <c r="Y36" s="1" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="AA36" s="1" t="s">
         <v>393</v>
       </c>
       <c r="AC36" s="4" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="37" spans="1:30" ht="28.5">
@@ -9217,7 +9222,7 @@
         <v>394</v>
       </c>
       <c r="AC37" s="4" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="38" spans="1:30" ht="28.5">
@@ -9279,7 +9284,7 @@
         <v>200</v>
       </c>
       <c r="W38" s="2" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="X38" s="2" t="s">
         <v>113</v>
@@ -9291,7 +9296,7 @@
         <v>395</v>
       </c>
       <c r="AC38" s="4" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="39" spans="1:30" ht="28.5">
@@ -9353,7 +9358,7 @@
         <v>200</v>
       </c>
       <c r="W39" s="2" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="X39" s="2" t="s">
         <v>516</v>
@@ -9365,7 +9370,7 @@
         <v>396</v>
       </c>
       <c r="AC39" s="4" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
     </row>
     <row r="40" spans="1:30" ht="57">
@@ -9421,7 +9426,7 @@
         <v>200</v>
       </c>
       <c r="W40" s="2" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="X40" s="2" t="s">
         <v>489</v>
@@ -9433,7 +9438,7 @@
         <v>397</v>
       </c>
       <c r="AC40" s="4" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
     </row>
     <row r="41" spans="1:30" ht="114">
@@ -9516,10 +9521,10 @@
         <v>436</v>
       </c>
       <c r="AC41" s="4" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="AD41" s="4" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
     </row>
     <row r="42" spans="1:30" ht="28.5">
@@ -9554,13 +9559,13 @@
         <v>68</v>
       </c>
       <c r="K42" s="2" t="s">
-        <v>528</v>
+        <v>33</v>
       </c>
       <c r="L42" s="2" t="s">
         <v>117</v>
       </c>
       <c r="M42" s="2" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="O42" s="2" t="s">
         <v>478</v>
@@ -9581,7 +9586,7 @@
         <v>200</v>
       </c>
       <c r="W42" s="2" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="X42" s="2" t="s">
         <v>113</v>
@@ -9593,7 +9598,7 @@
         <v>399</v>
       </c>
       <c r="AC42" s="4" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
     </row>
     <row r="43" spans="1:30" ht="28.5">
@@ -9655,7 +9660,7 @@
         <v>200</v>
       </c>
       <c r="W43" s="2" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="X43" s="2" t="s">
         <v>517</v>
@@ -9667,7 +9672,7 @@
         <v>503</v>
       </c>
       <c r="AC43" s="4" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="44" spans="1:30" ht="42.75">
@@ -9729,7 +9734,7 @@
         <v>200</v>
       </c>
       <c r="W44" s="2" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="X44" s="2" t="s">
         <v>512</v>
@@ -9741,7 +9746,7 @@
         <v>400</v>
       </c>
       <c r="AC44" s="4" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
     </row>
     <row r="45" spans="1:30" ht="28.5">
@@ -9803,7 +9808,7 @@
         <v>200</v>
       </c>
       <c r="W45" s="2" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="X45" s="2" t="s">
         <v>518</v>
@@ -9815,7 +9820,7 @@
         <v>504</v>
       </c>
       <c r="AC45" s="4" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="46" spans="1:30" ht="42.75">
@@ -9877,7 +9882,7 @@
         <v>200</v>
       </c>
       <c r="W46" s="2" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="X46" s="2" t="s">
         <v>511</v>
@@ -9889,7 +9894,7 @@
         <v>401</v>
       </c>
       <c r="AC46" s="4" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="47" spans="1:30" ht="28.5">
@@ -9945,7 +9950,7 @@
         <v>200</v>
       </c>
       <c r="W47" s="2" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="Y47" s="1" t="s">
         <v>484</v>
@@ -9954,7 +9959,7 @@
         <v>485</v>
       </c>
       <c r="AC47" s="4" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
     </row>
     <row r="48" spans="1:30" ht="28.5">
@@ -10010,7 +10015,7 @@
         <v>32</v>
       </c>
       <c r="W48" s="2" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="X48" s="2" t="s">
         <v>113</v>
@@ -10022,7 +10027,7 @@
         <v>505</v>
       </c>
       <c r="AC48" s="4" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
     </row>
     <row r="49" spans="1:30" ht="28.5">
@@ -10078,7 +10083,7 @@
         <v>32</v>
       </c>
       <c r="W49" s="2" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="X49" s="2" t="s">
         <v>519</v>
@@ -10090,7 +10095,7 @@
         <v>506</v>
       </c>
       <c r="AC49" s="4" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="50" spans="1:30" ht="28.5">
@@ -10146,7 +10151,7 @@
         <v>32</v>
       </c>
       <c r="W50" s="2" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="X50" s="2" t="s">
         <v>520</v>
@@ -10158,7 +10163,7 @@
         <v>507</v>
       </c>
       <c r="AC50" s="4" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
     <row r="51" spans="1:30" ht="28.5">
@@ -10223,7 +10228,7 @@
         <v>200</v>
       </c>
       <c r="W51" s="2" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="X51" s="2" t="s">
         <v>113</v>
@@ -10235,7 +10240,7 @@
         <v>508</v>
       </c>
       <c r="AC51" s="4" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
     </row>
     <row r="52" spans="1:30" ht="28.5">
@@ -10300,7 +10305,7 @@
         <v>200</v>
       </c>
       <c r="W52" s="2" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="X52" s="2" t="s">
         <v>521</v>
@@ -10312,7 +10317,7 @@
         <v>509</v>
       </c>
       <c r="AC52" s="4" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="53" spans="1:30" ht="28.5">
@@ -10377,7 +10382,7 @@
         <v>200</v>
       </c>
       <c r="W53" s="2" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="X53" s="2" t="s">
         <v>522</v>
@@ -10389,7 +10394,7 @@
         <v>510</v>
       </c>
       <c r="AC53" s="4" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
     </row>
     <row r="54" spans="1:30" ht="171">
@@ -10472,10 +10477,10 @@
         <v>452</v>
       </c>
       <c r="AC54" s="4" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="AD54" s="5" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
     </row>
     <row r="55" spans="1:30" ht="28.5">
@@ -10558,7 +10563,7 @@
         <v>469</v>
       </c>
       <c r="AC55" s="4" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="AD55" s="4" t="s">
         <v>481</v>
@@ -10635,7 +10640,7 @@
         <v>403</v>
       </c>
       <c r="AC56" s="4" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="57" spans="1:30">
@@ -10709,7 +10714,7 @@
         <v>404</v>
       </c>
       <c r="AC57" s="4" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
     </row>
     <row r="58" spans="1:30">
@@ -10783,7 +10788,7 @@
         <v>405</v>
       </c>
       <c r="AC58" s="4" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
     </row>
     <row r="59" spans="1:30">
@@ -10857,7 +10862,7 @@
         <v>406</v>
       </c>
       <c r="AC59" s="4" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="60" spans="1:30">
@@ -10931,7 +10936,7 @@
         <v>407</v>
       </c>
       <c r="AC60" s="4" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="61" spans="1:30">
@@ -11005,7 +11010,7 @@
         <v>408</v>
       </c>
       <c r="AC61" s="4" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
     <row r="62" spans="1:30" ht="28.5">
@@ -11067,7 +11072,7 @@
         <v>354</v>
       </c>
       <c r="W62" s="2" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="X62" s="2" t="s">
         <v>172</v>
@@ -11079,7 +11084,7 @@
         <v>409</v>
       </c>
       <c r="AC62" s="4" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
     </row>
     <row r="63" spans="1:30" ht="28.5">
@@ -11144,7 +11149,7 @@
         <v>344</v>
       </c>
       <c r="W63" s="2" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="Y63" s="1" t="s">
         <v>135</v>
@@ -11153,7 +11158,7 @@
         <v>410</v>
       </c>
       <c r="AC63" s="4" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="64" spans="1:30">
@@ -11230,7 +11235,7 @@
         <v>463</v>
       </c>
       <c r="AC64" s="4" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
     </row>
   </sheetData>

--- a/Documents/UsbProtocol_EgsDeviceSettingsHidReport_HostAppSettings_PropertyList.xlsx
+++ b/Documents/UsbProtocol_EgsDeviceSettingsHidReport_HostAppSettings_PropertyList.xlsx
@@ -2757,10 +2757,6 @@
     <phoneticPr fontId="18"/>
   </si>
   <si>
-    <t>EnumValueWithDescription&lt;FaceDetectionMethodKind&gt;</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="8"/>
@@ -5327,6 +5323,10 @@
   </si>
   <si>
     <t>false</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>FaceDetectionMethodOptions</t>
     <phoneticPr fontId="18"/>
   </si>
 </sst>
@@ -6329,10 +6329,10 @@
   <dimension ref="A1:AD64"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D12" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="L1" sqref="L1"/>
+      <selection pane="bottomRight" activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -6530,7 +6530,7 @@
         <v>370</v>
       </c>
       <c r="AC2" s="4" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="3" spans="1:30">
@@ -6604,7 +6604,7 @@
         <v>371</v>
       </c>
       <c r="AC3" s="4" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="4" spans="1:30">
@@ -6678,7 +6678,7 @@
         <v>414</v>
       </c>
       <c r="AC4" s="4" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="5" spans="1:30">
@@ -6755,7 +6755,7 @@
         <v>372</v>
       </c>
       <c r="AC5" s="4" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="6" spans="1:30" ht="85.5">
@@ -6838,10 +6838,10 @@
         <v>471</v>
       </c>
       <c r="AC6" s="4" t="s">
+        <v>575</v>
+      </c>
+      <c r="AD6" s="4" t="s">
         <v>576</v>
-      </c>
-      <c r="AD6" s="4" t="s">
-        <v>577</v>
       </c>
     </row>
     <row r="7" spans="1:30">
@@ -6977,7 +6977,7 @@
         <v>546</v>
       </c>
       <c r="AC8" s="3" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
     <row r="9" spans="1:30">
@@ -7054,7 +7054,7 @@
         <v>375</v>
       </c>
       <c r="AC9" s="4" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
     </row>
     <row r="10" spans="1:30">
@@ -7131,7 +7131,7 @@
         <v>376</v>
       </c>
       <c r="AC10" s="4" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="11" spans="1:30" ht="57">
@@ -7214,10 +7214,10 @@
         <v>450</v>
       </c>
       <c r="AC11" s="1" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="AD11" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
     </row>
     <row r="12" spans="1:30" ht="28.5">
@@ -7303,7 +7303,7 @@
         <v>62</v>
       </c>
       <c r="AC12" s="4" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="AD12" s="4" t="s">
         <v>433</v>
@@ -7392,10 +7392,10 @@
         <v>434</v>
       </c>
       <c r="AC13" s="4" t="s">
+        <v>578</v>
+      </c>
+      <c r="AD13" s="4" t="s">
         <v>579</v>
-      </c>
-      <c r="AD13" s="4" t="s">
-        <v>580</v>
       </c>
     </row>
     <row r="14" spans="1:30" ht="57">
@@ -7481,10 +7481,10 @@
         <v>435</v>
       </c>
       <c r="AC14" s="4" t="s">
+        <v>619</v>
+      </c>
+      <c r="AD14" s="4" t="s">
         <v>620</v>
-      </c>
-      <c r="AD14" s="4" t="s">
-        <v>621</v>
       </c>
     </row>
     <row r="15" spans="1:30" ht="28.5">
@@ -7561,10 +7561,10 @@
         <v>419</v>
       </c>
       <c r="AC15" s="5" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="AD15" s="4" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="16" spans="1:30">
@@ -7620,7 +7620,7 @@
         <v>379</v>
       </c>
       <c r="AC16" s="4" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
     </row>
     <row r="17" spans="1:30" ht="71.25">
@@ -7628,7 +7628,7 @@
         <v>277</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>554</v>
+        <v>635</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>547</v>
@@ -7679,10 +7679,10 @@
         <v>550</v>
       </c>
       <c r="AC17" s="1" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="AD17" s="1" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="18" spans="1:30" ht="28.5">
@@ -7756,13 +7756,13 @@
         <v>542</v>
       </c>
       <c r="Y18" s="1" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="AA18" s="1" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="AC18" s="1" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="19" spans="1:30" ht="42.75">
@@ -7773,7 +7773,7 @@
         <v>540</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="I19" s="2" t="s">
         <v>85</v>
@@ -7812,13 +7812,13 @@
         <v>111</v>
       </c>
       <c r="Y19" s="1" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="AA19" s="1" t="s">
         <v>380</v>
       </c>
       <c r="AC19" s="6" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
     </row>
     <row r="20" spans="1:30" ht="28.5">
@@ -7829,7 +7829,7 @@
         <v>539</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>22</v>
@@ -7850,7 +7850,7 @@
         <v>85</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="K20" s="2" t="s">
         <v>32</v>
@@ -7889,16 +7889,16 @@
         <v>531</v>
       </c>
       <c r="X20" s="2" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="Y20" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="AA20" s="1" t="s">
         <v>563</v>
       </c>
-      <c r="AA20" s="1" t="s">
-        <v>564</v>
-      </c>
       <c r="AC20" s="1" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
     <row r="21" spans="1:30">
@@ -7978,7 +7978,7 @@
         <v>381</v>
       </c>
       <c r="AC21" s="4" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
     </row>
     <row r="22" spans="1:30" ht="42.75">
@@ -8058,7 +8058,7 @@
         <v>382</v>
       </c>
       <c r="AC22" s="4" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
     </row>
     <row r="23" spans="1:30">
@@ -8138,7 +8138,7 @@
         <v>383</v>
       </c>
       <c r="AC23" s="4" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
     </row>
     <row r="24" spans="1:30" ht="28.5">
@@ -8209,10 +8209,10 @@
         <v>423</v>
       </c>
       <c r="AC24" s="4" t="s">
+        <v>586</v>
+      </c>
+      <c r="AD24" s="4" t="s">
         <v>587</v>
-      </c>
-      <c r="AD24" s="4" t="s">
-        <v>588</v>
       </c>
     </row>
     <row r="25" spans="1:30" ht="42.75">
@@ -8292,7 +8292,7 @@
         <v>384</v>
       </c>
       <c r="AC25" s="4" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="26" spans="1:30" ht="57">
@@ -8378,7 +8378,7 @@
         <v>439</v>
       </c>
       <c r="AD26" s="4" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
     </row>
     <row r="27" spans="1:30" ht="28.5">
@@ -8449,7 +8449,7 @@
         <v>385</v>
       </c>
       <c r="AC27" s="4" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="28" spans="1:30" ht="42.75">
@@ -8532,10 +8532,10 @@
         <v>426</v>
       </c>
       <c r="AC28" s="4" t="s">
+        <v>590</v>
+      </c>
+      <c r="AD28" s="4" t="s">
         <v>591</v>
-      </c>
-      <c r="AD28" s="4" t="s">
-        <v>592</v>
       </c>
     </row>
     <row r="29" spans="1:30" ht="57">
@@ -8618,7 +8618,7 @@
         <v>440</v>
       </c>
       <c r="AD29" s="4" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
     </row>
     <row r="30" spans="1:30">
@@ -8683,7 +8683,7 @@
         <v>387</v>
       </c>
       <c r="AC30" s="4" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="31" spans="1:30" ht="28.5">
@@ -8834,7 +8834,7 @@
         <v>389</v>
       </c>
       <c r="AC32" s="4" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="33" spans="1:30" ht="28.5">
@@ -8982,7 +8982,7 @@
         <v>391</v>
       </c>
       <c r="AC34" s="4" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="35" spans="1:30" ht="42.75">
@@ -9065,7 +9065,7 @@
         <v>350</v>
       </c>
       <c r="AC35" s="4" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="AD35" s="4" t="s">
         <v>443</v>
@@ -9079,7 +9079,7 @@
         <v>289</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="D36" s="2" t="s">
         <v>22</v>
@@ -9139,13 +9139,13 @@
         <v>198</v>
       </c>
       <c r="Y36" s="1" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="AA36" s="1" t="s">
         <v>393</v>
       </c>
       <c r="AC36" s="4" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="37" spans="1:30" ht="28.5">
@@ -9222,7 +9222,7 @@
         <v>394</v>
       </c>
       <c r="AC37" s="4" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="38" spans="1:30" ht="28.5">
@@ -9296,7 +9296,7 @@
         <v>395</v>
       </c>
       <c r="AC38" s="4" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="39" spans="1:30" ht="28.5">
@@ -9370,7 +9370,7 @@
         <v>396</v>
       </c>
       <c r="AC39" s="4" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="40" spans="1:30" ht="57">
@@ -9438,7 +9438,7 @@
         <v>397</v>
       </c>
       <c r="AC40" s="4" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
     </row>
     <row r="41" spans="1:30" ht="114">
@@ -9521,10 +9521,10 @@
         <v>436</v>
       </c>
       <c r="AC41" s="4" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="AD41" s="4" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
     </row>
     <row r="42" spans="1:30" ht="28.5">
@@ -9598,7 +9598,7 @@
         <v>399</v>
       </c>
       <c r="AC42" s="4" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
     </row>
     <row r="43" spans="1:30" ht="28.5">
@@ -9672,7 +9672,7 @@
         <v>503</v>
       </c>
       <c r="AC43" s="4" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
     </row>
     <row r="44" spans="1:30" ht="42.75">
@@ -9746,7 +9746,7 @@
         <v>400</v>
       </c>
       <c r="AC44" s="4" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="45" spans="1:30" ht="28.5">
@@ -9820,7 +9820,7 @@
         <v>504</v>
       </c>
       <c r="AC45" s="4" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
     </row>
     <row r="46" spans="1:30" ht="42.75">
@@ -9894,7 +9894,7 @@
         <v>401</v>
       </c>
       <c r="AC46" s="4" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="47" spans="1:30" ht="28.5">
@@ -9959,7 +9959,7 @@
         <v>485</v>
       </c>
       <c r="AC47" s="4" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
     </row>
     <row r="48" spans="1:30" ht="28.5">
@@ -10027,7 +10027,7 @@
         <v>505</v>
       </c>
       <c r="AC48" s="4" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="49" spans="1:30" ht="28.5">
@@ -10095,7 +10095,7 @@
         <v>506</v>
       </c>
       <c r="AC49" s="4" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
     </row>
     <row r="50" spans="1:30" ht="28.5">
@@ -10163,7 +10163,7 @@
         <v>507</v>
       </c>
       <c r="AC50" s="4" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="51" spans="1:30" ht="28.5">
@@ -10240,7 +10240,7 @@
         <v>508</v>
       </c>
       <c r="AC51" s="4" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="52" spans="1:30" ht="28.5">
@@ -10317,7 +10317,7 @@
         <v>509</v>
       </c>
       <c r="AC52" s="4" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
     </row>
     <row r="53" spans="1:30" ht="28.5">
@@ -10394,7 +10394,7 @@
         <v>510</v>
       </c>
       <c r="AC53" s="4" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
     <row r="54" spans="1:30" ht="171">
@@ -10477,10 +10477,10 @@
         <v>452</v>
       </c>
       <c r="AC54" s="4" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="AD54" s="5" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="55" spans="1:30" ht="28.5">
@@ -10563,7 +10563,7 @@
         <v>469</v>
       </c>
       <c r="AC55" s="4" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="AD55" s="4" t="s">
         <v>481</v>
@@ -10640,7 +10640,7 @@
         <v>403</v>
       </c>
       <c r="AC56" s="4" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
     </row>
     <row r="57" spans="1:30">
@@ -10714,7 +10714,7 @@
         <v>404</v>
       </c>
       <c r="AC57" s="4" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="58" spans="1:30">
@@ -10788,7 +10788,7 @@
         <v>405</v>
       </c>
       <c r="AC58" s="4" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
     </row>
     <row r="59" spans="1:30">
@@ -10862,7 +10862,7 @@
         <v>406</v>
       </c>
       <c r="AC59" s="4" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
     </row>
     <row r="60" spans="1:30">
@@ -10936,7 +10936,7 @@
         <v>407</v>
       </c>
       <c r="AC60" s="4" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="61" spans="1:30">
@@ -11010,7 +11010,7 @@
         <v>408</v>
       </c>
       <c r="AC61" s="4" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
     </row>
     <row r="62" spans="1:30" ht="28.5">
@@ -11084,7 +11084,7 @@
         <v>409</v>
       </c>
       <c r="AC62" s="4" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="63" spans="1:30" ht="28.5">
@@ -11158,7 +11158,7 @@
         <v>410</v>
       </c>
       <c r="AC63" s="4" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
     </row>
     <row r="64" spans="1:30">
@@ -11235,7 +11235,7 @@
         <v>463</v>
       </c>
       <c r="AC64" s="4" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
   </sheetData>
@@ -11251,20 +11251,20 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_Version xmlns="http://schemas.microsoft.com/sharepoint/v3/fields" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_Version xmlns="http://schemas.microsoft.com/sharepoint/v3/fields" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -11427,6 +11427,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0FB82232-58B1-4A1D-8A4E-B5C95C1862BE}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{153E850E-4F75-454A-AFBA-A711FED549FB}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
@@ -11439,14 +11447,6 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/fields"/>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0FB82232-58B1-4A1D-8A4E-B5C95C1862BE}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/Documents/UsbProtocol_EgsDeviceSettingsHidReport_HostAppSettings_PropertyList.xlsx
+++ b/Documents/UsbProtocol_EgsDeviceSettingsHidReport_HostAppSettings_PropertyList.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17571"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17766"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -487,26 +487,6 @@
     <phoneticPr fontId="18"/>
   </si>
   <si>
-    <t>Value == 0</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>Value == 0</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>Value == 0</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>Value == 0</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>Value == 2</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
     <t>CursorSpeedAndPrecisionMode</t>
     <phoneticPr fontId="18"/>
   </si>
@@ -762,10 +742,6 @@
     <phoneticPr fontId="18"/>
   </si>
   <si>
-    <t>FaceSelectionMethodKind</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
     <t>0xE0</t>
     <phoneticPr fontId="18"/>
   </si>
@@ -1411,10 +1387,6 @@
     <phoneticPr fontId="18"/>
   </si>
   <si>
-    <t>Value == 1</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
     <t>(Advanced?)</t>
     <phoneticPr fontId="18"/>
   </si>
@@ -1460,10 +1432,6 @@
   </si>
   <si>
     <t>CaptureManualExposureParameters</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>Value == 0</t>
     <phoneticPr fontId="18"/>
   </si>
   <si>
@@ -2289,10 +2257,6 @@
     <phoneticPr fontId="18"/>
   </si>
   <si>
-    <t>Value == 0</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
     <t>Gesture by Fast Moving Hands</t>
     <phoneticPr fontId="18"/>
   </si>
@@ -5327,6 +5291,42 @@
   </si>
   <si>
     <t>FaceDetectionMethodOptions</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>HidAccessPropertyEnumValue</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>Value = 0</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>FaceSelectionOnDeviceMethod</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>Value = 0</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>Value = 0</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>Value = 0</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>Value = false</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>Value == (CameraViewImageSourceBitmapSizes)1</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>Value = CaptureBinnings.Binning2x2</t>
     <phoneticPr fontId="18"/>
   </si>
 </sst>
@@ -6329,10 +6329,10 @@
   <dimension ref="A1:AD64"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D12" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="W16" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B18" sqref="B18"/>
+      <selection pane="bottomRight" activeCell="X26" sqref="X26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -6345,16 +6345,16 @@
     <col min="6" max="6" width="5.25" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="4.875" style="2" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="6" style="2" customWidth="1"/>
-    <col min="9" max="9" width="3.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="3.75" style="2" customWidth="1"/>
     <col min="10" max="10" width="5.5" style="2" customWidth="1"/>
-    <col min="11" max="11" width="6.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.625" style="2" customWidth="1"/>
     <col min="12" max="12" width="6" style="2" customWidth="1"/>
     <col min="13" max="13" width="19.125" style="2" customWidth="1"/>
     <col min="14" max="19" width="10.625" style="2" customWidth="1"/>
     <col min="20" max="21" width="7.375" style="2" customWidth="1"/>
-    <col min="22" max="22" width="8.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="10" style="2" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="21.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="8.25" style="2" customWidth="1"/>
+    <col min="23" max="23" width="10" style="2" customWidth="1"/>
+    <col min="24" max="24" width="21.875" style="2" customWidth="1"/>
     <col min="25" max="25" width="25.875" style="1" customWidth="1"/>
     <col min="26" max="26" width="20.625" style="1" customWidth="1"/>
     <col min="27" max="27" width="26.875" style="1" customWidth="1"/>
@@ -6366,7 +6366,7 @@
   <sheetData>
     <row r="1" spans="1:30" ht="57">
       <c r="A1" s="2" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>75</v>
@@ -6396,16 +6396,16 @@
         <v>34</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="L1" s="2" t="s">
         <v>116</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="O1" s="2" t="s">
         <v>67</v>
@@ -6414,57 +6414,57 @@
         <v>40</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="R1" s="2" t="s">
         <v>41</v>
       </c>
       <c r="S1" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="U1" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="V1" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="W1" s="2" t="s">
+        <v>521</v>
+      </c>
+      <c r="X1" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="T1" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="U1" s="2" t="s">
-        <v>339</v>
-      </c>
-      <c r="V1" s="2" t="s">
-        <v>349</v>
-      </c>
-      <c r="W1" s="2" t="s">
-        <v>530</v>
-      </c>
-      <c r="X1" s="2" t="s">
-        <v>171</v>
-      </c>
       <c r="Y1" s="1" t="s">
-        <v>368</v>
+        <v>360</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>411</v>
+        <v>403</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>412</v>
+        <v>404</v>
       </c>
       <c r="AC1" s="4" t="s">
-        <v>438</v>
+        <v>430</v>
       </c>
       <c r="AD1" s="4" t="s">
-        <v>413</v>
+        <v>405</v>
       </c>
     </row>
     <row r="2" spans="1:30" ht="28.5">
       <c r="A2" s="2" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>22</v>
@@ -6476,10 +6476,10 @@
         <v>23</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>85</v>
@@ -6491,69 +6491,69 @@
         <v>27</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>526</v>
+        <v>517</v>
       </c>
       <c r="N2" s="2" t="s">
         <v>36</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="P2" s="2" t="s">
         <v>36</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="V2" s="2" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="W2" s="2" t="s">
-        <v>529</v>
+        <v>520</v>
       </c>
       <c r="X2" s="2" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="Y2" s="1" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="AA2" s="1" t="s">
-        <v>370</v>
+        <v>362</v>
       </c>
       <c r="AC2" s="4" t="s">
-        <v>630</v>
+        <v>621</v>
       </c>
     </row>
     <row r="3" spans="1:30">
       <c r="A3" s="2" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>99</v>
@@ -6571,16 +6571,16 @@
         <v>42</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>524</v>
+        <v>515</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="O3" s="2" t="s">
         <v>36</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="Q3" s="2" t="s">
         <v>36</v>
@@ -6589,45 +6589,45 @@
         <v>36</v>
       </c>
       <c r="T3" s="2" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="U3" s="2" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="W3" s="2" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="Y3" s="1" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="AA3" s="1" t="s">
-        <v>371</v>
+        <v>363</v>
       </c>
       <c r="AC3" s="4" t="s">
-        <v>572</v>
+        <v>563</v>
       </c>
     </row>
     <row r="4" spans="1:30">
       <c r="A4" s="2" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>100</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>98</v>
@@ -6645,16 +6645,16 @@
         <v>42</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>525</v>
+        <v>516</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="O4" s="2" t="s">
         <v>36</v>
       </c>
       <c r="P4" s="2" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="Q4" s="2" t="s">
         <v>36</v>
@@ -6663,33 +6663,33 @@
         <v>36</v>
       </c>
       <c r="T4" s="2" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="U4" s="2" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="W4" s="2" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="Y4" s="1" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="AA4" s="1" t="s">
-        <v>414</v>
+        <v>406</v>
       </c>
       <c r="AC4" s="4" t="s">
-        <v>573</v>
+        <v>564</v>
       </c>
     </row>
     <row r="5" spans="1:30">
       <c r="A5" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>276</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>282</v>
-      </c>
       <c r="C5" s="2" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>22</v>
@@ -6701,13 +6701,13 @@
         <v>23</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="H5" s="2" t="s">
         <v>77</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="J5" s="2" t="s">
         <v>69</v>
@@ -6719,16 +6719,16 @@
         <v>42</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="O5" s="2" t="s">
         <v>36</v>
       </c>
       <c r="P5" s="2" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="Q5" s="2" t="s">
         <v>36</v>
@@ -6737,36 +6737,36 @@
         <v>36</v>
       </c>
       <c r="T5" s="2" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="U5" s="2" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="V5" s="2" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="W5" s="2" t="s">
-        <v>456</v>
+        <v>448</v>
       </c>
       <c r="Y5" s="1" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="AA5" s="1" t="s">
-        <v>372</v>
+        <v>364</v>
       </c>
       <c r="AC5" s="4" t="s">
-        <v>574</v>
+        <v>565</v>
       </c>
     </row>
     <row r="6" spans="1:30" ht="85.5">
       <c r="A6" s="2" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>285</v>
+        <v>627</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>455</v>
+        <v>447</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>22</v>
@@ -6778,10 +6778,10 @@
         <v>23</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="I6" s="2" t="s">
         <v>85</v>
@@ -6796,16 +6796,16 @@
         <v>42</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="O6" s="2" t="s">
         <v>36</v>
       </c>
       <c r="P6" s="2" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="Q6" s="2" t="s">
         <v>36</v>
@@ -6814,42 +6814,42 @@
         <v>36</v>
       </c>
       <c r="T6" s="2" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="U6" s="2" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="V6" s="2" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="W6" s="2" t="s">
-        <v>456</v>
+        <v>448</v>
       </c>
       <c r="Y6" s="1" t="s">
-        <v>454</v>
+        <v>446</v>
       </c>
       <c r="Z6" s="1" t="s">
-        <v>472</v>
+        <v>463</v>
       </c>
       <c r="AA6" s="1" t="s">
-        <v>373</v>
+        <v>365</v>
       </c>
       <c r="AB6" s="1" t="s">
-        <v>471</v>
+        <v>462</v>
       </c>
       <c r="AC6" s="4" t="s">
-        <v>575</v>
+        <v>566</v>
       </c>
       <c r="AD6" s="4" t="s">
-        <v>576</v>
+        <v>567</v>
       </c>
     </row>
     <row r="7" spans="1:30">
       <c r="A7" s="2" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>7</v>
@@ -6867,10 +6867,10 @@
         <v>107</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="J7" s="2" t="s">
         <v>69</v>
@@ -6882,16 +6882,16 @@
         <v>118</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="O7" s="2" t="s">
         <v>36</v>
       </c>
       <c r="P7" s="2" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="Q7" s="2" t="s">
         <v>36</v>
@@ -6900,39 +6900,39 @@
         <v>36</v>
       </c>
       <c r="T7" s="2" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="U7" s="2" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="V7" s="2" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="W7" s="2" t="s">
-        <v>456</v>
+        <v>448</v>
       </c>
       <c r="Y7" s="1" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="AA7" s="1" t="s">
-        <v>374</v>
+        <v>366</v>
       </c>
       <c r="AC7" s="4" t="s">
-        <v>418</v>
+        <v>410</v>
       </c>
     </row>
     <row r="8" spans="1:30">
       <c r="A8" s="2" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>540</v>
+        <v>531</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>543</v>
+        <v>534</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="I8" s="2" t="s">
         <v>85</v>
@@ -6947,7 +6947,7 @@
         <v>69</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>526</v>
+        <v>517</v>
       </c>
       <c r="N8" s="2" t="s">
         <v>36</v>
@@ -6956,39 +6956,39 @@
         <v>36</v>
       </c>
       <c r="T8" s="2" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="U8" s="2" t="s">
-        <v>544</v>
+        <v>535</v>
       </c>
       <c r="V8" s="2" t="s">
         <v>32</v>
       </c>
       <c r="W8" s="2" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="X8" s="2" t="s">
         <v>113</v>
       </c>
       <c r="Y8" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="AA8" s="1" t="s">
+        <v>537</v>
+      </c>
+      <c r="AC8" s="3" t="s">
         <v>545</v>
-      </c>
-      <c r="AA8" s="1" t="s">
-        <v>546</v>
-      </c>
-      <c r="AC8" s="3" t="s">
-        <v>554</v>
       </c>
     </row>
     <row r="9" spans="1:30">
       <c r="A9" s="2" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>22</v>
@@ -7000,10 +7000,10 @@
         <v>26</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="I9" s="2" t="s">
         <v>85</v>
@@ -7018,16 +7018,16 @@
         <v>42</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>523</v>
+        <v>514</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="O9" s="2" t="s">
         <v>36</v>
       </c>
       <c r="P9" s="2" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="Q9" s="2" t="s">
         <v>36</v>
@@ -7036,36 +7036,36 @@
         <v>36</v>
       </c>
       <c r="T9" s="2" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="U9" s="2" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="V9" s="2" t="s">
         <v>32</v>
       </c>
       <c r="W9" s="2" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="Y9" s="1" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="AA9" s="1" t="s">
-        <v>375</v>
+        <v>367</v>
       </c>
       <c r="AC9" s="4" t="s">
-        <v>631</v>
+        <v>622</v>
       </c>
     </row>
     <row r="10" spans="1:30">
       <c r="A10" s="2" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>22</v>
@@ -7077,10 +7077,10 @@
         <v>26</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="I10" s="2" t="s">
         <v>85</v>
@@ -7095,16 +7095,16 @@
         <v>42</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>523</v>
+        <v>514</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="O10" s="2" t="s">
         <v>36</v>
       </c>
       <c r="P10" s="2" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="Q10" s="2" t="s">
         <v>36</v>
@@ -7113,36 +7113,36 @@
         <v>36</v>
       </c>
       <c r="T10" s="2" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="U10" s="2" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="V10" s="2" t="s">
         <v>32</v>
       </c>
       <c r="W10" s="2" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="Y10" s="1" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="AA10" s="1" t="s">
-        <v>376</v>
+        <v>368</v>
       </c>
       <c r="AC10" s="4" t="s">
-        <v>565</v>
+        <v>556</v>
       </c>
     </row>
     <row r="11" spans="1:30" ht="57">
       <c r="A11" s="2" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>285</v>
+        <v>627</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>445</v>
+        <v>437</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>22</v>
@@ -7154,7 +7154,7 @@
         <v>23</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>444</v>
+        <v>436</v>
       </c>
       <c r="H11" s="2" t="s">
         <v>77</v>
@@ -7172,60 +7172,60 @@
         <v>69</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>451</v>
+        <v>443</v>
       </c>
       <c r="N11" s="2" t="s">
         <v>36</v>
       </c>
       <c r="O11" s="2" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="P11" s="2" t="s">
         <v>36</v>
       </c>
       <c r="Q11" s="2" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="T11" s="2" t="s">
-        <v>446</v>
+        <v>438</v>
       </c>
       <c r="U11" s="2" t="s">
-        <v>476</v>
+        <v>467</v>
       </c>
       <c r="V11" s="2" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="W11" s="2" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="X11" s="2" t="s">
-        <v>121</v>
+        <v>628</v>
       </c>
       <c r="Y11" s="1" t="s">
-        <v>447</v>
+        <v>439</v>
       </c>
       <c r="Z11" s="1" t="s">
-        <v>448</v>
+        <v>440</v>
       </c>
       <c r="AA11" s="1" t="s">
-        <v>449</v>
+        <v>441</v>
       </c>
       <c r="AB11" s="1" t="s">
-        <v>450</v>
+        <v>442</v>
       </c>
       <c r="AC11" s="1" t="s">
-        <v>577</v>
+        <v>568</v>
       </c>
       <c r="AD11" s="1" t="s">
-        <v>556</v>
+        <v>547</v>
       </c>
     </row>
     <row r="12" spans="1:30" ht="28.5">
       <c r="A12" s="2" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>285</v>
+        <v>627</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>81</v>
@@ -7264,57 +7264,57 @@
         <v>36</v>
       </c>
       <c r="O12" s="2" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="P12" s="2" t="s">
         <v>36</v>
       </c>
       <c r="Q12" s="2" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="R12" s="2" t="s">
         <v>36</v>
       </c>
       <c r="T12" s="2" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="U12" s="2" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="V12" s="2" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="W12" s="2" t="s">
-        <v>529</v>
+        <v>520</v>
       </c>
       <c r="X12" s="2" t="s">
-        <v>121</v>
+        <v>630</v>
       </c>
       <c r="Y12" s="1" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="Z12" s="1" t="s">
         <v>62</v>
       </c>
       <c r="AA12" s="1" t="s">
-        <v>415</v>
+        <v>407</v>
       </c>
       <c r="AB12" s="1" t="s">
         <v>62</v>
       </c>
       <c r="AC12" s="4" t="s">
-        <v>617</v>
+        <v>608</v>
       </c>
       <c r="AD12" s="4" t="s">
-        <v>433</v>
+        <v>425</v>
       </c>
     </row>
     <row r="13" spans="1:30" ht="57">
       <c r="A13" s="2" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>285</v>
+        <v>627</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>4</v>
@@ -7347,63 +7347,63 @@
         <v>117</v>
       </c>
       <c r="M13" s="2" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="N13" s="2" t="s">
         <v>36</v>
       </c>
       <c r="O13" s="2" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="P13" s="2" t="s">
         <v>36</v>
       </c>
       <c r="Q13" s="2" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="R13" s="2" t="s">
         <v>36</v>
       </c>
       <c r="T13" s="2" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="U13" s="2" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="V13" s="2" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="W13" s="2" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="X13" s="2" t="s">
-        <v>122</v>
+        <v>628</v>
       </c>
       <c r="Y13" s="1" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="Z13" s="1" t="s">
-        <v>420</v>
+        <v>412</v>
       </c>
       <c r="AA13" s="1" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="AB13" s="1" t="s">
-        <v>434</v>
+        <v>426</v>
       </c>
       <c r="AC13" s="4" t="s">
-        <v>578</v>
+        <v>569</v>
       </c>
       <c r="AD13" s="4" t="s">
-        <v>579</v>
+        <v>570</v>
       </c>
     </row>
     <row r="14" spans="1:30" ht="57">
       <c r="A14" s="2" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>285</v>
+        <v>627</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>82</v>
@@ -7433,69 +7433,69 @@
         <v>33</v>
       </c>
       <c r="L14" s="2" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="M14" s="2" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="N14" s="2" t="s">
         <v>36</v>
       </c>
       <c r="O14" s="2" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="P14" s="2" t="s">
         <v>36</v>
       </c>
       <c r="Q14" s="2" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="R14" s="2" t="s">
         <v>36</v>
       </c>
       <c r="T14" s="2" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="U14" s="2" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="V14" s="2" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="W14" s="2" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="X14" s="2" t="s">
-        <v>123</v>
+        <v>628</v>
       </c>
       <c r="Y14" s="1" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="Z14" s="1" t="s">
-        <v>421</v>
+        <v>413</v>
       </c>
       <c r="AA14" s="1" t="s">
-        <v>432</v>
+        <v>424</v>
       </c>
       <c r="AB14" s="1" t="s">
-        <v>435</v>
+        <v>427</v>
       </c>
       <c r="AC14" s="4" t="s">
-        <v>619</v>
+        <v>610</v>
       </c>
       <c r="AD14" s="4" t="s">
-        <v>620</v>
+        <v>611</v>
       </c>
     </row>
     <row r="15" spans="1:30" ht="28.5">
       <c r="A15" s="2" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>285</v>
+        <v>627</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>22</v>
@@ -7507,7 +7507,7 @@
         <v>23</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="H15" s="2" t="s">
         <v>77</v>
@@ -7525,7 +7525,7 @@
         <v>69</v>
       </c>
       <c r="M15" s="2" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="N15" s="2" t="s">
         <v>36</v>
@@ -7537,48 +7537,48 @@
         <v>36</v>
       </c>
       <c r="T15" s="2" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="U15" s="2" t="s">
-        <v>473</v>
+        <v>464</v>
       </c>
       <c r="W15" s="2" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="X15" s="2" t="s">
-        <v>121</v>
+        <v>628</v>
       </c>
       <c r="Y15" s="1" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="Z15" s="1" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="AA15" s="1" t="s">
-        <v>378</v>
+        <v>370</v>
       </c>
       <c r="AB15" s="1" t="s">
-        <v>419</v>
+        <v>411</v>
       </c>
       <c r="AC15" s="5" t="s">
-        <v>618</v>
+        <v>609</v>
       </c>
       <c r="AD15" s="4" t="s">
-        <v>580</v>
+        <v>571</v>
       </c>
     </row>
     <row r="16" spans="1:30">
       <c r="A16" s="2" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>540</v>
+        <v>531</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>538</v>
+        <v>529</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>553</v>
+        <v>544</v>
       </c>
       <c r="J16" s="2" t="s">
         <v>42</v>
@@ -7590,7 +7590,7 @@
         <v>69</v>
       </c>
       <c r="M16" s="2" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="N16" s="2" t="s">
         <v>36</v>
@@ -7599,42 +7599,42 @@
         <v>36</v>
       </c>
       <c r="T16" s="2" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="U16" s="2" t="s">
-        <v>492</v>
+        <v>483</v>
       </c>
       <c r="V16" s="2" t="s">
         <v>32</v>
       </c>
       <c r="W16" s="2" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="X16" s="2" t="s">
         <v>111</v>
       </c>
       <c r="Y16" s="1" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="AA16" s="1" t="s">
-        <v>379</v>
+        <v>371</v>
       </c>
       <c r="AC16" s="4" t="s">
-        <v>621</v>
+        <v>612</v>
       </c>
     </row>
     <row r="17" spans="1:30" ht="71.25">
       <c r="A17" s="2" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>635</v>
+        <v>626</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>547</v>
+        <v>538</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>552</v>
+        <v>543</v>
       </c>
       <c r="J17" s="2" t="s">
         <v>42</v>
@@ -7646,7 +7646,7 @@
         <v>69</v>
       </c>
       <c r="M17" s="2" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="N17" s="2" t="s">
         <v>36</v>
@@ -7655,45 +7655,45 @@
         <v>36</v>
       </c>
       <c r="T17" s="2" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="U17" s="2" t="s">
-        <v>492</v>
+        <v>483</v>
       </c>
       <c r="V17" s="2" t="s">
         <v>32</v>
       </c>
       <c r="W17" s="2" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="Y17" s="1" t="s">
-        <v>548</v>
+        <v>539</v>
       </c>
       <c r="Z17" s="1" t="s">
-        <v>551</v>
+        <v>542</v>
       </c>
       <c r="AA17" s="1" t="s">
-        <v>549</v>
+        <v>540</v>
       </c>
       <c r="AB17" s="1" t="s">
-        <v>550</v>
+        <v>541</v>
       </c>
       <c r="AC17" s="1" t="s">
-        <v>632</v>
+        <v>623</v>
       </c>
       <c r="AD17" s="1" t="s">
-        <v>581</v>
+        <v>572</v>
       </c>
     </row>
     <row r="18" spans="1:30" ht="28.5">
       <c r="A18" s="2" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>537</v>
+        <v>528</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>536</v>
+        <v>527</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>22</v>
@@ -7708,13 +7708,13 @@
         <v>46</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="I18" s="2" t="s">
         <v>85</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>541</v>
+        <v>532</v>
       </c>
       <c r="K18" s="2" t="s">
         <v>32</v>
@@ -7723,57 +7723,57 @@
         <v>69</v>
       </c>
       <c r="M18" s="2" t="s">
-        <v>526</v>
+        <v>517</v>
       </c>
       <c r="N18" s="2" t="s">
         <v>36</v>
       </c>
       <c r="O18" s="2" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="P18" s="2" t="s">
         <v>36</v>
       </c>
       <c r="Q18" s="2" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="R18" s="2" t="s">
         <v>36</v>
       </c>
       <c r="T18" s="2" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="U18" s="2" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="V18" s="2" t="s">
         <v>32</v>
       </c>
       <c r="W18" s="2" t="s">
-        <v>531</v>
+        <v>522</v>
       </c>
       <c r="X18" s="2" t="s">
-        <v>542</v>
+        <v>533</v>
       </c>
       <c r="Y18" s="1" t="s">
-        <v>555</v>
+        <v>546</v>
       </c>
       <c r="AA18" s="1" t="s">
-        <v>557</v>
+        <v>548</v>
       </c>
       <c r="AC18" s="1" t="s">
-        <v>582</v>
+        <v>573</v>
       </c>
     </row>
     <row r="19" spans="1:30" ht="42.75">
       <c r="A19" s="2" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>540</v>
+        <v>531</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>561</v>
+        <v>552</v>
       </c>
       <c r="I19" s="2" t="s">
         <v>85</v>
@@ -7788,7 +7788,7 @@
         <v>69</v>
       </c>
       <c r="M19" s="2" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="N19" s="2" t="s">
         <v>36</v>
@@ -7797,39 +7797,39 @@
         <v>36</v>
       </c>
       <c r="T19" s="2" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="U19" s="2" t="s">
-        <v>492</v>
+        <v>483</v>
       </c>
       <c r="V19" s="2" t="s">
         <v>32</v>
       </c>
       <c r="W19" s="2" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="X19" s="2" t="s">
         <v>111</v>
       </c>
       <c r="Y19" s="1" t="s">
-        <v>564</v>
+        <v>555</v>
       </c>
       <c r="AA19" s="1" t="s">
-        <v>380</v>
+        <v>372</v>
       </c>
       <c r="AC19" s="6" t="s">
-        <v>583</v>
+        <v>574</v>
       </c>
     </row>
     <row r="20" spans="1:30" ht="28.5">
       <c r="A20" s="2" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>539</v>
+        <v>530</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>560</v>
+        <v>551</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>22</v>
@@ -7841,16 +7841,16 @@
         <v>23</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="I20" s="2" t="s">
         <v>85</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>634</v>
+        <v>625</v>
       </c>
       <c r="K20" s="2" t="s">
         <v>32</v>
@@ -7859,54 +7859,54 @@
         <v>69</v>
       </c>
       <c r="M20" s="2" t="s">
-        <v>526</v>
+        <v>517</v>
       </c>
       <c r="N20" s="2" t="s">
         <v>36</v>
       </c>
       <c r="O20" s="2" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="P20" s="2" t="s">
         <v>36</v>
       </c>
       <c r="Q20" s="2" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="R20" s="2" t="s">
         <v>36</v>
       </c>
       <c r="T20" s="2" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="U20" s="2" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="V20" s="2" t="s">
         <v>32</v>
       </c>
       <c r="W20" s="2" t="s">
-        <v>531</v>
+        <v>522</v>
       </c>
       <c r="X20" s="2" t="s">
-        <v>633</v>
+        <v>624</v>
       </c>
       <c r="Y20" s="1" t="s">
+        <v>553</v>
+      </c>
+      <c r="AA20" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="AC20" s="1" t="s">
         <v>562</v>
-      </c>
-      <c r="AA20" s="1" t="s">
-        <v>563</v>
-      </c>
-      <c r="AC20" s="1" t="s">
-        <v>571</v>
       </c>
     </row>
     <row r="21" spans="1:30">
       <c r="A21" s="2" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>11</v>
@@ -7921,7 +7921,7 @@
         <v>26</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="H21" s="2" t="s">
         <v>10</v>
@@ -7939,57 +7939,57 @@
         <v>69</v>
       </c>
       <c r="M21" s="2" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="N21" s="2" t="s">
         <v>36</v>
       </c>
       <c r="O21" s="2" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="P21" s="2" t="s">
         <v>36</v>
       </c>
       <c r="Q21" s="2" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="R21" s="2" t="s">
         <v>36</v>
       </c>
       <c r="T21" s="2" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="U21" s="2" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="V21" s="2" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="W21" s="2" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="X21" s="2" t="s">
         <v>111</v>
       </c>
       <c r="Y21" s="1" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="AA21" s="1" t="s">
-        <v>381</v>
+        <v>373</v>
       </c>
       <c r="AC21" s="4" t="s">
-        <v>622</v>
+        <v>613</v>
       </c>
     </row>
     <row r="22" spans="1:30" ht="42.75">
       <c r="A22" s="2" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>22</v>
@@ -8001,7 +8001,7 @@
         <v>43</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="H22" s="2" t="s">
         <v>10</v>
@@ -8019,57 +8019,57 @@
         <v>117</v>
       </c>
       <c r="M22" s="2" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="N22" s="2" t="s">
         <v>36</v>
       </c>
       <c r="O22" s="2" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="P22" s="2" t="s">
         <v>36</v>
       </c>
       <c r="Q22" s="2" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="R22" s="2" t="s">
         <v>36</v>
       </c>
       <c r="T22" s="2" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="U22" s="2" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="V22" s="2" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="W22" s="2" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="X22" s="2" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="Y22" s="1" t="s">
-        <v>437</v>
+        <v>429</v>
       </c>
       <c r="AA22" s="1" t="s">
-        <v>382</v>
+        <v>374</v>
       </c>
       <c r="AC22" s="4" t="s">
-        <v>584</v>
+        <v>575</v>
       </c>
     </row>
     <row r="23" spans="1:30">
       <c r="A23" s="2" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>22</v>
@@ -8081,7 +8081,7 @@
         <v>38</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="H23" s="2" t="s">
         <v>10</v>
@@ -8099,54 +8099,54 @@
         <v>117</v>
       </c>
       <c r="M23" s="2" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="N23" s="2" t="s">
         <v>36</v>
       </c>
       <c r="O23" s="2" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="P23" s="2" t="s">
         <v>36</v>
       </c>
       <c r="Q23" s="2" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="R23" s="2" t="s">
         <v>36</v>
       </c>
       <c r="T23" s="2" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="U23" s="2" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="V23" s="2" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="W23" s="2" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="X23" s="2" t="s">
         <v>111</v>
       </c>
       <c r="Y23" s="1" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="AA23" s="1" t="s">
-        <v>383</v>
+        <v>375</v>
       </c>
       <c r="AC23" s="4" t="s">
-        <v>585</v>
+        <v>576</v>
       </c>
     </row>
     <row r="24" spans="1:30" ht="28.5">
       <c r="A24" s="2" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>285</v>
+        <v>627</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>83</v>
@@ -8164,7 +8164,7 @@
         <v>38</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="I24" s="2" t="s">
         <v>86</v>
@@ -8176,51 +8176,51 @@
         <v>32</v>
       </c>
       <c r="L24" s="2" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="M24" s="2" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="P24" s="2" t="s">
         <v>36</v>
       </c>
       <c r="T24" s="2" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="U24" s="2" t="s">
-        <v>474</v>
+        <v>465</v>
       </c>
       <c r="W24" s="2" t="s">
-        <v>532</v>
+        <v>523</v>
       </c>
       <c r="X24" s="2" t="s">
-        <v>124</v>
+        <v>628</v>
       </c>
       <c r="Y24" s="1" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="Z24" s="1" t="s">
-        <v>422</v>
+        <v>414</v>
       </c>
       <c r="AA24" s="1" t="s">
-        <v>416</v>
+        <v>408</v>
       </c>
       <c r="AB24" s="1" t="s">
-        <v>423</v>
+        <v>415</v>
       </c>
       <c r="AC24" s="4" t="s">
-        <v>586</v>
+        <v>577</v>
       </c>
       <c r="AD24" s="4" t="s">
-        <v>587</v>
+        <v>578</v>
       </c>
     </row>
     <row r="25" spans="1:30" ht="42.75">
       <c r="A25" s="2" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>64</v>
@@ -8232,7 +8232,7 @@
         <v>3</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="G25" s="2" t="s">
         <v>63</v>
@@ -8253,54 +8253,54 @@
         <v>120</v>
       </c>
       <c r="M25" s="2" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="N25" s="2" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="O25" s="2" t="s">
         <v>36</v>
       </c>
       <c r="P25" s="2" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="Q25" s="2" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="S25" s="2" t="s">
         <v>36</v>
       </c>
       <c r="T25" s="2" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="U25" s="2" t="s">
-        <v>514</v>
+        <v>505</v>
       </c>
       <c r="V25" s="2" t="s">
         <v>32</v>
       </c>
       <c r="W25" s="2" t="s">
-        <v>532</v>
+        <v>523</v>
       </c>
       <c r="X25" s="2" t="s">
         <v>110</v>
       </c>
       <c r="Y25" s="1" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="AA25" s="1" t="s">
-        <v>384</v>
+        <v>376</v>
       </c>
       <c r="AC25" s="4" t="s">
-        <v>566</v>
+        <v>557</v>
       </c>
     </row>
     <row r="26" spans="1:30" ht="57">
       <c r="A26" s="2" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>285</v>
+        <v>627</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>6</v>
@@ -8333,60 +8333,60 @@
         <v>117</v>
       </c>
       <c r="M26" s="2" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="N26" s="2" t="s">
         <v>36</v>
       </c>
       <c r="O26" s="2" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="P26" s="2" t="s">
         <v>36</v>
       </c>
       <c r="Q26" s="2" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="T26" s="2" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="U26" s="2" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="V26" s="2" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="W26" s="2" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="X26" s="2" t="s">
-        <v>125</v>
+        <v>635</v>
       </c>
       <c r="Y26" s="1" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="Z26" s="1" t="s">
-        <v>427</v>
+        <v>419</v>
       </c>
       <c r="AA26" s="1" t="s">
-        <v>417</v>
+        <v>409</v>
       </c>
       <c r="AB26" s="1" t="s">
-        <v>424</v>
+        <v>416</v>
       </c>
       <c r="AC26" s="4" t="s">
-        <v>439</v>
+        <v>431</v>
       </c>
       <c r="AD26" s="4" t="s">
-        <v>588</v>
+        <v>579</v>
       </c>
     </row>
     <row r="27" spans="1:30" ht="28.5">
       <c r="A27" s="2" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>103</v>
@@ -8416,48 +8416,48 @@
         <v>33</v>
       </c>
       <c r="L27" s="2" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="M27" s="2" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="N27" s="2" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="P27" s="2" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="Q27" s="2" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="T27" s="2" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="U27" s="2" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="V27" s="2" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="W27" s="2" t="s">
-        <v>533</v>
+        <v>524</v>
       </c>
       <c r="Y27" s="1" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="AA27" s="1" t="s">
-        <v>385</v>
+        <v>377</v>
       </c>
       <c r="AC27" s="4" t="s">
-        <v>589</v>
+        <v>580</v>
       </c>
     </row>
     <row r="28" spans="1:30" ht="42.75">
       <c r="A28" s="2" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>285</v>
+        <v>627</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>5</v>
@@ -8475,7 +8475,7 @@
         <v>48</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="I28" s="2" t="s">
         <v>89</v>
@@ -8487,66 +8487,66 @@
         <v>33</v>
       </c>
       <c r="L28" s="2" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="M28" s="2" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="N28" s="2" t="s">
         <v>36</v>
       </c>
       <c r="O28" s="2" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="P28" s="2" t="s">
         <v>36</v>
       </c>
       <c r="Q28" s="2" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="T28" s="2" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="U28" s="2" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="V28" s="2" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="W28" s="2" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="X28" s="2" t="s">
-        <v>121</v>
+        <v>628</v>
       </c>
       <c r="Y28" s="1" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="Z28" s="1" t="s">
-        <v>425</v>
+        <v>417</v>
       </c>
       <c r="AA28" s="1" t="s">
-        <v>386</v>
+        <v>378</v>
       </c>
       <c r="AB28" s="1" t="s">
-        <v>426</v>
+        <v>418</v>
       </c>
       <c r="AC28" s="4" t="s">
-        <v>590</v>
+        <v>581</v>
       </c>
       <c r="AD28" s="4" t="s">
-        <v>591</v>
+        <v>582</v>
       </c>
     </row>
     <row r="29" spans="1:30" ht="57">
       <c r="A29" s="2" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>285</v>
+        <v>627</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>362</v>
+        <v>355</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>22</v>
@@ -8558,7 +8558,7 @@
         <v>24</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>356</v>
+        <v>349</v>
       </c>
       <c r="H29" s="2" t="s">
         <v>77</v>
@@ -8576,60 +8576,60 @@
         <v>117</v>
       </c>
       <c r="M29" s="2" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="N29" s="2" t="s">
         <v>36</v>
       </c>
       <c r="O29" s="2" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="P29" s="2" t="s">
         <v>36</v>
       </c>
       <c r="T29" s="2" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="U29" s="2" t="s">
-        <v>360</v>
+        <v>353</v>
       </c>
       <c r="V29" s="2" t="s">
         <v>32</v>
       </c>
       <c r="W29" s="2" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="X29" s="2" t="s">
-        <v>364</v>
+        <v>631</v>
       </c>
       <c r="Y29" s="1" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="Z29" s="1" t="s">
-        <v>430</v>
+        <v>422</v>
       </c>
       <c r="AA29" s="1" t="s">
-        <v>453</v>
+        <v>445</v>
       </c>
       <c r="AB29" s="1" t="s">
-        <v>431</v>
+        <v>423</v>
       </c>
       <c r="AC29" s="4" t="s">
-        <v>440</v>
+        <v>432</v>
       </c>
       <c r="AD29" s="4" t="s">
-        <v>592</v>
+        <v>583</v>
       </c>
     </row>
     <row r="30" spans="1:30">
       <c r="A30" s="2" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>361</v>
+        <v>354</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>22</v>
@@ -8641,10 +8641,10 @@
         <v>24</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="I30" s="2" t="s">
         <v>85</v>
@@ -8659,42 +8659,42 @@
         <v>117</v>
       </c>
       <c r="M30" s="2" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="O30" s="2" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="T30" s="2" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="U30" s="2" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="V30" s="2" t="s">
         <v>32</v>
       </c>
       <c r="W30" s="2" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="Y30" s="1" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
       <c r="AA30" s="1" t="s">
-        <v>387</v>
+        <v>379</v>
       </c>
       <c r="AC30" s="4" t="s">
-        <v>567</v>
+        <v>558</v>
       </c>
     </row>
     <row r="31" spans="1:30" ht="28.5">
       <c r="A31" s="2" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>22</v>
@@ -8724,51 +8724,51 @@
         <v>120</v>
       </c>
       <c r="M31" s="2" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="O31" s="2" t="s">
         <v>36</v>
       </c>
       <c r="P31" s="2" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="S31" s="2" t="s">
         <v>36</v>
       </c>
       <c r="T31" s="2" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="U31" s="2" t="s">
-        <v>513</v>
+        <v>504</v>
       </c>
       <c r="V31" s="2" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="W31" s="2" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="X31" s="2" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="Y31" s="1" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="AA31" s="1" t="s">
-        <v>388</v>
+        <v>380</v>
       </c>
       <c r="AC31" s="4" t="s">
-        <v>441</v>
+        <v>433</v>
       </c>
     </row>
     <row r="32" spans="1:30" ht="28.5">
       <c r="A32" s="2" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>22</v>
@@ -8798,13 +8798,13 @@
         <v>120</v>
       </c>
       <c r="M32" s="2" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="O32" s="2" t="s">
         <v>36</v>
       </c>
       <c r="P32" s="2" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="Q32" s="2" t="s">
         <v>36</v>
@@ -8813,39 +8813,39 @@
         <v>36</v>
       </c>
       <c r="T32" s="2" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="U32" s="2" t="s">
-        <v>513</v>
+        <v>504</v>
       </c>
       <c r="V32" s="2" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="W32" s="2" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="X32" s="2" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="Y32" s="1" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="AA32" s="1" t="s">
-        <v>389</v>
+        <v>381</v>
       </c>
       <c r="AC32" s="4" t="s">
-        <v>593</v>
+        <v>584</v>
       </c>
     </row>
     <row r="33" spans="1:30" ht="28.5">
       <c r="A33" s="2" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>22</v>
@@ -8875,51 +8875,51 @@
         <v>120</v>
       </c>
       <c r="M33" s="2" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="O33" s="2" t="s">
         <v>36</v>
       </c>
       <c r="P33" s="2" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="S33" s="2" t="s">
         <v>36</v>
       </c>
       <c r="T33" s="2" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="U33" s="2" t="s">
-        <v>513</v>
+        <v>504</v>
       </c>
       <c r="V33" s="2" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="W33" s="2" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="X33" s="2" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="Y33" s="1" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="AA33" s="1" t="s">
-        <v>390</v>
+        <v>382</v>
       </c>
       <c r="AC33" s="4" t="s">
-        <v>442</v>
+        <v>434</v>
       </c>
     </row>
     <row r="34" spans="1:30" ht="28.5">
       <c r="A34" s="2" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>22</v>
@@ -8949,51 +8949,51 @@
         <v>42</v>
       </c>
       <c r="M34" s="2" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="O34" s="2" t="s">
         <v>36</v>
       </c>
       <c r="P34" s="2" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="S34" s="2" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="T34" s="2" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="U34" s="2" t="s">
-        <v>513</v>
+        <v>504</v>
       </c>
       <c r="V34" s="2" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="W34" s="2" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="X34" s="2" t="s">
         <v>112</v>
       </c>
       <c r="Y34" s="1" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="AA34" s="1" t="s">
-        <v>391</v>
+        <v>383</v>
       </c>
       <c r="AC34" s="4" t="s">
-        <v>594</v>
+        <v>585</v>
       </c>
     </row>
     <row r="35" spans="1:30" ht="42.75">
       <c r="A35" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="B35" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="B35" s="2" t="s">
-        <v>285</v>
-      </c>
       <c r="C35" s="2" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="D35" s="2" t="s">
         <v>22</v>
@@ -9005,81 +9005,81 @@
         <v>30</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="H35" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="I35" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="J35" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="K35" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="L35" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="M35" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="N35" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="O35" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="P35" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="Q35" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="T35" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="U35" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="V35" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="W35" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="X35" s="2" t="s">
+        <v>634</v>
+      </c>
+      <c r="Y35" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="I35" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="J35" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="K35" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="L35" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="M35" s="2" t="s">
-        <v>309</v>
-      </c>
-      <c r="N35" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="O35" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="P35" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="Q35" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="T35" s="2" t="s">
-        <v>259</v>
-      </c>
-      <c r="U35" s="2" t="s">
-        <v>335</v>
-      </c>
-      <c r="V35" s="2" t="s">
+      <c r="Z35" s="1" t="s">
         <v>344</v>
       </c>
-      <c r="W35" s="2" t="s">
-        <v>352</v>
-      </c>
-      <c r="X35" s="2" t="s">
-        <v>351</v>
-      </c>
-      <c r="Y35" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="Z35" s="1" t="s">
-        <v>350</v>
-      </c>
       <c r="AA35" s="1" t="s">
-        <v>392</v>
+        <v>384</v>
       </c>
       <c r="AB35" s="1" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="AC35" s="4" t="s">
-        <v>595</v>
+        <v>586</v>
       </c>
       <c r="AD35" s="4" t="s">
-        <v>443</v>
+        <v>435</v>
       </c>
     </row>
     <row r="36" spans="1:30" ht="28.5">
       <c r="A36" s="2" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>559</v>
+        <v>550</v>
       </c>
       <c r="D36" s="2" t="s">
         <v>22</v>
@@ -9091,13 +9091,13 @@
         <v>30</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="H36" s="2" t="s">
         <v>73</v>
       </c>
       <c r="I36" s="2" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="J36" s="2" t="s">
         <v>69</v>
@@ -9106,57 +9106,57 @@
         <v>33</v>
       </c>
       <c r="L36" s="2" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="M36" s="2" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="N36" s="2" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="O36" s="2" t="s">
         <v>36</v>
       </c>
       <c r="P36" s="2" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="Q36" s="2" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="S36" s="2" t="s">
         <v>36</v>
       </c>
       <c r="T36" s="2" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="U36" s="2" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="V36" s="2" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="W36" s="2" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="Y36" s="1" t="s">
-        <v>558</v>
+        <v>549</v>
       </c>
       <c r="AA36" s="1" t="s">
-        <v>393</v>
+        <v>385</v>
       </c>
       <c r="AC36" s="4" t="s">
-        <v>596</v>
+        <v>587</v>
       </c>
     </row>
     <row r="37" spans="1:30" ht="28.5">
       <c r="A37" s="2" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="D37" s="2" t="s">
         <v>22</v>
@@ -9168,10 +9168,10 @@
         <v>30</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="I37" s="2" t="s">
         <v>85</v>
@@ -9186,54 +9186,54 @@
         <v>117</v>
       </c>
       <c r="M37" s="2" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="N37" s="2" t="s">
         <v>36</v>
       </c>
       <c r="O37" s="2" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="P37" s="2" t="s">
         <v>36</v>
       </c>
       <c r="Q37" s="2" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="T37" s="2" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="U37" s="2" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="V37" s="2" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="W37" s="2" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
       <c r="X37" s="2" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="Y37" s="1" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="AA37" s="1" t="s">
-        <v>394</v>
+        <v>386</v>
       </c>
       <c r="AC37" s="4" t="s">
-        <v>597</v>
+        <v>588</v>
       </c>
     </row>
     <row r="38" spans="1:30" ht="28.5">
       <c r="A38" s="2" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>490</v>
+        <v>481</v>
       </c>
       <c r="D38" s="2" t="s">
         <v>22</v>
@@ -9257,54 +9257,54 @@
         <v>68</v>
       </c>
       <c r="K38" s="2" t="s">
-        <v>527</v>
+        <v>518</v>
       </c>
       <c r="L38" s="2" t="s">
         <v>117</v>
       </c>
       <c r="M38" s="2" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="N38" s="2" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="O38" s="2" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="P38" s="2" t="s">
         <v>36</v>
       </c>
       <c r="T38" s="2" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="U38" s="2" t="s">
-        <v>498</v>
+        <v>489</v>
       </c>
       <c r="V38" s="2" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="W38" s="2" t="s">
-        <v>534</v>
+        <v>525</v>
       </c>
       <c r="X38" s="2" t="s">
         <v>113</v>
       </c>
       <c r="Y38" s="1" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="AA38" s="1" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="AC38" s="4" t="s">
-        <v>598</v>
+        <v>589</v>
       </c>
     </row>
     <row r="39" spans="1:30" ht="28.5">
       <c r="A39" s="2" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>12</v>
@@ -9337,48 +9337,48 @@
         <v>117</v>
       </c>
       <c r="M39" s="2" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="N39" s="2" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="O39" s="2" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="P39" s="2" t="s">
         <v>36</v>
       </c>
       <c r="T39" s="2" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="U39" s="2" t="s">
-        <v>498</v>
+        <v>489</v>
       </c>
       <c r="V39" s="2" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="W39" s="2" t="s">
-        <v>534</v>
+        <v>525</v>
       </c>
       <c r="X39" s="2" t="s">
-        <v>516</v>
+        <v>507</v>
       </c>
       <c r="Y39" s="1" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="AA39" s="1" t="s">
-        <v>396</v>
+        <v>388</v>
       </c>
       <c r="AC39" s="4" t="s">
-        <v>599</v>
+        <v>590</v>
       </c>
     </row>
     <row r="40" spans="1:30" ht="57">
       <c r="A40" s="2" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>483</v>
+        <v>474</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>13</v>
@@ -9411,45 +9411,45 @@
         <v>117</v>
       </c>
       <c r="M40" s="2" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="P40" s="2" t="s">
         <v>36</v>
       </c>
       <c r="T40" s="2" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="U40" s="2" t="s">
-        <v>498</v>
+        <v>489</v>
       </c>
       <c r="V40" s="2" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="W40" s="2" t="s">
-        <v>534</v>
+        <v>525</v>
       </c>
       <c r="X40" s="2" t="s">
-        <v>489</v>
+        <v>480</v>
       </c>
       <c r="Y40" s="1" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="AA40" s="1" t="s">
-        <v>397</v>
+        <v>389</v>
       </c>
       <c r="AC40" s="4" t="s">
-        <v>600</v>
+        <v>591</v>
       </c>
     </row>
     <row r="41" spans="1:30" ht="114">
       <c r="A41" s="2" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>285</v>
+        <v>627</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>189</v>
+        <v>629</v>
       </c>
       <c r="D41" s="2" t="s">
         <v>22</v>
@@ -9461,7 +9461,7 @@
         <v>51</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="H41" s="2" t="s">
         <v>77</v>
@@ -9476,63 +9476,63 @@
         <v>33</v>
       </c>
       <c r="L41" s="2" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="M41" s="2" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="N41" s="2" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="O41" s="2" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="P41" s="2" t="s">
         <v>36</v>
       </c>
       <c r="Q41" s="2" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="T41" s="2" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="U41" s="2" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="V41" s="2" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="W41" s="2" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="X41" s="2" t="s">
-        <v>121</v>
+        <v>632</v>
       </c>
       <c r="Y41" s="1" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="Z41" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="AA41" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="AB41" s="1" t="s">
         <v>428</v>
       </c>
-      <c r="AA41" s="1" t="s">
-        <v>398</v>
-      </c>
-      <c r="AB41" s="1" t="s">
-        <v>436</v>
-      </c>
       <c r="AC41" s="4" t="s">
-        <v>601</v>
+        <v>592</v>
       </c>
       <c r="AD41" s="4" t="s">
-        <v>623</v>
+        <v>614</v>
       </c>
     </row>
     <row r="42" spans="1:30" ht="28.5">
       <c r="A42" s="2" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>14</v>
@@ -9565,48 +9565,48 @@
         <v>117</v>
       </c>
       <c r="M42" s="2" t="s">
-        <v>528</v>
+        <v>519</v>
       </c>
       <c r="O42" s="2" t="s">
-        <v>478</v>
+        <v>469</v>
       </c>
       <c r="P42" s="2" t="s">
         <v>36</v>
       </c>
       <c r="Q42" s="2" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="T42" s="2" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="U42" s="2" t="s">
-        <v>492</v>
+        <v>483</v>
       </c>
       <c r="V42" s="2" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="W42" s="2" t="s">
-        <v>534</v>
+        <v>525</v>
       </c>
       <c r="X42" s="2" t="s">
-        <v>113</v>
+        <v>633</v>
       </c>
       <c r="Y42" s="1" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="AA42" s="1" t="s">
-        <v>399</v>
+        <v>391</v>
       </c>
       <c r="AC42" s="4" t="s">
-        <v>602</v>
+        <v>593</v>
       </c>
     </row>
     <row r="43" spans="1:30" ht="28.5">
       <c r="A43" s="2" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>15</v>
@@ -9639,48 +9639,48 @@
         <v>117</v>
       </c>
       <c r="M43" s="2" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="O43" s="2" t="s">
-        <v>479</v>
+        <v>470</v>
       </c>
       <c r="P43" s="2" t="s">
         <v>36</v>
       </c>
       <c r="Q43" s="2" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="T43" s="2" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="U43" s="2" t="s">
-        <v>492</v>
+        <v>483</v>
       </c>
       <c r="V43" s="2" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="W43" s="2" t="s">
-        <v>534</v>
+        <v>525</v>
       </c>
       <c r="X43" s="2" t="s">
-        <v>517</v>
+        <v>508</v>
       </c>
       <c r="Y43" s="1" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="AA43" s="1" t="s">
-        <v>503</v>
+        <v>494</v>
       </c>
       <c r="AC43" s="4" t="s">
-        <v>603</v>
+        <v>594</v>
       </c>
     </row>
     <row r="44" spans="1:30" ht="42.75">
       <c r="A44" s="2" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>482</v>
+        <v>473</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>16</v>
@@ -9713,48 +9713,48 @@
         <v>117</v>
       </c>
       <c r="M44" s="2" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="O44" s="2" t="s">
-        <v>479</v>
+        <v>470</v>
       </c>
       <c r="P44" s="2" t="s">
         <v>36</v>
       </c>
       <c r="Q44" s="2" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="T44" s="2" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="U44" s="2" t="s">
-        <v>492</v>
+        <v>483</v>
       </c>
       <c r="V44" s="2" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="W44" s="2" t="s">
-        <v>534</v>
+        <v>525</v>
       </c>
       <c r="X44" s="2" t="s">
-        <v>512</v>
+        <v>503</v>
       </c>
       <c r="Y44" s="1" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="AA44" s="1" t="s">
-        <v>400</v>
+        <v>392</v>
       </c>
       <c r="AC44" s="4" t="s">
-        <v>604</v>
+        <v>595</v>
       </c>
     </row>
     <row r="45" spans="1:30" ht="28.5">
       <c r="A45" s="2" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>17</v>
@@ -9787,48 +9787,48 @@
         <v>117</v>
       </c>
       <c r="M45" s="2" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="O45" s="2" t="s">
-        <v>479</v>
+        <v>470</v>
       </c>
       <c r="P45" s="2" t="s">
         <v>36</v>
       </c>
       <c r="Q45" s="2" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="T45" s="2" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="U45" s="2" t="s">
-        <v>492</v>
+        <v>483</v>
       </c>
       <c r="V45" s="2" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="W45" s="2" t="s">
-        <v>534</v>
+        <v>525</v>
       </c>
       <c r="X45" s="2" t="s">
-        <v>518</v>
+        <v>509</v>
       </c>
       <c r="Y45" s="1" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="AA45" s="1" t="s">
-        <v>504</v>
+        <v>495</v>
       </c>
       <c r="AC45" s="4" t="s">
-        <v>624</v>
+        <v>615</v>
       </c>
     </row>
     <row r="46" spans="1:30" ht="42.75">
       <c r="A46" s="2" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>482</v>
+        <v>473</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>18</v>
@@ -9861,51 +9861,51 @@
         <v>117</v>
       </c>
       <c r="M46" s="2" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="O46" s="2" t="s">
-        <v>478</v>
+        <v>469</v>
       </c>
       <c r="P46" s="2" t="s">
         <v>36</v>
       </c>
       <c r="Q46" s="2" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="T46" s="2" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="U46" s="2" t="s">
-        <v>492</v>
+        <v>483</v>
       </c>
       <c r="V46" s="2" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="W46" s="2" t="s">
-        <v>534</v>
+        <v>525</v>
       </c>
       <c r="X46" s="2" t="s">
-        <v>511</v>
+        <v>502</v>
       </c>
       <c r="Y46" s="1" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="AA46" s="1" t="s">
-        <v>401</v>
+        <v>393</v>
       </c>
       <c r="AC46" s="4" t="s">
-        <v>625</v>
+        <v>616</v>
       </c>
     </row>
     <row r="47" spans="1:30" ht="28.5">
       <c r="A47" s="2" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>487</v>
+        <v>478</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>488</v>
+        <v>479</v>
       </c>
       <c r="D47" s="2" t="s">
         <v>22</v>
@@ -9917,13 +9917,13 @@
         <v>52</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="H47" s="2" t="s">
         <v>72</v>
       </c>
       <c r="I47" s="2" t="s">
-        <v>486</v>
+        <v>477</v>
       </c>
       <c r="J47" s="2" t="s">
         <v>68</v>
@@ -9935,42 +9935,42 @@
         <v>117</v>
       </c>
       <c r="M47" s="2" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="P47" s="2" t="s">
         <v>36</v>
       </c>
       <c r="T47" s="2" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="U47" s="2" t="s">
-        <v>473</v>
+        <v>464</v>
       </c>
       <c r="V47" s="2" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="W47" s="2" t="s">
-        <v>534</v>
+        <v>525</v>
       </c>
       <c r="Y47" s="1" t="s">
-        <v>484</v>
+        <v>475</v>
       </c>
       <c r="AA47" s="1" t="s">
-        <v>485</v>
+        <v>476</v>
       </c>
       <c r="AC47" s="4" t="s">
-        <v>605</v>
+        <v>596</v>
       </c>
     </row>
     <row r="48" spans="1:30" ht="28.5">
       <c r="A48" s="2" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>502</v>
+        <v>493</v>
       </c>
       <c r="D48" s="2" t="s">
         <v>22</v>
@@ -9979,7 +9979,7 @@
         <v>3</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>495</v>
+        <v>486</v>
       </c>
       <c r="G48" s="2" t="s">
         <v>39</v>
@@ -10000,45 +10000,45 @@
         <v>69</v>
       </c>
       <c r="M48" s="2" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="P48" s="2" t="s">
         <v>36</v>
       </c>
       <c r="T48" s="2" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="U48" s="2" t="s">
-        <v>497</v>
+        <v>488</v>
       </c>
       <c r="V48" s="2" t="s">
         <v>32</v>
       </c>
       <c r="W48" s="2" t="s">
-        <v>534</v>
+        <v>525</v>
       </c>
       <c r="X48" s="2" t="s">
         <v>113</v>
       </c>
       <c r="Y48" s="1" t="s">
-        <v>501</v>
+        <v>492</v>
       </c>
       <c r="AA48" s="1" t="s">
-        <v>505</v>
+        <v>496</v>
       </c>
       <c r="AC48" s="4" t="s">
-        <v>626</v>
+        <v>617</v>
       </c>
     </row>
     <row r="49" spans="1:30" ht="28.5">
       <c r="A49" s="2" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>493</v>
+        <v>484</v>
       </c>
       <c r="D49" s="2" t="s">
         <v>22</v>
@@ -10047,7 +10047,7 @@
         <v>3</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>495</v>
+        <v>486</v>
       </c>
       <c r="G49" s="2" t="s">
         <v>24</v>
@@ -10068,45 +10068,45 @@
         <v>69</v>
       </c>
       <c r="M49" s="2" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="P49" s="2" t="s">
         <v>36</v>
       </c>
       <c r="T49" s="2" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="U49" s="2" t="s">
-        <v>497</v>
+        <v>488</v>
       </c>
       <c r="V49" s="2" t="s">
         <v>32</v>
       </c>
       <c r="W49" s="2" t="s">
-        <v>534</v>
+        <v>525</v>
       </c>
       <c r="X49" s="2" t="s">
-        <v>519</v>
+        <v>510</v>
       </c>
       <c r="Y49" s="1" t="s">
-        <v>499</v>
+        <v>490</v>
       </c>
       <c r="AA49" s="1" t="s">
-        <v>506</v>
+        <v>497</v>
       </c>
       <c r="AC49" s="4" t="s">
-        <v>606</v>
+        <v>597</v>
       </c>
     </row>
     <row r="50" spans="1:30" ht="28.5">
       <c r="A50" s="2" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>494</v>
+        <v>485</v>
       </c>
       <c r="D50" s="2" t="s">
         <v>22</v>
@@ -10115,7 +10115,7 @@
         <v>3</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>496</v>
+        <v>487</v>
       </c>
       <c r="G50" s="2" t="s">
         <v>30</v>
@@ -10136,45 +10136,45 @@
         <v>69</v>
       </c>
       <c r="M50" s="2" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="P50" s="2" t="s">
         <v>36</v>
       </c>
       <c r="T50" s="2" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="U50" s="2" t="s">
-        <v>497</v>
+        <v>488</v>
       </c>
       <c r="V50" s="2" t="s">
         <v>32</v>
       </c>
       <c r="W50" s="2" t="s">
-        <v>534</v>
+        <v>525</v>
       </c>
       <c r="X50" s="2" t="s">
-        <v>520</v>
+        <v>511</v>
       </c>
       <c r="Y50" s="1" t="s">
-        <v>500</v>
+        <v>491</v>
       </c>
       <c r="AA50" s="1" t="s">
-        <v>507</v>
+        <v>498</v>
       </c>
       <c r="AC50" s="4" t="s">
-        <v>607</v>
+        <v>598</v>
       </c>
     </row>
     <row r="51" spans="1:30" ht="28.5">
       <c r="A51" s="2" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>491</v>
+        <v>482</v>
       </c>
       <c r="D51" s="2" t="s">
         <v>22</v>
@@ -10204,51 +10204,51 @@
         <v>117</v>
       </c>
       <c r="M51" s="2" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="N51" s="2" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="O51" s="2" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="P51" s="2" t="s">
         <v>36</v>
       </c>
       <c r="Q51" s="2" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="T51" s="2" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="U51" s="2" t="s">
-        <v>492</v>
+        <v>483</v>
       </c>
       <c r="V51" s="2" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="W51" s="2" t="s">
-        <v>534</v>
+        <v>525</v>
       </c>
       <c r="X51" s="2" t="s">
         <v>113</v>
       </c>
       <c r="Y51" s="1" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="AA51" s="1" t="s">
-        <v>508</v>
+        <v>499</v>
       </c>
       <c r="AC51" s="4" t="s">
-        <v>568</v>
+        <v>559</v>
       </c>
     </row>
     <row r="52" spans="1:30" ht="28.5">
       <c r="A52" s="2" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>19</v>
@@ -10281,51 +10281,51 @@
         <v>117</v>
       </c>
       <c r="M52" s="2" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="N52" s="2" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="O52" s="2" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="P52" s="2" t="s">
         <v>36</v>
       </c>
       <c r="Q52" s="2" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="T52" s="2" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="U52" s="2" t="s">
-        <v>492</v>
+        <v>483</v>
       </c>
       <c r="V52" s="2" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="W52" s="2" t="s">
-        <v>534</v>
+        <v>525</v>
       </c>
       <c r="X52" s="2" t="s">
-        <v>521</v>
+        <v>512</v>
       </c>
       <c r="Y52" s="1" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="AA52" s="1" t="s">
-        <v>509</v>
+        <v>500</v>
       </c>
       <c r="AC52" s="4" t="s">
-        <v>627</v>
+        <v>618</v>
       </c>
     </row>
     <row r="53" spans="1:30" ht="28.5">
       <c r="A53" s="2" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>20</v>
@@ -10358,54 +10358,54 @@
         <v>117</v>
       </c>
       <c r="M53" s="2" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="N53" s="2" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="O53" s="2" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="P53" s="2" t="s">
         <v>36</v>
       </c>
       <c r="Q53" s="2" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="T53" s="2" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="U53" s="2" t="s">
-        <v>492</v>
+        <v>483</v>
       </c>
       <c r="V53" s="2" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="W53" s="2" t="s">
-        <v>534</v>
+        <v>525</v>
       </c>
       <c r="X53" s="2" t="s">
-        <v>522</v>
+        <v>513</v>
       </c>
       <c r="Y53" s="1" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="AA53" s="1" t="s">
-        <v>510</v>
+        <v>501</v>
       </c>
       <c r="AC53" s="4" t="s">
-        <v>608</v>
+        <v>599</v>
       </c>
     </row>
     <row r="54" spans="1:30" ht="171">
       <c r="A54" s="2" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>285</v>
+        <v>627</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="D54" s="2" t="s">
         <v>22</v>
@@ -10420,7 +10420,7 @@
         <v>26</v>
       </c>
       <c r="H54" s="2" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="I54" s="2" t="s">
         <v>94</v>
@@ -10435,63 +10435,63 @@
         <v>117</v>
       </c>
       <c r="M54" s="2" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="N54" s="2" t="s">
         <v>36</v>
       </c>
       <c r="O54" s="2" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="P54" s="2" t="s">
         <v>36</v>
       </c>
       <c r="Q54" s="2" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="T54" s="2" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="U54" s="2" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="V54" s="2" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="W54" s="2" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="X54" s="2" t="s">
-        <v>124</v>
+        <v>628</v>
       </c>
       <c r="Y54" s="1" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="Z54" s="1" t="s">
-        <v>429</v>
+        <v>421</v>
       </c>
       <c r="AA54" s="1" t="s">
-        <v>402</v>
+        <v>394</v>
       </c>
       <c r="AB54" s="1" t="s">
-        <v>452</v>
+        <v>444</v>
       </c>
       <c r="AC54" s="4" t="s">
-        <v>609</v>
+        <v>600</v>
       </c>
       <c r="AD54" s="5" t="s">
-        <v>628</v>
+        <v>619</v>
       </c>
     </row>
     <row r="55" spans="1:30" ht="28.5">
       <c r="A55" s="2" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>285</v>
+        <v>627</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>465</v>
+        <v>457</v>
       </c>
       <c r="D55" s="2" t="s">
         <v>22</v>
@@ -10506,7 +10506,7 @@
         <v>45</v>
       </c>
       <c r="H55" s="2" t="s">
-        <v>466</v>
+        <v>458</v>
       </c>
       <c r="I55" s="2" t="s">
         <v>85</v>
@@ -10521,63 +10521,63 @@
         <v>117</v>
       </c>
       <c r="M55" s="2" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="N55" s="2" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="O55" s="2" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="P55" s="2" t="s">
         <v>36</v>
       </c>
       <c r="Q55" s="2" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="T55" s="2" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="U55" s="2" t="s">
-        <v>475</v>
+        <v>466</v>
       </c>
       <c r="V55" s="2" t="s">
         <v>32</v>
       </c>
       <c r="W55" s="2" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="X55" s="2" t="s">
-        <v>467</v>
+        <v>631</v>
       </c>
       <c r="Y55" s="1" t="s">
-        <v>468</v>
+        <v>459</v>
       </c>
       <c r="Z55" s="1" t="s">
-        <v>470</v>
+        <v>461</v>
       </c>
       <c r="AA55" s="1" t="s">
-        <v>480</v>
+        <v>471</v>
       </c>
       <c r="AB55" s="1" t="s">
-        <v>469</v>
+        <v>460</v>
       </c>
       <c r="AC55" s="4" t="s">
-        <v>629</v>
+        <v>620</v>
       </c>
       <c r="AD55" s="4" t="s">
-        <v>481</v>
+        <v>472</v>
       </c>
     </row>
     <row r="56" spans="1:30">
       <c r="A56" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="B56" s="2" t="s">
         <v>277</v>
       </c>
-      <c r="B56" s="2" t="s">
-        <v>283</v>
-      </c>
       <c r="C56" s="2" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="D56" s="2" t="s">
         <v>22</v>
@@ -10586,16 +10586,16 @@
         <v>3</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="H56" s="2" t="s">
         <v>73</v>
       </c>
       <c r="I56" s="2" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="J56" s="2" t="s">
         <v>42</v>
@@ -10604,16 +10604,16 @@
         <v>32</v>
       </c>
       <c r="L56" s="2" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="M56" s="2" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="N56" s="2" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="O56" s="2" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="P56" s="2" t="s">
         <v>36</v>
@@ -10625,33 +10625,33 @@
         <v>36</v>
       </c>
       <c r="T56" s="2" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="U56" s="2" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="W56" s="2" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="Y56" s="1" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="AA56" s="1" t="s">
-        <v>403</v>
+        <v>395</v>
       </c>
       <c r="AC56" s="4" t="s">
-        <v>610</v>
+        <v>601</v>
       </c>
     </row>
     <row r="57" spans="1:30">
       <c r="A57" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="B57" s="2" t="s">
         <v>277</v>
       </c>
-      <c r="B57" s="2" t="s">
-        <v>283</v>
-      </c>
       <c r="C57" s="2" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="D57" s="2" t="s">
         <v>22</v>
@@ -10660,16 +10660,16 @@
         <v>3</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="H57" s="2" t="s">
         <v>73</v>
       </c>
       <c r="I57" s="2" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="J57" s="2" t="s">
         <v>42</v>
@@ -10678,16 +10678,16 @@
         <v>32</v>
       </c>
       <c r="L57" s="2" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="M57" s="2" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="N57" s="2" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="O57" s="2" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="P57" s="2" t="s">
         <v>36</v>
@@ -10699,33 +10699,33 @@
         <v>36</v>
       </c>
       <c r="T57" s="2" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="U57" s="2" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="W57" s="2" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="Y57" s="1" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="AA57" s="1" t="s">
-        <v>404</v>
+        <v>396</v>
       </c>
       <c r="AC57" s="4" t="s">
-        <v>611</v>
+        <v>602</v>
       </c>
     </row>
     <row r="58" spans="1:30">
       <c r="A58" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="B58" s="2" t="s">
         <v>277</v>
       </c>
-      <c r="B58" s="2" t="s">
-        <v>283</v>
-      </c>
       <c r="C58" s="2" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="D58" s="2" t="s">
         <v>22</v>
@@ -10734,16 +10734,16 @@
         <v>3</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="H58" s="2" t="s">
         <v>73</v>
       </c>
       <c r="I58" s="2" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="J58" s="2" t="s">
         <v>42</v>
@@ -10752,16 +10752,16 @@
         <v>32</v>
       </c>
       <c r="L58" s="2" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="M58" s="2" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="N58" s="2" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="O58" s="2" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="P58" s="2" t="s">
         <v>36</v>
@@ -10773,33 +10773,33 @@
         <v>36</v>
       </c>
       <c r="T58" s="2" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="U58" s="2" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="W58" s="2" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="Y58" s="1" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="AA58" s="1" t="s">
-        <v>405</v>
+        <v>397</v>
       </c>
       <c r="AC58" s="4" t="s">
-        <v>569</v>
+        <v>560</v>
       </c>
     </row>
     <row r="59" spans="1:30">
       <c r="A59" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="B59" s="2" t="s">
         <v>277</v>
       </c>
-      <c r="B59" s="2" t="s">
-        <v>283</v>
-      </c>
       <c r="C59" s="2" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="D59" s="2" t="s">
         <v>22</v>
@@ -10808,16 +10808,16 @@
         <v>3</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="H59" s="2" t="s">
         <v>73</v>
       </c>
       <c r="I59" s="2" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="J59" s="2" t="s">
         <v>42</v>
@@ -10826,16 +10826,16 @@
         <v>32</v>
       </c>
       <c r="L59" s="2" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="M59" s="2" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="N59" s="2" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="O59" s="2" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="P59" s="2" t="s">
         <v>36</v>
@@ -10847,33 +10847,33 @@
         <v>36</v>
       </c>
       <c r="T59" s="2" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="U59" s="2" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="W59" s="2" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="Y59" s="1" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="AA59" s="1" t="s">
-        <v>406</v>
+        <v>398</v>
       </c>
       <c r="AC59" s="4" t="s">
-        <v>612</v>
+        <v>603</v>
       </c>
     </row>
     <row r="60" spans="1:30">
       <c r="A60" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="B60" s="2" t="s">
         <v>277</v>
       </c>
-      <c r="B60" s="2" t="s">
-        <v>283</v>
-      </c>
       <c r="C60" s="2" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="D60" s="2" t="s">
         <v>22</v>
@@ -10882,16 +10882,16 @@
         <v>3</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="H60" s="2" t="s">
         <v>73</v>
       </c>
       <c r="I60" s="2" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="J60" s="2" t="s">
         <v>42</v>
@@ -10900,16 +10900,16 @@
         <v>32</v>
       </c>
       <c r="L60" s="2" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="M60" s="2" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="N60" s="2" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="O60" s="2" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="P60" s="2" t="s">
         <v>36</v>
@@ -10921,33 +10921,33 @@
         <v>36</v>
       </c>
       <c r="T60" s="2" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="U60" s="2" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="W60" s="2" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="Y60" s="1" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="AA60" s="1" t="s">
-        <v>407</v>
+        <v>399</v>
       </c>
       <c r="AC60" s="4" t="s">
-        <v>613</v>
+        <v>604</v>
       </c>
     </row>
     <row r="61" spans="1:30">
       <c r="A61" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="B61" s="2" t="s">
         <v>277</v>
       </c>
-      <c r="B61" s="2" t="s">
-        <v>283</v>
-      </c>
       <c r="C61" s="2" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="D61" s="2" t="s">
         <v>22</v>
@@ -10956,16 +10956,16 @@
         <v>3</v>
       </c>
       <c r="F61" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="G61" s="2" t="s">
         <v>291</v>
-      </c>
-      <c r="G61" s="2" t="s">
-        <v>297</v>
       </c>
       <c r="H61" s="2" t="s">
         <v>73</v>
       </c>
       <c r="I61" s="2" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="J61" s="2" t="s">
         <v>42</v>
@@ -10974,16 +10974,16 @@
         <v>32</v>
       </c>
       <c r="L61" s="2" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="M61" s="2" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="N61" s="2" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="O61" s="2" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="P61" s="2" t="s">
         <v>36</v>
@@ -10995,33 +10995,33 @@
         <v>36</v>
       </c>
       <c r="T61" s="2" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="U61" s="2" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="W61" s="2" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="Y61" s="1" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="AA61" s="1" t="s">
-        <v>408</v>
+        <v>400</v>
       </c>
       <c r="AC61" s="4" t="s">
-        <v>570</v>
+        <v>561</v>
       </c>
     </row>
     <row r="62" spans="1:30" ht="28.5">
       <c r="A62" s="2" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>355</v>
+        <v>348</v>
       </c>
       <c r="D62" s="2" t="s">
         <v>22</v>
@@ -11054,7 +11054,7 @@
         <v>37</v>
       </c>
       <c r="P62" s="2" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="Q62" s="2" t="s">
         <v>36</v>
@@ -11063,36 +11063,36 @@
         <v>36</v>
       </c>
       <c r="T62" s="2" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="U62" s="2" t="s">
-        <v>515</v>
+        <v>506</v>
       </c>
       <c r="V62" s="2" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="W62" s="2" t="s">
-        <v>535</v>
+        <v>526</v>
       </c>
       <c r="X62" s="2" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="Y62" s="1" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="AA62" s="1" t="s">
-        <v>409</v>
+        <v>401</v>
       </c>
       <c r="AC62" s="4" t="s">
-        <v>614</v>
+        <v>605</v>
       </c>
     </row>
     <row r="63" spans="1:30" ht="28.5">
       <c r="A63" s="2" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>105</v>
@@ -11104,7 +11104,7 @@
         <v>3</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="G63" s="2" t="s">
         <v>106</v>
@@ -11122,7 +11122,7 @@
         <v>33</v>
       </c>
       <c r="L63" s="2" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="M63" s="2" t="s">
         <v>9</v>
@@ -11131,7 +11131,7 @@
         <v>36</v>
       </c>
       <c r="P63" s="2" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="Q63" s="2" t="s">
         <v>36</v>
@@ -11140,36 +11140,36 @@
         <v>36</v>
       </c>
       <c r="T63" s="2" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="U63" s="2" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="V63" s="2" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="W63" s="2" t="s">
-        <v>535</v>
+        <v>526</v>
       </c>
       <c r="Y63" s="1" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="AA63" s="1" t="s">
-        <v>410</v>
+        <v>402</v>
       </c>
       <c r="AC63" s="4" t="s">
-        <v>615</v>
+        <v>606</v>
       </c>
     </row>
     <row r="64" spans="1:30">
       <c r="A64" s="2" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>462</v>
+        <v>454</v>
       </c>
       <c r="D64" s="2" t="s">
         <v>22</v>
@@ -11178,10 +11178,10 @@
         <v>3</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>457</v>
+        <v>449</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>458</v>
+        <v>450</v>
       </c>
       <c r="H64" s="2" t="s">
         <v>77</v>
@@ -11199,43 +11199,43 @@
         <v>69</v>
       </c>
       <c r="M64" s="2" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="N64" s="2" t="s">
         <v>36</v>
       </c>
       <c r="O64" s="2" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="P64" s="2" t="s">
         <v>36</v>
       </c>
       <c r="Q64" s="2" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="T64" s="2" t="s">
-        <v>459</v>
+        <v>451</v>
       </c>
       <c r="U64" s="2" t="s">
-        <v>477</v>
+        <v>468</v>
       </c>
       <c r="V64" s="2" t="s">
         <v>32</v>
       </c>
       <c r="W64" s="2" t="s">
-        <v>460</v>
+        <v>452</v>
       </c>
       <c r="X64" s="2" t="s">
-        <v>461</v>
+        <v>453</v>
       </c>
       <c r="Y64" s="1" t="s">
-        <v>464</v>
+        <v>456</v>
       </c>
       <c r="AA64" s="1" t="s">
-        <v>463</v>
+        <v>455</v>
       </c>
       <c r="AC64" s="4" t="s">
-        <v>616</v>
+        <v>607</v>
       </c>
     </row>
   </sheetData>
@@ -11251,20 +11251,20 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_Version xmlns="http://schemas.microsoft.com/sharepoint/v3/fields" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_Version xmlns="http://schemas.microsoft.com/sharepoint/v3/fields" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -11427,14 +11427,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0FB82232-58B1-4A1D-8A4E-B5C95C1862BE}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{153E850E-4F75-454A-AFBA-A711FED549FB}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
@@ -11447,6 +11439,14 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/fields"/>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0FB82232-58B1-4A1D-8A4E-B5C95C1862BE}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/Documents/UsbProtocol_EgsDeviceSettingsHidReport_HostAppSettings_PropertyList.xlsx
+++ b/Documents/UsbProtocol_EgsDeviceSettingsHidReport_HostAppSettings_PropertyList.xlsx
@@ -5322,11 +5322,11 @@
     <phoneticPr fontId="18"/>
   </si>
   <si>
-    <t>Value == (CameraViewImageSourceBitmapSizes)1</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
     <t>Value = CaptureBinnings.Binning2x2</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>Value = CameraViewImageSourceBitmapSizes.Size_384x240</t>
     <phoneticPr fontId="18"/>
   </si>
 </sst>
@@ -6332,7 +6332,7 @@
       <pane xSplit="3" ySplit="1" topLeftCell="W16" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="X26" sqref="X26"/>
+      <selection pane="bottomRight" activeCell="X36" sqref="X36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -8360,7 +8360,7 @@
         <v>320</v>
       </c>
       <c r="X26" s="2" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="Y26" s="1" t="s">
         <v>135</v>
@@ -9050,7 +9050,7 @@
         <v>345</v>
       </c>
       <c r="X35" s="2" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="Y35" s="1" t="s">
         <v>214</v>
@@ -11251,20 +11251,20 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_Version xmlns="http://schemas.microsoft.com/sharepoint/v3/fields" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_Version xmlns="http://schemas.microsoft.com/sharepoint/v3/fields" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -11427,6 +11427,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0FB82232-58B1-4A1D-8A4E-B5C95C1862BE}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{153E850E-4F75-454A-AFBA-A711FED549FB}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
@@ -11439,14 +11447,6 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/fields"/>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0FB82232-58B1-4A1D-8A4E-B5C95C1862BE}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/Documents/UsbProtocol_EgsDeviceSettingsHidReport_HostAppSettings_PropertyList.xlsx
+++ b/Documents/UsbProtocol_EgsDeviceSettingsHidReport_HostAppSettings_PropertyList.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17766"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18067"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kishimoto\Documents\Exvision\PiemonteOnMyriad\HostApplications\Windows\PublishedInGitHub\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KISHIMOTO\Documents\Exvision\PiemonteOnMyriad\HostApplications\Windows\PublishedInGitHub\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -755,10 +755,6 @@
     <phoneticPr fontId="18"/>
   </si>
   <si>
-    <t>Use ZKOO for</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
     <t>Basic</t>
     <phoneticPr fontId="18"/>
   </si>
@@ -1260,10 +1256,6 @@
     <phoneticPr fontId="18"/>
   </si>
   <si>
-    <t>ZkooTutorial changes the value.  Developer can change it, too.</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
     <t>Developers can set</t>
     <phoneticPr fontId="18"/>
   </si>
@@ -1496,10 +1488,6 @@
     <rPh sb="12" eb="14">
       <t>シュルイ</t>
     </rPh>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>ZKOOデバイスのモード</t>
     <phoneticPr fontId="18"/>
   </si>
   <si>
@@ -2701,18 +2689,6 @@
     <phoneticPr fontId="18"/>
   </si>
   <si>
-    <t>0:ZKOOデバイス
-1:ホストアプリケーション (高精度)
-2:SDKユーザーによるカスタムソリューション</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>0:ZKOO Device
-1:Host Application (Higher Accuracy)
-2:Custom Solution by SDK Users</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
     <t>1</t>
     <phoneticPr fontId="18"/>
   </si>
@@ -2869,31 +2845,6 @@
   </si>
   <si>
     <r>
-      <t>相机</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-      </rPr>
-      <t>设备</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="メイリオ"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>的 DevicePath</t>
-    </r>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <r>
       <rPr>
         <sz val="8"/>
         <color theme="1"/>
@@ -3133,86 +3084,6 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">0:ZKOO </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <rFont val="FangSong"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>设备</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <rFont val="メイリオ"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">
-1:主</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <rFont val="FangSong"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>应</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <rFont val="メイリオ"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>用程序 (更高精度)
-2:SDK用</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <rFont val="FangSong"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>户</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <rFont val="メイリオ"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>自定</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <rFont val="FangSong"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>义</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <rFont val="メイリオ"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>解决方案</t>
-    </r>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <r>
       <t>由</t>
     </r>
     <r>
@@ -4541,20 +4412,6 @@
   </si>
   <si>
     <r>
-      <t>ZKOO用途</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-      </rPr>
-      <t>选项</t>
-    </r>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <r>
       <t>主屏幕方向</t>
     </r>
     <r>
@@ -5327,6 +5184,149 @@
   </si>
   <si>
     <t>Value = CameraViewImageSourceBitmapSizes.Size_384x240</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>Use Device for</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>デバイスのモード</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <r>
+      <t>用途</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+      </rPr>
+      <t>选项</t>
+    </r>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>ZkooTutorial changes the value.  Developer can change it, too.</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>0:Camera Device
+1:Host Application (Higher Accuracy)
+2:Custom Solution by SDK Users</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>0:カメラデバイス
+1:ホストアプリケーション (高精度)
+2:SDKユーザーによるカスタムソリューション</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <r>
+      <t>相机</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+      </rPr>
+      <t>设备</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>的 DevicePath</t>
+    </r>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <r>
+      <t>0:相机</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="FangSong"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>设备</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">
+1:主</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="FangSong"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>应</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>用程序 (更高精度)
+2:SDK用</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="FangSong"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>户</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>自定</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="FangSong"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>义</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>解决方案</t>
+    </r>
     <phoneticPr fontId="18"/>
   </si>
 </sst>
@@ -5334,7 +5334,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="29">
+  <fonts count="29" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -6329,13 +6329,13 @@
   <dimension ref="A1:AD64"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="W16" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="X16" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="X36" sqref="X36"/>
+      <selection pane="bottomRight" activeCell="AD29" sqref="AD29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="14" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21.625" style="2" bestFit="1" customWidth="1"/>
@@ -6364,9 +6364,9 @@
     <col min="31" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" ht="57">
+    <row r="1" spans="1:30" ht="57" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>75</v>
@@ -6396,16 +6396,16 @@
         <v>34</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="L1" s="2" t="s">
         <v>116</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="O1" s="2" t="s">
         <v>67</v>
@@ -6423,45 +6423,45 @@
         <v>161</v>
       </c>
       <c r="T1" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="U1" s="2" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="V1" s="2" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="W1" s="2" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="X1" s="2" t="s">
         <v>166</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="AC1" s="4" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="AD1" s="4" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
     </row>
-    <row r="2" spans="1:30" ht="28.5">
+    <row r="2" spans="1:30" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>124</v>
@@ -6494,7 +6494,7 @@
         <v>125</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="N2" s="2" t="s">
         <v>36</v>
@@ -6509,16 +6509,16 @@
         <v>163</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="V2" s="2" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="W2" s="2" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="X2" s="2" t="s">
         <v>126</v>
@@ -6527,33 +6527,33 @@
         <v>132</v>
       </c>
       <c r="AA2" s="1" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="AC2" s="4" t="s">
-        <v>621</v>
+        <v>613</v>
       </c>
     </row>
-    <row r="3" spans="1:30">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="F3" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>211</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>212</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>99</v>
@@ -6571,16 +6571,16 @@
         <v>42</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="O3" s="2" t="s">
         <v>36</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="Q3" s="2" t="s">
         <v>36</v>
@@ -6589,45 +6589,45 @@
         <v>36</v>
       </c>
       <c r="T3" s="2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="U3" s="2" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="W3" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="Y3" s="1" t="s">
         <v>127</v>
       </c>
       <c r="AA3" s="1" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="AC3" s="4" t="s">
-        <v>563</v>
+        <v>558</v>
       </c>
     </row>
-    <row r="4" spans="1:30">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>100</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>98</v>
@@ -6645,16 +6645,16 @@
         <v>42</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="O4" s="2" t="s">
         <v>36</v>
       </c>
       <c r="P4" s="2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="Q4" s="2" t="s">
         <v>36</v>
@@ -6663,33 +6663,33 @@
         <v>36</v>
       </c>
       <c r="T4" s="2" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="U4" s="2" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="W4" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="Y4" s="1" t="s">
         <v>128</v>
       </c>
       <c r="AA4" s="1" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="AC4" s="4" t="s">
-        <v>564</v>
+        <v>634</v>
       </c>
     </row>
-    <row r="5" spans="1:30">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>22</v>
@@ -6707,7 +6707,7 @@
         <v>77</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="J5" s="2" t="s">
         <v>69</v>
@@ -6719,7 +6719,7 @@
         <v>42</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="N5" s="2" t="s">
         <v>163</v>
@@ -6728,7 +6728,7 @@
         <v>36</v>
       </c>
       <c r="P5" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="Q5" s="2" t="s">
         <v>36</v>
@@ -6737,36 +6737,36 @@
         <v>36</v>
       </c>
       <c r="T5" s="2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="U5" s="2" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="V5" s="2" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="W5" s="2" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="Y5" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="AA5" s="1" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="AC5" s="4" t="s">
-        <v>565</v>
+        <v>559</v>
       </c>
     </row>
-    <row r="6" spans="1:30" ht="85.5">
+    <row r="6" spans="1:30" ht="85.5" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>627</v>
+        <v>619</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>22</v>
@@ -6778,10 +6778,10 @@
         <v>23</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="I6" s="2" t="s">
         <v>85</v>
@@ -6796,10 +6796,10 @@
         <v>42</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="O6" s="2" t="s">
         <v>36</v>
@@ -6814,42 +6814,42 @@
         <v>36</v>
       </c>
       <c r="T6" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="U6" s="2" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="V6" s="2" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="W6" s="2" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="Y6" s="1" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="Z6" s="1" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="AA6" s="1" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="AB6" s="1" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="AC6" s="4" t="s">
-        <v>566</v>
+        <v>560</v>
       </c>
       <c r="AD6" s="4" t="s">
-        <v>567</v>
+        <v>561</v>
       </c>
     </row>
-    <row r="7" spans="1:30">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A7" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>7</v>
@@ -6867,10 +6867,10 @@
         <v>107</v>
       </c>
       <c r="H7" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="I7" s="2" t="s">
         <v>220</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>221</v>
       </c>
       <c r="J7" s="2" t="s">
         <v>69</v>
@@ -6882,7 +6882,7 @@
         <v>118</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="N7" s="2" t="s">
         <v>163</v>
@@ -6900,36 +6900,36 @@
         <v>36</v>
       </c>
       <c r="T7" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="U7" s="2" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="V7" s="2" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="W7" s="2" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="Y7" s="1" t="s">
         <v>129</v>
       </c>
       <c r="AA7" s="1" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="AC7" s="4" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
     </row>
-    <row r="8" spans="1:30">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A8" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B8" s="2" t="s">
+        <v>528</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>531</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>534</v>
       </c>
       <c r="H8" s="2" t="s">
         <v>172</v>
@@ -6947,7 +6947,7 @@
         <v>69</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="N8" s="2" t="s">
         <v>36</v>
@@ -6956,39 +6956,39 @@
         <v>36</v>
       </c>
       <c r="T8" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="U8" s="2" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="V8" s="2" t="s">
         <v>32</v>
       </c>
       <c r="W8" s="2" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="X8" s="2" t="s">
         <v>113</v>
       </c>
       <c r="Y8" s="1" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="AA8" s="1" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="AC8" s="3" t="s">
-        <v>545</v>
+        <v>540</v>
       </c>
     </row>
-    <row r="9" spans="1:30">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A9" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>22</v>
@@ -7000,7 +7000,7 @@
         <v>26</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="H9" s="2" t="s">
         <v>158</v>
@@ -7018,7 +7018,7 @@
         <v>42</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="N9" s="2" t="s">
         <v>163</v>
@@ -7036,36 +7036,36 @@
         <v>36</v>
       </c>
       <c r="T9" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="U9" s="2" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="V9" s="2" t="s">
         <v>32</v>
       </c>
       <c r="W9" s="2" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="Y9" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="AA9" s="1" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="AC9" s="4" t="s">
-        <v>622</v>
+        <v>614</v>
       </c>
     </row>
-    <row r="10" spans="1:30">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A10" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>22</v>
@@ -7077,7 +7077,7 @@
         <v>26</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="H10" s="2" t="s">
         <v>158</v>
@@ -7095,7 +7095,7 @@
         <v>42</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="N10" s="2" t="s">
         <v>163</v>
@@ -7113,36 +7113,36 @@
         <v>36</v>
       </c>
       <c r="T10" s="2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="U10" s="2" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="V10" s="2" t="s">
         <v>32</v>
       </c>
       <c r="W10" s="2" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="Y10" s="1" t="s">
         <v>159</v>
       </c>
       <c r="AA10" s="1" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="AC10" s="4" t="s">
-        <v>556</v>
+        <v>551</v>
       </c>
     </row>
-    <row r="11" spans="1:30" ht="57">
+    <row r="11" spans="1:30" ht="57" x14ac:dyDescent="0.15">
       <c r="A11" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>627</v>
+        <v>619</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>22</v>
@@ -7154,7 +7154,7 @@
         <v>23</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="H11" s="2" t="s">
         <v>77</v>
@@ -7172,7 +7172,7 @@
         <v>69</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="N11" s="2" t="s">
         <v>36</v>
@@ -7187,45 +7187,45 @@
         <v>163</v>
       </c>
       <c r="T11" s="2" t="s">
+        <v>435</v>
+      </c>
+      <c r="U11" s="2" t="s">
+        <v>464</v>
+      </c>
+      <c r="V11" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="W11" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="X11" s="2" t="s">
+        <v>620</v>
+      </c>
+      <c r="Y11" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="Z11" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="AA11" s="1" t="s">
         <v>438</v>
       </c>
-      <c r="U11" s="2" t="s">
-        <v>467</v>
-      </c>
-      <c r="V11" s="2" t="s">
-        <v>338</v>
-      </c>
-      <c r="W11" s="2" t="s">
-        <v>322</v>
-      </c>
-      <c r="X11" s="2" t="s">
-        <v>628</v>
-      </c>
-      <c r="Y11" s="1" t="s">
+      <c r="AB11" s="1" t="s">
         <v>439</v>
       </c>
-      <c r="Z11" s="1" t="s">
-        <v>440</v>
-      </c>
-      <c r="AA11" s="1" t="s">
-        <v>441</v>
-      </c>
-      <c r="AB11" s="1" t="s">
-        <v>442</v>
-      </c>
       <c r="AC11" s="1" t="s">
-        <v>568</v>
+        <v>562</v>
       </c>
       <c r="AD11" s="1" t="s">
-        <v>547</v>
+        <v>542</v>
       </c>
     </row>
-    <row r="12" spans="1:30" ht="28.5">
+    <row r="12" spans="1:30" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A12" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>627</v>
+        <v>619</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>81</v>
@@ -7264,31 +7264,31 @@
         <v>36</v>
       </c>
       <c r="O12" s="2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="P12" s="2" t="s">
         <v>36</v>
       </c>
       <c r="Q12" s="2" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="R12" s="2" t="s">
         <v>36</v>
       </c>
       <c r="T12" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="U12" s="2" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="V12" s="2" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="W12" s="2" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="X12" s="2" t="s">
-        <v>630</v>
+        <v>622</v>
       </c>
       <c r="Y12" s="1" t="s">
         <v>131</v>
@@ -7297,24 +7297,24 @@
         <v>62</v>
       </c>
       <c r="AA12" s="1" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="AB12" s="1" t="s">
         <v>62</v>
       </c>
       <c r="AC12" s="4" t="s">
-        <v>608</v>
+        <v>601</v>
       </c>
       <c r="AD12" s="4" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
     </row>
-    <row r="13" spans="1:30" ht="57">
+    <row r="13" spans="1:30" ht="57" x14ac:dyDescent="0.15">
       <c r="A13" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>627</v>
+        <v>619</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>4</v>
@@ -7347,7 +7347,7 @@
         <v>117</v>
       </c>
       <c r="M13" s="2" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="N13" s="2" t="s">
         <v>36</v>
@@ -7365,45 +7365,45 @@
         <v>36</v>
       </c>
       <c r="T13" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="U13" s="2" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="V13" s="2" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="W13" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="X13" s="2" t="s">
+        <v>620</v>
+      </c>
+      <c r="Y13" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="X13" s="2" t="s">
-        <v>628</v>
-      </c>
-      <c r="Y13" s="1" t="s">
-        <v>203</v>
-      </c>
       <c r="Z13" s="1" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="AA13" s="1" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="AB13" s="1" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="AC13" s="4" t="s">
-        <v>569</v>
+        <v>563</v>
       </c>
       <c r="AD13" s="4" t="s">
-        <v>570</v>
+        <v>564</v>
       </c>
     </row>
-    <row r="14" spans="1:30" ht="57">
+    <row r="14" spans="1:30" ht="57" x14ac:dyDescent="0.15">
       <c r="A14" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>627</v>
+        <v>619</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>82</v>
@@ -7436,13 +7436,13 @@
         <v>164</v>
       </c>
       <c r="M14" s="2" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="N14" s="2" t="s">
         <v>36</v>
       </c>
       <c r="O14" s="2" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="P14" s="2" t="s">
         <v>36</v>
@@ -7454,45 +7454,45 @@
         <v>36</v>
       </c>
       <c r="T14" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="U14" s="2" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="V14" s="2" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="W14" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="X14" s="2" t="s">
-        <v>628</v>
+        <v>620</v>
       </c>
       <c r="Y14" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="Z14" s="1" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="AA14" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="AB14" s="1" t="s">
         <v>424</v>
       </c>
-      <c r="AB14" s="1" t="s">
-        <v>427</v>
-      </c>
       <c r="AC14" s="4" t="s">
-        <v>610</v>
+        <v>602</v>
       </c>
       <c r="AD14" s="4" t="s">
-        <v>611</v>
+        <v>603</v>
       </c>
     </row>
-    <row r="15" spans="1:30" ht="28.5">
+    <row r="15" spans="1:30" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A15" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>627</v>
+        <v>619</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>185</v>
@@ -7507,7 +7507,7 @@
         <v>23</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="H15" s="2" t="s">
         <v>77</v>
@@ -7525,7 +7525,7 @@
         <v>69</v>
       </c>
       <c r="M15" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="N15" s="2" t="s">
         <v>36</v>
@@ -7537,48 +7537,48 @@
         <v>36</v>
       </c>
       <c r="T15" s="2" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="U15" s="2" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="W15" s="2" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="X15" s="2" t="s">
+        <v>620</v>
+      </c>
+      <c r="Y15" s="1" t="s">
         <v>628</v>
-      </c>
-      <c r="Y15" s="1" t="s">
-        <v>187</v>
       </c>
       <c r="Z15" s="1" t="s">
         <v>186</v>
       </c>
       <c r="AA15" s="1" t="s">
-        <v>370</v>
+        <v>629</v>
       </c>
       <c r="AB15" s="1" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="AC15" s="5" t="s">
-        <v>609</v>
+        <v>630</v>
       </c>
       <c r="AD15" s="4" t="s">
-        <v>571</v>
+        <v>565</v>
       </c>
     </row>
-    <row r="16" spans="1:30">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A16" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>544</v>
+        <v>539</v>
       </c>
       <c r="J16" s="2" t="s">
         <v>42</v>
@@ -7590,7 +7590,7 @@
         <v>69</v>
       </c>
       <c r="M16" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="N16" s="2" t="s">
         <v>36</v>
@@ -7599,42 +7599,42 @@
         <v>36</v>
       </c>
       <c r="T16" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="U16" s="2" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="V16" s="2" t="s">
         <v>32</v>
       </c>
       <c r="W16" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="X16" s="2" t="s">
         <v>111</v>
       </c>
       <c r="Y16" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="AA16" s="1" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="AC16" s="4" t="s">
-        <v>612</v>
+        <v>604</v>
       </c>
     </row>
-    <row r="17" spans="1:30" ht="71.25">
+    <row r="17" spans="1:30" ht="71.25" x14ac:dyDescent="0.15">
       <c r="A17" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>626</v>
+        <v>618</v>
       </c>
       <c r="C17" s="2" t="s">
+        <v>535</v>
+      </c>
+      <c r="I17" s="2" t="s">
         <v>538</v>
-      </c>
-      <c r="I17" s="2" t="s">
-        <v>543</v>
       </c>
       <c r="J17" s="2" t="s">
         <v>42</v>
@@ -7646,7 +7646,7 @@
         <v>69</v>
       </c>
       <c r="M17" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="N17" s="2" t="s">
         <v>36</v>
@@ -7655,45 +7655,45 @@
         <v>36</v>
       </c>
       <c r="T17" s="2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="U17" s="2" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="V17" s="2" t="s">
         <v>32</v>
       </c>
       <c r="W17" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="Y17" s="1" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="Z17" s="1" t="s">
-        <v>542</v>
+        <v>632</v>
       </c>
       <c r="AA17" s="1" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="AB17" s="1" t="s">
-        <v>541</v>
+        <v>633</v>
       </c>
       <c r="AC17" s="1" t="s">
-        <v>623</v>
+        <v>615</v>
       </c>
       <c r="AD17" s="1" t="s">
-        <v>572</v>
+        <v>635</v>
       </c>
     </row>
-    <row r="18" spans="1:30" ht="28.5">
+    <row r="18" spans="1:30" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A18" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>22</v>
@@ -7714,7 +7714,7 @@
         <v>85</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="K18" s="2" t="s">
         <v>32</v>
@@ -7723,7 +7723,7 @@
         <v>69</v>
       </c>
       <c r="M18" s="2" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="N18" s="2" t="s">
         <v>36</v>
@@ -7741,39 +7741,39 @@
         <v>36</v>
       </c>
       <c r="T18" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="U18" s="2" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="V18" s="2" t="s">
         <v>32</v>
       </c>
       <c r="W18" s="2" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="X18" s="2" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="Y18" s="1" t="s">
-        <v>546</v>
+        <v>541</v>
       </c>
       <c r="AA18" s="1" t="s">
-        <v>548</v>
+        <v>543</v>
       </c>
       <c r="AC18" s="1" t="s">
-        <v>573</v>
+        <v>566</v>
       </c>
     </row>
-    <row r="19" spans="1:30" ht="42.75">
+    <row r="19" spans="1:30" ht="42.75" x14ac:dyDescent="0.15">
       <c r="A19" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>552</v>
+        <v>547</v>
       </c>
       <c r="I19" s="2" t="s">
         <v>85</v>
@@ -7788,7 +7788,7 @@
         <v>69</v>
       </c>
       <c r="M19" s="2" t="s">
-        <v>314</v>
+        <v>631</v>
       </c>
       <c r="N19" s="2" t="s">
         <v>36</v>
@@ -7797,39 +7797,39 @@
         <v>36</v>
       </c>
       <c r="T19" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="U19" s="2" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="V19" s="2" t="s">
         <v>32</v>
       </c>
       <c r="W19" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="X19" s="2" t="s">
         <v>111</v>
       </c>
       <c r="Y19" s="1" t="s">
-        <v>555</v>
+        <v>550</v>
       </c>
       <c r="AA19" s="1" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="AC19" s="6" t="s">
-        <v>574</v>
+        <v>567</v>
       </c>
     </row>
-    <row r="20" spans="1:30" ht="28.5">
+    <row r="20" spans="1:30" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A20" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>551</v>
+        <v>546</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>22</v>
@@ -7841,7 +7841,7 @@
         <v>23</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="H20" s="2" t="s">
         <v>172</v>
@@ -7850,7 +7850,7 @@
         <v>85</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>625</v>
+        <v>617</v>
       </c>
       <c r="K20" s="2" t="s">
         <v>32</v>
@@ -7859,54 +7859,54 @@
         <v>69</v>
       </c>
       <c r="M20" s="2" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="N20" s="2" t="s">
         <v>36</v>
       </c>
       <c r="O20" s="2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="P20" s="2" t="s">
         <v>36</v>
       </c>
       <c r="Q20" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="R20" s="2" t="s">
         <v>36</v>
       </c>
       <c r="T20" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="U20" s="2" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="V20" s="2" t="s">
         <v>32</v>
       </c>
       <c r="W20" s="2" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="X20" s="2" t="s">
-        <v>624</v>
+        <v>616</v>
       </c>
       <c r="Y20" s="1" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
       <c r="AA20" s="1" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
       <c r="AC20" s="1" t="s">
-        <v>562</v>
+        <v>557</v>
       </c>
     </row>
-    <row r="21" spans="1:30">
+    <row r="21" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A21" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>11</v>
@@ -7939,7 +7939,7 @@
         <v>69</v>
       </c>
       <c r="M21" s="2" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="N21" s="2" t="s">
         <v>36</v>
@@ -7957,16 +7957,16 @@
         <v>36</v>
       </c>
       <c r="T21" s="2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="U21" s="2" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="V21" s="2" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="W21" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="X21" s="2" t="s">
         <v>111</v>
@@ -7975,18 +7975,18 @@
         <v>133</v>
       </c>
       <c r="AA21" s="1" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="AC21" s="4" t="s">
-        <v>613</v>
+        <v>605</v>
       </c>
     </row>
-    <row r="22" spans="1:30" ht="42.75">
+    <row r="22" spans="1:30" ht="42.75" x14ac:dyDescent="0.15">
       <c r="A22" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>154</v>
@@ -8019,13 +8019,13 @@
         <v>117</v>
       </c>
       <c r="M22" s="2" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="N22" s="2" t="s">
         <v>36</v>
       </c>
       <c r="O22" s="2" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="P22" s="2" t="s">
         <v>36</v>
@@ -8037,39 +8037,39 @@
         <v>36</v>
       </c>
       <c r="T22" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="U22" s="2" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="V22" s="2" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="W22" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="X22" s="2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="Y22" s="1" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="AA22" s="1" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="AC22" s="4" t="s">
-        <v>575</v>
+        <v>568</v>
       </c>
     </row>
-    <row r="23" spans="1:30">
+    <row r="23" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A23" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>22</v>
@@ -8099,13 +8099,13 @@
         <v>117</v>
       </c>
       <c r="M23" s="2" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="N23" s="2" t="s">
         <v>36</v>
       </c>
       <c r="O23" s="2" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="P23" s="2" t="s">
         <v>36</v>
@@ -8117,16 +8117,16 @@
         <v>36</v>
       </c>
       <c r="T23" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="U23" s="2" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="V23" s="2" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="W23" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="X23" s="2" t="s">
         <v>111</v>
@@ -8135,18 +8135,18 @@
         <v>153</v>
       </c>
       <c r="AA23" s="1" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="AC23" s="4" t="s">
-        <v>576</v>
+        <v>569</v>
       </c>
     </row>
-    <row r="24" spans="1:30" ht="28.5">
+    <row r="24" spans="1:30" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A24" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>627</v>
+        <v>619</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>83</v>
@@ -8176,51 +8176,51 @@
         <v>32</v>
       </c>
       <c r="L24" s="2" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="M24" s="2" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="P24" s="2" t="s">
         <v>36</v>
       </c>
       <c r="T24" s="2" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="U24" s="2" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="W24" s="2" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="X24" s="2" t="s">
-        <v>628</v>
+        <v>620</v>
       </c>
       <c r="Y24" s="1" t="s">
         <v>134</v>
       </c>
       <c r="Z24" s="1" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="AA24" s="1" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="AB24" s="1" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="AC24" s="4" t="s">
-        <v>577</v>
+        <v>570</v>
       </c>
       <c r="AD24" s="4" t="s">
-        <v>578</v>
+        <v>571</v>
       </c>
     </row>
-    <row r="25" spans="1:30" ht="42.75">
+    <row r="25" spans="1:30" ht="42.75" x14ac:dyDescent="0.15">
       <c r="A25" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>64</v>
@@ -8232,7 +8232,7 @@
         <v>3</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="G25" s="2" t="s">
         <v>63</v>
@@ -8253,7 +8253,7 @@
         <v>120</v>
       </c>
       <c r="M25" s="2" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="N25" s="2" t="s">
         <v>163</v>
@@ -8262,45 +8262,45 @@
         <v>36</v>
       </c>
       <c r="P25" s="2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="Q25" s="2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="S25" s="2" t="s">
         <v>36</v>
       </c>
       <c r="T25" s="2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="U25" s="2" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="V25" s="2" t="s">
         <v>32</v>
       </c>
       <c r="W25" s="2" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="X25" s="2" t="s">
         <v>110</v>
       </c>
       <c r="Y25" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="AA25" s="1" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="AC25" s="4" t="s">
-        <v>557</v>
+        <v>552</v>
       </c>
     </row>
-    <row r="26" spans="1:30" ht="57">
+    <row r="26" spans="1:30" ht="57" x14ac:dyDescent="0.15">
       <c r="A26" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>627</v>
+        <v>619</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>6</v>
@@ -8333,7 +8333,7 @@
         <v>117</v>
       </c>
       <c r="M26" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="N26" s="2" t="s">
         <v>36</v>
@@ -8348,45 +8348,45 @@
         <v>163</v>
       </c>
       <c r="T26" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="U26" s="2" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="V26" s="2" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="W26" s="2" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="X26" s="2" t="s">
-        <v>634</v>
+        <v>626</v>
       </c>
       <c r="Y26" s="1" t="s">
         <v>135</v>
       </c>
       <c r="Z26" s="1" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="AA26" s="1" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="AB26" s="1" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="AC26" s="4" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="AD26" s="4" t="s">
-        <v>579</v>
+        <v>572</v>
       </c>
     </row>
-    <row r="27" spans="1:30" ht="28.5">
+    <row r="27" spans="1:30" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A27" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>103</v>
@@ -8416,48 +8416,48 @@
         <v>33</v>
       </c>
       <c r="L27" s="2" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="M27" s="2" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="N27" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="P27" s="2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="Q27" s="2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="T27" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="U27" s="2" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="V27" s="2" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="W27" s="2" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="Y27" s="1" t="s">
         <v>136</v>
       </c>
       <c r="AA27" s="1" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="AC27" s="4" t="s">
-        <v>580</v>
+        <v>573</v>
       </c>
     </row>
-    <row r="28" spans="1:30" ht="42.75">
+    <row r="28" spans="1:30" ht="42.75" x14ac:dyDescent="0.15">
       <c r="A28" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>627</v>
+        <v>619</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>5</v>
@@ -8490,7 +8490,7 @@
         <v>182</v>
       </c>
       <c r="M28" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="N28" s="2" t="s">
         <v>36</v>
@@ -8505,48 +8505,48 @@
         <v>163</v>
       </c>
       <c r="T28" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="U28" s="2" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="V28" s="2" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="W28" s="2" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="X28" s="2" t="s">
-        <v>628</v>
+        <v>620</v>
       </c>
       <c r="Y28" s="1" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="Z28" s="1" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="AA28" s="1" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="AB28" s="1" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="AC28" s="4" t="s">
-        <v>581</v>
+        <v>574</v>
       </c>
       <c r="AD28" s="4" t="s">
-        <v>582</v>
+        <v>575</v>
       </c>
     </row>
-    <row r="29" spans="1:30" ht="57">
+    <row r="29" spans="1:30" ht="57" x14ac:dyDescent="0.15">
       <c r="A29" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>627</v>
+        <v>619</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>22</v>
@@ -8558,7 +8558,7 @@
         <v>24</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="H29" s="2" t="s">
         <v>77</v>
@@ -8576,60 +8576,60 @@
         <v>117</v>
       </c>
       <c r="M29" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="N29" s="2" t="s">
         <v>36</v>
       </c>
       <c r="O29" s="2" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="P29" s="2" t="s">
         <v>36</v>
       </c>
       <c r="T29" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="U29" s="2" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="V29" s="2" t="s">
         <v>32</v>
       </c>
       <c r="W29" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="X29" s="2" t="s">
-        <v>631</v>
+        <v>623</v>
       </c>
       <c r="Y29" s="1" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="Z29" s="1" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="AA29" s="1" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="AB29" s="1" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="AC29" s="4" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="AD29" s="4" t="s">
-        <v>583</v>
+        <v>576</v>
       </c>
     </row>
-    <row r="30" spans="1:30">
+    <row r="30" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A30" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B30" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="C30" s="2" t="s">
         <v>354</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>356</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>22</v>
@@ -8641,10 +8641,10 @@
         <v>24</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="I30" s="2" t="s">
         <v>85</v>
@@ -8659,42 +8659,42 @@
         <v>117</v>
       </c>
       <c r="M30" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="O30" s="2" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="T30" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="U30" s="2" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="V30" s="2" t="s">
         <v>32</v>
       </c>
       <c r="W30" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="Y30" s="1" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="AA30" s="1" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="AC30" s="4" t="s">
-        <v>558</v>
+        <v>553</v>
       </c>
     </row>
-    <row r="31" spans="1:30" ht="28.5">
+    <row r="31" spans="1:30" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A31" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>22</v>
@@ -8724,51 +8724,51 @@
         <v>120</v>
       </c>
       <c r="M31" s="2" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="O31" s="2" t="s">
         <v>36</v>
       </c>
       <c r="P31" s="2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="S31" s="2" t="s">
         <v>36</v>
       </c>
       <c r="T31" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="U31" s="2" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="V31" s="2" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="W31" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="X31" s="2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="Y31" s="1" t="s">
         <v>141</v>
       </c>
       <c r="AA31" s="1" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="AC31" s="4" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
     </row>
-    <row r="32" spans="1:30" ht="28.5">
+    <row r="32" spans="1:30" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A32" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>22</v>
@@ -8798,13 +8798,13 @@
         <v>120</v>
       </c>
       <c r="M32" s="2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="O32" s="2" t="s">
         <v>36</v>
       </c>
       <c r="P32" s="2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="Q32" s="2" t="s">
         <v>36</v>
@@ -8813,39 +8813,39 @@
         <v>36</v>
       </c>
       <c r="T32" s="2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="U32" s="2" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="V32" s="2" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="W32" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="X32" s="2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="Y32" s="1" t="s">
         <v>142</v>
       </c>
       <c r="AA32" s="1" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="AC32" s="4" t="s">
-        <v>584</v>
+        <v>577</v>
       </c>
     </row>
-    <row r="33" spans="1:30" ht="28.5">
+    <row r="33" spans="1:30" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A33" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>22</v>
@@ -8875,51 +8875,51 @@
         <v>120</v>
       </c>
       <c r="M33" s="2" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="O33" s="2" t="s">
         <v>36</v>
       </c>
       <c r="P33" s="2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="S33" s="2" t="s">
         <v>36</v>
       </c>
       <c r="T33" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="U33" s="2" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="V33" s="2" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="W33" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="X33" s="2" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="Y33" s="1" t="s">
         <v>137</v>
       </c>
       <c r="AA33" s="1" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="AC33" s="4" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
     </row>
-    <row r="34" spans="1:30" ht="28.5">
+    <row r="34" spans="1:30" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A34" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>22</v>
@@ -8949,28 +8949,28 @@
         <v>42</v>
       </c>
       <c r="M34" s="2" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="O34" s="2" t="s">
         <v>36</v>
       </c>
       <c r="P34" s="2" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="S34" s="2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="T34" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="U34" s="2" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="V34" s="2" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="W34" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="X34" s="2" t="s">
         <v>112</v>
@@ -8979,21 +8979,21 @@
         <v>143</v>
       </c>
       <c r="AA34" s="1" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="AC34" s="4" t="s">
-        <v>585</v>
+        <v>578</v>
       </c>
     </row>
-    <row r="35" spans="1:30" ht="42.75">
+    <row r="35" spans="1:30" ht="42.75" x14ac:dyDescent="0.15">
       <c r="A35" s="2" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D35" s="2" t="s">
         <v>22</v>
@@ -9005,31 +9005,31 @@
         <v>30</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="H35" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="I35" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="I35" s="2" t="s">
-        <v>209</v>
-      </c>
       <c r="J35" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="K35" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="L35" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="M35" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="N35" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="K35" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="L35" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="M35" s="2" t="s">
-        <v>303</v>
-      </c>
-      <c r="N35" s="2" t="s">
-        <v>196</v>
-      </c>
       <c r="O35" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="P35" s="2" t="s">
         <v>162</v>
@@ -9038,48 +9038,48 @@
         <v>162</v>
       </c>
       <c r="T35" s="2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="U35" s="2" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="V35" s="2" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="W35" s="2" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="X35" s="2" t="s">
-        <v>635</v>
+        <v>627</v>
       </c>
       <c r="Y35" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="Z35" s="1" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="AA35" s="1" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="AB35" s="1" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="AC35" s="4" t="s">
-        <v>586</v>
+        <v>579</v>
       </c>
       <c r="AD35" s="4" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
     </row>
-    <row r="36" spans="1:30" ht="28.5">
+    <row r="36" spans="1:30" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A36" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>550</v>
+        <v>545</v>
       </c>
       <c r="D36" s="2" t="s">
         <v>22</v>
@@ -9109,10 +9109,10 @@
         <v>170</v>
       </c>
       <c r="M36" s="2" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="N36" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="O36" s="2" t="s">
         <v>36</v>
@@ -9127,33 +9127,33 @@
         <v>36</v>
       </c>
       <c r="T36" s="2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="U36" s="2" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="V36" s="2" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="W36" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="Y36" s="1" t="s">
-        <v>549</v>
+        <v>544</v>
       </c>
       <c r="AA36" s="1" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="AC36" s="4" t="s">
-        <v>587</v>
+        <v>580</v>
       </c>
     </row>
-    <row r="37" spans="1:30" ht="28.5">
+    <row r="37" spans="1:30" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A37" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>175</v>
@@ -9186,7 +9186,7 @@
         <v>117</v>
       </c>
       <c r="M37" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="N37" s="2" t="s">
         <v>36</v>
@@ -9201,16 +9201,16 @@
         <v>163</v>
       </c>
       <c r="T37" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="U37" s="2" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="V37" s="2" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="W37" s="2" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="X37" s="2" t="s">
         <v>173</v>
@@ -9219,21 +9219,21 @@
         <v>176</v>
       </c>
       <c r="AA37" s="1" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="AC37" s="4" t="s">
-        <v>588</v>
+        <v>581</v>
       </c>
     </row>
-    <row r="38" spans="1:30" ht="28.5">
+    <row r="38" spans="1:30" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A38" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="D38" s="2" t="s">
         <v>22</v>
@@ -9257,34 +9257,34 @@
         <v>68</v>
       </c>
       <c r="K38" s="2" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="L38" s="2" t="s">
         <v>117</v>
       </c>
       <c r="M38" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="N38" s="2" t="s">
         <v>163</v>
       </c>
       <c r="O38" s="2" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="P38" s="2" t="s">
         <v>36</v>
       </c>
       <c r="T38" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="U38" s="2" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="V38" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="W38" s="2" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="X38" s="2" t="s">
         <v>113</v>
@@ -9293,18 +9293,18 @@
         <v>138</v>
       </c>
       <c r="AA38" s="1" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="AC38" s="4" t="s">
-        <v>589</v>
+        <v>582</v>
       </c>
     </row>
-    <row r="39" spans="1:30" ht="28.5">
+    <row r="39" spans="1:30" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A39" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>12</v>
@@ -9337,48 +9337,48 @@
         <v>117</v>
       </c>
       <c r="M39" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="N39" s="2" t="s">
         <v>163</v>
       </c>
       <c r="O39" s="2" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="P39" s="2" t="s">
         <v>36</v>
       </c>
       <c r="T39" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="U39" s="2" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="V39" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="W39" s="2" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="X39" s="2" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="Y39" s="1" t="s">
         <v>139</v>
       </c>
       <c r="AA39" s="1" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="AC39" s="4" t="s">
-        <v>590</v>
+        <v>583</v>
       </c>
     </row>
-    <row r="40" spans="1:30" ht="57">
+    <row r="40" spans="1:30" ht="57" x14ac:dyDescent="0.15">
       <c r="A40" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>13</v>
@@ -9411,45 +9411,45 @@
         <v>117</v>
       </c>
       <c r="M40" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="P40" s="2" t="s">
         <v>36</v>
       </c>
       <c r="T40" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="U40" s="2" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="V40" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="W40" s="2" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="X40" s="2" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="Y40" s="1" t="s">
         <v>140</v>
       </c>
       <c r="AA40" s="1" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="AC40" s="4" t="s">
-        <v>591</v>
+        <v>584</v>
       </c>
     </row>
-    <row r="41" spans="1:30" ht="114">
+    <row r="41" spans="1:30" ht="114" x14ac:dyDescent="0.15">
       <c r="A41" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>627</v>
+        <v>619</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>629</v>
+        <v>621</v>
       </c>
       <c r="D41" s="2" t="s">
         <v>22</v>
@@ -9479,7 +9479,7 @@
         <v>181</v>
       </c>
       <c r="M41" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="N41" s="2" t="s">
         <v>162</v>
@@ -9494,45 +9494,45 @@
         <v>163</v>
       </c>
       <c r="T41" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="U41" s="2" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="V41" s="2" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="W41" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="X41" s="2" t="s">
-        <v>632</v>
+        <v>624</v>
       </c>
       <c r="Y41" s="1" t="s">
         <v>183</v>
       </c>
       <c r="Z41" s="1" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="AA41" s="1" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="AB41" s="1" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="AC41" s="4" t="s">
-        <v>592</v>
+        <v>585</v>
       </c>
       <c r="AD41" s="4" t="s">
-        <v>614</v>
+        <v>606</v>
       </c>
     </row>
-    <row r="42" spans="1:30" ht="28.5">
+    <row r="42" spans="1:30" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A42" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>14</v>
@@ -9565,10 +9565,10 @@
         <v>117</v>
       </c>
       <c r="M42" s="2" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="O42" s="2" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="P42" s="2" t="s">
         <v>36</v>
@@ -9577,36 +9577,36 @@
         <v>163</v>
       </c>
       <c r="T42" s="2" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="U42" s="2" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="V42" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="W42" s="2" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="X42" s="2" t="s">
-        <v>633</v>
+        <v>625</v>
       </c>
       <c r="Y42" s="1" t="s">
         <v>144</v>
       </c>
       <c r="AA42" s="1" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="AC42" s="4" t="s">
-        <v>593</v>
+        <v>586</v>
       </c>
     </row>
-    <row r="43" spans="1:30" ht="28.5">
+    <row r="43" spans="1:30" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A43" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>15</v>
@@ -9639,10 +9639,10 @@
         <v>117</v>
       </c>
       <c r="M43" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="O43" s="2" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="P43" s="2" t="s">
         <v>36</v>
@@ -9651,36 +9651,36 @@
         <v>163</v>
       </c>
       <c r="T43" s="2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="U43" s="2" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="V43" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="W43" s="2" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="X43" s="2" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="Y43" s="1" t="s">
         <v>145</v>
       </c>
       <c r="AA43" s="1" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="AC43" s="4" t="s">
-        <v>594</v>
+        <v>587</v>
       </c>
     </row>
-    <row r="44" spans="1:30" ht="42.75">
+    <row r="44" spans="1:30" ht="42.75" x14ac:dyDescent="0.15">
       <c r="A44" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>16</v>
@@ -9713,10 +9713,10 @@
         <v>117</v>
       </c>
       <c r="M44" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="O44" s="2" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="P44" s="2" t="s">
         <v>36</v>
@@ -9725,36 +9725,36 @@
         <v>163</v>
       </c>
       <c r="T44" s="2" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="U44" s="2" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="V44" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="W44" s="2" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="X44" s="2" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="Y44" s="1" t="s">
         <v>146</v>
       </c>
       <c r="AA44" s="1" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="AC44" s="4" t="s">
-        <v>595</v>
+        <v>588</v>
       </c>
     </row>
-    <row r="45" spans="1:30" ht="28.5">
+    <row r="45" spans="1:30" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A45" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>17</v>
@@ -9787,10 +9787,10 @@
         <v>117</v>
       </c>
       <c r="M45" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="O45" s="2" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="P45" s="2" t="s">
         <v>36</v>
@@ -9799,36 +9799,36 @@
         <v>163</v>
       </c>
       <c r="T45" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="U45" s="2" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="V45" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="W45" s="2" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="X45" s="2" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="Y45" s="1" t="s">
         <v>147</v>
       </c>
       <c r="AA45" s="1" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="AC45" s="4" t="s">
-        <v>615</v>
+        <v>607</v>
       </c>
     </row>
-    <row r="46" spans="1:30" ht="42.75">
+    <row r="46" spans="1:30" ht="42.75" x14ac:dyDescent="0.15">
       <c r="A46" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>18</v>
@@ -9861,10 +9861,10 @@
         <v>117</v>
       </c>
       <c r="M46" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="O46" s="2" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="P46" s="2" t="s">
         <v>36</v>
@@ -9873,39 +9873,39 @@
         <v>163</v>
       </c>
       <c r="T46" s="2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="U46" s="2" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="V46" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="W46" s="2" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="X46" s="2" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="Y46" s="1" t="s">
         <v>148</v>
       </c>
       <c r="AA46" s="1" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="AC46" s="4" t="s">
-        <v>616</v>
+        <v>608</v>
       </c>
     </row>
-    <row r="47" spans="1:30" ht="28.5">
+    <row r="47" spans="1:30" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A47" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="D47" s="2" t="s">
         <v>22</v>
@@ -9923,7 +9923,7 @@
         <v>72</v>
       </c>
       <c r="I47" s="2" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="J47" s="2" t="s">
         <v>68</v>
@@ -9935,42 +9935,42 @@
         <v>117</v>
       </c>
       <c r="M47" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="P47" s="2" t="s">
         <v>36</v>
       </c>
       <c r="T47" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="U47" s="2" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="V47" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="W47" s="2" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="Y47" s="1" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="AA47" s="1" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="AC47" s="4" t="s">
-        <v>596</v>
+        <v>589</v>
       </c>
     </row>
-    <row r="48" spans="1:30" ht="28.5">
+    <row r="48" spans="1:30" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A48" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="D48" s="2" t="s">
         <v>22</v>
@@ -9979,7 +9979,7 @@
         <v>3</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="G48" s="2" t="s">
         <v>39</v>
@@ -10000,45 +10000,45 @@
         <v>69</v>
       </c>
       <c r="M48" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="P48" s="2" t="s">
         <v>36</v>
       </c>
       <c r="T48" s="2" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="U48" s="2" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="V48" s="2" t="s">
         <v>32</v>
       </c>
       <c r="W48" s="2" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="X48" s="2" t="s">
         <v>113</v>
       </c>
       <c r="Y48" s="1" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="AA48" s="1" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="AC48" s="4" t="s">
-        <v>617</v>
+        <v>609</v>
       </c>
     </row>
-    <row r="49" spans="1:30" ht="28.5">
+    <row r="49" spans="1:30" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A49" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="D49" s="2" t="s">
         <v>22</v>
@@ -10047,7 +10047,7 @@
         <v>3</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="G49" s="2" t="s">
         <v>24</v>
@@ -10068,45 +10068,45 @@
         <v>69</v>
       </c>
       <c r="M49" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="P49" s="2" t="s">
         <v>36</v>
       </c>
       <c r="T49" s="2" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="U49" s="2" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="V49" s="2" t="s">
         <v>32</v>
       </c>
       <c r="W49" s="2" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="X49" s="2" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="Y49" s="1" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="AA49" s="1" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="AC49" s="4" t="s">
-        <v>597</v>
+        <v>590</v>
       </c>
     </row>
-    <row r="50" spans="1:30" ht="28.5">
+    <row r="50" spans="1:30" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A50" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="D50" s="2" t="s">
         <v>22</v>
@@ -10115,7 +10115,7 @@
         <v>3</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="G50" s="2" t="s">
         <v>30</v>
@@ -10136,45 +10136,45 @@
         <v>69</v>
       </c>
       <c r="M50" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="P50" s="2" t="s">
         <v>36</v>
       </c>
       <c r="T50" s="2" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="U50" s="2" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="V50" s="2" t="s">
         <v>32</v>
       </c>
       <c r="W50" s="2" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="X50" s="2" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="Y50" s="1" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="AA50" s="1" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="AC50" s="4" t="s">
-        <v>598</v>
+        <v>591</v>
       </c>
     </row>
-    <row r="51" spans="1:30" ht="28.5">
+    <row r="51" spans="1:30" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A51" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="D51" s="2" t="s">
         <v>22</v>
@@ -10204,13 +10204,13 @@
         <v>117</v>
       </c>
       <c r="M51" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="N51" s="2" t="s">
         <v>163</v>
       </c>
       <c r="O51" s="2" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="P51" s="2" t="s">
         <v>36</v>
@@ -10219,16 +10219,16 @@
         <v>163</v>
       </c>
       <c r="T51" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="U51" s="2" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="V51" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="W51" s="2" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="X51" s="2" t="s">
         <v>113</v>
@@ -10237,18 +10237,18 @@
         <v>149</v>
       </c>
       <c r="AA51" s="1" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="AC51" s="4" t="s">
-        <v>559</v>
+        <v>554</v>
       </c>
     </row>
-    <row r="52" spans="1:30" ht="28.5">
+    <row r="52" spans="1:30" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A52" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>19</v>
@@ -10281,13 +10281,13 @@
         <v>117</v>
       </c>
       <c r="M52" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="N52" s="2" t="s">
         <v>163</v>
       </c>
       <c r="O52" s="2" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="P52" s="2" t="s">
         <v>36</v>
@@ -10296,36 +10296,36 @@
         <v>163</v>
       </c>
       <c r="T52" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="U52" s="2" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="V52" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="W52" s="2" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="X52" s="2" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="Y52" s="1" t="s">
         <v>150</v>
       </c>
       <c r="AA52" s="1" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="AC52" s="4" t="s">
-        <v>618</v>
+        <v>610</v>
       </c>
     </row>
-    <row r="53" spans="1:30" ht="28.5">
+    <row r="53" spans="1:30" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A53" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>20</v>
@@ -10358,13 +10358,13 @@
         <v>117</v>
       </c>
       <c r="M53" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="N53" s="2" t="s">
         <v>163</v>
       </c>
       <c r="O53" s="2" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="P53" s="2" t="s">
         <v>36</v>
@@ -10373,36 +10373,36 @@
         <v>163</v>
       </c>
       <c r="T53" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="U53" s="2" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="V53" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="W53" s="2" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="X53" s="2" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="Y53" s="1" t="s">
         <v>151</v>
       </c>
       <c r="AA53" s="1" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="AC53" s="4" t="s">
-        <v>599</v>
+        <v>592</v>
       </c>
     </row>
-    <row r="54" spans="1:30" ht="171">
+    <row r="54" spans="1:30" ht="171" x14ac:dyDescent="0.15">
       <c r="A54" s="2" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>627</v>
+        <v>619</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>121</v>
@@ -10435,7 +10435,7 @@
         <v>117</v>
       </c>
       <c r="M54" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="N54" s="2" t="s">
         <v>36</v>
@@ -10450,48 +10450,48 @@
         <v>162</v>
       </c>
       <c r="T54" s="2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="U54" s="2" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="V54" s="2" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="W54" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="X54" s="2" t="s">
-        <v>628</v>
+        <v>620</v>
       </c>
       <c r="Y54" s="1" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="Z54" s="1" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="AA54" s="1" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="AB54" s="1" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="AC54" s="4" t="s">
-        <v>600</v>
+        <v>593</v>
       </c>
       <c r="AD54" s="5" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="55" spans="1:30" ht="28.5" x14ac:dyDescent="0.15">
+      <c r="A55" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="B55" s="2" t="s">
         <v>619</v>
       </c>
-    </row>
-    <row r="55" spans="1:30" ht="28.5">
-      <c r="A55" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="B55" s="2" t="s">
-        <v>627</v>
-      </c>
       <c r="C55" s="2" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="D55" s="2" t="s">
         <v>22</v>
@@ -10506,7 +10506,7 @@
         <v>45</v>
       </c>
       <c r="H55" s="2" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="I55" s="2" t="s">
         <v>85</v>
@@ -10521,13 +10521,13 @@
         <v>117</v>
       </c>
       <c r="M55" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="N55" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="O55" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="P55" s="2" t="s">
         <v>36</v>
@@ -10536,48 +10536,48 @@
         <v>162</v>
       </c>
       <c r="T55" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="U55" s="2" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="V55" s="2" t="s">
         <v>32</v>
       </c>
       <c r="W55" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="X55" s="2" t="s">
-        <v>631</v>
+        <v>623</v>
       </c>
       <c r="Y55" s="1" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="Z55" s="1" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="AA55" s="1" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="AB55" s="1" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="AC55" s="4" t="s">
-        <v>620</v>
+        <v>612</v>
       </c>
       <c r="AD55" s="4" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
     </row>
-    <row r="56" spans="1:30">
+    <row r="56" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A56" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D56" s="2" t="s">
         <v>22</v>
@@ -10586,16 +10586,16 @@
         <v>3</v>
       </c>
       <c r="F56" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="G56" s="2" t="s">
         <v>285</v>
-      </c>
-      <c r="G56" s="2" t="s">
-        <v>286</v>
       </c>
       <c r="H56" s="2" t="s">
         <v>73</v>
       </c>
       <c r="I56" s="2" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="J56" s="2" t="s">
         <v>42</v>
@@ -10604,54 +10604,54 @@
         <v>32</v>
       </c>
       <c r="L56" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="M56" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="N56" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="O56" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="P56" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q56" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="R56" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="T56" s="2" t="s">
         <v>292</v>
       </c>
-      <c r="M56" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="N56" s="2" t="s">
-        <v>301</v>
-      </c>
-      <c r="O56" s="2" t="s">
-        <v>300</v>
-      </c>
-      <c r="P56" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q56" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="R56" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="T56" s="2" t="s">
-        <v>293</v>
-      </c>
       <c r="U56" s="2" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="W56" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="Y56" s="1" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="AA56" s="1" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="AC56" s="4" t="s">
-        <v>601</v>
+        <v>594</v>
       </c>
     </row>
-    <row r="57" spans="1:30">
+    <row r="57" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A57" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D57" s="2" t="s">
         <v>22</v>
@@ -10660,16 +10660,16 @@
         <v>3</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="H57" s="2" t="s">
         <v>73</v>
       </c>
       <c r="I57" s="2" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="J57" s="2" t="s">
         <v>42</v>
@@ -10678,54 +10678,54 @@
         <v>32</v>
       </c>
       <c r="L57" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="M57" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="N57" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="O57" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="P57" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q57" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="R57" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="T57" s="2" t="s">
         <v>292</v>
       </c>
-      <c r="M57" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="N57" s="2" t="s">
-        <v>301</v>
-      </c>
-      <c r="O57" s="2" t="s">
-        <v>300</v>
-      </c>
-      <c r="P57" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q57" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="R57" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="T57" s="2" t="s">
-        <v>293</v>
-      </c>
       <c r="U57" s="2" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="W57" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="Y57" s="1" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="AA57" s="1" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="AC57" s="4" t="s">
-        <v>602</v>
+        <v>595</v>
       </c>
     </row>
-    <row r="58" spans="1:30">
+    <row r="58" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A58" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D58" s="2" t="s">
         <v>22</v>
@@ -10734,7 +10734,7 @@
         <v>3</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="G58" s="2" t="s">
         <v>171</v>
@@ -10743,7 +10743,7 @@
         <v>73</v>
       </c>
       <c r="I58" s="2" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="J58" s="2" t="s">
         <v>42</v>
@@ -10752,54 +10752,54 @@
         <v>32</v>
       </c>
       <c r="L58" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="M58" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="N58" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="O58" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="P58" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q58" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="R58" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="T58" s="2" t="s">
         <v>292</v>
       </c>
-      <c r="M58" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="N58" s="2" t="s">
-        <v>301</v>
-      </c>
-      <c r="O58" s="2" t="s">
-        <v>300</v>
-      </c>
-      <c r="P58" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q58" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="R58" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="T58" s="2" t="s">
-        <v>293</v>
-      </c>
       <c r="U58" s="2" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="W58" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="Y58" s="1" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="AA58" s="1" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="AC58" s="4" t="s">
-        <v>560</v>
+        <v>555</v>
       </c>
     </row>
-    <row r="59" spans="1:30">
+    <row r="59" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A59" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D59" s="2" t="s">
         <v>22</v>
@@ -10808,16 +10808,16 @@
         <v>3</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="H59" s="2" t="s">
         <v>73</v>
       </c>
       <c r="I59" s="2" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="J59" s="2" t="s">
         <v>42</v>
@@ -10826,54 +10826,54 @@
         <v>32</v>
       </c>
       <c r="L59" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="M59" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="N59" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="O59" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="P59" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q59" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="R59" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="T59" s="2" t="s">
         <v>292</v>
       </c>
-      <c r="M59" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="N59" s="2" t="s">
-        <v>301</v>
-      </c>
-      <c r="O59" s="2" t="s">
-        <v>300</v>
-      </c>
-      <c r="P59" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q59" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="R59" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="T59" s="2" t="s">
-        <v>293</v>
-      </c>
       <c r="U59" s="2" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="W59" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="Y59" s="1" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="AA59" s="1" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="AC59" s="4" t="s">
-        <v>603</v>
+        <v>596</v>
       </c>
     </row>
-    <row r="60" spans="1:30">
+    <row r="60" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A60" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D60" s="2" t="s">
         <v>22</v>
@@ -10882,16 +10882,16 @@
         <v>3</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="H60" s="2" t="s">
         <v>73</v>
       </c>
       <c r="I60" s="2" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="J60" s="2" t="s">
         <v>42</v>
@@ -10900,54 +10900,54 @@
         <v>32</v>
       </c>
       <c r="L60" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="M60" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="N60" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="O60" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="P60" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q60" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="R60" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="T60" s="2" t="s">
         <v>292</v>
       </c>
-      <c r="M60" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="N60" s="2" t="s">
-        <v>301</v>
-      </c>
-      <c r="O60" s="2" t="s">
-        <v>300</v>
-      </c>
-      <c r="P60" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q60" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="R60" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="T60" s="2" t="s">
-        <v>293</v>
-      </c>
       <c r="U60" s="2" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="W60" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="Y60" s="1" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="AA60" s="1" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="AC60" s="4" t="s">
-        <v>604</v>
+        <v>597</v>
       </c>
     </row>
-    <row r="61" spans="1:30">
+    <row r="61" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A61" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D61" s="2" t="s">
         <v>22</v>
@@ -10956,16 +10956,16 @@
         <v>3</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="H61" s="2" t="s">
         <v>73</v>
       </c>
       <c r="I61" s="2" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="J61" s="2" t="s">
         <v>42</v>
@@ -10974,54 +10974,54 @@
         <v>32</v>
       </c>
       <c r="L61" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="M61" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="N61" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="O61" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="P61" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q61" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="R61" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="T61" s="2" t="s">
         <v>292</v>
       </c>
-      <c r="M61" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="N61" s="2" t="s">
-        <v>301</v>
-      </c>
-      <c r="O61" s="2" t="s">
-        <v>300</v>
-      </c>
-      <c r="P61" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q61" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="R61" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="T61" s="2" t="s">
-        <v>293</v>
-      </c>
       <c r="U61" s="2" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="W61" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="Y61" s="1" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="AA61" s="1" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="AC61" s="4" t="s">
-        <v>561</v>
+        <v>556</v>
       </c>
     </row>
-    <row r="62" spans="1:30" ht="28.5">
+    <row r="62" spans="1:30" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A62" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="D62" s="2" t="s">
         <v>22</v>
@@ -11054,7 +11054,7 @@
         <v>37</v>
       </c>
       <c r="P62" s="2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="Q62" s="2" t="s">
         <v>36</v>
@@ -11063,16 +11063,16 @@
         <v>36</v>
       </c>
       <c r="T62" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="U62" s="2" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="V62" s="2" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="W62" s="2" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="X62" s="2" t="s">
         <v>167</v>
@@ -11081,18 +11081,18 @@
         <v>152</v>
       </c>
       <c r="AA62" s="1" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="AC62" s="4" t="s">
-        <v>605</v>
+        <v>598</v>
       </c>
     </row>
-    <row r="63" spans="1:30" ht="28.5">
+    <row r="63" spans="1:30" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A63" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>105</v>
@@ -11140,36 +11140,36 @@
         <v>36</v>
       </c>
       <c r="T63" s="2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="U63" s="2" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="V63" s="2" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="W63" s="2" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="Y63" s="1" t="s">
         <v>130</v>
       </c>
       <c r="AA63" s="1" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="AC63" s="4" t="s">
-        <v>606</v>
+        <v>599</v>
       </c>
     </row>
-    <row r="64" spans="1:30">
+    <row r="64" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A64" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="D64" s="2" t="s">
         <v>22</v>
@@ -11178,10 +11178,10 @@
         <v>3</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="H64" s="2" t="s">
         <v>77</v>
@@ -11199,7 +11199,7 @@
         <v>69</v>
       </c>
       <c r="M64" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="N64" s="2" t="s">
         <v>36</v>
@@ -11214,28 +11214,28 @@
         <v>162</v>
       </c>
       <c r="T64" s="2" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="U64" s="2" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="V64" s="2" t="s">
         <v>32</v>
       </c>
       <c r="W64" s="2" t="s">
+        <v>449</v>
+      </c>
+      <c r="X64" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="Y64" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="AA64" s="1" t="s">
         <v>452</v>
       </c>
-      <c r="X64" s="2" t="s">
-        <v>453</v>
-      </c>
-      <c r="Y64" s="1" t="s">
-        <v>456</v>
-      </c>
-      <c r="AA64" s="1" t="s">
-        <v>455</v>
-      </c>
       <c r="AC64" s="4" t="s">
-        <v>607</v>
+        <v>600</v>
       </c>
     </row>
   </sheetData>

--- a/Documents/UsbProtocol_EgsDeviceSettingsHidReport_HostAppSettings_PropertyList.xlsx
+++ b/Documents/UsbProtocol_EgsDeviceSettingsHidReport_HostAppSettings_PropertyList.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1582" uniqueCount="636">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1583" uniqueCount="638">
   <si>
     <t>MessageId</t>
   </si>
@@ -750,11 +750,6 @@
     <phoneticPr fontId="18"/>
   </si>
   <si>
-    <t>0:Gesture Camera
-1:Web Camera</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
     <t>Basic</t>
     <phoneticPr fontId="18"/>
   </si>
@@ -1936,11 +1931,6 @@
   </si>
   <si>
     <t>固件版本</t>
-  </si>
-  <si>
-    <t>0:ジェスチャーカメラ
-1:ウェブカメラ</t>
-    <phoneticPr fontId="18"/>
   </si>
   <si>
     <t>0:MultiTouch
@@ -3011,79 +3001,6 @@
   </si>
   <si>
     <r>
-      <t>0:手</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-      </rPr>
-      <t>势摄</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="メイリオ"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>像</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">头
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="メイリオ"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>1:网</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-      </rPr>
-      <t>络摄</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="メイリオ"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>像</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-      </rPr>
-      <t>头</t>
-    </r>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <r>
       <t>由</t>
     </r>
     <r>
@@ -5195,20 +5112,6 @@
     <phoneticPr fontId="18"/>
   </si>
   <si>
-    <r>
-      <t>用途</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-      </rPr>
-      <t>选项</t>
-    </r>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
     <t>ZkooTutorial changes the value.  Developer can change it, too.</t>
     <phoneticPr fontId="18"/>
   </si>
@@ -5327,6 +5230,153 @@
       </rPr>
       <t>解决方案</t>
     </r>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>0:Remote Touch
+2:Motion Control
+1:Web Camera</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>0:リモートタッチ
+2:モーションコントロール
+1:ウェブカメラ</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <r>
+      <t>模式</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="FangSong"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>选择</t>
+    </r>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <r>
+      <t>0:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+      </rPr>
+      <t>远</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>程触控</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>2:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+      </rPr>
+      <t>动</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>作控制</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>1:网</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+      </rPr>
+      <t>络摄</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>像</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+      </rPr>
+      <t>头</t>
+    </r>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>1.1.9000</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>public</t>
     <phoneticPr fontId="18"/>
   </si>
 </sst>
@@ -6329,10 +6379,10 @@
   <dimension ref="A1:AD64"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="X16" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="M10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AD29" sqref="AD29"/>
+      <selection pane="bottomRight" activeCell="O15" sqref="O15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -6366,7 +6416,7 @@
   <sheetData>
     <row r="1" spans="1:30" ht="57" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>75</v>
@@ -6396,16 +6446,16 @@
         <v>34</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="L1" s="2" t="s">
         <v>116</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="O1" s="2" t="s">
         <v>67</v>
@@ -6423,45 +6473,45 @@
         <v>161</v>
       </c>
       <c r="T1" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="U1" s="2" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="V1" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="W1" s="2" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="X1" s="2" t="s">
         <v>166</v>
       </c>
       <c r="Y1" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="Z1" s="1" t="s">
         <v>358</v>
       </c>
-      <c r="Z1" s="1" t="s">
-        <v>359</v>
-      </c>
       <c r="AA1" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="AB1" s="1" t="s">
         <v>400</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AC1" s="4" t="s">
+        <v>425</v>
+      </c>
+      <c r="AD1" s="4" t="s">
         <v>401</v>
-      </c>
-      <c r="AC1" s="4" t="s">
-        <v>427</v>
-      </c>
-      <c r="AD1" s="4" t="s">
-        <v>402</v>
       </c>
     </row>
     <row r="2" spans="1:30" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>124</v>
@@ -6494,7 +6544,7 @@
         <v>125</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="N2" s="2" t="s">
         <v>36</v>
@@ -6509,16 +6559,16 @@
         <v>163</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="V2" s="2" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="W2" s="2" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="X2" s="2" t="s">
         <v>126</v>
@@ -6527,33 +6577,33 @@
         <v>132</v>
       </c>
       <c r="AA2" s="1" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="AC2" s="4" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
     </row>
     <row r="3" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D3" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>339</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>340</v>
-      </c>
       <c r="F3" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>210</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>211</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>99</v>
@@ -6571,16 +6621,16 @@
         <v>42</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="O3" s="2" t="s">
         <v>36</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="Q3" s="2" t="s">
         <v>36</v>
@@ -6589,45 +6639,45 @@
         <v>36</v>
       </c>
       <c r="T3" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="U3" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="W3" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="Y3" s="1" t="s">
         <v>127</v>
       </c>
       <c r="AA3" s="1" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="AC3" s="4" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
     </row>
     <row r="4" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>100</v>
       </c>
       <c r="D4" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>339</v>
       </c>
-      <c r="E4" s="2" t="s">
-        <v>340</v>
-      </c>
       <c r="F4" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>98</v>
@@ -6645,16 +6695,16 @@
         <v>42</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="O4" s="2" t="s">
         <v>36</v>
       </c>
       <c r="P4" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="Q4" s="2" t="s">
         <v>36</v>
@@ -6663,33 +6713,33 @@
         <v>36</v>
       </c>
       <c r="T4" s="2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="U4" s="2" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="W4" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="Y4" s="1" t="s">
         <v>128</v>
       </c>
       <c r="AA4" s="1" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="AC4" s="4" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
     </row>
     <row r="5" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>22</v>
@@ -6707,7 +6757,7 @@
         <v>77</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="J5" s="2" t="s">
         <v>69</v>
@@ -6719,7 +6769,7 @@
         <v>42</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="N5" s="2" t="s">
         <v>163</v>
@@ -6728,7 +6778,7 @@
         <v>36</v>
       </c>
       <c r="P5" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="Q5" s="2" t="s">
         <v>36</v>
@@ -6737,36 +6787,36 @@
         <v>36</v>
       </c>
       <c r="T5" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="U5" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="V5" s="2" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="W5" s="2" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="Y5" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="AA5" s="1" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="AC5" s="4" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
     </row>
     <row r="6" spans="1:30" ht="85.5" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>22</v>
@@ -6778,10 +6828,10 @@
         <v>23</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="I6" s="2" t="s">
         <v>85</v>
@@ -6796,10 +6846,10 @@
         <v>42</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="O6" s="2" t="s">
         <v>36</v>
@@ -6814,42 +6864,42 @@
         <v>36</v>
       </c>
       <c r="T6" s="2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="U6" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="V6" s="2" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="W6" s="2" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="Y6" s="1" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="Z6" s="1" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="AA6" s="1" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="AB6" s="1" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="AC6" s="4" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="AD6" s="4" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
     </row>
     <row r="7" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A7" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>7</v>
@@ -6867,10 +6917,10 @@
         <v>107</v>
       </c>
       <c r="H7" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="I7" s="2" t="s">
         <v>219</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>220</v>
       </c>
       <c r="J7" s="2" t="s">
         <v>69</v>
@@ -6882,7 +6932,7 @@
         <v>118</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="N7" s="2" t="s">
         <v>163</v>
@@ -6900,36 +6950,36 @@
         <v>36</v>
       </c>
       <c r="T7" s="2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="U7" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="V7" s="2" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="W7" s="2" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="Y7" s="1" t="s">
         <v>129</v>
       </c>
       <c r="AA7" s="1" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="AC7" s="4" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="8" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A8" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="H8" s="2" t="s">
         <v>172</v>
@@ -6947,7 +6997,7 @@
         <v>69</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="N8" s="2" t="s">
         <v>36</v>
@@ -6956,39 +7006,39 @@
         <v>36</v>
       </c>
       <c r="T8" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="U8" s="2" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="V8" s="2" t="s">
         <v>32</v>
       </c>
       <c r="W8" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="X8" s="2" t="s">
         <v>113</v>
       </c>
       <c r="Y8" s="1" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="AA8" s="1" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="AC8" s="3" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
     </row>
     <row r="9" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A9" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>22</v>
@@ -7000,7 +7050,7 @@
         <v>26</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="H9" s="2" t="s">
         <v>158</v>
@@ -7018,7 +7068,7 @@
         <v>42</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="N9" s="2" t="s">
         <v>163</v>
@@ -7036,36 +7086,36 @@
         <v>36</v>
       </c>
       <c r="T9" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="U9" s="2" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="V9" s="2" t="s">
         <v>32</v>
       </c>
       <c r="W9" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="Y9" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="AA9" s="1" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="AC9" s="4" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
     </row>
     <row r="10" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A10" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>22</v>
@@ -7077,7 +7127,7 @@
         <v>26</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="H10" s="2" t="s">
         <v>158</v>
@@ -7095,7 +7145,7 @@
         <v>42</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="N10" s="2" t="s">
         <v>163</v>
@@ -7113,36 +7163,36 @@
         <v>36</v>
       </c>
       <c r="T10" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="U10" s="2" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="V10" s="2" t="s">
         <v>32</v>
       </c>
       <c r="W10" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="Y10" s="1" t="s">
         <v>159</v>
       </c>
       <c r="AA10" s="1" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="AC10" s="4" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
     </row>
     <row r="11" spans="1:30" ht="57" x14ac:dyDescent="0.15">
       <c r="A11" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>22</v>
@@ -7154,7 +7204,7 @@
         <v>23</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="H11" s="2" t="s">
         <v>77</v>
@@ -7172,7 +7222,7 @@
         <v>69</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="N11" s="2" t="s">
         <v>36</v>
@@ -7187,45 +7237,45 @@
         <v>163</v>
       </c>
       <c r="T11" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="U11" s="2" t="s">
+        <v>462</v>
+      </c>
+      <c r="V11" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="W11" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="X11" s="2" t="s">
+        <v>617</v>
+      </c>
+      <c r="Y11" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="Z11" s="1" t="s">
         <v>435</v>
       </c>
-      <c r="U11" s="2" t="s">
-        <v>464</v>
-      </c>
-      <c r="V11" s="2" t="s">
-        <v>336</v>
-      </c>
-      <c r="W11" s="2" t="s">
-        <v>320</v>
-      </c>
-      <c r="X11" s="2" t="s">
-        <v>620</v>
-      </c>
-      <c r="Y11" s="1" t="s">
+      <c r="AA11" s="1" t="s">
         <v>436</v>
       </c>
-      <c r="Z11" s="1" t="s">
+      <c r="AB11" s="1" t="s">
         <v>437</v>
       </c>
-      <c r="AA11" s="1" t="s">
-        <v>438</v>
-      </c>
-      <c r="AB11" s="1" t="s">
-        <v>439</v>
-      </c>
       <c r="AC11" s="1" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="AD11" s="1" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
     </row>
     <row r="12" spans="1:30" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A12" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>81</v>
@@ -7264,31 +7314,31 @@
         <v>36</v>
       </c>
       <c r="O12" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="P12" s="2" t="s">
         <v>36</v>
       </c>
       <c r="Q12" s="2" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="R12" s="2" t="s">
         <v>36</v>
       </c>
       <c r="T12" s="2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="U12" s="2" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="V12" s="2" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="W12" s="2" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="X12" s="2" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="Y12" s="1" t="s">
         <v>131</v>
@@ -7297,24 +7347,24 @@
         <v>62</v>
       </c>
       <c r="AA12" s="1" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="AB12" s="1" t="s">
         <v>62</v>
       </c>
       <c r="AC12" s="4" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="AD12" s="4" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="13" spans="1:30" ht="57" x14ac:dyDescent="0.15">
       <c r="A13" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>4</v>
@@ -7347,7 +7397,7 @@
         <v>117</v>
       </c>
       <c r="M13" s="2" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="N13" s="2" t="s">
         <v>36</v>
@@ -7365,45 +7415,45 @@
         <v>36</v>
       </c>
       <c r="T13" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="U13" s="2" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="V13" s="2" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="W13" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="X13" s="2" t="s">
+        <v>617</v>
+      </c>
+      <c r="Y13" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="X13" s="2" t="s">
-        <v>620</v>
-      </c>
-      <c r="Y13" s="1" t="s">
-        <v>202</v>
-      </c>
       <c r="Z13" s="1" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="AA13" s="1" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="AB13" s="1" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="AC13" s="4" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="AD13" s="4" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
     </row>
     <row r="14" spans="1:30" ht="57" x14ac:dyDescent="0.15">
       <c r="A14" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>82</v>
@@ -7436,13 +7486,13 @@
         <v>164</v>
       </c>
       <c r="M14" s="2" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="N14" s="2" t="s">
         <v>36</v>
       </c>
       <c r="O14" s="2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="P14" s="2" t="s">
         <v>36</v>
@@ -7454,45 +7504,45 @@
         <v>36</v>
       </c>
       <c r="T14" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="U14" s="2" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="V14" s="2" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="W14" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="X14" s="2" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="Y14" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="Z14" s="1" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="AA14" s="1" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="AB14" s="1" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="AC14" s="4" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="AD14" s="4" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
     </row>
-    <row r="15" spans="1:30" ht="28.5" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:30" ht="42.75" x14ac:dyDescent="0.15">
       <c r="A15" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>185</v>
@@ -7507,7 +7557,7 @@
         <v>23</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="H15" s="2" t="s">
         <v>77</v>
@@ -7525,7 +7575,7 @@
         <v>69</v>
       </c>
       <c r="M15" s="2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="N15" s="2" t="s">
         <v>36</v>
@@ -7537,48 +7587,51 @@
         <v>36</v>
       </c>
       <c r="T15" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="U15" s="2" t="s">
-        <v>461</v>
+        <v>636</v>
+      </c>
+      <c r="V15" s="2" t="s">
+        <v>637</v>
       </c>
       <c r="W15" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="X15" s="2" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="Y15" s="1" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="Z15" s="1" t="s">
-        <v>186</v>
+        <v>632</v>
       </c>
       <c r="AA15" s="1" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
       <c r="AB15" s="1" t="s">
-        <v>408</v>
+        <v>633</v>
       </c>
       <c r="AC15" s="5" t="s">
-        <v>630</v>
+        <v>634</v>
       </c>
       <c r="AD15" s="4" t="s">
-        <v>565</v>
+        <v>635</v>
       </c>
     </row>
     <row r="16" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A16" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="J16" s="2" t="s">
         <v>42</v>
@@ -7590,7 +7643,7 @@
         <v>69</v>
       </c>
       <c r="M16" s="2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="N16" s="2" t="s">
         <v>36</v>
@@ -7599,42 +7652,42 @@
         <v>36</v>
       </c>
       <c r="T16" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="U16" s="2" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="V16" s="2" t="s">
         <v>32</v>
       </c>
       <c r="W16" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="X16" s="2" t="s">
         <v>111</v>
       </c>
       <c r="Y16" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="AA16" s="1" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="AC16" s="4" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
     </row>
     <row r="17" spans="1:30" ht="71.25" x14ac:dyDescent="0.15">
       <c r="A17" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="J17" s="2" t="s">
         <v>42</v>
@@ -7646,7 +7699,7 @@
         <v>69</v>
       </c>
       <c r="M17" s="2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="N17" s="2" t="s">
         <v>36</v>
@@ -7655,45 +7708,45 @@
         <v>36</v>
       </c>
       <c r="T17" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="U17" s="2" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="V17" s="2" t="s">
         <v>32</v>
       </c>
       <c r="W17" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="Y17" s="1" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="Z17" s="1" t="s">
-        <v>632</v>
+        <v>628</v>
       </c>
       <c r="AA17" s="1" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="AB17" s="1" t="s">
-        <v>633</v>
+        <v>629</v>
       </c>
       <c r="AC17" s="1" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="AD17" s="1" t="s">
-        <v>635</v>
+        <v>631</v>
       </c>
     </row>
     <row r="18" spans="1:30" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A18" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>22</v>
@@ -7714,7 +7767,7 @@
         <v>85</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="K18" s="2" t="s">
         <v>32</v>
@@ -7723,7 +7776,7 @@
         <v>69</v>
       </c>
       <c r="M18" s="2" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="N18" s="2" t="s">
         <v>36</v>
@@ -7741,39 +7794,39 @@
         <v>36</v>
       </c>
       <c r="T18" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="U18" s="2" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="V18" s="2" t="s">
         <v>32</v>
       </c>
       <c r="W18" s="2" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="X18" s="2" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="Y18" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="AA18" s="1" t="s">
         <v>541</v>
       </c>
-      <c r="AA18" s="1" t="s">
-        <v>543</v>
-      </c>
       <c r="AC18" s="1" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
     </row>
     <row r="19" spans="1:30" ht="42.75" x14ac:dyDescent="0.15">
       <c r="A19" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="I19" s="2" t="s">
         <v>85</v>
@@ -7788,7 +7841,7 @@
         <v>69</v>
       </c>
       <c r="M19" s="2" t="s">
-        <v>631</v>
+        <v>627</v>
       </c>
       <c r="N19" s="2" t="s">
         <v>36</v>
@@ -7797,39 +7850,39 @@
         <v>36</v>
       </c>
       <c r="T19" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="U19" s="2" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="V19" s="2" t="s">
         <v>32</v>
       </c>
       <c r="W19" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="X19" s="2" t="s">
         <v>111</v>
       </c>
       <c r="Y19" s="1" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="AA19" s="1" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="AC19" s="6" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
     </row>
     <row r="20" spans="1:30" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A20" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>22</v>
@@ -7841,7 +7894,7 @@
         <v>23</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="H20" s="2" t="s">
         <v>172</v>
@@ -7850,7 +7903,7 @@
         <v>85</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="K20" s="2" t="s">
         <v>32</v>
@@ -7859,54 +7912,54 @@
         <v>69</v>
       </c>
       <c r="M20" s="2" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="N20" s="2" t="s">
         <v>36</v>
       </c>
       <c r="O20" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="P20" s="2" t="s">
         <v>36</v>
       </c>
       <c r="Q20" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="R20" s="2" t="s">
         <v>36</v>
       </c>
       <c r="T20" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="U20" s="2" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="V20" s="2" t="s">
         <v>32</v>
       </c>
       <c r="W20" s="2" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="X20" s="2" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="Y20" s="1" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="AA20" s="1" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="AC20" s="1" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
     </row>
     <row r="21" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A21" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>11</v>
@@ -7939,7 +7992,7 @@
         <v>69</v>
       </c>
       <c r="M21" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="N21" s="2" t="s">
         <v>36</v>
@@ -7957,16 +8010,16 @@
         <v>36</v>
       </c>
       <c r="T21" s="2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="U21" s="2" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="V21" s="2" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="W21" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="X21" s="2" t="s">
         <v>111</v>
@@ -7975,18 +8028,18 @@
         <v>133</v>
       </c>
       <c r="AA21" s="1" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="AC21" s="4" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
     </row>
     <row r="22" spans="1:30" ht="42.75" x14ac:dyDescent="0.15">
       <c r="A22" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>154</v>
@@ -8019,13 +8072,13 @@
         <v>117</v>
       </c>
       <c r="M22" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="N22" s="2" t="s">
         <v>36</v>
       </c>
       <c r="O22" s="2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="P22" s="2" t="s">
         <v>36</v>
@@ -8037,39 +8090,39 @@
         <v>36</v>
       </c>
       <c r="T22" s="2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="U22" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="V22" s="2" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="W22" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="X22" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="Y22" s="1" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="AA22" s="1" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="AC22" s="4" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
     </row>
     <row r="23" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A23" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>22</v>
@@ -8099,13 +8152,13 @@
         <v>117</v>
       </c>
       <c r="M23" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="N23" s="2" t="s">
         <v>36</v>
       </c>
       <c r="O23" s="2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="P23" s="2" t="s">
         <v>36</v>
@@ -8117,16 +8170,16 @@
         <v>36</v>
       </c>
       <c r="T23" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="U23" s="2" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="V23" s="2" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="W23" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="X23" s="2" t="s">
         <v>111</v>
@@ -8135,18 +8188,18 @@
         <v>153</v>
       </c>
       <c r="AA23" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="AC23" s="4" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
     </row>
     <row r="24" spans="1:30" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A24" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>83</v>
@@ -8176,51 +8229,51 @@
         <v>32</v>
       </c>
       <c r="L24" s="2" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="M24" s="2" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="P24" s="2" t="s">
         <v>36</v>
       </c>
       <c r="T24" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="U24" s="2" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="W24" s="2" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="X24" s="2" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="Y24" s="1" t="s">
         <v>134</v>
       </c>
       <c r="Z24" s="1" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="AA24" s="1" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="AB24" s="1" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="AC24" s="4" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="AD24" s="4" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
     </row>
     <row r="25" spans="1:30" ht="42.75" x14ac:dyDescent="0.15">
       <c r="A25" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>64</v>
@@ -8232,7 +8285,7 @@
         <v>3</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="G25" s="2" t="s">
         <v>63</v>
@@ -8253,7 +8306,7 @@
         <v>120</v>
       </c>
       <c r="M25" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="N25" s="2" t="s">
         <v>163</v>
@@ -8262,45 +8315,45 @@
         <v>36</v>
       </c>
       <c r="P25" s="2" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="Q25" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="S25" s="2" t="s">
         <v>36</v>
       </c>
       <c r="T25" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="U25" s="2" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="V25" s="2" t="s">
         <v>32</v>
       </c>
       <c r="W25" s="2" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="X25" s="2" t="s">
         <v>110</v>
       </c>
       <c r="Y25" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="AA25" s="1" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="AC25" s="4" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="26" spans="1:30" ht="57" x14ac:dyDescent="0.15">
       <c r="A26" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>6</v>
@@ -8333,7 +8386,7 @@
         <v>117</v>
       </c>
       <c r="M26" s="2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="N26" s="2" t="s">
         <v>36</v>
@@ -8348,45 +8401,45 @@
         <v>163</v>
       </c>
       <c r="T26" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="U26" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="V26" s="2" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="W26" s="2" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="X26" s="2" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
       <c r="Y26" s="1" t="s">
         <v>135</v>
       </c>
       <c r="Z26" s="1" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="AA26" s="1" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="AB26" s="1" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="AC26" s="4" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="AD26" s="4" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
     </row>
     <row r="27" spans="1:30" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A27" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>103</v>
@@ -8416,48 +8469,48 @@
         <v>33</v>
       </c>
       <c r="L27" s="2" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="M27" s="2" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="N27" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="P27" s="2" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="Q27" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="T27" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="U27" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="V27" s="2" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="W27" s="2" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="Y27" s="1" t="s">
         <v>136</v>
       </c>
       <c r="AA27" s="1" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="AC27" s="4" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
     </row>
     <row r="28" spans="1:30" ht="42.75" x14ac:dyDescent="0.15">
       <c r="A28" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>5</v>
@@ -8490,7 +8543,7 @@
         <v>182</v>
       </c>
       <c r="M28" s="2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="N28" s="2" t="s">
         <v>36</v>
@@ -8505,48 +8558,48 @@
         <v>163</v>
       </c>
       <c r="T28" s="2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="U28" s="2" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="V28" s="2" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="W28" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="X28" s="2" t="s">
+        <v>617</v>
+      </c>
+      <c r="Y28" s="1" t="s">
         <v>315</v>
       </c>
-      <c r="X28" s="2" t="s">
-        <v>620</v>
-      </c>
-      <c r="Y28" s="1" t="s">
-        <v>316</v>
-      </c>
       <c r="Z28" s="1" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="AA28" s="1" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="AB28" s="1" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="AC28" s="4" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="AD28" s="4" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
     </row>
     <row r="29" spans="1:30" ht="57" x14ac:dyDescent="0.15">
       <c r="A29" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>22</v>
@@ -8558,7 +8611,7 @@
         <v>24</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="H29" s="2" t="s">
         <v>77</v>
@@ -8576,60 +8629,60 @@
         <v>117</v>
       </c>
       <c r="M29" s="2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="N29" s="2" t="s">
         <v>36</v>
       </c>
       <c r="O29" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="P29" s="2" t="s">
         <v>36</v>
       </c>
       <c r="T29" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="U29" s="2" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="V29" s="2" t="s">
         <v>32</v>
       </c>
       <c r="W29" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="X29" s="2" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="Y29" s="1" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="Z29" s="1" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="AA29" s="1" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="AB29" s="1" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="AC29" s="4" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="AD29" s="4" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
     </row>
     <row r="30" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A30" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>22</v>
@@ -8641,10 +8694,10 @@
         <v>24</v>
       </c>
       <c r="G30" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="H30" s="2" t="s">
         <v>348</v>
-      </c>
-      <c r="H30" s="2" t="s">
-        <v>349</v>
       </c>
       <c r="I30" s="2" t="s">
         <v>85</v>
@@ -8659,42 +8712,42 @@
         <v>117</v>
       </c>
       <c r="M30" s="2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="O30" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="T30" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="U30" s="2" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="V30" s="2" t="s">
         <v>32</v>
       </c>
       <c r="W30" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="Y30" s="1" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="AA30" s="1" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="AC30" s="4" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
     </row>
     <row r="31" spans="1:30" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A31" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>22</v>
@@ -8724,51 +8777,51 @@
         <v>120</v>
       </c>
       <c r="M31" s="2" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="O31" s="2" t="s">
         <v>36</v>
       </c>
       <c r="P31" s="2" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="S31" s="2" t="s">
         <v>36</v>
       </c>
       <c r="T31" s="2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="U31" s="2" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="V31" s="2" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="W31" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="X31" s="2" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="Y31" s="1" t="s">
         <v>141</v>
       </c>
       <c r="AA31" s="1" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="AC31" s="4" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
     </row>
     <row r="32" spans="1:30" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A32" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>22</v>
@@ -8798,13 +8851,13 @@
         <v>120</v>
       </c>
       <c r="M32" s="2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="O32" s="2" t="s">
         <v>36</v>
       </c>
       <c r="P32" s="2" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="Q32" s="2" t="s">
         <v>36</v>
@@ -8813,39 +8866,39 @@
         <v>36</v>
       </c>
       <c r="T32" s="2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="U32" s="2" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="V32" s="2" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="W32" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="X32" s="2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="Y32" s="1" t="s">
         <v>142</v>
       </c>
       <c r="AA32" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="AC32" s="4" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
     </row>
     <row r="33" spans="1:30" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A33" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>22</v>
@@ -8875,51 +8928,51 @@
         <v>120</v>
       </c>
       <c r="M33" s="2" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="O33" s="2" t="s">
         <v>36</v>
       </c>
       <c r="P33" s="2" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="S33" s="2" t="s">
         <v>36</v>
       </c>
       <c r="T33" s="2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="U33" s="2" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="V33" s="2" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="W33" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="X33" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="Y33" s="1" t="s">
         <v>137</v>
       </c>
       <c r="AA33" s="1" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="AC33" s="4" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
     </row>
     <row r="34" spans="1:30" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A34" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>22</v>
@@ -8949,28 +9002,28 @@
         <v>42</v>
       </c>
       <c r="M34" s="2" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="O34" s="2" t="s">
         <v>36</v>
       </c>
       <c r="P34" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="S34" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="T34" s="2" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="U34" s="2" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="V34" s="2" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="W34" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="X34" s="2" t="s">
         <v>112</v>
@@ -8979,21 +9032,21 @@
         <v>143</v>
       </c>
       <c r="AA34" s="1" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="AC34" s="4" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
     </row>
     <row r="35" spans="1:30" ht="42.75" x14ac:dyDescent="0.15">
       <c r="A35" s="2" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D35" s="2" t="s">
         <v>22</v>
@@ -9005,31 +9058,31 @@
         <v>30</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="H35" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="I35" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="I35" s="2" t="s">
-        <v>208</v>
-      </c>
       <c r="J35" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="K35" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="L35" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="M35" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="N35" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="K35" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="L35" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="M35" s="2" t="s">
-        <v>302</v>
-      </c>
-      <c r="N35" s="2" t="s">
-        <v>195</v>
-      </c>
       <c r="O35" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="P35" s="2" t="s">
         <v>162</v>
@@ -9038,48 +9091,48 @@
         <v>162</v>
       </c>
       <c r="T35" s="2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="U35" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="V35" s="2" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="W35" s="2" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="X35" s="2" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="Y35" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="Z35" s="1" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="AA35" s="1" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="AB35" s="1" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="AC35" s="4" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="AD35" s="4" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
     </row>
     <row r="36" spans="1:30" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A36" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="D36" s="2" t="s">
         <v>22</v>
@@ -9109,10 +9162,10 @@
         <v>170</v>
       </c>
       <c r="M36" s="2" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="N36" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="O36" s="2" t="s">
         <v>36</v>
@@ -9127,33 +9180,33 @@
         <v>36</v>
       </c>
       <c r="T36" s="2" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="U36" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="V36" s="2" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="W36" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="Y36" s="1" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="AA36" s="1" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="AC36" s="4" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
     </row>
     <row r="37" spans="1:30" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A37" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>175</v>
@@ -9186,7 +9239,7 @@
         <v>117</v>
       </c>
       <c r="M37" s="2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="N37" s="2" t="s">
         <v>36</v>
@@ -9201,16 +9254,16 @@
         <v>163</v>
       </c>
       <c r="T37" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="U37" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="V37" s="2" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="W37" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="X37" s="2" t="s">
         <v>173</v>
@@ -9219,21 +9272,21 @@
         <v>176</v>
       </c>
       <c r="AA37" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="AC37" s="4" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
     </row>
     <row r="38" spans="1:30" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A38" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D38" s="2" t="s">
         <v>22</v>
@@ -9257,34 +9310,34 @@
         <v>68</v>
       </c>
       <c r="K38" s="2" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="L38" s="2" t="s">
         <v>117</v>
       </c>
       <c r="M38" s="2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="N38" s="2" t="s">
         <v>163</v>
       </c>
       <c r="O38" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="P38" s="2" t="s">
         <v>36</v>
       </c>
       <c r="T38" s="2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="U38" s="2" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="V38" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="W38" s="2" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="X38" s="2" t="s">
         <v>113</v>
@@ -9293,18 +9346,18 @@
         <v>138</v>
       </c>
       <c r="AA38" s="1" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="AC38" s="4" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
     </row>
     <row r="39" spans="1:30" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A39" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>12</v>
@@ -9337,48 +9390,48 @@
         <v>117</v>
       </c>
       <c r="M39" s="2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="N39" s="2" t="s">
         <v>163</v>
       </c>
       <c r="O39" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="P39" s="2" t="s">
         <v>36</v>
       </c>
       <c r="T39" s="2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="U39" s="2" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="V39" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="W39" s="2" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="X39" s="2" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="Y39" s="1" t="s">
         <v>139</v>
       </c>
       <c r="AA39" s="1" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="AC39" s="4" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
     </row>
     <row r="40" spans="1:30" ht="57" x14ac:dyDescent="0.15">
       <c r="A40" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>13</v>
@@ -9411,45 +9464,45 @@
         <v>117</v>
       </c>
       <c r="M40" s="2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="P40" s="2" t="s">
         <v>36</v>
       </c>
       <c r="T40" s="2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="U40" s="2" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="V40" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="W40" s="2" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="X40" s="2" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="Y40" s="1" t="s">
         <v>140</v>
       </c>
       <c r="AA40" s="1" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="AC40" s="4" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
     </row>
     <row r="41" spans="1:30" ht="114" x14ac:dyDescent="0.15">
       <c r="A41" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="D41" s="2" t="s">
         <v>22</v>
@@ -9479,7 +9532,7 @@
         <v>181</v>
       </c>
       <c r="M41" s="2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="N41" s="2" t="s">
         <v>162</v>
@@ -9494,45 +9547,45 @@
         <v>163</v>
       </c>
       <c r="T41" s="2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="U41" s="2" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="V41" s="2" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="W41" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="X41" s="2" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="Y41" s="1" t="s">
         <v>183</v>
       </c>
       <c r="Z41" s="1" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="AA41" s="1" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="AB41" s="1" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="AC41" s="4" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="AD41" s="4" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
     </row>
     <row r="42" spans="1:30" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A42" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>14</v>
@@ -9565,10 +9618,10 @@
         <v>117</v>
       </c>
       <c r="M42" s="2" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="O42" s="2" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="P42" s="2" t="s">
         <v>36</v>
@@ -9577,36 +9630,36 @@
         <v>163</v>
       </c>
       <c r="T42" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="U42" s="2" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="V42" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="W42" s="2" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="X42" s="2" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="Y42" s="1" t="s">
         <v>144</v>
       </c>
       <c r="AA42" s="1" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="AC42" s="4" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
     </row>
     <row r="43" spans="1:30" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A43" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>15</v>
@@ -9639,10 +9692,10 @@
         <v>117</v>
       </c>
       <c r="M43" s="2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="O43" s="2" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="P43" s="2" t="s">
         <v>36</v>
@@ -9651,36 +9704,36 @@
         <v>163</v>
       </c>
       <c r="T43" s="2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="U43" s="2" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="V43" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="W43" s="2" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="X43" s="2" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="Y43" s="1" t="s">
         <v>145</v>
       </c>
       <c r="AA43" s="1" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="AC43" s="4" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
     </row>
     <row r="44" spans="1:30" ht="42.75" x14ac:dyDescent="0.15">
       <c r="A44" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>16</v>
@@ -9713,10 +9766,10 @@
         <v>117</v>
       </c>
       <c r="M44" s="2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="O44" s="2" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="P44" s="2" t="s">
         <v>36</v>
@@ -9725,36 +9778,36 @@
         <v>163</v>
       </c>
       <c r="T44" s="2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="U44" s="2" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="V44" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="W44" s="2" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="X44" s="2" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="Y44" s="1" t="s">
         <v>146</v>
       </c>
       <c r="AA44" s="1" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="AC44" s="4" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
     </row>
     <row r="45" spans="1:30" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A45" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>17</v>
@@ -9787,10 +9840,10 @@
         <v>117</v>
       </c>
       <c r="M45" s="2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="O45" s="2" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="P45" s="2" t="s">
         <v>36</v>
@@ -9799,36 +9852,36 @@
         <v>163</v>
       </c>
       <c r="T45" s="2" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="U45" s="2" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="V45" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="W45" s="2" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="X45" s="2" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="Y45" s="1" t="s">
         <v>147</v>
       </c>
       <c r="AA45" s="1" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="AC45" s="4" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
     </row>
     <row r="46" spans="1:30" ht="42.75" x14ac:dyDescent="0.15">
       <c r="A46" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>18</v>
@@ -9861,10 +9914,10 @@
         <v>117</v>
       </c>
       <c r="M46" s="2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="O46" s="2" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="P46" s="2" t="s">
         <v>36</v>
@@ -9873,39 +9926,39 @@
         <v>163</v>
       </c>
       <c r="T46" s="2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="U46" s="2" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="V46" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="W46" s="2" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="X46" s="2" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="Y46" s="1" t="s">
         <v>148</v>
       </c>
       <c r="AA46" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="AC46" s="4" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
     </row>
     <row r="47" spans="1:30" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A47" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="D47" s="2" t="s">
         <v>22</v>
@@ -9923,7 +9976,7 @@
         <v>72</v>
       </c>
       <c r="I47" s="2" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="J47" s="2" t="s">
         <v>68</v>
@@ -9935,42 +9988,42 @@
         <v>117</v>
       </c>
       <c r="M47" s="2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="P47" s="2" t="s">
         <v>36</v>
       </c>
       <c r="T47" s="2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="U47" s="2" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="V47" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="W47" s="2" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="Y47" s="1" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="AA47" s="1" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="AC47" s="4" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
     </row>
     <row r="48" spans="1:30" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A48" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="D48" s="2" t="s">
         <v>22</v>
@@ -9979,7 +10032,7 @@
         <v>3</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="G48" s="2" t="s">
         <v>39</v>
@@ -10000,45 +10053,45 @@
         <v>69</v>
       </c>
       <c r="M48" s="2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="P48" s="2" t="s">
         <v>36</v>
       </c>
       <c r="T48" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="U48" s="2" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="V48" s="2" t="s">
         <v>32</v>
       </c>
       <c r="W48" s="2" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="X48" s="2" t="s">
         <v>113</v>
       </c>
       <c r="Y48" s="1" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="AA48" s="1" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="AC48" s="4" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
     </row>
     <row r="49" spans="1:30" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A49" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="D49" s="2" t="s">
         <v>22</v>
@@ -10047,7 +10100,7 @@
         <v>3</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="G49" s="2" t="s">
         <v>24</v>
@@ -10068,45 +10121,45 @@
         <v>69</v>
       </c>
       <c r="M49" s="2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="P49" s="2" t="s">
         <v>36</v>
       </c>
       <c r="T49" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="U49" s="2" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="V49" s="2" t="s">
         <v>32</v>
       </c>
       <c r="W49" s="2" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="X49" s="2" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="Y49" s="1" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="AA49" s="1" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="AC49" s="4" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
     </row>
     <row r="50" spans="1:30" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A50" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="D50" s="2" t="s">
         <v>22</v>
@@ -10115,7 +10168,7 @@
         <v>3</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="G50" s="2" t="s">
         <v>30</v>
@@ -10136,45 +10189,45 @@
         <v>69</v>
       </c>
       <c r="M50" s="2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="P50" s="2" t="s">
         <v>36</v>
       </c>
       <c r="T50" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="U50" s="2" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="V50" s="2" t="s">
         <v>32</v>
       </c>
       <c r="W50" s="2" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="X50" s="2" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="Y50" s="1" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="AA50" s="1" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="AC50" s="4" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
     </row>
     <row r="51" spans="1:30" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A51" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="D51" s="2" t="s">
         <v>22</v>
@@ -10204,13 +10257,13 @@
         <v>117</v>
       </c>
       <c r="M51" s="2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="N51" s="2" t="s">
         <v>163</v>
       </c>
       <c r="O51" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="P51" s="2" t="s">
         <v>36</v>
@@ -10219,16 +10272,16 @@
         <v>163</v>
       </c>
       <c r="T51" s="2" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="U51" s="2" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="V51" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="W51" s="2" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="X51" s="2" t="s">
         <v>113</v>
@@ -10237,18 +10290,18 @@
         <v>149</v>
       </c>
       <c r="AA51" s="1" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="AC51" s="4" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
     </row>
     <row r="52" spans="1:30" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A52" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>19</v>
@@ -10281,13 +10334,13 @@
         <v>117</v>
       </c>
       <c r="M52" s="2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="N52" s="2" t="s">
         <v>163</v>
       </c>
       <c r="O52" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="P52" s="2" t="s">
         <v>36</v>
@@ -10296,36 +10349,36 @@
         <v>163</v>
       </c>
       <c r="T52" s="2" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="U52" s="2" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="V52" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="W52" s="2" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="X52" s="2" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="Y52" s="1" t="s">
         <v>150</v>
       </c>
       <c r="AA52" s="1" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="AC52" s="4" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
     </row>
     <row r="53" spans="1:30" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A53" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>20</v>
@@ -10358,13 +10411,13 @@
         <v>117</v>
       </c>
       <c r="M53" s="2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="N53" s="2" t="s">
         <v>163</v>
       </c>
       <c r="O53" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="P53" s="2" t="s">
         <v>36</v>
@@ -10373,36 +10426,36 @@
         <v>163</v>
       </c>
       <c r="T53" s="2" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="U53" s="2" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="V53" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="W53" s="2" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="X53" s="2" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="Y53" s="1" t="s">
         <v>151</v>
       </c>
       <c r="AA53" s="1" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="AC53" s="4" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
     </row>
     <row r="54" spans="1:30" ht="171" x14ac:dyDescent="0.15">
       <c r="A54" s="2" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>121</v>
@@ -10435,7 +10488,7 @@
         <v>117</v>
       </c>
       <c r="M54" s="2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="N54" s="2" t="s">
         <v>36</v>
@@ -10450,48 +10503,48 @@
         <v>162</v>
       </c>
       <c r="T54" s="2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="U54" s="2" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="V54" s="2" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="W54" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="X54" s="2" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="Y54" s="1" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="Z54" s="1" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="AA54" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="AB54" s="1" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="AC54" s="4" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="AD54" s="5" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
     </row>
     <row r="55" spans="1:30" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A55" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="D55" s="2" t="s">
         <v>22</v>
@@ -10506,7 +10559,7 @@
         <v>45</v>
       </c>
       <c r="H55" s="2" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="I55" s="2" t="s">
         <v>85</v>
@@ -10521,13 +10574,13 @@
         <v>117</v>
       </c>
       <c r="M55" s="2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="N55" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="O55" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="P55" s="2" t="s">
         <v>36</v>
@@ -10536,48 +10589,48 @@
         <v>162</v>
       </c>
       <c r="T55" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="U55" s="2" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="V55" s="2" t="s">
         <v>32</v>
       </c>
       <c r="W55" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="X55" s="2" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="Y55" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="Z55" s="1" t="s">
         <v>456</v>
       </c>
-      <c r="Z55" s="1" t="s">
-        <v>458</v>
-      </c>
       <c r="AA55" s="1" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="AB55" s="1" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="AC55" s="4" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="AD55" s="4" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
     </row>
     <row r="56" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A56" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D56" s="2" t="s">
         <v>22</v>
@@ -10586,16 +10639,16 @@
         <v>3</v>
       </c>
       <c r="F56" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="G56" s="2" t="s">
         <v>284</v>
-      </c>
-      <c r="G56" s="2" t="s">
-        <v>285</v>
       </c>
       <c r="H56" s="2" t="s">
         <v>73</v>
       </c>
       <c r="I56" s="2" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="J56" s="2" t="s">
         <v>42</v>
@@ -10604,54 +10657,54 @@
         <v>32</v>
       </c>
       <c r="L56" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="M56" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="N56" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="O56" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="P56" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q56" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="R56" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="T56" s="2" t="s">
         <v>291</v>
       </c>
-      <c r="M56" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="N56" s="2" t="s">
-        <v>300</v>
-      </c>
-      <c r="O56" s="2" t="s">
-        <v>299</v>
-      </c>
-      <c r="P56" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q56" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="R56" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="T56" s="2" t="s">
-        <v>292</v>
-      </c>
       <c r="U56" s="2" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="W56" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="Y56" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="AA56" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="AC56" s="4" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
     </row>
     <row r="57" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A57" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D57" s="2" t="s">
         <v>22</v>
@@ -10660,16 +10713,16 @@
         <v>3</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="H57" s="2" t="s">
         <v>73</v>
       </c>
       <c r="I57" s="2" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="J57" s="2" t="s">
         <v>42</v>
@@ -10678,54 +10731,54 @@
         <v>32</v>
       </c>
       <c r="L57" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="M57" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="N57" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="O57" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="P57" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q57" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="R57" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="T57" s="2" t="s">
         <v>291</v>
       </c>
-      <c r="M57" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="N57" s="2" t="s">
-        <v>300</v>
-      </c>
-      <c r="O57" s="2" t="s">
-        <v>299</v>
-      </c>
-      <c r="P57" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q57" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="R57" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="T57" s="2" t="s">
-        <v>292</v>
-      </c>
       <c r="U57" s="2" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="W57" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="Y57" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="AA57" s="1" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="AC57" s="4" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
     </row>
     <row r="58" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A58" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D58" s="2" t="s">
         <v>22</v>
@@ -10734,7 +10787,7 @@
         <v>3</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="G58" s="2" t="s">
         <v>171</v>
@@ -10743,7 +10796,7 @@
         <v>73</v>
       </c>
       <c r="I58" s="2" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="J58" s="2" t="s">
         <v>42</v>
@@ -10752,54 +10805,54 @@
         <v>32</v>
       </c>
       <c r="L58" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="M58" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="N58" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="O58" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="P58" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q58" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="R58" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="T58" s="2" t="s">
         <v>291</v>
       </c>
-      <c r="M58" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="N58" s="2" t="s">
-        <v>300</v>
-      </c>
-      <c r="O58" s="2" t="s">
-        <v>299</v>
-      </c>
-      <c r="P58" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q58" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="R58" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="T58" s="2" t="s">
-        <v>292</v>
-      </c>
       <c r="U58" s="2" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="W58" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="Y58" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="AA58" s="1" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="AC58" s="4" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
     </row>
     <row r="59" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A59" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D59" s="2" t="s">
         <v>22</v>
@@ -10808,16 +10861,16 @@
         <v>3</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="H59" s="2" t="s">
         <v>73</v>
       </c>
       <c r="I59" s="2" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="J59" s="2" t="s">
         <v>42</v>
@@ -10826,54 +10879,54 @@
         <v>32</v>
       </c>
       <c r="L59" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="M59" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="N59" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="O59" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="P59" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q59" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="R59" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="T59" s="2" t="s">
         <v>291</v>
       </c>
-      <c r="M59" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="N59" s="2" t="s">
-        <v>300</v>
-      </c>
-      <c r="O59" s="2" t="s">
-        <v>299</v>
-      </c>
-      <c r="P59" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q59" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="R59" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="T59" s="2" t="s">
-        <v>292</v>
-      </c>
       <c r="U59" s="2" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="W59" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="Y59" s="1" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="AA59" s="1" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="AC59" s="4" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
     </row>
     <row r="60" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A60" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D60" s="2" t="s">
         <v>22</v>
@@ -10882,16 +10935,16 @@
         <v>3</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="H60" s="2" t="s">
         <v>73</v>
       </c>
       <c r="I60" s="2" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="J60" s="2" t="s">
         <v>42</v>
@@ -10900,54 +10953,54 @@
         <v>32</v>
       </c>
       <c r="L60" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="M60" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="N60" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="O60" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="P60" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q60" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="R60" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="T60" s="2" t="s">
         <v>291</v>
       </c>
-      <c r="M60" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="N60" s="2" t="s">
-        <v>300</v>
-      </c>
-      <c r="O60" s="2" t="s">
-        <v>299</v>
-      </c>
-      <c r="P60" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q60" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="R60" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="T60" s="2" t="s">
-        <v>292</v>
-      </c>
       <c r="U60" s="2" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="W60" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="Y60" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="AA60" s="1" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="AC60" s="4" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
     </row>
     <row r="61" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A61" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D61" s="2" t="s">
         <v>22</v>
@@ -10956,16 +11009,16 @@
         <v>3</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="H61" s="2" t="s">
         <v>73</v>
       </c>
       <c r="I61" s="2" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="J61" s="2" t="s">
         <v>42</v>
@@ -10974,54 +11027,54 @@
         <v>32</v>
       </c>
       <c r="L61" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="M61" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="N61" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="O61" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="P61" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q61" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="R61" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="T61" s="2" t="s">
         <v>291</v>
       </c>
-      <c r="M61" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="N61" s="2" t="s">
-        <v>300</v>
-      </c>
-      <c r="O61" s="2" t="s">
-        <v>299</v>
-      </c>
-      <c r="P61" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q61" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="R61" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="T61" s="2" t="s">
-        <v>292</v>
-      </c>
       <c r="U61" s="2" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="W61" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="Y61" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="AA61" s="1" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="AC61" s="4" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
     </row>
     <row r="62" spans="1:30" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A62" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D62" s="2" t="s">
         <v>22</v>
@@ -11054,7 +11107,7 @@
         <v>37</v>
       </c>
       <c r="P62" s="2" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="Q62" s="2" t="s">
         <v>36</v>
@@ -11063,16 +11116,16 @@
         <v>36</v>
       </c>
       <c r="T62" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="U62" s="2" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="V62" s="2" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="W62" s="2" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="X62" s="2" t="s">
         <v>167</v>
@@ -11081,18 +11134,18 @@
         <v>152</v>
       </c>
       <c r="AA62" s="1" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="AC62" s="4" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
     </row>
     <row r="63" spans="1:30" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A63" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>105</v>
@@ -11140,36 +11193,36 @@
         <v>36</v>
       </c>
       <c r="T63" s="2" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="U63" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="V63" s="2" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="W63" s="2" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="Y63" s="1" t="s">
         <v>130</v>
       </c>
       <c r="AA63" s="1" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="AC63" s="4" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
     </row>
     <row r="64" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A64" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="D64" s="2" t="s">
         <v>22</v>
@@ -11178,10 +11231,10 @@
         <v>3</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="H64" s="2" t="s">
         <v>77</v>
@@ -11199,7 +11252,7 @@
         <v>69</v>
       </c>
       <c r="M64" s="2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="N64" s="2" t="s">
         <v>36</v>
@@ -11214,28 +11267,28 @@
         <v>162</v>
       </c>
       <c r="T64" s="2" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="U64" s="2" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="V64" s="2" t="s">
         <v>32</v>
       </c>
       <c r="W64" s="2" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="X64" s="2" t="s">
+        <v>448</v>
+      </c>
+      <c r="Y64" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="AA64" s="1" t="s">
         <v>450</v>
       </c>
-      <c r="Y64" s="1" t="s">
-        <v>453</v>
-      </c>
-      <c r="AA64" s="1" t="s">
-        <v>452</v>
-      </c>
       <c r="AC64" s="4" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
     </row>
   </sheetData>

--- a/Documents/UsbProtocol_EgsDeviceSettingsHidReport_HostAppSettings_PropertyList.xlsx
+++ b/Documents/UsbProtocol_EgsDeviceSettingsHidReport_HostAppSettings_PropertyList.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1583" uniqueCount="638">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1583" uniqueCount="640">
   <si>
     <t>MessageId</t>
   </si>
@@ -5372,11 +5372,20 @@
     <phoneticPr fontId="18"/>
   </si>
   <si>
-    <t>1.1.9000</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
     <t>public</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>Developer</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>1.1.9009</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>Exvision
+(Basic)</t>
     <phoneticPr fontId="18"/>
   </si>
 </sst>
@@ -6379,10 +6388,10 @@
   <dimension ref="A1:AD64"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="M10" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="O15" sqref="O15"/>
+      <selection pane="bottomRight" activeCell="W15" sqref="W15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -7590,13 +7599,13 @@
         <v>235</v>
       </c>
       <c r="U15" s="2" t="s">
+        <v>638</v>
+      </c>
+      <c r="V15" s="2" t="s">
         <v>636</v>
       </c>
-      <c r="V15" s="2" t="s">
-        <v>637</v>
-      </c>
       <c r="W15" s="2" t="s">
-        <v>319</v>
+        <v>639</v>
       </c>
       <c r="X15" s="2" t="s">
         <v>617</v>
@@ -7661,7 +7670,7 @@
         <v>32</v>
       </c>
       <c r="W16" s="2" t="s">
-        <v>189</v>
+        <v>637</v>
       </c>
       <c r="X16" s="2" t="s">
         <v>111</v>
@@ -11313,14 +11322,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_Version xmlns="http://schemas.microsoft.com/sharepoint/v3/fields" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x01010027AF63008C5B9348B1D80B486CE64D2D" ma:contentTypeVersion="4" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="104485263990d5adc83ab87317f77176">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="http://schemas.microsoft.com/sharepoint/v3/fields" xmlns:ns3="86e9103f-040a-4a6c-9c98-6d10a12a6690" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0fee4f24d869e615bfcfb8b7a3dd1ece" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3/fields"/>
@@ -11479,6 +11480,14 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_Version xmlns="http://schemas.microsoft.com/sharepoint/v3/fields" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0FB82232-58B1-4A1D-8A4E-B5C95C1862BE}">
   <ds:schemaRefs>
@@ -11488,23 +11497,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{153E850E-4F75-454A-AFBA-A711FED549FB}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="86e9103f-040a-4a6c-9c98-6d10a12a6690"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/fields"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9ED71AD8-9688-4B20-AAB5-757D07879363}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -11521,4 +11513,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{153E850E-4F75-454A-AFBA-A711FED549FB}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="86e9103f-040a-4a6c-9c98-6d10a12a6690"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/fields"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Documents/UsbProtocol_EgsDeviceSettingsHidReport_HostAppSettings_PropertyList.xlsx
+++ b/Documents/UsbProtocol_EgsDeviceSettingsHidReport_HostAppSettings_PropertyList.xlsx
@@ -5380,11 +5380,11 @@
     <phoneticPr fontId="18"/>
   </si>
   <si>
-    <t>1.1.9009</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>Exvision
+    <t>1.1.9015</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>Developer
 (Basic)</t>
     <phoneticPr fontId="18"/>
   </si>
@@ -6391,7 +6391,7 @@
       <pane xSplit="3" ySplit="1" topLeftCell="D7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="W15" sqref="W15"/>
+      <selection pane="bottomRight" activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -11322,6 +11322,14 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_Version xmlns="http://schemas.microsoft.com/sharepoint/v3/fields" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x01010027AF63008C5B9348B1D80B486CE64D2D" ma:contentTypeVersion="4" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="104485263990d5adc83ab87317f77176">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="http://schemas.microsoft.com/sharepoint/v3/fields" xmlns:ns3="86e9103f-040a-4a6c-9c98-6d10a12a6690" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0fee4f24d869e615bfcfb8b7a3dd1ece" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3/fields"/>
@@ -11480,14 +11488,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_Version xmlns="http://schemas.microsoft.com/sharepoint/v3/fields" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0FB82232-58B1-4A1D-8A4E-B5C95C1862BE}">
   <ds:schemaRefs>
@@ -11497,6 +11497,23 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{153E850E-4F75-454A-AFBA-A711FED549FB}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="86e9103f-040a-4a6c-9c98-6d10a12a6690"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/fields"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9ED71AD8-9688-4B20-AAB5-757D07879363}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -11513,21 +11530,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{153E850E-4F75-454A-AFBA-A711FED549FB}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="86e9103f-040a-4a6c-9c98-6d10a12a6690"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/fields"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Documents/UsbProtocol_EgsDeviceSettingsHidReport_HostAppSettings_PropertyList.xlsx
+++ b/Documents/UsbProtocol_EgsDeviceSettingsHidReport_HostAppSettings_PropertyList.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18067"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18229"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -3314,47 +3314,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-      </rPr>
-      <t>摄</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="メイリオ"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>像机</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-      </rPr>
-      <t>帧</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="メイリオ"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>每秒 (fps)</t>
-    </r>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <r>
       <t>120:120 fps
 100:100 fps
 0:自</t>
@@ -5153,86 +5112,6 @@
     <phoneticPr fontId="18"/>
   </si>
   <si>
-    <r>
-      <t>0:相机</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <rFont val="FangSong"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>设备</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <rFont val="メイリオ"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">
-1:主</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <rFont val="FangSong"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>应</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <rFont val="メイリオ"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>用程序 (更高精度)
-2:SDK用</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <rFont val="FangSong"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>户</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <rFont val="メイリオ"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>自定</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <rFont val="FangSong"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>义</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <rFont val="メイリオ"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>解决方案</t>
-    </r>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
     <t>0:Remote Touch
 2:Motion Control
 1:Web Camera</t>
@@ -5386,6 +5265,126 @@
   <si>
     <t>Developer
 (Basic)</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+      </rPr>
+      <t>摄像头每秒帧数</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve"> (fps)</t>
+    </r>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <r>
+      <t>0:手</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="FangSong"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>势摄</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>像</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="FangSong"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>头</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">
+1:主</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="FangSong"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>应</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>用程序 (更高精度)
+2:SDK用</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="FangSong"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>户</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>自定</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="FangSong"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>义</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>解决方案</t>
+    </r>
     <phoneticPr fontId="18"/>
   </si>
 </sst>
@@ -6388,10 +6387,10 @@
   <dimension ref="A1:AD64"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D7" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="W2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A15" sqref="A15"/>
+      <selection pane="bottomRight" activeCell="AD17" sqref="AD17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -6589,7 +6588,7 @@
         <v>359</v>
       </c>
       <c r="AC2" s="4" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
     </row>
     <row r="3" spans="1:30" x14ac:dyDescent="0.15">
@@ -6737,7 +6736,7 @@
         <v>402</v>
       </c>
       <c r="AC4" s="4" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
     </row>
     <row r="5" spans="1:30" x14ac:dyDescent="0.15">
@@ -6822,7 +6821,7 @@
         <v>268</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>442</v>
@@ -7113,7 +7112,7 @@
         <v>364</v>
       </c>
       <c r="AC9" s="4" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
     </row>
     <row r="10" spans="1:30" x14ac:dyDescent="0.15">
@@ -7198,7 +7197,7 @@
         <v>269</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>432</v>
@@ -7258,7 +7257,7 @@
         <v>319</v>
       </c>
       <c r="X11" s="2" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="Y11" s="1" t="s">
         <v>434</v>
@@ -7284,7 +7283,7 @@
         <v>269</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>81</v>
@@ -7347,7 +7346,7 @@
         <v>515</v>
       </c>
       <c r="X12" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="Y12" s="1" t="s">
         <v>131</v>
@@ -7362,7 +7361,7 @@
         <v>62</v>
       </c>
       <c r="AC12" s="4" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="AD12" s="4" t="s">
         <v>420</v>
@@ -7373,7 +7372,7 @@
         <v>269</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>4</v>
@@ -7436,7 +7435,7 @@
         <v>200</v>
       </c>
       <c r="X13" s="2" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="Y13" s="1" t="s">
         <v>201</v>
@@ -7462,7 +7461,7 @@
         <v>269</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>82</v>
@@ -7525,7 +7524,7 @@
         <v>188</v>
       </c>
       <c r="X14" s="2" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="Y14" s="1" t="s">
         <v>202</v>
@@ -7540,10 +7539,10 @@
         <v>422</v>
       </c>
       <c r="AC14" s="4" t="s">
+        <v>598</v>
+      </c>
+      <c r="AD14" s="4" t="s">
         <v>599</v>
-      </c>
-      <c r="AD14" s="4" t="s">
-        <v>600</v>
       </c>
     </row>
     <row r="15" spans="1:30" ht="42.75" x14ac:dyDescent="0.15">
@@ -7551,7 +7550,7 @@
         <v>269</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>185</v>
@@ -7599,34 +7598,34 @@
         <v>235</v>
       </c>
       <c r="U15" s="2" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="V15" s="2" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="W15" s="2" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="X15" s="2" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="Y15" s="1" t="s">
+        <v>624</v>
+      </c>
+      <c r="Z15" s="1" t="s">
+        <v>630</v>
+      </c>
+      <c r="AA15" s="1" t="s">
         <v>625</v>
       </c>
-      <c r="Z15" s="1" t="s">
+      <c r="AB15" s="1" t="s">
+        <v>631</v>
+      </c>
+      <c r="AC15" s="5" t="s">
         <v>632</v>
       </c>
-      <c r="AA15" s="1" t="s">
-        <v>626</v>
-      </c>
-      <c r="AB15" s="1" t="s">
+      <c r="AD15" s="4" t="s">
         <v>633</v>
-      </c>
-      <c r="AC15" s="5" t="s">
-        <v>634</v>
-      </c>
-      <c r="AD15" s="4" t="s">
-        <v>635</v>
       </c>
     </row>
     <row r="16" spans="1:30" x14ac:dyDescent="0.15">
@@ -7670,7 +7669,7 @@
         <v>32</v>
       </c>
       <c r="W16" s="2" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="X16" s="2" t="s">
         <v>111</v>
@@ -7682,7 +7681,7 @@
         <v>367</v>
       </c>
       <c r="AC16" s="4" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
     </row>
     <row r="17" spans="1:30" ht="71.25" x14ac:dyDescent="0.15">
@@ -7690,7 +7689,7 @@
         <v>269</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>533</v>
@@ -7732,19 +7731,19 @@
         <v>534</v>
       </c>
       <c r="Z17" s="1" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="AA17" s="1" t="s">
         <v>535</v>
       </c>
       <c r="AB17" s="1" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="AC17" s="1" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="AD17" s="1" t="s">
-        <v>631</v>
+        <v>639</v>
       </c>
     </row>
     <row r="18" spans="1:30" ht="28.5" x14ac:dyDescent="0.15">
@@ -7850,7 +7849,7 @@
         <v>69</v>
       </c>
       <c r="M19" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="N19" s="2" t="s">
         <v>36</v>
@@ -7912,7 +7911,7 @@
         <v>85</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="K20" s="2" t="s">
         <v>32</v>
@@ -7951,7 +7950,7 @@
         <v>517</v>
       </c>
       <c r="X20" s="2" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="Y20" s="1" t="s">
         <v>546</v>
@@ -8040,7 +8039,7 @@
         <v>369</v>
       </c>
       <c r="AC21" s="4" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
     </row>
     <row r="22" spans="1:30" ht="42.75" x14ac:dyDescent="0.15">
@@ -8208,7 +8207,7 @@
         <v>269</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>83</v>
@@ -8256,7 +8255,7 @@
         <v>518</v>
       </c>
       <c r="X24" s="2" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="Y24" s="1" t="s">
         <v>134</v>
@@ -8362,7 +8361,7 @@
         <v>269</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>6</v>
@@ -8422,7 +8421,7 @@
         <v>317</v>
       </c>
       <c r="X26" s="2" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="Y26" s="1" t="s">
         <v>135</v>
@@ -8519,7 +8518,7 @@
         <v>269</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>5</v>
@@ -8579,7 +8578,7 @@
         <v>314</v>
       </c>
       <c r="X28" s="2" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="Y28" s="1" t="s">
         <v>315</v>
@@ -8593,11 +8592,11 @@
       <c r="AB28" s="1" t="s">
         <v>413</v>
       </c>
-      <c r="AC28" s="4" t="s">
+      <c r="AC28" s="6" t="s">
+        <v>638</v>
+      </c>
+      <c r="AD28" s="4" t="s">
         <v>571</v>
-      </c>
-      <c r="AD28" s="4" t="s">
-        <v>572</v>
       </c>
     </row>
     <row r="29" spans="1:30" ht="57" x14ac:dyDescent="0.15">
@@ -8605,7 +8604,7 @@
         <v>269</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>352</v>
@@ -8662,7 +8661,7 @@
         <v>187</v>
       </c>
       <c r="X29" s="2" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="Y29" s="1" t="s">
         <v>354</v>
@@ -8680,7 +8679,7 @@
         <v>427</v>
       </c>
       <c r="AD29" s="4" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="30" spans="1:30" x14ac:dyDescent="0.15">
@@ -8896,7 +8895,7 @@
         <v>377</v>
       </c>
       <c r="AC32" s="4" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="33" spans="1:30" ht="28.5" x14ac:dyDescent="0.15">
@@ -9044,7 +9043,7 @@
         <v>379</v>
       </c>
       <c r="AC34" s="4" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="35" spans="1:30" ht="42.75" x14ac:dyDescent="0.15">
@@ -9112,7 +9111,7 @@
         <v>342</v>
       </c>
       <c r="X35" s="2" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="Y35" s="1" t="s">
         <v>212</v>
@@ -9127,7 +9126,7 @@
         <v>341</v>
       </c>
       <c r="AC35" s="4" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="AD35" s="4" t="s">
         <v>430</v>
@@ -9207,7 +9206,7 @@
         <v>381</v>
       </c>
       <c r="AC36" s="4" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="37" spans="1:30" ht="28.5" x14ac:dyDescent="0.15">
@@ -9284,7 +9283,7 @@
         <v>382</v>
       </c>
       <c r="AC37" s="4" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="38" spans="1:30" ht="28.5" x14ac:dyDescent="0.15">
@@ -9358,7 +9357,7 @@
         <v>383</v>
       </c>
       <c r="AC38" s="4" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="39" spans="1:30" ht="28.5" x14ac:dyDescent="0.15">
@@ -9432,7 +9431,7 @@
         <v>384</v>
       </c>
       <c r="AC39" s="4" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="40" spans="1:30" ht="57" x14ac:dyDescent="0.15">
@@ -9500,7 +9499,7 @@
         <v>385</v>
       </c>
       <c r="AC40" s="4" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="41" spans="1:30" ht="114" x14ac:dyDescent="0.15">
@@ -9508,10 +9507,10 @@
         <v>269</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="D41" s="2" t="s">
         <v>22</v>
@@ -9568,7 +9567,7 @@
         <v>188</v>
       </c>
       <c r="X41" s="2" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="Y41" s="1" t="s">
         <v>183</v>
@@ -9583,10 +9582,10 @@
         <v>423</v>
       </c>
       <c r="AC41" s="4" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="AD41" s="4" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
     </row>
     <row r="42" spans="1:30" ht="28.5" x14ac:dyDescent="0.15">
@@ -9651,7 +9650,7 @@
         <v>520</v>
       </c>
       <c r="X42" s="2" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="Y42" s="1" t="s">
         <v>144</v>
@@ -9660,7 +9659,7 @@
         <v>387</v>
       </c>
       <c r="AC42" s="4" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="43" spans="1:30" ht="28.5" x14ac:dyDescent="0.15">
@@ -9734,7 +9733,7 @@
         <v>489</v>
       </c>
       <c r="AC43" s="4" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
     </row>
     <row r="44" spans="1:30" ht="42.75" x14ac:dyDescent="0.15">
@@ -9808,7 +9807,7 @@
         <v>388</v>
       </c>
       <c r="AC44" s="4" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
     </row>
     <row r="45" spans="1:30" ht="28.5" x14ac:dyDescent="0.15">
@@ -9882,7 +9881,7 @@
         <v>490</v>
       </c>
       <c r="AC45" s="4" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
     </row>
     <row r="46" spans="1:30" ht="42.75" x14ac:dyDescent="0.15">
@@ -9956,7 +9955,7 @@
         <v>389</v>
       </c>
       <c r="AC46" s="4" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="47" spans="1:30" ht="28.5" x14ac:dyDescent="0.15">
@@ -10021,7 +10020,7 @@
         <v>471</v>
       </c>
       <c r="AC47" s="4" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
     </row>
     <row r="48" spans="1:30" ht="28.5" x14ac:dyDescent="0.15">
@@ -10089,7 +10088,7 @@
         <v>491</v>
       </c>
       <c r="AC48" s="4" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
     </row>
     <row r="49" spans="1:30" ht="28.5" x14ac:dyDescent="0.15">
@@ -10157,7 +10156,7 @@
         <v>492</v>
       </c>
       <c r="AC49" s="4" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="50" spans="1:30" ht="28.5" x14ac:dyDescent="0.15">
@@ -10225,7 +10224,7 @@
         <v>493</v>
       </c>
       <c r="AC50" s="4" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="51" spans="1:30" ht="28.5" x14ac:dyDescent="0.15">
@@ -10379,7 +10378,7 @@
         <v>495</v>
       </c>
       <c r="AC52" s="4" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
     </row>
     <row r="53" spans="1:30" ht="28.5" x14ac:dyDescent="0.15">
@@ -10456,7 +10455,7 @@
         <v>496</v>
       </c>
       <c r="AC53" s="4" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
     </row>
     <row r="54" spans="1:30" ht="171" x14ac:dyDescent="0.15">
@@ -10464,7 +10463,7 @@
         <v>271</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>121</v>
@@ -10524,7 +10523,7 @@
         <v>186</v>
       </c>
       <c r="X54" s="2" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="Y54" s="1" t="s">
         <v>313</v>
@@ -10539,10 +10538,10 @@
         <v>439</v>
       </c>
       <c r="AC54" s="4" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="AD54" s="5" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="55" spans="1:30" ht="28.5" x14ac:dyDescent="0.15">
@@ -10550,7 +10549,7 @@
         <v>269</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>452</v>
@@ -10610,7 +10609,7 @@
         <v>186</v>
       </c>
       <c r="X55" s="2" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="Y55" s="1" t="s">
         <v>454</v>
@@ -10625,7 +10624,7 @@
         <v>455</v>
       </c>
       <c r="AC55" s="4" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="AD55" s="4" t="s">
         <v>467</v>
@@ -10702,7 +10701,7 @@
         <v>391</v>
       </c>
       <c r="AC56" s="4" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
     </row>
     <row r="57" spans="1:30" x14ac:dyDescent="0.15">
@@ -10776,7 +10775,7 @@
         <v>392</v>
       </c>
       <c r="AC57" s="4" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
     </row>
     <row r="58" spans="1:30" x14ac:dyDescent="0.15">
@@ -10924,7 +10923,7 @@
         <v>394</v>
       </c>
       <c r="AC59" s="4" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
     </row>
     <row r="60" spans="1:30" x14ac:dyDescent="0.15">
@@ -10998,7 +10997,7 @@
         <v>395</v>
       </c>
       <c r="AC60" s="4" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="61" spans="1:30" x14ac:dyDescent="0.15">
@@ -11146,7 +11145,7 @@
         <v>397</v>
       </c>
       <c r="AC62" s="4" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="63" spans="1:30" ht="28.5" x14ac:dyDescent="0.15">
@@ -11220,7 +11219,7 @@
         <v>398</v>
       </c>
       <c r="AC63" s="4" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="64" spans="1:30" x14ac:dyDescent="0.15">
@@ -11297,7 +11296,7 @@
         <v>450</v>
       </c>
       <c r="AC64" s="4" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
   </sheetData>
@@ -11322,14 +11321,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_Version xmlns="http://schemas.microsoft.com/sharepoint/v3/fields" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x01010027AF63008C5B9348B1D80B486CE64D2D" ma:contentTypeVersion="4" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="104485263990d5adc83ab87317f77176">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="http://schemas.microsoft.com/sharepoint/v3/fields" xmlns:ns3="86e9103f-040a-4a6c-9c98-6d10a12a6690" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0fee4f24d869e615bfcfb8b7a3dd1ece" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3/fields"/>
@@ -11488,6 +11479,14 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_Version xmlns="http://schemas.microsoft.com/sharepoint/v3/fields" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0FB82232-58B1-4A1D-8A4E-B5C95C1862BE}">
   <ds:schemaRefs>
@@ -11497,23 +11496,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{153E850E-4F75-454A-AFBA-A711FED549FB}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="86e9103f-040a-4a6c-9c98-6d10a12a6690"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/fields"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9ED71AD8-9688-4B20-AAB5-757D07879363}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -11530,4 +11512,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{153E850E-4F75-454A-AFBA-A711FED549FB}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="86e9103f-040a-4a6c-9c98-6d10a12a6690"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/fields"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>